--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -35,7 +35,7 @@
     <t>Excitation_freq [Hz]</t>
   </si>
   <si>
-    <t>Excitation_amplitude [m s^-2</t>
+    <t>Excitation_amplitude [m s^-2]</t>
   </si>
   <si>
     <t>Excitation_amplitude_uncert [m s^-2</t>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -38,7 +38,7 @@
     <t>Excitation_amplitude [m s^-2]</t>
   </si>
   <si>
-    <t>Excitation_amplitude_uncert [m s^-2</t>
+    <t>Excitation_amplitude_uncert [m s^-2]</t>
   </si>
   <si>
     <t>Phase reverted [°]</t>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -481,16 +481,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.016497457394055</v>
+        <v>1.01638514768088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001016546317924336</v>
+        <v>0.003711884756216255</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09491511276988529</v>
+        <v>-0.09491274360752522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001747652833226953</v>
+        <v>0.02198807832947833</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -507,16 +507,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.016513294275727</v>
+        <v>1.016488208330893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001016521388045658</v>
+        <v>0.002585641893418523</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09492744800340391</v>
+        <v>-0.0949324818521271</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001747461633941758</v>
+        <v>0.02151388640344262</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -533,16 +533,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.016239105177954</v>
+        <v>1.016145503084303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001016344917726035</v>
+        <v>0.004643536762303889</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09493044170919962</v>
+        <v>-0.09491544902058835</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001747959224238194</v>
+        <v>0.02264162607413026</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -559,16 +559,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.016574758630348</v>
+        <v>1.016437602684947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001016616057102923</v>
+        <v>0.003429891011434008</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0949657021211574</v>
+        <v>-0.09495242943792248</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001747830766480889</v>
+        <v>0.02241606301790203</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -585,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.016307538428946</v>
+        <v>1.016253016569125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001016329322377793</v>
+        <v>0.003156910721065089</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09491265893965917</v>
+        <v>-0.09492451212744757</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001747947669359247</v>
+        <v>0.02264241446322962</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -611,16 +611,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.016391667631521</v>
+        <v>1.016314477074825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001016398325020905</v>
+        <v>0.002253947662356673</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09497618582534706</v>
+        <v>-0.09499844436394134</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001747699572952075</v>
+        <v>0.02213587594345529</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -637,16 +637,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.016267848351232</v>
+        <v>1.016207539756279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001016361072397754</v>
+        <v>0.004531459390946134</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09490191151834182</v>
+        <v>-0.09490720713416123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001747975846630319</v>
+        <v>0.02271408101141177</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -663,16 +663,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.016260167102955</v>
+        <v>1.016153206936212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001016833677118607</v>
+        <v>0.00707292019168445</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09505758244852025</v>
+        <v>-0.09505880135712808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001747672620902101</v>
+        <v>0.02207538812964361</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -689,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.016430628200644</v>
+        <v>1.016352467813792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001016449054930299</v>
+        <v>0.002821735764250417</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0950009738486246</v>
+        <v>-0.09500445792537127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001747906711822574</v>
+        <v>0.02258585368318776</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -715,16 +715,16 @@
         <v>12.5</v>
       </c>
       <c r="B11" t="n">
-        <v>1.016161127894966</v>
+        <v>1.016039726500778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001016200814345982</v>
+        <v>0.00328595251820209</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.118793101538226</v>
+        <v>-0.118755208388883</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001746461517270643</v>
+        <v>0.01820734582261746</v>
       </c>
       <c r="F11" t="n">
         <v>12.5</v>
@@ -741,16 +741,16 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.015985958123641</v>
+        <v>1.015923718913078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001015999630364615</v>
+        <v>0.002802230591435549</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1187492855636734</v>
+        <v>-0.1187441528976625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001746418542979604</v>
+        <v>0.01787240661477236</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
@@ -767,16 +767,16 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.016112306782433</v>
+        <v>1.016054889172679</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00101612089072768</v>
+        <v>0.002570625926799563</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1186152591125316</v>
+        <v>-0.1186166153911385</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001746370070797439</v>
+        <v>0.0176631871848842</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
@@ -793,16 +793,16 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.016028681494953</v>
+        <v>1.015947794966095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001016035500647171</v>
+        <v>0.002350317249587497</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1185414909663622</v>
+        <v>-0.1185860080372783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00174643871190764</v>
+        <v>0.01801680207211074</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
@@ -819,16 +819,16 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.015882063333384</v>
+        <v>1.015804870457872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001015888421765354</v>
+        <v>0.002383870495352646</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1188661466248493</v>
+        <v>-0.1188744547000109</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001746400720719723</v>
+        <v>0.01790890607741854</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
@@ -845,16 +845,16 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.01598822446285</v>
+        <v>1.01585944468287</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00101600914012692</v>
+        <v>0.002894666322553297</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1186252967118975</v>
+        <v>-0.1186047329239566</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001746358594869112</v>
+        <v>0.01773694573473413</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
@@ -871,16 +871,16 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.015923396046654</v>
+        <v>1.015845834985022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001015931479372301</v>
+        <v>0.00245110583178475</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1186901771824864</v>
+        <v>-0.1186740919703169</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001746409563425526</v>
+        <v>0.01778143376822213</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
@@ -897,16 +897,16 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.01604628161088</v>
+        <v>1.015991683259904</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001016054842487629</v>
+        <v>0.002582048633072647</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.118753609423675</v>
+        <v>-0.1187707272520968</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001746435705707765</v>
+        <v>0.01804868477164346</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
@@ -923,16 +923,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016177191231158</v>
+        <v>1.016074673827146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001016185126579107</v>
+        <v>0.002341797479011423</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1186290639990357</v>
+        <v>-0.1186206099236873</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001746300781971522</v>
+        <v>0.01747605540183241</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -949,16 +949,16 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.014518051302139</v>
+        <v>1.015302893027231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001372350192875949</v>
+        <v>0.002538425312341473</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1519674023428106</v>
+        <v>-0.1519370221750491</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001748287934544082</v>
+        <v>0.02296282828021545</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
@@ -975,16 +975,16 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>1.014941641917091</v>
+        <v>1.0153879780787</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001089790710437809</v>
+        <v>0.002698441934644306</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1520024357381899</v>
+        <v>-0.1519714866161477</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001749056405810833</v>
+        <v>0.02437106898473681</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
@@ -1001,16 +1001,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.014957170550462</v>
+        <v>1.015423963737577</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001083484822097112</v>
+        <v>0.001563813555331117</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1520215945008321</v>
+        <v>-0.152005104227855</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001748649179206902</v>
+        <v>0.02366277074564493</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -1027,16 +1027,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.014790800313821</v>
+        <v>1.015482611373922</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001223262230422967</v>
+        <v>0.002577644110647759</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1521153347185713</v>
+        <v>-0.1521293683683711</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001748647584256214</v>
+        <v>0.02372831544323271</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
@@ -1053,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.014701750894013</v>
+        <v>1.015282018106542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001142192688312316</v>
+        <v>0.001885508951768424</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1519633876199937</v>
+        <v>-0.1519344101758771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001748347093654504</v>
+        <v>0.02311092095585535</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -1079,16 +1079,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.014804656538612</v>
+        <v>1.015286591307104</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001093208959126326</v>
+        <v>0.00223956812398922</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1520364823267166</v>
+        <v>-0.1520289935833814</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001748385905051071</v>
+        <v>0.02310476570907403</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
@@ -1105,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.014731467733515</v>
+        <v>1.015232410181011</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001108226063664078</v>
+        <v>0.002660228033026593</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1519918501858015</v>
+        <v>-0.1519881286168721</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001748905840139069</v>
+        <v>0.02406381665638004</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1131,16 +1131,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.014662477062048</v>
+        <v>1.015342313862287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001238124010744662</v>
+        <v>0.002743192178773673</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1520287841576931</v>
+        <v>-0.1520294086538947</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001748392683427205</v>
+        <v>0.02321177607119645</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -1157,16 +1157,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.014796976896805</v>
+        <v>1.015334405625699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001115918559225733</v>
+        <v>0.002405539713390132</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1520754656084211</v>
+        <v>-0.1520705541895264</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001748471982832769</v>
+        <v>0.02344121263499648</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
@@ -1183,16 +1183,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>1.01356646523378</v>
+        <v>1.014171209029995</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001261304944674746</v>
+        <v>0.002662253860059705</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1899718614216566</v>
+        <v>-0.189971241753474</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001753109230705047</v>
+        <v>0.02925702283818337</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
@@ -1209,16 +1209,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>1.013710187703241</v>
+        <v>1.01431230210048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001289156825287844</v>
+        <v>0.00171816024842055</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1900040862049375</v>
+        <v>-0.1899769180571484</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001752773511917727</v>
+        <v>0.0289312323916842</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1235,16 +1235,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>1.013703738095537</v>
+        <v>1.014311362973607</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001281377574102069</v>
+        <v>0.00204827803246876</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1899801227724933</v>
+        <v>-0.1899737813179811</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001753301107949803</v>
+        <v>0.02947381164085018</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
@@ -1261,16 +1261,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.013669679219143</v>
+        <v>1.014320680382152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001343971155883948</v>
+        <v>0.002049333437869113</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1900121867847151</v>
+        <v>-0.1899805815150548</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001753245044664803</v>
+        <v>0.0294843582694611</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.013579159530335</v>
+        <v>1.014266459513944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001299620938241201</v>
+        <v>0.002051205660567484</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1900007251129212</v>
+        <v>-0.190014680141718</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001753411951916212</v>
+        <v>0.0295051435478065</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -1313,16 +1313,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.013883237466548</v>
+        <v>1.014301884662728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001105287244536652</v>
+        <v>0.001949274542721694</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899741786593281</v>
+        <v>-0.1899695003803974</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001753510711919359</v>
+        <v>0.02967599377584116</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
@@ -1339,16 +1339,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.01358952058029</v>
+        <v>1.014254268289302</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001324821299431185</v>
+        <v>0.002202028723031608</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1900276525455089</v>
+        <v>-0.1900152941844038</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001752895010866858</v>
+        <v>0.02903441900374978</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
@@ -1365,16 +1365,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.013559334477169</v>
+        <v>1.014226428872524</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001305015113320832</v>
+        <v>0.001897168849495408</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1899523004177666</v>
+        <v>-0.1899288801829617</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001752988136931074</v>
+        <v>0.02919719107411882</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
@@ -1391,16 +1391,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.013732583834327</v>
+        <v>1.014329358136625</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001218076300490068</v>
+        <v>0.002104135564413362</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1899856053952425</v>
+        <v>-0.1900115983222612</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001753424061641767</v>
+        <v>0.02952017561798939</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
@@ -1417,16 +1417,16 @@
         <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>1.01095116138757</v>
+        <v>1.012837127414155</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004780419015931567</v>
+        <v>0.001578855140772048</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2375952203133211</v>
+        <v>-0.2375776268843728</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001750896417791821</v>
+        <v>0.026497305501099</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
@@ -1443,16 +1443,16 @@
         <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>1.010785389147226</v>
+        <v>1.012700859568802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004880880764042647</v>
+        <v>0.001668270186322513</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2375118201022128</v>
+        <v>-0.237493705191449</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001751215206832634</v>
+        <v>0.02693143563286531</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
@@ -1469,16 +1469,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>1.010933895903968</v>
+        <v>1.012894535276204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004770722246528869</v>
+        <v>0.003215025888625154</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2376091564201763</v>
+        <v>-0.2376703086788803</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001751731457615343</v>
+        <v>0.02737603677396717</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
@@ -1495,16 +1495,16 @@
         <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>1.010843682175913</v>
+        <v>1.012821150438673</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004800104233183515</v>
+        <v>0.002178030558297567</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2375290960782559</v>
+        <v>-0.2375709124997145</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001751902008830306</v>
+        <v>0.02763829542063597</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
@@ -1521,16 +1521,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.010914629403098</v>
+        <v>1.012774801663638</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004750481356391318</v>
+        <v>0.00245415106309392</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2374731304601907</v>
+        <v>-0.2375088122940803</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001750643571406674</v>
+        <v>0.02600279443418478</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
@@ -1547,16 +1547,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.010896326608621</v>
+        <v>1.012756325781004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.004666861587734804</v>
+        <v>0.001985719130319595</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2375060663857793</v>
+        <v>-0.2374897096982078</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001750501261539371</v>
+        <v>0.02589123236039342</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -1573,16 +1573,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.010628589523782</v>
+        <v>1.012698705865833</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005128408289099441</v>
+        <v>0.001614150899862786</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2374690124441772</v>
+        <v>-0.2374714018630524</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001751361825113559</v>
+        <v>0.02706757448749505</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
@@ -1599,16 +1599,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.010786251290066</v>
+        <v>1.012685169795308</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004849758151438032</v>
+        <v>0.001950269404165584</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2374593765932804</v>
+        <v>-0.2374170860742228</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001750696469019817</v>
+        <v>0.02623656742759538</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
@@ -1625,16 +1625,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.010900097825392</v>
+        <v>1.012663449807397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004568839739106603</v>
+        <v>0.002458578643820421</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2374904755071641</v>
+        <v>-0.2374420956450813</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001750764764687279</v>
+        <v>0.02637996130677683</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
@@ -1651,16 +1651,16 @@
         <v>31.5</v>
       </c>
       <c r="B47" t="n">
-        <v>1.008198030535822</v>
+        <v>1.010273578548875</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005397085388816483</v>
+        <v>0.002131237307668968</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.299337451931355</v>
+        <v>-0.2992680018864624</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001757899426243965</v>
+        <v>0.03233462212194643</v>
       </c>
       <c r="F47" t="n">
         <v>31.5</v>
@@ -1677,16 +1677,16 @@
         <v>31.5</v>
       </c>
       <c r="B48" t="n">
-        <v>1.008159973405845</v>
+        <v>1.010177865535322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005008969777287589</v>
+        <v>0.001464292081995721</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2992898437934639</v>
+        <v>-0.299266586748296</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001760282383603554</v>
+        <v>0.03396833620895928</v>
       </c>
       <c r="F48" t="n">
         <v>31.5</v>
@@ -1703,16 +1703,16 @@
         <v>31.5</v>
       </c>
       <c r="B49" t="n">
-        <v>1.008084174099354</v>
+        <v>1.010222240589606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005259126346343238</v>
+        <v>0.001514309245440176</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2992158979140638</v>
+        <v>-0.2992118050267822</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001759875964389141</v>
+        <v>0.03365709592575052</v>
       </c>
       <c r="F49" t="n">
         <v>31.5</v>
@@ -1729,16 +1729,16 @@
         <v>31.5</v>
       </c>
       <c r="B50" t="n">
-        <v>1.008149571962923</v>
+        <v>1.010198342071692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00515720404942462</v>
+        <v>0.001527782228362219</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.299280474947198</v>
+        <v>-0.2992344576484474</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001759831414072001</v>
+        <v>0.03375255537777028</v>
       </c>
       <c r="F50" t="n">
         <v>31.5</v>
@@ -1755,16 +1755,16 @@
         <v>31.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1.007969525766969</v>
+        <v>1.010146301424405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005439260056709543</v>
+        <v>0.001512433377935116</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2992553413776369</v>
+        <v>-0.2992378595369365</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001760131936974822</v>
+        <v>0.03383168762561344</v>
       </c>
       <c r="F51" t="n">
         <v>31.5</v>
@@ -1781,16 +1781,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.008240780519985</v>
+        <v>1.010288407684945</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005028562250249642</v>
+        <v>0.001951564609442384</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2993141720789794</v>
+        <v>-0.2993486182415808</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001760897171019264</v>
+        <v>0.03426055447383321</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -1807,16 +1807,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.008030551636536</v>
+        <v>1.010222492594819</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005506412503823453</v>
+        <v>0.001404485403449997</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2992091017752978</v>
+        <v>-0.2992005181410653</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001760007005541663</v>
+        <v>0.03379744711134432</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -1833,16 +1833,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.008091937387548</v>
+        <v>1.010239566270887</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005212555010273567</v>
+        <v>0.001470961602983216</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.299217574533956</v>
+        <v>-0.2992468509901083</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001760002660752437</v>
+        <v>0.03369820840447599</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -1859,16 +1859,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.008067356045549</v>
+        <v>1.010106223564815</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005087615323524574</v>
+        <v>0.001822771173320155</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2991721398851954</v>
+        <v>-0.2992006403042344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001761206481329808</v>
+        <v>0.0344301434511199</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -1885,16 +1885,16 @@
         <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>1.003074521993888</v>
+        <v>1.006124556800714</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01735231919298091</v>
+        <v>0.001342915393307466</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3800110606701121</v>
+        <v>-0.3799257519756249</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001801458622524244</v>
+        <v>0.04313692249731006</v>
       </c>
       <c r="F56" t="n">
         <v>40</v>
@@ -1911,16 +1911,16 @@
         <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>1.002904704016403</v>
+        <v>1.006056657059509</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01837811923450863</v>
+        <v>0.001241050140502866</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3799517799239656</v>
+        <v>-0.3799643584165806</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001803321466790971</v>
+        <v>0.04344476299043309</v>
       </c>
       <c r="F57" t="n">
         <v>40</v>
@@ -1937,16 +1937,16 @@
         <v>40</v>
       </c>
       <c r="B58" t="n">
-        <v>1.003324654255549</v>
+        <v>1.00611784983105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0145090693636167</v>
+        <v>0.001423775519815758</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3799420482832945</v>
+        <v>-0.3799781200214305</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001789154030509608</v>
+        <v>0.04392045008472668</v>
       </c>
       <c r="F58" t="n">
         <v>40</v>
@@ -1963,16 +1963,16 @@
         <v>40</v>
       </c>
       <c r="B59" t="n">
-        <v>1.003170708923035</v>
+        <v>1.006051009251255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01518128644199842</v>
+        <v>0.001270083877033564</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3799704943266144</v>
+        <v>-0.3799546151133977</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001790390265235046</v>
+        <v>0.04403471120818674</v>
       </c>
       <c r="F59" t="n">
         <v>40</v>
@@ -1989,16 +1989,16 @@
         <v>40</v>
       </c>
       <c r="B60" t="n">
-        <v>1.002599293966729</v>
+        <v>1.00612412882897</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02456043899783223</v>
+        <v>0.001514332743423973</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3800188334797419</v>
+        <v>-0.3800516738755437</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001881546048764806</v>
+        <v>0.04284934826734735</v>
       </c>
       <c r="F60" t="n">
         <v>40</v>
@@ -2015,16 +2015,16 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>1.003046610710366</v>
+        <v>1.006082394952695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01689724257810681</v>
+        <v>0.001301068437693556</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3798741710693014</v>
+        <v>-0.3800040587650315</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001797827506981828</v>
+        <v>0.04336935929031452</v>
       </c>
       <c r="F61" t="n">
         <v>40</v>
@@ -2041,16 +2041,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.002730838815497</v>
+        <v>1.006057677015976</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02170144026471814</v>
+        <v>0.001336822795173632</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3798485198250035</v>
+        <v>-0.379943423006381</v>
       </c>
       <c r="E62" t="n">
-        <v>0.001834394035517035</v>
+        <v>0.04399599665903824</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
@@ -2067,16 +2067,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.002739328289353</v>
+        <v>1.006083396874479</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02224850565235969</v>
+        <v>0.001292238767940276</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3799682786595531</v>
+        <v>-0.3800310172268366</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0018474964541741</v>
+        <v>0.04420372257544087</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
@@ -2093,16 +2093,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.003522988703118</v>
+        <v>1.006245669343376</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01340149303152867</v>
+        <v>0.002020827506427933</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3803172709048237</v>
+        <v>-0.3803461216024107</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001791178501992649</v>
+        <v>0.0451035476203637</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -2119,16 +2119,16 @@
         <v>46.7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9983257506203528</v>
+        <v>1.002259414839683</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07397044442442571</v>
+        <v>0.001875458373005746</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.443214488579514</v>
+        <v>-0.4436981799798221</v>
       </c>
       <c r="E65" t="n">
-        <v>0.004334847277518393</v>
+        <v>0.05431420759330401</v>
       </c>
       <c r="F65" t="n">
         <v>46.7</v>
@@ -2145,16 +2145,16 @@
         <v>46.7</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9985094020194488</v>
+        <v>1.002274921790924</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07272470779819938</v>
+        <v>0.002206356630546909</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.443477863992118</v>
+        <v>-0.443757902623247</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004199815928328226</v>
+        <v>0.05073249249216184</v>
       </c>
       <c r="F66" t="n">
         <v>46.7</v>
@@ -2171,16 +2171,16 @@
         <v>46.7</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9985169578495121</v>
+        <v>1.002229006930093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07155398837245065</v>
+        <v>0.002007799324199118</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.4436118759215328</v>
+        <v>-0.4437965043620857</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004192882901523794</v>
+        <v>0.0515831372284261</v>
       </c>
       <c r="F67" t="n">
         <v>46.7</v>
@@ -2197,16 +2197,16 @@
         <v>46.7</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9985254034339259</v>
+        <v>1.002322915513999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07414560900870597</v>
+        <v>0.001418010735913533</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.443726758956557</v>
+        <v>-0.4439458381087196</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003822392699903453</v>
+        <v>0.04956200666719368</v>
       </c>
       <c r="F68" t="n">
         <v>46.7</v>
@@ -2223,16 +2223,16 @@
         <v>46.7</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9984912735710472</v>
+        <v>1.002270052586507</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07184100054563521</v>
+        <v>0.00136055666253099</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4435669553467849</v>
+        <v>-0.4438546711761839</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004302713657282528</v>
+        <v>0.05219308006835055</v>
       </c>
       <c r="F69" t="n">
         <v>46.7</v>
@@ -2249,16 +2249,16 @@
         <v>46.7</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9983641579740024</v>
+        <v>1.002326746421274</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07585678364268809</v>
+        <v>0.001300720786092885</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4437854928489564</v>
+        <v>-0.4440006180044316</v>
       </c>
       <c r="E70" t="n">
-        <v>0.004288703140448007</v>
+        <v>0.05227998738699895</v>
       </c>
       <c r="F70" t="n">
         <v>46.7</v>
@@ -2275,16 +2275,16 @@
         <v>46.7</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9983094635434822</v>
+        <v>1.002292434855539</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08055185702526141</v>
+        <v>0.002859205066013125</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.4438962731341345</v>
+        <v>-0.4439704607389654</v>
       </c>
       <c r="E71" t="n">
-        <v>0.00428704794436133</v>
+        <v>0.05246222430111157</v>
       </c>
       <c r="F71" t="n">
         <v>46.7</v>
@@ -2301,16 +2301,16 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9984347446333204</v>
+        <v>1.002275478404835</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07393421331456414</v>
+        <v>0.003951092358045093</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4433999423438029</v>
+        <v>-0.443781652421348</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004269442862830105</v>
+        <v>0.05347735105702025</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
@@ -2327,16 +2327,16 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>0.998166989301566</v>
+        <v>1.002353315699864</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0844350575595469</v>
+        <v>0.001406054567161334</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4436950940974298</v>
+        <v>-0.4439751273716892</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004388220409516324</v>
+        <v>0.0509778086732252</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
@@ -2353,16 +2353,16 @@
         <v>50</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9956422365538451</v>
+        <v>1.000120079588227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08184630483749857</v>
+        <v>0.00125194946477452</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4749177478975342</v>
+        <v>-0.4753100583477687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00432504269729857</v>
+        <v>0.04710287145461913</v>
       </c>
       <c r="F74" t="n">
         <v>50</v>
@@ -2379,16 +2379,16 @@
         <v>50</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9952440558749962</v>
+        <v>1.000083677051201</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09492687346690802</v>
+        <v>0.001134417501496831</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4751833026058963</v>
+        <v>-0.4752778844536998</v>
       </c>
       <c r="E75" t="n">
-        <v>0.004435482158773149</v>
+        <v>0.04625736652587002</v>
       </c>
       <c r="F75" t="n">
         <v>50</v>
@@ -2405,16 +2405,16 @@
         <v>50</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9957050878962692</v>
+        <v>1.000077646048927</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08082215989291432</v>
+        <v>0.001202479988172938</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4751389699850379</v>
+        <v>-0.4751647119867686</v>
       </c>
       <c r="E76" t="n">
-        <v>0.004259918589505637</v>
+        <v>0.04530719289455544</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
@@ -2431,16 +2431,16 @@
         <v>50</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9959445169118425</v>
+        <v>1.000115140036217</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07478896334059093</v>
+        <v>0.001229446382828025</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4748268707531853</v>
+        <v>-0.4750758501501515</v>
       </c>
       <c r="E77" t="n">
-        <v>0.004281180523401444</v>
+        <v>0.04623127523618085</v>
       </c>
       <c r="F77" t="n">
         <v>50</v>
@@ -2457,16 +2457,16 @@
         <v>50</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9952500928844145</v>
+        <v>1.000073776908371</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09264640858629762</v>
+        <v>0.001118220625692375</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4750461953947394</v>
+        <v>-0.4752512378071203</v>
       </c>
       <c r="E78" t="n">
-        <v>0.00437179514144325</v>
+        <v>0.04671256225019083</v>
       </c>
       <c r="F78" t="n">
         <v>50</v>
@@ -2483,16 +2483,16 @@
         <v>50</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9951509922756496</v>
+        <v>0.9998586180788981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07887760873117516</v>
+        <v>0.005104580358099737</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4750960468321521</v>
+        <v>-0.4752503124395586</v>
       </c>
       <c r="E79" t="n">
-        <v>0.004218734661412141</v>
+        <v>0.04870269689680491</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
@@ -2509,16 +2509,16 @@
         <v>50</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9954678454381064</v>
+        <v>1.00009903080144</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08988839997777234</v>
+        <v>0.001400029683111015</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4752869975319856</v>
+        <v>-0.4753537664785057</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004404204764238482</v>
+        <v>0.04477248983509553</v>
       </c>
       <c r="F80" t="n">
         <v>50</v>
@@ -2535,16 +2535,16 @@
         <v>50</v>
       </c>
       <c r="B81" t="n">
-        <v>0.995227409259497</v>
+        <v>1.000161965124355</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09728700282316634</v>
+        <v>0.001334628993074335</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4747645831745606</v>
+        <v>-0.4751864343663015</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004620678222271411</v>
+        <v>0.04788458033490483</v>
       </c>
       <c r="F81" t="n">
         <v>50</v>
@@ -2561,16 +2561,16 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9957225180613239</v>
+        <v>1.000101407372232</v>
       </c>
       <c r="C82" t="n">
-        <v>0.08003818229920089</v>
+        <v>0.00118761349024863</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4750730505919045</v>
+        <v>-0.4753670650337769</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004318441170655383</v>
+        <v>0.04709563182221436</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
@@ -2587,16 +2587,16 @@
         <v>53.3</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9935147753129572</v>
+        <v>0.997798840835836</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07645682389559384</v>
+        <v>0.001083798426299382</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5063716005520913</v>
+        <v>-0.5066267277258882</v>
       </c>
       <c r="E83" t="n">
-        <v>0.004091955163280704</v>
+        <v>0.04983649840721732</v>
       </c>
       <c r="F83" t="n">
         <v>53.3</v>
@@ -2613,16 +2613,16 @@
         <v>53.3</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9931803600839907</v>
+        <v>0.9977606611807561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08615073758384141</v>
+        <v>0.001067373833778054</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5062438836313596</v>
+        <v>-0.5064912572706324</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00435706844525991</v>
+        <v>0.04910978065635066</v>
       </c>
       <c r="F84" t="n">
         <v>53.3</v>
@@ -2639,16 +2639,16 @@
         <v>53.3</v>
       </c>
       <c r="B85" t="n">
-        <v>0.99324429194734</v>
+        <v>0.9977647644161874</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08373451840687629</v>
+        <v>0.001112700066846933</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5063998360938835</v>
+        <v>-0.5067730626874871</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004214704025580549</v>
+        <v>0.05132945216216559</v>
       </c>
       <c r="F85" t="n">
         <v>53.3</v>
@@ -2665,16 +2665,16 @@
         <v>53.3</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9931722479992254</v>
+        <v>0.9978171765841489</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08704002266872862</v>
+        <v>0.00118036920769991</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5064508123965172</v>
+        <v>-0.5067538523807844</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004278753671969528</v>
+        <v>0.0516031535725902</v>
       </c>
       <c r="F86" t="n">
         <v>53.3</v>
@@ -2691,16 +2691,16 @@
         <v>53.3</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9936662770255791</v>
+        <v>0.9977849833231933</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07132299345654496</v>
+        <v>0.001263003389478122</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5063016072690547</v>
+        <v>-0.5066774908148091</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003995978020129541</v>
+        <v>0.04686164937514554</v>
       </c>
       <c r="F87" t="n">
         <v>53.3</v>
@@ -2717,16 +2717,16 @@
         <v>53.3</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9934479923741358</v>
+        <v>0.9977746956981622</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07870760716410652</v>
+        <v>0.001228615601818181</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.506458619425417</v>
+        <v>-0.5067556456023392</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004152073032537835</v>
+        <v>0.04957682463768209</v>
       </c>
       <c r="F88" t="n">
         <v>53.3</v>
@@ -2743,16 +2743,16 @@
         <v>53.3</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9934341188939415</v>
+        <v>0.997783028183009</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0777150483533644</v>
+        <v>0.001058961052699117</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5063135114050787</v>
+        <v>-0.506531303382153</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004017614821013587</v>
+        <v>0.04877889425943195</v>
       </c>
       <c r="F89" t="n">
         <v>53.3</v>
@@ -2769,16 +2769,16 @@
         <v>53.3</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9936033818601251</v>
+        <v>0.9978022434938342</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07372442440932855</v>
+        <v>0.001144100791823931</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5067532352834672</v>
+        <v>-0.5067628875159915</v>
       </c>
       <c r="E90" t="n">
-        <v>0.003944722764071132</v>
+        <v>0.04719824491367382</v>
       </c>
       <c r="F90" t="n">
         <v>53.3</v>
@@ -2795,16 +2795,16 @@
         <v>53.3</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9933063602525017</v>
+        <v>0.997811545868352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08585724077249239</v>
+        <v>0.001119387425501193</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5065804513123418</v>
+        <v>-0.5067425339104936</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004425727244384678</v>
+        <v>0.05010442828507576</v>
       </c>
       <c r="F91" t="n">
         <v>53.3</v>
@@ -2821,16 +2821,16 @@
         <v>63</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9862533381991542</v>
+        <v>0.9905328341463866</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1409613733320069</v>
+        <v>0.003856767477162491</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5974676116162256</v>
+        <v>-0.5987849362576654</v>
       </c>
       <c r="E92" t="n">
-        <v>0.005684672300417394</v>
+        <v>0.06085949743006427</v>
       </c>
       <c r="F92" t="n">
         <v>63</v>
@@ -2847,16 +2847,16 @@
         <v>63</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9872314332610478</v>
+        <v>0.9908788301843142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1250060930501618</v>
+        <v>0.003500651783383291</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5966560412634667</v>
+        <v>-0.5983067429909177</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004718167672553819</v>
+        <v>0.06012226405727895</v>
       </c>
       <c r="F93" t="n">
         <v>63</v>
@@ -2873,16 +2873,16 @@
         <v>63</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9865069500548012</v>
+        <v>0.990643886560289</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1385199857686766</v>
+        <v>0.003185676920961594</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5972475619325821</v>
+        <v>-0.5987883584132971</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00463001356890339</v>
+        <v>0.06574389511035855</v>
       </c>
       <c r="F94" t="n">
         <v>63</v>
@@ -2899,16 +2899,16 @@
         <v>63</v>
       </c>
       <c r="B95" t="n">
-        <v>0.986650510997589</v>
+        <v>0.9907509276229683</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1436038937375372</v>
+        <v>0.003228277754229882</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5968029992076751</v>
+        <v>-0.5985146347380921</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00584514759176507</v>
+        <v>0.06373074776444711</v>
       </c>
       <c r="F95" t="n">
         <v>63</v>
@@ -2925,16 +2925,16 @@
         <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9867073874961664</v>
+        <v>0.9905817942416588</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1307312408652374</v>
+        <v>0.003355079349758214</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5971936108969649</v>
+        <v>-0.5987641994613853</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005213382800664874</v>
+        <v>0.0634978016516547</v>
       </c>
       <c r="F96" t="n">
         <v>63</v>
@@ -2951,16 +2951,16 @@
         <v>63</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9868902670153762</v>
+        <v>0.9904899575585179</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1352783074265717</v>
+        <v>0.008801847576301869</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5974946084639345</v>
+        <v>-0.5987570042649084</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005738628218150843</v>
+        <v>0.067855630791597</v>
       </c>
       <c r="F97" t="n">
         <v>63</v>
@@ -2977,16 +2977,16 @@
         <v>63</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9855271188567761</v>
+        <v>0.9903680866813054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.158111244096561</v>
+        <v>0.008918342142490111</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.596734210295057</v>
+        <v>-0.5985659117956117</v>
       </c>
       <c r="E98" t="n">
-        <v>0.005188384193634882</v>
+        <v>0.06164349540333661</v>
       </c>
       <c r="F98" t="n">
         <v>63</v>
@@ -3003,16 +3003,16 @@
         <v>63</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9856366742465729</v>
+        <v>0.9896730668393184</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1433630730565555</v>
+        <v>0.01167816730916828</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5972140142068216</v>
+        <v>-0.5989993164774932</v>
       </c>
       <c r="E99" t="n">
-        <v>0.005586115708200107</v>
+        <v>0.06885846972088694</v>
       </c>
       <c r="F99" t="n">
         <v>63</v>
@@ -3029,16 +3029,16 @@
         <v>63</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9871497606995407</v>
+        <v>0.9907134719935983</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1254730106507619</v>
+        <v>0.005472564316110839</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5972029916186044</v>
+        <v>-0.5990561896848199</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004310313259637838</v>
+        <v>0.06471925635500067</v>
       </c>
       <c r="F100" t="n">
         <v>63</v>
@@ -3055,16 +3055,16 @@
         <v>80</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9701116486507056</v>
+        <v>0.9740951989327673</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1159910782756069</v>
+        <v>0.005743076229550414</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.7601751393408689</v>
+        <v>-0.7601753496124921</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004367264325886951</v>
+        <v>0.07280189194346634</v>
       </c>
       <c r="F101" t="n">
         <v>80</v>
@@ -3081,16 +3081,16 @@
         <v>80</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9563280416926265</v>
+        <v>0.9736595532630642</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02318290681467155</v>
+        <v>0.00139577816576283</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.7602122318531279</v>
+        <v>-0.7594417364613797</v>
       </c>
       <c r="E102" t="n">
-        <v>0.001745353806044836</v>
+        <v>0.003141550391312752</v>
       </c>
       <c r="F102" t="n">
         <v>80</v>
@@ -3107,16 +3107,16 @@
         <v>80</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9708122299932641</v>
+        <v>0.9741999700699171</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1013329394861242</v>
+        <v>0.001833001711620609</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.7599047268784154</v>
+        <v>-0.7604124842324613</v>
       </c>
       <c r="E103" t="n">
-        <v>0.005472752893549304</v>
+        <v>0.07296443656934097</v>
       </c>
       <c r="F103" t="n">
         <v>80</v>
@@ -3133,16 +3133,16 @@
         <v>80</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9573662176606044</v>
+        <v>0.973656290505814</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01916762046738202</v>
+        <v>0.001467584184111796</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7595757004119164</v>
+        <v>-0.7598334119766728</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001745367391774177</v>
+        <v>0.003192392852479024</v>
       </c>
       <c r="F104" t="n">
         <v>80</v>
@@ -3159,16 +3159,16 @@
         <v>80</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9711982191674756</v>
+        <v>0.9742109752370783</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08678624926169042</v>
+        <v>0.002729114508327373</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.7596574168019257</v>
+        <v>-0.760391888994739</v>
       </c>
       <c r="E105" t="n">
-        <v>0.004490416249560499</v>
+        <v>0.07554494327296021</v>
       </c>
       <c r="F105" t="n">
         <v>80</v>
@@ -3185,16 +3185,16 @@
         <v>80</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9703238471280127</v>
+        <v>0.9740748151671956</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1244629446820285</v>
+        <v>0.01647114474806117</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.760101553454585</v>
+        <v>-0.7602764251096299</v>
       </c>
       <c r="E106" t="n">
-        <v>0.004651182579636347</v>
+        <v>0.07191660884296545</v>
       </c>
       <c r="F106" t="n">
         <v>80</v>
@@ -3211,16 +3211,16 @@
         <v>80</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9430784369581272</v>
+        <v>0.9738547009243695</v>
       </c>
       <c r="C107" t="n">
-        <v>0.06755350316196726</v>
+        <v>0.001693087584004854</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.759774054013505</v>
+        <v>-0.7598012722568837</v>
       </c>
       <c r="E107" t="n">
-        <v>0.001745360268372542</v>
+        <v>0.002950995851322453</v>
       </c>
       <c r="F107" t="n">
         <v>80</v>
@@ -3237,16 +3237,16 @@
         <v>80</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9562608108830108</v>
+        <v>0.9735532531229487</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02283216788877165</v>
+        <v>0.001456837456208084</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7600517131947688</v>
+        <v>-0.7596684305692527</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00174536051350975</v>
+        <v>0.003082103064499644</v>
       </c>
       <c r="F108" t="n">
         <v>80</v>
@@ -3263,16 +3263,16 @@
         <v>80</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9581449490224049</v>
+        <v>0.9735988164670034</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01854513881350374</v>
+        <v>0.001537897636818524</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7597923355065075</v>
+        <v>-0.7597468962654652</v>
       </c>
       <c r="E109" t="n">
-        <v>0.001745372017700764</v>
+        <v>0.003548236123051634</v>
       </c>
       <c r="F109" t="n">
         <v>80</v>
@@ -3289,16 +3289,16 @@
         <v>80</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9709535128031188</v>
+        <v>0.9743225937049454</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09643985540614404</v>
+        <v>0.001587017457834239</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.7600300658921615</v>
+        <v>-0.7602770566171975</v>
       </c>
       <c r="E110" t="n">
-        <v>0.004598654655152462</v>
+        <v>0.07223819458952153</v>
       </c>
       <c r="F110" t="n">
         <v>80</v>
@@ -3315,16 +3315,16 @@
         <v>80</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9592171806264455</v>
+        <v>0.9737867615404086</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0179147952556623</v>
+        <v>0.001500860804649793</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.7594750651618871</v>
+        <v>-0.7594516043122188</v>
       </c>
       <c r="E111" t="n">
-        <v>0.001745367584088073</v>
+        <v>0.003302645662755301</v>
       </c>
       <c r="F111" t="n">
         <v>80</v>
@@ -3341,16 +3341,16 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9710627849878102</v>
+        <v>0.9742994812996799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08677051892956539</v>
+        <v>0.00188520913281514</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7602326472682139</v>
+        <v>-0.7603040533584551</v>
       </c>
       <c r="E112" t="n">
-        <v>0.004284367960812051</v>
+        <v>0.07189352242505845</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
@@ -3367,16 +3367,16 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9699296014009399</v>
+        <v>0.9735298947631214</v>
       </c>
       <c r="C113" t="n">
-        <v>0.103156060546159</v>
+        <v>0.008589998683501313</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.7602996442405585</v>
+        <v>-0.7605100867699943</v>
       </c>
       <c r="E113" t="n">
-        <v>0.004246501177074169</v>
+        <v>0.07088131515841294</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
@@ -3393,16 +3393,16 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9704884409981523</v>
+        <v>0.9741057276332549</v>
       </c>
       <c r="C114" t="n">
-        <v>0.11449985239533</v>
+        <v>0.004982765059473684</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7597166125548149</v>
+        <v>-0.7604285653944913</v>
       </c>
       <c r="E114" t="n">
-        <v>0.005182220037003488</v>
+        <v>0.07570640800607538</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
@@ -3419,16 +3419,16 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9561591166009259</v>
+        <v>0.9737172650555884</v>
       </c>
       <c r="C115" t="n">
-        <v>0.02313826422162828</v>
+        <v>0.001274586810934596</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.75975504703095</v>
+        <v>-0.7596613574820577</v>
       </c>
       <c r="E115" t="n">
-        <v>0.001745360396326803</v>
+        <v>0.003188407106893742</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
@@ -3445,16 +3445,16 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9569261609008874</v>
+        <v>0.9734302279367515</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02219939933368739</v>
+        <v>0.001302379126596473</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7594130192219914</v>
+        <v>-0.7598192155690358</v>
       </c>
       <c r="E116" t="n">
-        <v>0.001745372087535646</v>
+        <v>0.003212982355679376</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
@@ -3471,16 +3471,16 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9707404114727439</v>
+        <v>0.9743172775535437</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1022111359086491</v>
+        <v>0.001371992007114919</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7603880322048435</v>
+        <v>-0.7603849761187216</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005096874633039221</v>
+        <v>0.07125100131489159</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
@@ -3497,16 +3497,16 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9583879056629343</v>
+        <v>0.9734322840673008</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01844608356820951</v>
+        <v>0.001547822716529585</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.75986556569437</v>
+        <v>-0.759781022352219</v>
       </c>
       <c r="E118" t="n">
-        <v>0.001745359666880908</v>
+        <v>0.003507945363354434</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
@@ -3523,16 +3523,16 @@
         <v>100</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9477802421403919</v>
+        <v>0.9505289617815247</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06140714275093991</v>
+        <v>0.001475560264946419</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.9501637473224136</v>
+        <v>-0.9502117939556953</v>
       </c>
       <c r="E119" t="n">
-        <v>0.00448621010729726</v>
+        <v>0.08119354748445552</v>
       </c>
       <c r="F119" t="n">
         <v>100</v>
@@ -3549,16 +3549,16 @@
         <v>100</v>
       </c>
       <c r="B120" t="n">
-        <v>0.947761573270318</v>
+        <v>0.9504770462021258</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07761987161722776</v>
+        <v>0.008991962296805602</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.9500535414677493</v>
+        <v>-0.9502858197342041</v>
       </c>
       <c r="E120" t="n">
-        <v>0.004495941137887817</v>
+        <v>0.08412725353749399</v>
       </c>
       <c r="F120" t="n">
         <v>100</v>
@@ -3575,16 +3575,16 @@
         <v>100</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9478125164270004</v>
+        <v>0.9505948099233379</v>
       </c>
       <c r="C121" t="n">
-        <v>0.06775977395646567</v>
+        <v>0.002223039157854316</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.9499799772600248</v>
+        <v>-0.9503043833189633</v>
       </c>
       <c r="E121" t="n">
-        <v>0.004834858605187359</v>
+        <v>0.08285415308080145</v>
       </c>
       <c r="F121" t="n">
         <v>100</v>
@@ -3601,16 +3601,16 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9479484568410043</v>
+        <v>0.9505057416418247</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0580599297359646</v>
+        <v>0.002526272457334973</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9502232906797055</v>
+        <v>-0.9504722068241893</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004480957324036039</v>
+        <v>0.08341279981029091</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
@@ -3627,16 +3627,16 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9470205509155575</v>
+        <v>0.9493308344250868</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07284262244001993</v>
+        <v>0.0183339906902175</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9503592616529741</v>
+        <v>-0.9506214283722692</v>
       </c>
       <c r="E123" t="n">
-        <v>0.004285929265159921</v>
+        <v>0.08423655218502343</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
@@ -3653,16 +3653,16 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9480148907751162</v>
+        <v>0.9505560139950782</v>
       </c>
       <c r="C124" t="n">
-        <v>0.05888113709130372</v>
+        <v>0.002669769588350158</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9501282245411717</v>
+        <v>-0.9503505616379808</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004445071147399982</v>
+        <v>0.08364166010139852</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
@@ -3679,16 +3679,16 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9479759115154024</v>
+        <v>0.9505922342146408</v>
       </c>
       <c r="C125" t="n">
-        <v>0.06168526239195649</v>
+        <v>0.002201005207666669</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9499578929098753</v>
+        <v>-0.9503487881115706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.004581457570083159</v>
+        <v>0.08215928028129377</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
@@ -3705,16 +3705,16 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.94722255963772</v>
+        <v>0.9502858422806368</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08032527853381699</v>
+        <v>0.005618200613682961</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9501319039589351</v>
+        <v>-0.9504194482850123</v>
       </c>
       <c r="E126" t="n">
-        <v>0.004644156797635686</v>
+        <v>0.08427279661087494</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
@@ -3731,16 +3731,16 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9472026541562671</v>
+        <v>0.9503290140447423</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08370488431994881</v>
+        <v>0.005170075378040722</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9501847120368843</v>
+        <v>-0.9503567615143957</v>
       </c>
       <c r="E127" t="n">
-        <v>0.004802566518838131</v>
+        <v>0.08336392491688679</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
@@ -3757,16 +3757,16 @@
         <v>125</v>
       </c>
       <c r="B128" t="n">
-        <v>0.906442971465738</v>
+        <v>0.9141753274198456</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1309625988247108</v>
+        <v>0.009848450079237752</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.188372039324069</v>
+        <v>-1.188417063905921</v>
       </c>
       <c r="E128" t="n">
-        <v>0.005226621199700443</v>
+        <v>0.03787318258132519</v>
       </c>
       <c r="F128" t="n">
         <v>125</v>
@@ -3783,16 +3783,16 @@
         <v>125</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9066971257476645</v>
+        <v>0.9139752896827932</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1452710742662659</v>
+        <v>0.007271167465764599</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.188465599990943</v>
+        <v>-1.188335782599019</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00533327168274637</v>
+        <v>0.03876529825096394</v>
       </c>
       <c r="F129" t="n">
         <v>125</v>
@@ -3809,16 +3809,16 @@
         <v>125</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9093679916908856</v>
+        <v>0.9143619544160466</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08592375382442936</v>
+        <v>0.001970858772027842</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.188467376099674</v>
+        <v>-1.188531739859003</v>
       </c>
       <c r="E130" t="n">
-        <v>0.00536759739316386</v>
+        <v>0.04029604816433354</v>
       </c>
       <c r="F130" t="n">
         <v>125</v>
@@ -3835,16 +3835,16 @@
         <v>125</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9095604279046702</v>
+        <v>0.9143416110796958</v>
       </c>
       <c r="C131" t="n">
-        <v>0.07944585658937495</v>
+        <v>0.001730754845467551</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.188457340418045</v>
+        <v>-1.188434037676261</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00458845605822166</v>
+        <v>0.04034660493307242</v>
       </c>
       <c r="F131" t="n">
         <v>125</v>
@@ -3861,16 +3861,16 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9080413750801837</v>
+        <v>0.9142252936062504</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1205671733053342</v>
+        <v>0.003835293944430409</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.188305413732454</v>
+        <v>-1.188413753035149</v>
       </c>
       <c r="E132" t="n">
-        <v>0.005385743624116299</v>
+        <v>0.03962090998182487</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
@@ -3887,16 +3887,16 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9078919650556954</v>
+        <v>0.9142887035978408</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1179541949432022</v>
+        <v>0.005893029489615714</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.188342904168747</v>
+        <v>-1.188418396264915</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00498665568689656</v>
+        <v>0.0383835776009594</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
@@ -3913,16 +3913,16 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9092196111843005</v>
+        <v>0.9142924955643064</v>
       </c>
       <c r="C134" t="n">
-        <v>0.08641539203320714</v>
+        <v>0.001416713208930858</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.188154733513447</v>
+        <v>-1.188338009316921</v>
       </c>
       <c r="E134" t="n">
-        <v>0.005363241192668959</v>
+        <v>0.03815234597163913</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
@@ -3939,16 +3939,16 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9093819699127353</v>
+        <v>0.9144338915536649</v>
       </c>
       <c r="C135" t="n">
-        <v>0.08742078091582145</v>
+        <v>0.001091303346037814</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.188387054983479</v>
+        <v>-1.188466966017746</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00540070900293522</v>
+        <v>0.03951451993294801</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
@@ -3965,16 +3965,16 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9096442029524449</v>
+        <v>0.9144556760291283</v>
       </c>
       <c r="C136" t="n">
-        <v>0.08049987625265465</v>
+        <v>0.001105334291478689</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.188324697185683</v>
+        <v>-1.188408420070257</v>
       </c>
       <c r="E136" t="n">
-        <v>0.004720626954112257</v>
+        <v>0.03820142180528555</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
@@ -3991,16 +3991,16 @@
         <v>160</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8451095059404103</v>
+        <v>0.8506306792301129</v>
       </c>
       <c r="C137" t="n">
-        <v>0.08718399982924908</v>
+        <v>0.004254792134066974</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.51879661578761</v>
+        <v>-1.518758036868613</v>
       </c>
       <c r="E137" t="n">
-        <v>0.003716033514100731</v>
+        <v>0.05108805123628348</v>
       </c>
       <c r="F137" t="n">
         <v>160</v>
@@ -4017,16 +4017,16 @@
         <v>160</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8464586289762408</v>
+        <v>0.8504543309722826</v>
       </c>
       <c r="C138" t="n">
-        <v>0.05521467813361511</v>
+        <v>0.002697752624959981</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.51855032127382</v>
+        <v>-1.518742878389042</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004034999550254619</v>
+        <v>0.0502359361245631</v>
       </c>
       <c r="F138" t="n">
         <v>160</v>
@@ -4043,16 +4043,16 @@
         <v>160</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8473230748069445</v>
+        <v>0.8507029869956033</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04035811269646359</v>
+        <v>0.001654710195078449</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.51873355079242</v>
+        <v>-1.518823372530194</v>
       </c>
       <c r="E139" t="n">
-        <v>0.004557432528960933</v>
+        <v>0.05164396373101205</v>
       </c>
       <c r="F139" t="n">
         <v>160</v>
@@ -4069,16 +4069,16 @@
         <v>160</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8468967814159949</v>
+        <v>0.8505090669366577</v>
       </c>
       <c r="C140" t="n">
-        <v>0.05476321591229108</v>
+        <v>0.004949790035174069</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.51878174413989</v>
+        <v>-1.518947599333648</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004038013158827636</v>
+        <v>0.05136166688707421</v>
       </c>
       <c r="F140" t="n">
         <v>160</v>
@@ -4095,16 +4095,16 @@
         <v>160</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8471193994154197</v>
+        <v>0.8506777126419653</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04159078314321524</v>
+        <v>0.001199362576011218</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.518797900131531</v>
+        <v>-1.518810372724479</v>
       </c>
       <c r="E141" t="n">
-        <v>0.004672923812207746</v>
+        <v>0.05038013319017697</v>
       </c>
       <c r="F141" t="n">
         <v>160</v>
@@ -4121,16 +4121,16 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8472455199094483</v>
+        <v>0.8505631296356724</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0389284281464953</v>
+        <v>0.001468335431133541</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518872489888713</v>
+        <v>-1.518839888279462</v>
       </c>
       <c r="E142" t="n">
-        <v>0.004157578080445628</v>
+        <v>0.0508809981248614</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
@@ -4147,16 +4147,16 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8460497905054422</v>
+        <v>0.8505911721771636</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06597970279606241</v>
+        <v>0.002236603316633268</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.51858120089367</v>
+        <v>-1.518786625019284</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004214259202694512</v>
+        <v>0.05051662982728972</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
@@ -4173,16 +4173,16 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8476293809351939</v>
+        <v>0.8506479765609418</v>
       </c>
       <c r="C144" t="n">
-        <v>0.03565383038187811</v>
+        <v>0.001554668403458913</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.518901490679524</v>
+        <v>-1.518907185148738</v>
       </c>
       <c r="E144" t="n">
-        <v>0.003863886694778394</v>
+        <v>0.05144487641927613</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
@@ -4199,16 +4199,16 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8474503540851489</v>
+        <v>0.8505483878006568</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0363716801544237</v>
+        <v>0.002071319580293961</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518761191760759</v>
+        <v>-1.518907535436964</v>
       </c>
       <c r="E145" t="n">
-        <v>0.003926646815685338</v>
+        <v>0.05097927692170854</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
@@ -4225,16 +4225,16 @@
         <v>200</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7630002648437629</v>
+        <v>0.7668722129435901</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03690869452469195</v>
+        <v>0.002418002645923786</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.900291288819369</v>
+        <v>-1.900295366433503</v>
       </c>
       <c r="E146" t="n">
-        <v>0.00386696659436529</v>
+        <v>0.05332590843424716</v>
       </c>
       <c r="F146" t="n">
         <v>200</v>
@@ -4251,16 +4251,16 @@
         <v>200</v>
       </c>
       <c r="B147" t="n">
-        <v>0.763266186932702</v>
+        <v>0.7671066022099008</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03829718995229771</v>
+        <v>0.003804828536198508</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.900183436388968</v>
+        <v>-1.900278850154099</v>
       </c>
       <c r="E147" t="n">
-        <v>0.003998485207872358</v>
+        <v>0.0502731190928074</v>
       </c>
       <c r="F147" t="n">
         <v>200</v>
@@ -4277,16 +4277,16 @@
         <v>200</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7645292979000574</v>
+        <v>0.7669063780713811</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01742690462420275</v>
+        <v>0.0008750083051359474</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.900168445687263</v>
+        <v>-1.900077220921086</v>
       </c>
       <c r="E148" t="n">
-        <v>0.003460671893360942</v>
+        <v>0.0544063786562218</v>
       </c>
       <c r="F148" t="n">
         <v>200</v>
@@ -4303,16 +4303,16 @@
         <v>200</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7644680569378463</v>
+        <v>0.7668076664651147</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01785494319602739</v>
+        <v>0.001675498271645209</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.900383951446505</v>
+        <v>-1.900392060924542</v>
       </c>
       <c r="E149" t="n">
-        <v>0.003498017012899727</v>
+        <v>0.05330682534816133</v>
       </c>
       <c r="F149" t="n">
         <v>200</v>
@@ -4329,16 +4329,16 @@
         <v>200</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7643064228027824</v>
+        <v>0.7668734637812835</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0196916653769085</v>
+        <v>0.001017777340116402</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.900310288758458</v>
+        <v>-1.900334427303592</v>
       </c>
       <c r="E150" t="n">
-        <v>0.003791349932189053</v>
+        <v>0.05273704322467958</v>
       </c>
       <c r="F150" t="n">
         <v>200</v>
@@ -4355,16 +4355,16 @@
         <v>200</v>
       </c>
       <c r="B151" t="n">
-        <v>0.764481096276678</v>
+        <v>0.7668429494312151</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01827852467988144</v>
+        <v>0.001135867023654462</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.900250273534014</v>
+        <v>-1.90029143278972</v>
       </c>
       <c r="E151" t="n">
-        <v>0.003558433394362311</v>
+        <v>0.0524001138630277</v>
       </c>
       <c r="F151" t="n">
         <v>200</v>
@@ -4381,16 +4381,16 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.76331634432491</v>
+        <v>0.7667523441301561</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0339330046215241</v>
+        <v>0.002274595352070691</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.900298792183573</v>
+        <v>-1.900355914511337</v>
       </c>
       <c r="E152" t="n">
-        <v>0.003578819226797252</v>
+        <v>0.05218793286929495</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
@@ -4407,16 +4407,16 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7639226388673063</v>
+        <v>0.7667809546272076</v>
       </c>
       <c r="C153" t="n">
-        <v>0.02233899529511649</v>
+        <v>0.001503886279926001</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.90035247778758</v>
+        <v>-1.900270479678716</v>
       </c>
       <c r="E153" t="n">
-        <v>0.004051215708913832</v>
+        <v>0.04893123424814268</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
@@ -4433,16 +4433,16 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7637336704400615</v>
+        <v>0.7668544156682873</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03041089161702229</v>
+        <v>0.001412693998602425</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.900188527908524</v>
+        <v>-1.900243699498411</v>
       </c>
       <c r="E154" t="n">
-        <v>0.003685005432049023</v>
+        <v>0.05508048044002297</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
@@ -4459,16 +4459,16 @@
         <v>250</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6405243721321244</v>
+        <v>0.642800053124131</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01499069694283439</v>
+        <v>0.001230866555803044</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.375540806760571</v>
+        <v>-2.375705286398805</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00352134857695621</v>
+        <v>0.0642331010733548</v>
       </c>
       <c r="F155" t="n">
         <v>250</v>
@@ -4485,16 +4485,16 @@
         <v>250</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6403598910678967</v>
+        <v>0.6427672652726951</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01518866601885585</v>
+        <v>0.001052121439891629</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.375851738605073</v>
+        <v>-2.375691495097924</v>
       </c>
       <c r="E156" t="n">
-        <v>0.003466091555993032</v>
+        <v>0.06590195120155411</v>
       </c>
       <c r="F156" t="n">
         <v>250</v>
@@ -4511,16 +4511,16 @@
         <v>250</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6401274868047337</v>
+        <v>0.6429548551138318</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01909734221207222</v>
+        <v>0.0008486872532879564</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.375544072573053</v>
+        <v>-2.37534907728023</v>
       </c>
       <c r="E157" t="n">
-        <v>0.002083116728103455</v>
+        <v>0.06352048060822905</v>
       </c>
       <c r="F157" t="n">
         <v>250</v>
@@ -4537,16 +4537,16 @@
         <v>250</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6410422710579369</v>
+        <v>0.642896452707461</v>
       </c>
       <c r="C158" t="n">
-        <v>0.009898142128118563</v>
+        <v>0.001121322175255095</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.375592024499587</v>
+        <v>-2.375578937825531</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00212817903040789</v>
+        <v>0.06656443981354315</v>
       </c>
       <c r="F158" t="n">
         <v>250</v>
@@ -4563,16 +4563,16 @@
         <v>250</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6409051028103018</v>
+        <v>0.6429103254604132</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01036464577272051</v>
+        <v>0.001159644045355109</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.375607725821481</v>
+        <v>-2.375420552189119</v>
       </c>
       <c r="E159" t="n">
-        <v>0.001981481515091328</v>
+        <v>0.05714009671214807</v>
       </c>
       <c r="F159" t="n">
         <v>250</v>
@@ -4589,16 +4589,16 @@
         <v>250</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6406716310807503</v>
+        <v>0.6428663313313361</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01389012184409625</v>
+        <v>0.0009459180625325164</v>
       </c>
       <c r="D160" t="n">
-        <v>-2.375666919423093</v>
+        <v>-2.375591964223657</v>
       </c>
       <c r="E160" t="n">
-        <v>0.003372421093761454</v>
+        <v>0.0669453104146799</v>
       </c>
       <c r="F160" t="n">
         <v>250</v>
@@ -4615,16 +4615,16 @@
         <v>250</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6396180642888416</v>
+        <v>0.6428199468387751</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0257764792241999</v>
+        <v>0.001264491076821297</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.375579534436421</v>
+        <v>-2.375577967364751</v>
       </c>
       <c r="E161" t="n">
-        <v>0.003711953739746025</v>
+        <v>0.06800238832942589</v>
       </c>
       <c r="F161" t="n">
         <v>250</v>
@@ -4641,16 +4641,16 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6401444133637819</v>
+        <v>0.6424856494147834</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01815570237840389</v>
+        <v>0.003388457309684121</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.375694191730117</v>
+        <v>-2.375513948628904</v>
       </c>
       <c r="E162" t="n">
-        <v>0.002160291594538192</v>
+        <v>0.06850664724829209</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
@@ -4667,16 +4667,16 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6405716033870915</v>
+        <v>0.6428003117377904</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01427591124089962</v>
+        <v>0.001124964906178254</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.375684889070942</v>
+        <v>-2.375669845270338</v>
       </c>
       <c r="E163" t="n">
-        <v>0.003503345974171996</v>
+        <v>0.06592475187399638</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
@@ -4693,16 +4693,16 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6401547133877451</v>
+        <v>0.6424820024489829</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02045546335408874</v>
+        <v>0.004294087095055468</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.375423217143533</v>
+        <v>-2.375311064335798</v>
       </c>
       <c r="E164" t="n">
-        <v>0.002068013105689528</v>
+        <v>0.06343127090055004</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
@@ -4719,16 +4719,16 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6399527994863121</v>
+        <v>0.6428013669193311</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02218265767050138</v>
+        <v>0.001618311782499473</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.375406731372923</v>
+        <v>-2.375457009063269</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002092798273480834</v>
+        <v>0.06420283437567606</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
@@ -4745,16 +4745,16 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6411335214221218</v>
+        <v>0.6429062140161759</v>
       </c>
       <c r="C166" t="n">
-        <v>0.009487531025194619</v>
+        <v>0.001342656687398152</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.375446921334616</v>
+        <v>-2.375479731215556</v>
       </c>
       <c r="E166" t="n">
-        <v>0.002118513560893319</v>
+        <v>0.06600241459726865</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
@@ -4771,16 +4771,16 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6399618371311889</v>
+        <v>0.6426431066034742</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02284343266964385</v>
+        <v>0.00335194438858316</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.375591842272156</v>
+        <v>-2.375619262464602</v>
       </c>
       <c r="E167" t="n">
-        <v>0.003330946680388779</v>
+        <v>0.06668922946080494</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
@@ -4797,16 +4797,16 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6405400373770158</v>
+        <v>0.6428722170704396</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01471245573337518</v>
+        <v>0.001196311525970824</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.375598390281997</v>
+        <v>-2.375539884697489</v>
       </c>
       <c r="E168" t="n">
-        <v>0.003582149833067686</v>
+        <v>0.06532284051020321</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
@@ -4823,16 +4823,16 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6409248385615788</v>
+        <v>0.6428654437743053</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01035698920433637</v>
+        <v>0.001181393669123329</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.375512880596819</v>
+        <v>-2.375570569627008</v>
       </c>
       <c r="E169" t="n">
-        <v>0.002107817698433775</v>
+        <v>0.06523393601862917</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
@@ -4849,16 +4849,16 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6404811340967694</v>
+        <v>0.6431543829479859</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01424933802595528</v>
+        <v>0.0009319929034576198</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.37524494207269</v>
+        <v>-2.375473263864733</v>
       </c>
       <c r="E170" t="n">
-        <v>0.002040363709439962</v>
+        <v>0.0611380058461866</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
@@ -4875,16 +4875,16 @@
         <v>250</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6393126142930057</v>
+        <v>0.6427334159886314</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02751621140202964</v>
+        <v>0.002717123356561351</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.375495499012994</v>
+        <v>-2.375535352456287</v>
       </c>
       <c r="E171" t="n">
-        <v>0.003433087815723147</v>
+        <v>0.06149987907423719</v>
       </c>
       <c r="F171" t="n">
         <v>250</v>
@@ -4901,16 +4901,16 @@
         <v>250</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6396104221037675</v>
+        <v>0.6427180406717253</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0267222591857262</v>
+        <v>0.002148279463598378</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.375546579946325</v>
+        <v>-2.375563163861791</v>
       </c>
       <c r="E172" t="n">
-        <v>0.003530787182023727</v>
+        <v>0.06807961142765194</v>
       </c>
       <c r="F172" t="n">
         <v>250</v>
@@ -4988,16 +4988,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.019327039549775</v>
+        <v>1.01939924079704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002039497297074164</v>
+        <v>0.002580091657208682</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09493791766805204</v>
+        <v>-0.09496696980046737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005401306364820214</v>
+        <v>0.002695965851425542</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -5014,16 +5014,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.018666041843836</v>
+        <v>1.018972265871191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000203948446772607</v>
+        <v>0.004122285961526118</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0944458870541931</v>
+        <v>-0.09440491039972532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000997796530712737</v>
+        <v>0.004065344133429051</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -5040,16 +5040,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.018912357738718</v>
+        <v>1.018810488297618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002038638595831791</v>
+        <v>0.003101339005672954</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09478612461752967</v>
+        <v>-0.0948216230925425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009089791782207736</v>
+        <v>0.003221512192579334</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -5066,16 +5066,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.019123073738875</v>
+        <v>1.019132083513059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002038965588247006</v>
+        <v>0.002463256271460341</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09470983511380937</v>
+        <v>-0.09471260857195851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005081947922519084</v>
+        <v>0.002742583772422535</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -5092,16 +5092,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.019377573604987</v>
+        <v>1.019332309750883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002039914122642399</v>
+        <v>0.002883199709274764</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09464174623126764</v>
+        <v>-0.09463006597588741</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0006061549996139326</v>
+        <v>0.00349923581975443</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -5118,16 +5118,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.019274267097475</v>
+        <v>1.019299941515856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002039980223066774</v>
+        <v>0.003091336500219548</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09467974522571865</v>
+        <v>-0.09465875653014066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007369391112629549</v>
+        <v>0.002971784548721088</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -5144,16 +5144,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.018964268278495</v>
+        <v>1.019073347180251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002038601227103693</v>
+        <v>0.002855424156777483</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09493214690302931</v>
+        <v>-0.0949526492099686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006975105325216989</v>
+        <v>0.003180906036253526</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -5170,16 +5170,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.018846448968219</v>
+        <v>1.018979408882469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002039201626611628</v>
+        <v>0.003437254895899455</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09454830150353422</v>
+        <v>-0.09459000833047204</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001010246174773951</v>
+        <v>0.003764589015282639</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -5196,16 +5196,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.019046345481546</v>
+        <v>1.019095103356949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000203880025915933</v>
+        <v>0.002833157524192164</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09457187864138406</v>
+        <v>-0.09457072569908176</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00089283299622048</v>
+        <v>0.002912154251760601</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -5222,16 +5222,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.018766391796498</v>
+        <v>1.018983882560442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002046549371273659</v>
+        <v>0.00521032104617498</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09448546008590286</v>
+        <v>-0.09463231408513995</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001439582667035666</v>
+        <v>0.003350275857443354</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -5248,16 +5248,16 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.018358863140674</v>
+        <v>1.018177866035013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002039677706967821</v>
+        <v>0.004130868940909345</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1184664176420518</v>
+        <v>-0.1183282072097365</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001373196647709614</v>
+        <v>0.004643180080091598</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
@@ -5274,16 +5274,16 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.018279564157889</v>
+        <v>1.018481581073518</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002039328059552426</v>
+        <v>0.004408386501105022</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1186977412781349</v>
+        <v>-0.1188165177491562</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001783341214674087</v>
+        <v>0.005597388163773661</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
@@ -5300,16 +5300,16 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.018243132007105</v>
+        <v>1.018297049338361</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002040911527974094</v>
+        <v>0.004623262968326122</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.118594663901828</v>
+        <v>-0.1186699117372605</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001717661831002162</v>
+        <v>0.005210118128297064</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
@@ -5326,16 +5326,16 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.018425827347413</v>
+        <v>1.018601747693024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000203727686427927</v>
+        <v>0.002581509838164837</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1180638850890894</v>
+        <v>-0.1181530704866312</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000849217603912435</v>
+        <v>0.005103263866330901</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
@@ -5352,16 +5352,16 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.018262313124708</v>
+        <v>1.018343718245903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002048159461753444</v>
+        <v>0.005557217756001262</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1188089902660088</v>
+        <v>-0.1189573440960081</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002590825116487961</v>
+        <v>0.006442351398722225</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
@@ -5378,16 +5378,16 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018687810887884</v>
+        <v>1.018808763538118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002037950403058316</v>
+        <v>0.002818756965604842</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1185611955449264</v>
+        <v>-0.1186355319118064</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001185106407141034</v>
+        <v>0.006221329116230795</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
@@ -5404,16 +5404,16 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.018603024397209</v>
+        <v>1.018579163825723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002045104383068403</v>
+        <v>0.005164990196536264</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1188529538030136</v>
+        <v>-0.1188637539612576</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002214993591486384</v>
+        <v>0.00486992557606357</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
@@ -5430,16 +5430,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.017914453895017</v>
+        <v>1.018029118586835</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002044678910634157</v>
+        <v>0.005203604660079761</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1185124217705036</v>
+        <v>-0.1185224461153185</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00235504553321842</v>
+        <v>0.005024739777370198</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -5456,16 +5456,16 @@
         <v>12.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.018618202652074</v>
+        <v>1.018691563110946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002040710082166688</v>
+        <v>0.003973580798425154</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1195269564428076</v>
+        <v>-0.1194356326040005</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001461925745607248</v>
+        <v>0.004245800357883259</v>
       </c>
       <c r="F20" t="n">
         <v>12.5</v>
@@ -5482,16 +5482,16 @@
         <v>12.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018268642829929</v>
+        <v>1.018420512225047</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002037157386459007</v>
+        <v>0.002902556474672801</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1183216999172776</v>
+        <v>-0.118392795441411</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001202470161074502</v>
+        <v>0.004287792834754701</v>
       </c>
       <c r="F21" t="n">
         <v>12.5</v>
@@ -5508,16 +5508,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.017860608033484</v>
+        <v>1.018114276382647</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002041494377663759</v>
+        <v>0.003483745449933992</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.151442527914063</v>
+        <v>-0.151757208355157</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002302624016541238</v>
+        <v>0.004210304347866648</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -5534,16 +5534,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.017813647837575</v>
+        <v>1.017735474795342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002036255854321299</v>
+        <v>0.00203386551368787</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1516121939731463</v>
+        <v>-0.15155837692435</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001288264568197906</v>
+        <v>0.003140455586159428</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
@@ -5560,16 +5560,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.018021793457085</v>
+        <v>1.0178496575895</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002060204482166777</v>
+        <v>0.004669272677492974</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1523070930853998</v>
+        <v>-0.1522227978233253</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002823235709402428</v>
+        <v>0.004957163895482214</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -5586,16 +5586,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.018029973665998</v>
+        <v>1.01818151541211</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002042947188823888</v>
+        <v>0.003622604921471993</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1520442879800621</v>
+        <v>-0.1520832470554758</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002368986319698503</v>
+        <v>0.004336072149091649</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
@@ -5612,16 +5612,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.018131787293373</v>
+        <v>1.017927337355236</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002037290815928022</v>
+        <v>0.002457917011412506</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1519826751509159</v>
+        <v>-0.1518178405410033</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001422350034940321</v>
+        <v>0.003164630040685648</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -5638,16 +5638,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.017834007529661</v>
+        <v>1.018179331306853</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002065591618625016</v>
+        <v>0.005310644765718115</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.152086267724014</v>
+        <v>-0.1522457761369229</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00350358629520245</v>
+        <v>0.005317192538999996</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -5664,16 +5664,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.017684369397314</v>
+        <v>1.017927537840574</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002041659444074735</v>
+        <v>0.003869308520609171</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1518757538390201</v>
+        <v>-0.1520093634199484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002643898622330948</v>
+        <v>0.004852696769492065</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
@@ -5690,16 +5690,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>1.017868481012634</v>
+        <v>1.017874469420392</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002039179000533712</v>
+        <v>0.00270851702647006</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1516490319524202</v>
+        <v>-0.1516560469344612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001835065853331717</v>
+        <v>0.003671160981751104</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
@@ -5716,16 +5716,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01787051738238</v>
+        <v>1.017962435953003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002039447708682226</v>
+        <v>0.003027004419661089</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1520466748565719</v>
+        <v>-0.1521236566448856</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002111386670932682</v>
+        <v>0.004041202917486083</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
@@ -5742,16 +5742,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017963126993895</v>
+        <v>1.017992986861455</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002039527394224609</v>
+        <v>0.002896871844157692</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1519378123612576</v>
+        <v>-0.1519394620890218</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001797201775430326</v>
+        <v>0.003955061751858379</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
@@ -5768,16 +5768,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.017066256117204</v>
+        <v>1.016896821053681</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002036134292979978</v>
+        <v>0.00261435567760535</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1897074266602186</v>
+        <v>-0.1895377028522969</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00201707814614263</v>
+        <v>0.004156208127998669</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -5794,16 +5794,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.016984870025619</v>
+        <v>1.016762461819975</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002037786792476294</v>
+        <v>0.003209303163540109</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1899505559991799</v>
+        <v>-0.1897785191338213</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00223512374661783</v>
+        <v>0.004452408063627109</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -5820,16 +5820,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.016809494279368</v>
+        <v>1.016815254673173</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002035538130161425</v>
+        <v>0.00248029945139294</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899429886167587</v>
+        <v>-0.1899444888436812</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002188540770881161</v>
+        <v>0.004789546125432869</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
@@ -5846,16 +5846,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.016817249850898</v>
+        <v>1.016787888235668</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002036844463206959</v>
+        <v>0.00277027270325532</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1897960690983445</v>
+        <v>-0.1897402905780714</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002506900635725298</v>
+        <v>0.004776905640157791</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
@@ -5872,16 +5872,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.016754477935024</v>
+        <v>1.016836219611182</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002035100813099487</v>
+        <v>0.002397706385794561</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1894159562279372</v>
+        <v>-0.1895131154426828</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003010409827581967</v>
+        <v>0.005084586962714868</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
@@ -5898,16 +5898,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.017108242981613</v>
+        <v>1.017082375471265</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000204283053668018</v>
+        <v>0.003554215744726484</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1900521551092336</v>
+        <v>-0.1901035898162604</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003347282516803531</v>
+        <v>0.005313925503428343</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
@@ -5924,16 +5924,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>1.016745212157842</v>
+        <v>1.016695636496027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002038202578325428</v>
+        <v>0.003017007611353808</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1900201832604012</v>
+        <v>-0.1900635589847912</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002995893753682964</v>
+        <v>0.005178435181236805</v>
       </c>
       <c r="F38" t="n">
         <v>20</v>
@@ -5950,16 +5950,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1.017098441538137</v>
+        <v>1.017020727048789</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002037791388310775</v>
+        <v>0.002819759523202519</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1901664148273483</v>
+        <v>-0.1901229640450905</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002585301042660007</v>
+        <v>0.004982968590313834</v>
       </c>
       <c r="F39" t="n">
         <v>20</v>
@@ -5976,16 +5976,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1.017062860299087</v>
+        <v>1.016944662678422</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002035653935766392</v>
+        <v>0.002518472500863831</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1900535098025919</v>
+        <v>-0.1899562076709369</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001950028064883387</v>
+        <v>0.004697629776343452</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
@@ -6002,16 +6002,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="n">
-        <v>1.017054189434868</v>
+        <v>1.016915930321261</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002034658892851321</v>
+        <v>0.002016574050975375</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1896339436516241</v>
+        <v>-0.1895171196570509</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001025389560643483</v>
+        <v>0.003906578212796434</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
@@ -6028,16 +6028,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.015386227883857</v>
+        <v>1.015457783323388</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002037698858770658</v>
+        <v>0.002408973895776347</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2373152505190923</v>
+        <v>-0.2374234082511997</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003004332350154723</v>
+        <v>0.004816239836405021</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
@@ -6054,16 +6054,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.015541906978782</v>
+        <v>1.015467965212592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002035212567342497</v>
+        <v>0.002100389396102055</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2374730275323373</v>
+        <v>-0.237416466190298</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0029943223600673</v>
+        <v>0.004495782214936553</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -6080,16 +6080,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.015428184108967</v>
+        <v>1.015413296713558</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000203663962973737</v>
+        <v>0.00226655231308327</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2372299877906592</v>
+        <v>-0.2372695507819991</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003392939893420526</v>
+        <v>0.005140512271267623</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
@@ -6106,16 +6106,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.015287798774959</v>
+        <v>1.015348235938518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002036172602249268</v>
+        <v>0.002253386101187291</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2373684068603055</v>
+        <v>-0.237458761098889</v>
       </c>
       <c r="E45" t="n">
-        <v>0.003469481102091801</v>
+        <v>0.005550664094905388</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
@@ -6132,16 +6132,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.015566362834878</v>
+        <v>1.015433436432928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0002032738687365999</v>
+        <v>0.00182483280929804</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2370214613233856</v>
+        <v>-0.2369008881468972</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002223007691708702</v>
+        <v>0.003484005845667923</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
@@ -6158,16 +6158,16 @@
         <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>1.015450898291483</v>
+        <v>1.015493820858994</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0002033420528777809</v>
+        <v>0.001819763453935993</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2375238458383007</v>
+        <v>-0.2375163308806489</v>
       </c>
       <c r="E47" t="n">
-        <v>0.002349307000125311</v>
+        <v>0.003841872919656306</v>
       </c>
       <c r="F47" t="n">
         <v>25</v>
@@ -6184,16 +6184,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.015554478004181</v>
+        <v>1.015386363056383</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002032583361567016</v>
+        <v>0.001868964249168365</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2374243575513812</v>
+        <v>-0.237171317635795</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002260382968850892</v>
+        <v>0.00411969889770005</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
@@ -6210,16 +6210,16 @@
         <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>1.015261985278474</v>
+        <v>1.01520094583423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0002032625673707798</v>
+        <v>0.001952676996963241</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2369039194181171</v>
+        <v>-0.2367906754125211</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002468878353817437</v>
+        <v>0.003972791225105947</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
@@ -6236,16 +6236,16 @@
         <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>1.015341794420982</v>
+        <v>1.015232928891381</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002036633508486042</v>
+        <v>0.002459723563783398</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2372746611447329</v>
+        <v>-0.2371718555139202</v>
       </c>
       <c r="E50" t="n">
-        <v>0.002969398291463927</v>
+        <v>0.004817747824830632</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
@@ -6262,16 +6262,16 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1.015264912681542</v>
+        <v>1.015221152129579</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002044907927008503</v>
+        <v>0.002764954825379887</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.237403790118373</v>
+        <v>-0.2373245024929176</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003978986063662077</v>
+        <v>0.005910861493875616</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
@@ -6288,16 +6288,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.012931477136646</v>
+        <v>1.012927331607946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0002026315918507522</v>
+        <v>0.001275301499150009</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.299010873976683</v>
+        <v>-0.2989822165590201</v>
       </c>
       <c r="E52" t="n">
-        <v>0.002836979561828413</v>
+        <v>0.004597736274241043</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -6314,16 +6314,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.012842396725982</v>
+        <v>1.012852298708986</v>
       </c>
       <c r="C53" t="n">
-        <v>0.000202718865524971</v>
+        <v>0.001630979374119623</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2987150376125722</v>
+        <v>-0.2988773970883098</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003816990052340657</v>
+        <v>0.005535116422594785</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -6340,16 +6340,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.012873490890176</v>
+        <v>1.012844503794522</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0002025795338270277</v>
+        <v>0.0009489298047293791</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2989885244210551</v>
+        <v>-0.2990213886889368</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001575853875900722</v>
+        <v>0.003477741585433311</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -6366,16 +6366,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.012957510568513</v>
+        <v>1.012894135330381</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0002026550406414544</v>
+        <v>0.001433964537833256</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.299334538640402</v>
+        <v>-0.2992167737290252</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002589069640577599</v>
+        <v>0.004171772556190489</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -6392,16 +6392,16 @@
         <v>31.5</v>
       </c>
       <c r="B56" t="n">
-        <v>1.012803181746375</v>
+        <v>1.01285883967761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0002026383072386352</v>
+        <v>0.001440205062151408</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.298870427532361</v>
+        <v>-0.2989972862397661</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002732882070861332</v>
+        <v>0.004607190410281642</v>
       </c>
       <c r="F56" t="n">
         <v>31.5</v>
@@ -6418,16 +6418,16 @@
         <v>31.5</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013086925808649</v>
+        <v>1.013132934900092</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0002028057758109877</v>
+        <v>0.001791642648173279</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2990095955718255</v>
+        <v>-0.2990565705499719</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00438288901980277</v>
+        <v>0.006679554906079672</v>
       </c>
       <c r="F57" t="n">
         <v>31.5</v>
@@ -6444,16 +6444,16 @@
         <v>31.5</v>
       </c>
       <c r="B58" t="n">
-        <v>1.012858723896249</v>
+        <v>1.013007731901054</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0002032424504484931</v>
+        <v>0.002704900788701524</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2991671643852207</v>
+        <v>-0.2995504095653039</v>
       </c>
       <c r="E58" t="n">
-        <v>0.006059162461959679</v>
+        <v>0.009883026118169913</v>
       </c>
       <c r="F58" t="n">
         <v>31.5</v>
@@ -6470,16 +6470,16 @@
         <v>31.5</v>
       </c>
       <c r="B59" t="n">
-        <v>1.01305757629202</v>
+        <v>1.013039025903749</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0002026366371103384</v>
+        <v>0.001156097240378327</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2992561355099141</v>
+        <v>-0.2992633300975407</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002182642425744634</v>
+        <v>0.004502369239150285</v>
       </c>
       <c r="F59" t="n">
         <v>31.5</v>
@@ -6496,16 +6496,16 @@
         <v>31.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1.012879056477489</v>
+        <v>1.012846607827305</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0002026688700927789</v>
+        <v>0.001433510403308453</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2989324940790761</v>
+        <v>-0.298975142237992</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003283146776814011</v>
+        <v>0.005592533496617799</v>
       </c>
       <c r="F60" t="n">
         <v>31.5</v>
@@ -6522,16 +6522,16 @@
         <v>31.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013002157700761</v>
+        <v>1.012887660694748</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0002026173933319136</v>
+        <v>0.001129060246327243</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2991275807375242</v>
+        <v>-0.2988687970838653</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002243240272072673</v>
+        <v>0.0043418580312751</v>
       </c>
       <c r="F61" t="n">
         <v>31.5</v>
@@ -6548,16 +6548,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.008798849866946</v>
+        <v>1.008760752493371</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002017638318970757</v>
+        <v>0.0006190281670005679</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3798435777500089</v>
+        <v>-0.3794979277664527</v>
       </c>
       <c r="E62" t="n">
-        <v>0.004130191459853248</v>
+        <v>0.00586057960386176</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
@@ -6574,16 +6574,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.008793926539661</v>
+        <v>1.008778833069726</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0002017659809038726</v>
+        <v>0.0005211848279312294</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3796189256606128</v>
+        <v>-0.3794633580568423</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003828019020081623</v>
+        <v>0.005594869292068433</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
@@ -6600,16 +6600,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.008841883972201</v>
+        <v>1.008829773987517</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0002017746705111391</v>
+        <v>0.0004863811313796224</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3800619790182309</v>
+        <v>-0.3800579014967433</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002437332568107628</v>
+        <v>0.004251298396117668</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -6626,16 +6626,16 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>1.008771656042965</v>
+        <v>1.008827602875058</v>
       </c>
       <c r="C65" t="n">
-        <v>0.00020176465646872</v>
+        <v>0.0006507547360741038</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3795674760287366</v>
+        <v>-0.3800913655998026</v>
       </c>
       <c r="E65" t="n">
-        <v>0.004304532467496868</v>
+        <v>0.006911207387490689</v>
       </c>
       <c r="F65" t="n">
         <v>40</v>
@@ -6652,16 +6652,16 @@
         <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1.008784569171419</v>
+        <v>1.008781550843744</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0002017607980137364</v>
+        <v>0.0004450237640124094</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3798857349193998</v>
+        <v>-0.379779665624298</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001370342050754556</v>
+        <v>0.002632216515442998</v>
       </c>
       <c r="F66" t="n">
         <v>40</v>
@@ -6678,16 +6678,16 @@
         <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1.008775861244218</v>
+        <v>1.008785479113119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002017653018633315</v>
+        <v>0.000617925295767694</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3795940691578377</v>
+        <v>-0.3796926204278961</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004895677043812633</v>
+        <v>0.006559291525515988</v>
       </c>
       <c r="F67" t="n">
         <v>40</v>
@@ -6704,16 +6704,16 @@
         <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1.008788661849003</v>
+        <v>1.008808982838239</v>
       </c>
       <c r="C68" t="n">
-        <v>0.000201761544063489</v>
+        <v>0.0004978222808121699</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.379485566938583</v>
+        <v>-0.3796142440243742</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002576947386142468</v>
+        <v>0.004194295917333971</v>
       </c>
       <c r="F68" t="n">
         <v>40</v>
@@ -6730,16 +6730,16 @@
         <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>1.009037495552976</v>
+        <v>1.00898713242451</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002018335412018574</v>
+        <v>0.0008014919810962868</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3799565426653775</v>
+        <v>-0.3795381432053837</v>
       </c>
       <c r="E69" t="n">
-        <v>0.005902328321848095</v>
+        <v>0.008212805981267094</v>
       </c>
       <c r="F69" t="n">
         <v>40</v>
@@ -6756,16 +6756,16 @@
         <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>1.008824822993384</v>
+        <v>1.008876930707309</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002017770854008316</v>
+        <v>0.0007085371564593508</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3795663314831685</v>
+        <v>-0.3800763722075988</v>
       </c>
       <c r="E70" t="n">
-        <v>0.004746287347213855</v>
+        <v>0.007266641695424543</v>
       </c>
       <c r="F70" t="n">
         <v>40</v>
@@ -6782,16 +6782,16 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1.008877199701978</v>
+        <v>1.008895857871965</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002017865451804354</v>
+        <v>0.0006606348128278513</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3795743152121727</v>
+        <v>-0.3798289107522015</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004165706204057665</v>
+        <v>0.005968636741399189</v>
       </c>
       <c r="F71" t="n">
         <v>40</v>
@@ -6808,16 +6808,16 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.005042895239273</v>
+        <v>1.005022357461994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002011034366836951</v>
+        <v>0.0007242215767851481</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4432165982137981</v>
+        <v>-0.4434521470059707</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004769159441008405</v>
+        <v>0.006498527199657936</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
@@ -6834,16 +6834,16 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.004997838684771</v>
+        <v>1.005032286178608</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000201110355925261</v>
+        <v>0.0007446124983241579</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4433416999954165</v>
+        <v>-0.4432267707887463</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003589597153167881</v>
+        <v>0.005268208149422393</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
@@ -6860,16 +6860,16 @@
         <v>46.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.004984601374764</v>
+        <v>1.004965723463847</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0002010215817682337</v>
+        <v>0.0005360027988931019</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4435229475622746</v>
+        <v>-0.4437875227980168</v>
       </c>
       <c r="E74" t="n">
-        <v>0.004269949367074573</v>
+        <v>0.00623215945996779</v>
       </c>
       <c r="F74" t="n">
         <v>46.7</v>
@@ -6886,16 +6886,16 @@
         <v>46.7</v>
       </c>
       <c r="B75" t="n">
-        <v>1.004927797576753</v>
+        <v>1.005006440918113</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002013392483080744</v>
+        <v>0.000950914346899991</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4437796721854586</v>
+        <v>-0.4433597543164081</v>
       </c>
       <c r="E75" t="n">
-        <v>0.006220127506624358</v>
+        <v>0.008653172680643542</v>
       </c>
       <c r="F75" t="n">
         <v>46.7</v>
@@ -6912,16 +6912,16 @@
         <v>46.7</v>
       </c>
       <c r="B76" t="n">
-        <v>1.005032412274801</v>
+        <v>1.004985589424707</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002011403008091132</v>
+        <v>0.0007656626338113003</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4432765482350103</v>
+        <v>-0.4438102147751088</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00632975580344774</v>
+        <v>0.009677544602475866</v>
       </c>
       <c r="F76" t="n">
         <v>46.7</v>
@@ -6938,16 +6938,16 @@
         <v>46.7</v>
       </c>
       <c r="B77" t="n">
-        <v>1.004980151792802</v>
+        <v>1.005039851545511</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0002010491786432871</v>
+        <v>0.000746609200196139</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4435435432704624</v>
+        <v>-0.4432087374893161</v>
       </c>
       <c r="E77" t="n">
-        <v>0.004479018614921249</v>
+        <v>0.006230871774102245</v>
       </c>
       <c r="F77" t="n">
         <v>46.7</v>
@@ -6964,16 +6964,16 @@
         <v>46.7</v>
       </c>
       <c r="B78" t="n">
-        <v>1.004968487946203</v>
+        <v>1.004995978368559</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002010254524986116</v>
+        <v>0.0005080081831871213</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4434625797976537</v>
+        <v>-0.4434395839760175</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002882112434383969</v>
+        <v>0.004225609184023361</v>
       </c>
       <c r="F78" t="n">
         <v>46.7</v>
@@ -6990,16 +6990,16 @@
         <v>46.7</v>
       </c>
       <c r="B79" t="n">
-        <v>1.005147489857502</v>
+        <v>1.005130554342414</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002010891691571731</v>
+        <v>0.0006005783426022966</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4434574304691132</v>
+        <v>-0.4437009780727657</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005715556497505247</v>
+        <v>0.008104649667446263</v>
       </c>
       <c r="F79" t="n">
         <v>46.7</v>
@@ -7016,16 +7016,16 @@
         <v>46.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.005109391805392</v>
+        <v>1.005148834131944</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002010416980776369</v>
+        <v>0.0006166598210190965</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4433583916491983</v>
+        <v>-0.4432042002073686</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003906147536056467</v>
+        <v>0.005612787911114809</v>
       </c>
       <c r="F80" t="n">
         <v>46.7</v>
@@ -7042,16 +7042,16 @@
         <v>46.7</v>
       </c>
       <c r="B81" t="n">
-        <v>1.005056884793761</v>
+        <v>1.005037032376942</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0002011961214130715</v>
+        <v>0.0008074231015721199</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4432969006807639</v>
+        <v>-0.4435937585859762</v>
       </c>
       <c r="E81" t="n">
-        <v>0.005699756809981311</v>
+        <v>0.007506456903190132</v>
       </c>
       <c r="F81" t="n">
         <v>46.7</v>
@@ -7068,16 +7068,16 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.002798338691999</v>
+        <v>1.002868776154935</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0002011603103119193</v>
+        <v>0.001086410952977599</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4746092307266156</v>
+        <v>-0.4743297739290728</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004790018290884676</v>
+        <v>0.006211116202965454</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
@@ -7094,16 +7094,16 @@
         <v>50</v>
       </c>
       <c r="B83" t="n">
-        <v>1.002945487251812</v>
+        <v>1.00289859844173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002006487995018406</v>
+        <v>0.0006449227211924485</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4743863500135204</v>
+        <v>-0.4746448287911789</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003035420737722653</v>
+        <v>0.004736916962748679</v>
       </c>
       <c r="F83" t="n">
         <v>50</v>
@@ -7120,16 +7120,16 @@
         <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>1.002847569170258</v>
+        <v>1.002861526622846</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0002007494472370254</v>
+        <v>0.0007690216701620383</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4745543090512019</v>
+        <v>-0.4745091022649639</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0035066779718864</v>
+        <v>0.005471937139552377</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
@@ -7146,16 +7146,16 @@
         <v>50</v>
       </c>
       <c r="B85" t="n">
-        <v>1.002837556254474</v>
+        <v>1.002929609675323</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0002016420266716838</v>
+        <v>0.001358632850222332</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4746787746640333</v>
+        <v>-0.4742544672204314</v>
       </c>
       <c r="E85" t="n">
-        <v>0.006215601401117023</v>
+        <v>0.008306848856977193</v>
       </c>
       <c r="F85" t="n">
         <v>50</v>
@@ -7172,16 +7172,16 @@
         <v>50</v>
       </c>
       <c r="B86" t="n">
-        <v>1.002861165856651</v>
+        <v>1.002855667141114</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0002006424480241156</v>
+        <v>0.0006320032117622986</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4745556161791731</v>
+        <v>-0.4745997680771374</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003399306140881577</v>
+        <v>0.00438082772848433</v>
       </c>
       <c r="F86" t="n">
         <v>50</v>
@@ -7198,16 +7198,16 @@
         <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>1.002834669480065</v>
+        <v>1.002895753654703</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0002006007380150753</v>
+        <v>0.0006099305188366761</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4747297475753633</v>
+        <v>-0.4744319794273566</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001733468747338883</v>
+        <v>0.003582652514192301</v>
       </c>
       <c r="F87" t="n">
         <v>50</v>
@@ -7224,16 +7224,16 @@
         <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>1.002837619437759</v>
+        <v>1.002825034398319</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002008475094773691</v>
+        <v>0.0008257242127622771</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4745277434265791</v>
+        <v>-0.4746703098797855</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004153825790666272</v>
+        <v>0.005998690527619342</v>
       </c>
       <c r="F88" t="n">
         <v>50</v>
@@ -7250,16 +7250,16 @@
         <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>1.002977366374784</v>
+        <v>1.002973926608652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002011749663443659</v>
+        <v>0.001014724672572602</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4747041382053254</v>
+        <v>-0.4747307757442094</v>
       </c>
       <c r="E89" t="n">
-        <v>0.005320776096238439</v>
+        <v>0.006953021611192866</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
@@ -7276,16 +7276,16 @@
         <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1.002997881436885</v>
+        <v>1.002951748745446</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002007553992711413</v>
+        <v>0.0007634604109090933</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4742201206565699</v>
+        <v>-0.4744620591146851</v>
       </c>
       <c r="E90" t="n">
-        <v>0.003760237640322053</v>
+        <v>0.005450483479132248</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
@@ -7302,16 +7302,16 @@
         <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>1.002911882531584</v>
+        <v>1.002920018872123</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002006143613437568</v>
+        <v>0.0005335981215277314</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4743898387400094</v>
+        <v>-0.4743467550273568</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001938852653542918</v>
+        <v>0.003324331488938983</v>
       </c>
       <c r="F91" t="n">
         <v>50</v>
@@ -7328,16 +7328,16 @@
         <v>53.3</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000477504641165</v>
+        <v>1.000442473089959</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002002492540441021</v>
+        <v>0.0007471734283083376</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5064884343546052</v>
+        <v>-0.5066151967171737</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003174515466018513</v>
+        <v>0.004851173285270525</v>
       </c>
       <c r="F92" t="n">
         <v>53.3</v>
@@ -7354,16 +7354,16 @@
         <v>53.3</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000620784266993</v>
+        <v>1.000610606817987</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0002002512350289065</v>
+        <v>0.000721605360202757</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5062272310319003</v>
+        <v>-0.5062264819121491</v>
       </c>
       <c r="E93" t="n">
-        <v>0.002644953445747928</v>
+        <v>0.00425633534533301</v>
       </c>
       <c r="F93" t="n">
         <v>53.3</v>
@@ -7380,16 +7380,16 @@
         <v>53.3</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000550263196458</v>
+        <v>1.000474097508123</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0002007979329701783</v>
+        <v>0.001080320066997439</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5061003303180938</v>
+        <v>-0.5064092183826965</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003959239297444964</v>
+        <v>0.006113999340722363</v>
       </c>
       <c r="F94" t="n">
         <v>53.3</v>
@@ -7406,16 +7406,16 @@
         <v>53.3</v>
       </c>
       <c r="B95" t="n">
-        <v>1.000516556301127</v>
+        <v>1.00045959536737</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0002017053289093405</v>
+        <v>0.001379098709518678</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5061315034096348</v>
+        <v>-0.5063592119607314</v>
       </c>
       <c r="E95" t="n">
-        <v>0.005406049519988286</v>
+        <v>0.008248853974274275</v>
       </c>
       <c r="F95" t="n">
         <v>53.3</v>
@@ -7432,16 +7432,16 @@
         <v>53.3</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000470185661629</v>
+        <v>1.000602996183679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0002005955371751021</v>
+        <v>0.001199024275062819</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5063136302463374</v>
+        <v>-0.505804417315685</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003542711462331786</v>
+        <v>0.005601004272982452</v>
       </c>
       <c r="F96" t="n">
         <v>53.3</v>
@@ -7458,16 +7458,16 @@
         <v>53.3</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000656091813321</v>
+        <v>1.000661081194216</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0002087154470196488</v>
+        <v>0.001913513434922257</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5061104072946581</v>
+        <v>-0.5061325505782506</v>
       </c>
       <c r="E97" t="n">
-        <v>0.008392382806412276</v>
+        <v>0.01097161309737691</v>
       </c>
       <c r="F97" t="n">
         <v>53.3</v>
@@ -7484,16 +7484,16 @@
         <v>53.3</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000599294679198</v>
+        <v>1.000636123656165</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0002002502386278681</v>
+        <v>0.0007901702009244709</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5059358667202738</v>
+        <v>-0.5058107092111097</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002400564934707965</v>
+        <v>0.004110820664145811</v>
       </c>
       <c r="F98" t="n">
         <v>53.3</v>
@@ -7510,16 +7510,16 @@
         <v>53.3</v>
       </c>
       <c r="B99" t="n">
-        <v>1.000544442610035</v>
+        <v>1.00053836934828</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0002005701114628424</v>
+        <v>0.0009399534291382433</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.506111271413237</v>
+        <v>-0.506125605945277</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003208582393354658</v>
+        <v>0.005638854492464365</v>
       </c>
       <c r="F99" t="n">
         <v>53.3</v>
@@ -7536,16 +7536,16 @@
         <v>53.3</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000556359095233</v>
+        <v>1.000530817137213</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0002014272396531811</v>
+        <v>0.001211993911052187</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5058731950764113</v>
+        <v>-0.505960899525677</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004782570732274951</v>
+        <v>0.006194528878177922</v>
       </c>
       <c r="F100" t="n">
         <v>53.3</v>
@@ -7562,16 +7562,16 @@
         <v>53.3</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000493531251504</v>
+        <v>1.000433138521917</v>
       </c>
       <c r="C101" t="n">
-        <v>0.000200357975457301</v>
+        <v>0.0008771725577071117</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5062691297655988</v>
+        <v>-0.5064637673963457</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002960027903448993</v>
+        <v>0.004726726183232247</v>
       </c>
       <c r="F101" t="n">
         <v>53.3</v>
@@ -7588,16 +7588,16 @@
         <v>63</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9932872240773045</v>
+        <v>0.993609043070439</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0003214573804803228</v>
+        <v>0.003675261623501156</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5981842302916385</v>
+        <v>-0.5978330238940046</v>
       </c>
       <c r="E102" t="n">
-        <v>0.004223187512648276</v>
+        <v>0.005538842596823998</v>
       </c>
       <c r="F102" t="n">
         <v>63</v>
@@ -7614,16 +7614,16 @@
         <v>63</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9933547533643154</v>
+        <v>0.9933441378487615</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0002189082519284775</v>
+        <v>0.001866615640028031</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5980991540634371</v>
+        <v>-0.5982324296488599</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00308755116739223</v>
+        <v>0.004628594341516246</v>
       </c>
       <c r="F103" t="n">
         <v>63</v>
@@ -7640,16 +7640,16 @@
         <v>63</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9935728895380683</v>
+        <v>0.9935451634232371</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0002883308977774104</v>
+        <v>0.002608195012124134</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.5978439980653754</v>
+        <v>-0.598004532451851</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003741132052603229</v>
+        <v>0.00536349260999619</v>
       </c>
       <c r="F104" t="n">
         <v>63</v>
@@ -7666,16 +7666,16 @@
         <v>63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9932780252444757</v>
+        <v>0.9933781374066903</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0002143816140937835</v>
+        <v>0.00205098054553995</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5981760760624946</v>
+        <v>-0.5981446834464457</v>
       </c>
       <c r="E105" t="n">
-        <v>0.002805198872508104</v>
+        <v>0.003709830379429907</v>
       </c>
       <c r="F105" t="n">
         <v>63</v>
@@ -7692,16 +7692,16 @@
         <v>63</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9934874881988445</v>
+        <v>0.9935827897740317</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0004711656859451345</v>
+        <v>0.004152092784849141</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5980588212818905</v>
+        <v>-0.5980415187920478</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00560783087210037</v>
+        <v>0.007335163400005551</v>
       </c>
       <c r="F106" t="n">
         <v>63</v>
@@ -7718,16 +7718,16 @@
         <v>63</v>
       </c>
       <c r="B107" t="n">
-        <v>0.993403094528759</v>
+        <v>0.9936036620381783</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0003366346822365624</v>
+        <v>0.003191712003945802</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5979843145938428</v>
+        <v>-0.5978125213384526</v>
       </c>
       <c r="E107" t="n">
-        <v>0.003979852579131891</v>
+        <v>0.004909480000741939</v>
       </c>
       <c r="F107" t="n">
         <v>63</v>
@@ -7744,16 +7744,16 @@
         <v>63</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9932438949661748</v>
+        <v>0.9933423866862273</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0002378637420593206</v>
+        <v>0.002105328961952996</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5981472541737975</v>
+        <v>-0.5981384246568551</v>
       </c>
       <c r="E108" t="n">
-        <v>0.004013545342578894</v>
+        <v>0.006313112995580744</v>
       </c>
       <c r="F108" t="n">
         <v>63</v>
@@ -7770,16 +7770,16 @@
         <v>63</v>
       </c>
       <c r="B109" t="n">
-        <v>0.993219996383284</v>
+        <v>0.9935934494081695</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0002216494512594587</v>
+        <v>0.002877934049586875</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5983212369449373</v>
+        <v>-0.5978748310729722</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002818275878640553</v>
+        <v>0.00452962797225895</v>
       </c>
       <c r="F109" t="n">
         <v>63</v>
@@ -7796,16 +7796,16 @@
         <v>63</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9933052721960159</v>
+        <v>0.9937549306925911</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0002703459175512921</v>
+        <v>0.003826416788780783</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5980732430423599</v>
+        <v>-0.5975195251815286</v>
       </c>
       <c r="E110" t="n">
-        <v>0.002945454947178319</v>
+        <v>0.00491435339585665</v>
       </c>
       <c r="F110" t="n">
         <v>63</v>
@@ -7822,16 +7822,16 @@
         <v>63</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9934632139540676</v>
+        <v>0.9934439517748848</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002070126270438726</v>
+        <v>0.001405665587211837</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.5978719539351669</v>
+        <v>-0.5980365085361097</v>
       </c>
       <c r="E111" t="n">
-        <v>0.00329547877177329</v>
+        <v>0.005643386462890524</v>
       </c>
       <c r="F111" t="n">
         <v>63</v>
@@ -7848,16 +7848,16 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9773385931454807</v>
+        <v>0.9773672385081553</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0004142212467894911</v>
+        <v>0.003294373029015147</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7593280758767991</v>
+        <v>-0.7593085485459579</v>
       </c>
       <c r="E112" t="n">
-        <v>0.004186502985197375</v>
+        <v>0.006691981182174617</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
@@ -7874,16 +7874,16 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9771296101863426</v>
+        <v>0.9770568942983117</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0002345474814460644</v>
+        <v>0.002072707229520107</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.7594812048112782</v>
+        <v>-0.759585253980573</v>
       </c>
       <c r="E113" t="n">
-        <v>0.002404314686534439</v>
+        <v>0.004651844801420861</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
@@ -7900,16 +7900,16 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9772289190854161</v>
+        <v>0.9773330043392641</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0002702161038916127</v>
+        <v>0.002836039237254087</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7592845187343706</v>
+        <v>-0.7591769772539516</v>
       </c>
       <c r="E114" t="n">
-        <v>0.002463405681158722</v>
+        <v>0.003795801339719317</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
@@ -7926,16 +7926,16 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9771367209136621</v>
+        <v>0.9769173494484292</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0002222855917316138</v>
+        <v>0.00213501599795046</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7593927169256611</v>
+        <v>-0.7596610019744823</v>
       </c>
       <c r="E115" t="n">
-        <v>0.002411727728855707</v>
+        <v>0.004103977969473237</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
@@ -7952,16 +7952,16 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.976948725562634</v>
+        <v>0.9770330603042341</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0002023288733545783</v>
+        <v>0.001370472485305246</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7596814231002114</v>
+        <v>-0.759581936355807</v>
       </c>
       <c r="E116" t="n">
-        <v>0.001595212732931071</v>
+        <v>0.003664989895547963</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
@@ -7978,16 +7978,16 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9769769991589669</v>
+        <v>0.9770670757599457</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0002275645487085131</v>
+        <v>0.002053003590165794</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7595444435715342</v>
+        <v>-0.7594534350453275</v>
       </c>
       <c r="E117" t="n">
-        <v>0.002235120552105557</v>
+        <v>0.003325854057400744</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
@@ -8004,16 +8004,16 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9769835114025244</v>
+        <v>0.97727855335486</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0002393377263208692</v>
+        <v>0.002636659902731799</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7595785227803358</v>
+        <v>-0.7592575880647487</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00246940526364616</v>
+        <v>0.004223077677804035</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
@@ -8030,16 +8030,16 @@
         <v>80</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9769683554209494</v>
+        <v>0.9769568755602309</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0002470424412635897</v>
+        <v>0.002139128627937573</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7595980071149029</v>
+        <v>-0.7596334843516139</v>
       </c>
       <c r="E119" t="n">
-        <v>0.002868451842135657</v>
+        <v>0.004986443537330014</v>
       </c>
       <c r="F119" t="n">
         <v>80</v>
@@ -8056,16 +8056,16 @@
         <v>80</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9771243046421342</v>
+        <v>0.9770935386965248</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0002401089045481967</v>
+        <v>0.002113526462711266</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.7594905691950506</v>
+        <v>-0.759547912043562</v>
       </c>
       <c r="E120" t="n">
-        <v>0.002392104227839055</v>
+        <v>0.00499431808539512</v>
       </c>
       <c r="F120" t="n">
         <v>80</v>
@@ -8082,16 +8082,16 @@
         <v>80</v>
       </c>
       <c r="B121" t="n">
-        <v>0.976839886182634</v>
+        <v>0.9768438386094048</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0003190414694118184</v>
+        <v>0.003046978857094563</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.7597402813638112</v>
+        <v>-0.759756260959787</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003644344763509791</v>
+        <v>0.006261351621934206</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
@@ -8108,16 +8108,16 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9534734312164834</v>
+        <v>0.9536723628860881</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0003060963125040676</v>
+        <v>0.002857554212102793</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9494397904147194</v>
+        <v>-0.9492785644020838</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002349614202041497</v>
+        <v>0.004493848113827721</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
@@ -8134,16 +8134,16 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.953531705241881</v>
+        <v>0.9535492386192076</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0002981599965536874</v>
+        <v>0.00263486033775006</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.949374183073088</v>
+        <v>-0.9493832113946539</v>
       </c>
       <c r="E123" t="n">
-        <v>0.002001032832276808</v>
+        <v>0.003464359251056624</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
@@ -8160,16 +8160,16 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9534304483753171</v>
+        <v>0.9534044362429831</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0002279084008761341</v>
+        <v>0.00189587253096481</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9494727683627859</v>
+        <v>-0.9495076592831753</v>
       </c>
       <c r="E124" t="n">
-        <v>0.002065366602779123</v>
+        <v>0.004611437809791574</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
@@ -8186,16 +8186,16 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9533983856296258</v>
+        <v>0.9534107461763913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0002218255636104626</v>
+        <v>0.001812366701951643</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.949450883902192</v>
+        <v>-0.9494685326768035</v>
       </c>
       <c r="E125" t="n">
-        <v>0.001610972119188533</v>
+        <v>0.00400470483723883</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
@@ -8212,16 +8212,16 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9535021538404916</v>
+        <v>0.9532681850557833</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0005105080140198922</v>
+        <v>0.003937734266115979</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9494387505861059</v>
+        <v>-0.9496383074775885</v>
       </c>
       <c r="E126" t="n">
-        <v>0.003420191446808043</v>
+        <v>0.00650869783947002</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
@@ -8238,16 +8238,16 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9535328229409408</v>
+        <v>0.9534028579313125</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0002065804172617633</v>
+        <v>0.001675625735045636</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9493938215736293</v>
+        <v>-0.9495127837432378</v>
       </c>
       <c r="E127" t="n">
-        <v>0.001504511355661023</v>
+        <v>0.003867806535743219</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
@@ -8264,16 +8264,16 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9535115265076828</v>
+        <v>0.9536685637054445</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0003139648763497221</v>
+        <v>0.00279542117693702</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9494635272100815</v>
+        <v>-0.9493191458279178</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002516133634952926</v>
+        <v>0.004234939253192484</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
@@ -8290,16 +8290,16 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9533355909832735</v>
+        <v>0.9532834765341595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.000206429447154063</v>
+        <v>0.001930185144422259</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9495897382606149</v>
+        <v>-0.9496468352985374</v>
       </c>
       <c r="E129" t="n">
-        <v>0.001670833436968708</v>
+        <v>0.004536224563268814</v>
       </c>
       <c r="F129" t="n">
         <v>100</v>
@@ -8316,16 +8316,16 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9534856843884345</v>
+        <v>0.9535609607676158</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0002406854449578131</v>
+        <v>0.002086040921758431</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.9494096826199812</v>
+        <v>-0.949367302335137</v>
       </c>
       <c r="E130" t="n">
-        <v>0.001786949208453121</v>
+        <v>0.003461517437083749</v>
       </c>
       <c r="F130" t="n">
         <v>100</v>
@@ -8342,16 +8342,16 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9535201588933181</v>
+        <v>0.9532003957519999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0003910853066532375</v>
+        <v>0.00354551107525869</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9494092029595516</v>
+        <v>-0.9496868314370346</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002734685482566235</v>
+        <v>0.005313167506045736</v>
       </c>
       <c r="F131" t="n">
         <v>100</v>
@@ -8368,16 +8368,16 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9160260156248803</v>
+        <v>0.9162213966211225</v>
       </c>
       <c r="C132" t="n">
-        <v>0.000219677007080347</v>
+        <v>0.002103105476014987</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.186892900063214</v>
+        <v>-1.186775480540248</v>
       </c>
       <c r="E132" t="n">
-        <v>0.001226687593737439</v>
+        <v>0.004292683278605573</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
@@ -8394,16 +8394,16 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9164766045234819</v>
+        <v>0.9163323517659354</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0002148323751415183</v>
+        <v>0.002008469913425571</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.18671978028957</v>
+        <v>-1.186816241052611</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00136174778336681</v>
+        <v>0.004013403993813464</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
@@ -8420,16 +8420,16 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9162221102174649</v>
+        <v>0.9163454239379402</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0002952002483581769</v>
+        <v>0.00276096699108088</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.186750634804273</v>
+        <v>-1.186676043609464</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001678360916798647</v>
+        <v>0.003577129038985786</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
@@ -8446,16 +8446,16 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9161285361565172</v>
+        <v>0.915928676409543</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0006189541988202283</v>
+        <v>0.004472782830740636</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.186801084326329</v>
+        <v>-1.186934717196241</v>
       </c>
       <c r="E135" t="n">
-        <v>0.003019798680575789</v>
+        <v>0.006839556890833488</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
@@ -8472,16 +8472,16 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9162630413548725</v>
+        <v>0.916260014249355</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0001841682466448285</v>
+        <v>0.0007473844244847192</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.186698436397284</v>
+        <v>-1.186717791636594</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0004992964239509996</v>
+        <v>0.004106913895196757</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
@@ -8498,16 +8498,16 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.916247089708894</v>
+        <v>0.9161366082827184</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0002045127962194483</v>
+        <v>0.00170426033094136</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.186740663861226</v>
+        <v>-1.186819929194208</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001018010668230124</v>
+        <v>0.004252764777256626</v>
       </c>
       <c r="F137" t="n">
         <v>125</v>
@@ -8524,16 +8524,16 @@
         <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9162653847917813</v>
+        <v>0.91630448418494</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0001903924395345058</v>
+        <v>0.001250669318780569</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.186749434407426</v>
+        <v>-1.186727544668891</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0009284174173492753</v>
+        <v>0.004143759149508187</v>
       </c>
       <c r="F138" t="n">
         <v>125</v>
@@ -8550,16 +8550,16 @@
         <v>125</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9163888226177119</v>
+        <v>0.916460794597816</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0002271681344947095</v>
+        <v>0.002194635398780813</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.186667918802726</v>
+        <v>-1.186623335950459</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001478898530910197</v>
+        <v>0.003831264963876578</v>
       </c>
       <c r="F139" t="n">
         <v>125</v>
@@ -8576,16 +8576,16 @@
         <v>125</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9161319818958276</v>
+        <v>0.9162872784285629</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0001953810999070923</v>
+        <v>0.001596117172106522</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.186792103798593</v>
+        <v>-1.186708836520877</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001004781991634631</v>
+        <v>0.004049248008121569</v>
       </c>
       <c r="F140" t="n">
         <v>125</v>
@@ -8602,16 +8602,16 @@
         <v>125</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9161460272840424</v>
+        <v>0.9163041784892635</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0004495410875801296</v>
+        <v>0.003502261441275344</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.186767211833148</v>
+        <v>-1.186687245420016</v>
       </c>
       <c r="E141" t="n">
-        <v>0.002422473946678165</v>
+        <v>0.005741075962155592</v>
       </c>
       <c r="F141" t="n">
         <v>125</v>
@@ -8628,16 +8628,16 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8538692100178427</v>
+        <v>0.8537130685920172</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0002431160912104415</v>
+        <v>0.002333927511534691</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518870022585636</v>
+        <v>-1.518957263416644</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001594220721155924</v>
+        <v>0.005038231598606383</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
@@ -8654,16 +8654,16 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8537552474768045</v>
+        <v>0.8537475791945858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.000188638997538229</v>
+        <v>0.001667926434727842</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.518925167609465</v>
+        <v>-1.518925185425918</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0009883464196047806</v>
+        <v>0.004705791011161697</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
@@ -8680,16 +8680,16 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8539580469428114</v>
+        <v>0.8537989210170074</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0001852675837169185</v>
+        <v>0.001660420122817111</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.518813144110231</v>
+        <v>-1.51890494335703</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0009454872450937536</v>
+        <v>0.00520023830833857</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
@@ -8706,16 +8706,16 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8538996873562616</v>
+        <v>0.8539377986780431</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0001800807676497656</v>
+        <v>0.001475448994753232</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518878220492227</v>
+        <v>-1.518845534123379</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0008432881444435529</v>
+        <v>0.004003344741634929</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
@@ -8732,16 +8732,16 @@
         <v>160</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8536995568534285</v>
+        <v>0.8537548058901007</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001782358700944419</v>
+        <v>0.001245126483056715</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.518952551849663</v>
+        <v>-1.51890956804284</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0007104629353557588</v>
+        <v>0.004834789713021865</v>
       </c>
       <c r="F146" t="n">
         <v>160</v>
@@ -8758,16 +8758,16 @@
         <v>160</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8537782946407581</v>
+        <v>0.8538721941565603</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001852887244497267</v>
+        <v>0.001792310428179335</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.51891055380993</v>
+        <v>-1.518855341387469</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001175151129513786</v>
+        <v>0.004253984988319569</v>
       </c>
       <c r="F147" t="n">
         <v>160</v>
@@ -8784,16 +8784,16 @@
         <v>160</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8538090245818687</v>
+        <v>0.8537185518354052</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0002242147235689288</v>
+        <v>0.002141531382027174</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.518941370688955</v>
+        <v>-1.518985094083956</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001158086983551431</v>
+        <v>0.005242758785864926</v>
       </c>
       <c r="F148" t="n">
         <v>160</v>
@@ -8810,16 +8810,16 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>0.853761273370953</v>
+        <v>0.8535673914642806</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0002190724868964338</v>
+        <v>0.002304711307315401</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.518930729701374</v>
+        <v>-1.519042507573966</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001383425296345293</v>
+        <v>0.005919520811857319</v>
       </c>
       <c r="F149" t="n">
         <v>160</v>
@@ -8836,16 +8836,16 @@
         <v>160</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8537896141497845</v>
+        <v>0.8538580717666445</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001784787740042403</v>
+        <v>0.001513108938634076</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.518915155196565</v>
+        <v>-1.518856152148558</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0008108145158513852</v>
+        <v>0.004518998936653497</v>
       </c>
       <c r="F150" t="n">
         <v>160</v>
@@ -8862,16 +8862,16 @@
         <v>160</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8538643661887075</v>
+        <v>0.8538393931909605</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002858436294607895</v>
+        <v>0.002602019510316377</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.518878572578165</v>
+        <v>-1.518891076841971</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001571806087972125</v>
+        <v>0.005865772468171948</v>
       </c>
       <c r="F151" t="n">
         <v>160</v>
@@ -8888,16 +8888,16 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7678427368660989</v>
+        <v>0.767973392627754</v>
       </c>
       <c r="C152" t="n">
-        <v>0.000164258533617123</v>
+        <v>0.001547879424923332</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.898789215822423</v>
+        <v>-1.898711674283948</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0008028165193292708</v>
+        <v>0.005764819488127598</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
@@ -8914,16 +8914,16 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7677805423150965</v>
+        <v>0.7677026025888861</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0002274177124019781</v>
+        <v>0.002281667845805054</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.898831312670989</v>
+        <v>-1.898889341178682</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001486084779263047</v>
+        <v>0.007073704800521513</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
@@ -8940,16 +8940,16 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7677849814178102</v>
+        <v>0.7678374399053182</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0001734908899557549</v>
+        <v>0.001713058623123475</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.898860571207726</v>
+        <v>-1.898824822448728</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001082728401670501</v>
+        <v>0.006015613213404627</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
@@ -8966,16 +8966,16 @@
         <v>200</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7677501767421563</v>
+        <v>0.7677936052828351</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001568753713176777</v>
+        <v>0.001012722093059642</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.898818660721749</v>
+        <v>-1.898817535608363</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0006041824540959318</v>
+        <v>0.006199084543365822</v>
       </c>
       <c r="F155" t="n">
         <v>200</v>
@@ -8992,16 +8992,16 @@
         <v>200</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7677315544227112</v>
+        <v>0.7676201914460895</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0002885791249267409</v>
+        <v>0.00276331226970383</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.898873336736014</v>
+        <v>-1.898937768017423</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001572989306463642</v>
+        <v>0.007245890773101298</v>
       </c>
       <c r="F156" t="n">
         <v>200</v>
@@ -9018,16 +9018,16 @@
         <v>200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7679489344446905</v>
+        <v>0.7677853849835301</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001662517053222207</v>
+        <v>0.001810771245515849</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.898771966241171</v>
+        <v>-1.898862027733254</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0008860317658612367</v>
+        <v>0.005909774464973042</v>
       </c>
       <c r="F157" t="n">
         <v>200</v>
@@ -9044,16 +9044,16 @@
         <v>200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7677839390778856</v>
+        <v>0.7678341837214102</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001554175935354015</v>
+        <v>0.0009052508237622919</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.89883951831524</v>
+        <v>-1.89880612821479</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0004561991390807118</v>
+        <v>0.005927488390928566</v>
       </c>
       <c r="F158" t="n">
         <v>200</v>
@@ -9070,16 +9070,16 @@
         <v>200</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7678061108824654</v>
+        <v>0.7676848333054214</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001592117084012568</v>
+        <v>0.001532421157521543</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.898792497185412</v>
+        <v>-1.898865848605849</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0007782924740946533</v>
+        <v>0.006601104405607319</v>
       </c>
       <c r="F159" t="n">
         <v>200</v>
@@ -9096,16 +9096,16 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7678404092266088</v>
+        <v>0.7676011884255919</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0001729354541018705</v>
+        <v>0.001988281313519</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.898816251252528</v>
+        <v>-1.898951906504367</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0009678148263502773</v>
+        <v>0.006577764863504075</v>
       </c>
       <c r="F160" t="n">
         <v>200</v>
@@ -9122,16 +9122,16 @@
         <v>200</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7678233764959891</v>
+        <v>0.7678369504370306</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0001582310834873601</v>
+        <v>0.001209695568053307</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.898825077523169</v>
+        <v>-1.898817295384235</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0007893102077219654</v>
+        <v>0.005722062779269903</v>
       </c>
       <c r="F161" t="n">
         <v>200</v>
@@ -9148,16 +9148,16 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6438985052257252</v>
+        <v>0.6438159094278254</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0001339658731624506</v>
+        <v>0.001209877455052989</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.37342357513725</v>
+        <v>-2.373469497947217</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0006823037877502049</v>
+        <v>0.0080199974252394</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
@@ -9174,16 +9174,16 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.643890927304944</v>
+        <v>0.6439481886385021</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0001326065857886827</v>
+        <v>0.001068376881290346</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.373398454032237</v>
+        <v>-2.373366263687108</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0005846983849055449</v>
+        <v>0.007454844843179788</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
@@ -9200,16 +9200,16 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6439273126748689</v>
+        <v>0.6439261660267577</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0002003332163465742</v>
+        <v>0.002109836945314549</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.373395439587937</v>
+        <v>-2.373405029794463</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001280991720070382</v>
+        <v>0.007242463194647093</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
@@ -9226,16 +9226,16 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6439420168139012</v>
+        <v>0.6438827793194887</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0001751815696430034</v>
+        <v>0.001898897928988318</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.373390869531141</v>
+        <v>-2.373431931787326</v>
       </c>
       <c r="E165" t="n">
-        <v>0.001141123768057228</v>
+        <v>0.007226818348886299</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
@@ -9252,16 +9252,16 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6439538208920479</v>
+        <v>0.6439220732926512</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0001755458483976829</v>
+        <v>0.00189988428110082</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.373373581102785</v>
+        <v>-2.373399782437906</v>
       </c>
       <c r="E166" t="n">
-        <v>0.001335394106100473</v>
+        <v>0.008129548810449201</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
@@ -9278,16 +9278,16 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6440044797790531</v>
+        <v>0.6439087386699857</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0001315180391396566</v>
+        <v>0.001019569437216613</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.373351856395608</v>
+        <v>-2.373413784479109</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0006105656198151391</v>
+        <v>0.007331118610537532</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
@@ -9304,16 +9304,16 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6439835914636697</v>
+        <v>0.6438832706049067</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0001534057258402936</v>
+        <v>0.00165124533711729</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.373359802398481</v>
+        <v>-2.373423819147928</v>
       </c>
       <c r="E168" t="n">
-        <v>0.00103388782145318</v>
+        <v>0.006668073053671286</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
@@ -9330,16 +9330,16 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6439448829325625</v>
+        <v>0.6440422111847639</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0001688364159781122</v>
+        <v>0.001829084647955733</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.373372265026249</v>
+        <v>-2.373321658998223</v>
       </c>
       <c r="E169" t="n">
-        <v>0.001164206255856089</v>
+        <v>0.006898812451600783</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
@@ -9356,16 +9356,16 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6438338083667479</v>
+        <v>0.6438503975612681</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0001487276874490099</v>
+        <v>0.001452954063663897</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.373437102216548</v>
+        <v>-2.373434322574614</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0008023266537947289</v>
+        <v>0.007218091608104188</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
@@ -9382,16 +9382,16 @@
         <v>250</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6438238979311784</v>
+        <v>0.6439465692693739</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0001300787898129155</v>
+        <v>0.0009777696881257843</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.37344989758137</v>
+        <v>-2.37338492392807</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0003943215025503633</v>
+        <v>0.007703397077217346</v>
       </c>
       <c r="F171" t="n">
         <v>250</v>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,31 +475,41 @@
           <t>Excitation_amplitude_uncert [m s^-2]</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.01638514768088</v>
+        <v>1.016207539756279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003711884756216255</v>
+        <v>0.004531459390946134</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09491274360752522</v>
+        <v>-0.09490720713416123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02198807832947833</v>
+        <v>0.02271408101141177</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7526</v>
+        <v>2.7543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0027526</v>
+        <v>0.0027543</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -527,31 +537,41 @@
       <c r="H3" t="n">
         <v>0.0027605</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.016145503084303</v>
+        <v>1.016153206936212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004643536762303889</v>
+        <v>0.00707292019168445</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09491544902058835</v>
+        <v>-0.09505880135712808</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02264162607413026</v>
+        <v>0.02207538812964361</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.751</v>
+        <v>2.7517</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002751</v>
+        <v>0.0027517</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -559,25 +579,30 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.016437602684947</v>
+        <v>1.016145503084303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003429891011434008</v>
+        <v>0.004643536762303889</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09495242943792248</v>
+        <v>-0.09491544902058835</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02241606301790203</v>
+        <v>0.02264162607413026</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7493</v>
+        <v>2.751</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0027493</v>
+        <v>0.002751</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -585,25 +610,30 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.016253016569125</v>
+        <v>1.01638514768088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003156910721065089</v>
+        <v>0.003711884756216255</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09492451212744757</v>
+        <v>-0.09491274360752522</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02264241446322962</v>
+        <v>0.02198807832947833</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.755</v>
+        <v>2.7526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002755</v>
+        <v>0.0027526</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -611,25 +641,30 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.016314477074825</v>
+        <v>1.016437602684947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002253947662356673</v>
+        <v>0.003429891011434008</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09499844436394134</v>
+        <v>-0.09495242943792248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02213587594345529</v>
+        <v>0.02241606301790203</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7496</v>
+        <v>2.7493</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0027496</v>
+        <v>0.0027493</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -637,25 +672,30 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.016207539756279</v>
+        <v>1.016253016569125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004531459390946134</v>
+        <v>0.003156910721065089</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09490720713416123</v>
+        <v>-0.09492451212744757</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02271408101141177</v>
+        <v>0.02264241446322962</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7543</v>
+        <v>2.755</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0027543</v>
+        <v>0.002755</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -663,25 +703,30 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.016153206936212</v>
+        <v>1.016352467813792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00707292019168445</v>
+        <v>0.002821735764250417</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09505880135712808</v>
+        <v>-0.09500445792537127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02207538812964361</v>
+        <v>0.02258585368318776</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7517</v>
+        <v>2.7509</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0027517</v>
+        <v>0.0027509</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -689,25 +734,30 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.016352467813792</v>
+        <v>1.016314477074825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002821735764250417</v>
+        <v>0.002253947662356673</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09500445792537127</v>
+        <v>-0.09499844436394134</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02258585368318776</v>
+        <v>0.02213587594345529</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7509</v>
+        <v>2.7496</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0027509</v>
+        <v>0.0027496</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -715,25 +765,30 @@
         <v>12.5</v>
       </c>
       <c r="B11" t="n">
-        <v>1.016039726500778</v>
+        <v>1.016054889172679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00328595251820209</v>
+        <v>0.002570625926799563</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.118755208388883</v>
+        <v>-0.1186166153911385</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01820734582261746</v>
+        <v>0.0176631871848842</v>
       </c>
       <c r="F11" t="n">
         <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7254</v>
+        <v>2.7303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0027254</v>
+        <v>0.0027303</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -741,25 +796,30 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.015923718913078</v>
+        <v>1.015991683259904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002802230591435549</v>
+        <v>0.002582048633072647</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1187441528976625</v>
+        <v>-0.1187707272520968</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01787240661477236</v>
+        <v>0.01804868477164346</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7312</v>
+        <v>2.7339</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0027312</v>
+        <v>0.0027339</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -767,25 +827,30 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.016054889172679</v>
+        <v>1.015947794966095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002570625926799563</v>
+        <v>0.002350317249587497</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1186166153911385</v>
+        <v>-0.1185860080372783</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0176631871848842</v>
+        <v>0.01801680207211074</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7303</v>
+        <v>2.7305</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0027303</v>
+        <v>0.0027305</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -793,25 +858,30 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.015947794966095</v>
+        <v>1.016074673827146</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002350317249587497</v>
+        <v>0.002341797479011423</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1185860080372783</v>
+        <v>-0.1186206099236873</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01801680207211074</v>
+        <v>0.01747605540183241</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7305</v>
+        <v>2.7289</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0027305</v>
+        <v>0.0027289</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -839,31 +909,41 @@
       <c r="H15" t="n">
         <v>0.002731</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.01585944468287</v>
+        <v>1.015845834985022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002894666322553297</v>
+        <v>0.00245110583178475</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1186047329239566</v>
+        <v>-0.1186740919703169</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01773694573473413</v>
+        <v>0.01778143376822213</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.722</v>
+        <v>2.7319</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002722</v>
+        <v>0.0027319</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -871,25 +951,30 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.015845834985022</v>
+        <v>1.015923718913078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00245110583178475</v>
+        <v>0.002802230591435549</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1186740919703169</v>
+        <v>-0.1187441528976625</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01778143376822213</v>
+        <v>0.01787240661477236</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7319</v>
+        <v>2.7312</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0027319</v>
+        <v>0.0027312</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -897,25 +982,30 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.015991683259904</v>
+        <v>1.01585944468287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002582048633072647</v>
+        <v>0.002894666322553297</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1187707272520968</v>
+        <v>-0.1186047329239566</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01804868477164346</v>
+        <v>0.01773694573473413</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7339</v>
+        <v>2.722</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0027339</v>
+        <v>0.002722</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -923,25 +1013,30 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016074673827146</v>
+        <v>1.016039726500778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002341797479011423</v>
+        <v>0.00328595251820209</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1186206099236873</v>
+        <v>-0.118755208388883</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01747605540183241</v>
+        <v>0.01820734582261746</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7289</v>
+        <v>2.7254</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0027289</v>
+        <v>0.0027254</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -949,25 +1044,30 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.015302893027231</v>
+        <v>1.015282018106542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002538425312341473</v>
+        <v>0.001885508951768424</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1519370221750491</v>
+        <v>-0.1519344101758771</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02296282828021545</v>
+        <v>0.02311092095585535</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5326</v>
+        <v>5.5359</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0055326</v>
+        <v>0.0055359</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -975,25 +1075,30 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0153879780787</v>
+        <v>1.015342313862287</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002698441934644306</v>
+        <v>0.002743192178773673</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1519714866161477</v>
+        <v>-0.1520294086538947</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02437106898473681</v>
+        <v>0.02321177607119645</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5313</v>
+        <v>5.5397</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0055313</v>
+        <v>0.0055397</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1021,31 +1126,41 @@
       <c r="H22" t="n">
         <v>0.0055324</v>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.015482611373922</v>
+        <v>1.0153879780787</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002577644110647759</v>
+        <v>0.002698441934644306</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1521293683683711</v>
+        <v>-0.1519714866161477</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02372831544323271</v>
+        <v>0.02437106898473681</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>5.5403</v>
+        <v>5.5313</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005540300000000001</v>
+        <v>0.0055313</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1053,25 +1168,30 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.015282018106542</v>
+        <v>1.015302893027231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001885508951768424</v>
+        <v>0.002538425312341473</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1519344101758771</v>
+        <v>-0.1519370221750491</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02311092095585535</v>
+        <v>0.02296282828021545</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5359</v>
+        <v>5.5326</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0055359</v>
+        <v>0.0055326</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1079,25 +1199,30 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.015286591307104</v>
+        <v>1.015232410181011</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00223956812398922</v>
+        <v>0.002660228033026593</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1520289935833814</v>
+        <v>-0.1519881286168721</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02310476570907403</v>
+        <v>0.02406381665638004</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>5.5311</v>
+        <v>5.5332</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005531100000000001</v>
+        <v>0.0055332</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1105,25 +1230,30 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.015232410181011</v>
+        <v>1.015334405625699</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002660228033026593</v>
+        <v>0.002405539713390132</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1519881286168721</v>
+        <v>-0.1520705541895264</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02406381665638004</v>
+        <v>0.02344121263499648</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>5.5332</v>
+        <v>5.5391</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0055332</v>
+        <v>0.005539100000000001</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1131,25 +1261,30 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.015342313862287</v>
+        <v>1.015286591307104</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002743192178773673</v>
+        <v>0.00223956812398922</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1520294086538947</v>
+        <v>-0.1520289935833814</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02321177607119645</v>
+        <v>0.02310476570907403</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5397</v>
+        <v>5.5311</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0055397</v>
+        <v>0.005531100000000001</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1157,25 +1292,30 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.015334405625699</v>
+        <v>1.015482611373922</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002405539713390132</v>
+        <v>0.002577644110647759</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1520705541895264</v>
+        <v>-0.1521293683683711</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02344121263499648</v>
+        <v>0.02372831544323271</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>5.5391</v>
+        <v>5.5403</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005539100000000001</v>
+        <v>0.005540300000000001</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1183,25 +1323,30 @@
         <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>1.014171209029995</v>
+        <v>1.014320680382152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002662253860059705</v>
+        <v>0.002049333437869113</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.189971241753474</v>
+        <v>-0.1899805815150548</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02925702283818337</v>
+        <v>0.0294843582694611</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>5.5322</v>
+        <v>5.5261</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005532199999999999</v>
+        <v>0.0055261</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1209,25 +1354,30 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01431230210048</v>
+        <v>1.014254268289302</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00171816024842055</v>
+        <v>0.002202028723031608</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1899769180571484</v>
+        <v>-0.1900152941844038</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0289312323916842</v>
+        <v>0.02903441900374978</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5248</v>
+        <v>5.5276</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0055248</v>
+        <v>0.0055276</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1235,25 +1385,30 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>1.014311362973607</v>
+        <v>1.014329358136625</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00204827803246876</v>
+        <v>0.002104135564413362</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1899737813179811</v>
+        <v>-0.1900115983222612</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02947381164085018</v>
+        <v>0.02952017561798939</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>5.531</v>
+        <v>5.5319</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005530999999999999</v>
+        <v>0.0055319</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1261,25 +1416,30 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.014320680382152</v>
+        <v>1.014266459513944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002049333437869113</v>
+        <v>0.002051205660567484</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1899805815150548</v>
+        <v>-0.190014680141718</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0294843582694611</v>
+        <v>0.0295051435478065</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>5.5261</v>
+        <v>5.5372</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0055261</v>
+        <v>0.005537200000000001</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1287,25 +1447,30 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.014266459513944</v>
+        <v>1.01431230210048</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002051205660567484</v>
+        <v>0.00171816024842055</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.190014680141718</v>
+        <v>-0.1899769180571484</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0295051435478065</v>
+        <v>0.0289312323916842</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>5.5372</v>
+        <v>5.5248</v>
       </c>
       <c r="H33" t="n">
-        <v>0.005537200000000001</v>
+        <v>0.0055248</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1333,31 +1498,41 @@
       <c r="H34" t="n">
         <v>0.005528</v>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.014254268289302</v>
+        <v>1.014311362973607</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002202028723031608</v>
+        <v>0.00204827803246876</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1900152941844038</v>
+        <v>-0.1899737813179811</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02903441900374978</v>
+        <v>0.02947381164085018</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>5.5276</v>
+        <v>5.531</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0055276</v>
+        <v>0.005530999999999999</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1385,31 +1560,41 @@
       <c r="H36" t="n">
         <v>0.0055318</v>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.014329358136625</v>
+        <v>1.014171209029995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002104135564413362</v>
+        <v>0.002662253860059705</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1900115983222612</v>
+        <v>-0.189971241753474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02952017561798939</v>
+        <v>0.02925702283818337</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>5.5319</v>
+        <v>5.5322</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0055319</v>
+        <v>0.005532199999999999</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1417,25 +1602,30 @@
         <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>1.012837127414155</v>
+        <v>1.012774801663638</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001578855140772048</v>
+        <v>0.00245415106309392</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2375776268843728</v>
+        <v>-0.2375088122940803</v>
       </c>
       <c r="E38" t="n">
-        <v>0.026497305501099</v>
+        <v>0.02600279443418478</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>11.262</v>
+        <v>11.286</v>
       </c>
       <c r="H38" t="n">
-        <v>0.011262</v>
+        <v>0.011286</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1443,25 +1633,30 @@
         <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>1.012700859568802</v>
+        <v>1.012663449807397</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001668270186322513</v>
+        <v>0.002458578643820421</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.237493705191449</v>
+        <v>-0.2374420956450813</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02693143563286531</v>
+        <v>0.02637996130677683</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>11.268</v>
+        <v>11.258</v>
       </c>
       <c r="H39" t="n">
-        <v>0.011268</v>
+        <v>0.011258</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1469,25 +1664,30 @@
         <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>1.012894535276204</v>
+        <v>1.012700859568802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003215025888625154</v>
+        <v>0.001668270186322513</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2376703086788803</v>
+        <v>-0.237493705191449</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02737603677396717</v>
+        <v>0.02693143563286531</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>11.29</v>
+        <v>11.268</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01129</v>
+        <v>0.011268</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1495,25 +1695,30 @@
         <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>1.012821150438673</v>
+        <v>1.012894535276204</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002178030558297567</v>
+        <v>0.003215025888625154</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2375709124997145</v>
+        <v>-0.2376703086788803</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02763829542063597</v>
+        <v>0.02737603677396717</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>11.28</v>
+        <v>11.29</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01128</v>
+        <v>0.01129</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1521,25 +1726,30 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.012774801663638</v>
+        <v>1.012821150438673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00245415106309392</v>
+        <v>0.002178030558297567</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2375088122940803</v>
+        <v>-0.2375709124997145</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02600279443418478</v>
+        <v>0.02763829542063597</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>11.286</v>
+        <v>11.28</v>
       </c>
       <c r="H42" t="n">
-        <v>0.011286</v>
+        <v>0.01128</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1547,25 +1757,30 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.012756325781004</v>
+        <v>1.012685169795308</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001985719130319595</v>
+        <v>0.001950269404165584</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2374897096982078</v>
+        <v>-0.2374170860742228</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02589123236039342</v>
+        <v>0.02623656742759538</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
       </c>
       <c r="G43" t="n">
-        <v>11.268</v>
+        <v>11.262</v>
       </c>
       <c r="H43" t="n">
-        <v>0.011268</v>
+        <v>0.011262</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1573,25 +1788,30 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.012698705865833</v>
+        <v>1.012756325781004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001614150899862786</v>
+        <v>0.001985719130319595</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2374714018630524</v>
+        <v>-0.2374897096982078</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02706757448749505</v>
+        <v>0.02589123236039342</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>11.284</v>
+        <v>11.268</v>
       </c>
       <c r="H44" t="n">
-        <v>0.011284</v>
+        <v>0.011268</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1599,25 +1819,30 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.012685169795308</v>
+        <v>1.012698705865833</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001950269404165584</v>
+        <v>0.001614150899862786</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2374170860742228</v>
+        <v>-0.2374714018630524</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02623656742759538</v>
+        <v>0.02706757448749505</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>11.262</v>
+        <v>11.284</v>
       </c>
       <c r="H45" t="n">
-        <v>0.011262</v>
+        <v>0.011284</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1625,25 +1850,30 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.012663449807397</v>
+        <v>1.012837127414155</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002458578643820421</v>
+        <v>0.001578855140772048</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2374420956450813</v>
+        <v>-0.2375776268843728</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02637996130677683</v>
+        <v>0.026497305501099</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>11.258</v>
+        <v>11.262</v>
       </c>
       <c r="H46" t="n">
-        <v>0.011258</v>
+        <v>0.011262</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1651,25 +1881,30 @@
         <v>31.5</v>
       </c>
       <c r="B47" t="n">
-        <v>1.010273578548875</v>
+        <v>1.010222492594819</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002131237307668968</v>
+        <v>0.001404485403449997</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2992680018864624</v>
+        <v>-0.2992005181410653</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03233462212194643</v>
+        <v>0.03379744711134432</v>
       </c>
       <c r="F47" t="n">
         <v>31.5</v>
       </c>
       <c r="G47" t="n">
-        <v>11.462</v>
+        <v>11.475</v>
       </c>
       <c r="H47" t="n">
-        <v>0.011462</v>
+        <v>0.011475</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1697,22 +1932,27 @@
       <c r="H48" t="n">
         <v>0.011466</v>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31.5</v>
       </c>
       <c r="B49" t="n">
-        <v>1.010222240589606</v>
+        <v>1.010239566270887</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001514309245440176</v>
+        <v>0.001470961602983216</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2992118050267822</v>
+        <v>-0.2992468509901083</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03365709592575052</v>
+        <v>0.03369820840447599</v>
       </c>
       <c r="F49" t="n">
         <v>31.5</v>
@@ -1722,6 +1962,11 @@
       </c>
       <c r="H49" t="n">
         <v>0.011473</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1729,25 +1974,30 @@
         <v>31.5</v>
       </c>
       <c r="B50" t="n">
-        <v>1.010198342071692</v>
+        <v>1.010273578548875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001527782228362219</v>
+        <v>0.002131237307668968</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2992344576484474</v>
+        <v>-0.2992680018864624</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03375255537777028</v>
+        <v>0.03233462212194643</v>
       </c>
       <c r="F50" t="n">
         <v>31.5</v>
       </c>
       <c r="G50" t="n">
-        <v>11.468</v>
+        <v>11.462</v>
       </c>
       <c r="H50" t="n">
-        <v>0.011468</v>
+        <v>0.011462</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1755,25 +2005,30 @@
         <v>31.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1.010146301424405</v>
+        <v>1.010288407684945</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001512433377935116</v>
+        <v>0.001951564609442384</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2992378595369365</v>
+        <v>-0.2993486182415808</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03383168762561344</v>
+        <v>0.03426055447383321</v>
       </c>
       <c r="F51" t="n">
         <v>31.5</v>
       </c>
       <c r="G51" t="n">
-        <v>11.473</v>
+        <v>11.474</v>
       </c>
       <c r="H51" t="n">
-        <v>0.011473</v>
+        <v>0.011474</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1781,25 +2036,30 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.010288407684945</v>
+        <v>1.010106223564815</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001951564609442384</v>
+        <v>0.001822771173320155</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2993486182415808</v>
+        <v>-0.2992006403042344</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03426055447383321</v>
+        <v>0.0344301434511199</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
       </c>
       <c r="G52" t="n">
-        <v>11.474</v>
+        <v>11.482</v>
       </c>
       <c r="H52" t="n">
-        <v>0.011474</v>
+        <v>0.011482</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1807,25 +2067,30 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.010222492594819</v>
+        <v>1.010198342071692</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001404485403449997</v>
+        <v>0.001527782228362219</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2992005181410653</v>
+        <v>-0.2992344576484474</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03379744711134432</v>
+        <v>0.03375255537777028</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
       </c>
       <c r="G53" t="n">
-        <v>11.475</v>
+        <v>11.468</v>
       </c>
       <c r="H53" t="n">
-        <v>0.011475</v>
+        <v>0.011468</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1833,16 +2098,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.010239566270887</v>
+        <v>1.010146301424405</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001470961602983216</v>
+        <v>0.001512433377935116</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2992468509901083</v>
+        <v>-0.2992378595369365</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03369820840447599</v>
+        <v>0.03383168762561344</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -1852,6 +2117,11 @@
       </c>
       <c r="H54" t="n">
         <v>0.011473</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1859,25 +2129,30 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.010106223564815</v>
+        <v>1.010222240589606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001822771173320155</v>
+        <v>0.001514309245440176</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2992006403042344</v>
+        <v>-0.2992118050267822</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0344301434511199</v>
+        <v>0.03365709592575052</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
       </c>
       <c r="G55" t="n">
-        <v>11.482</v>
+        <v>11.473</v>
       </c>
       <c r="H55" t="n">
-        <v>0.011482</v>
+        <v>0.011473</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1885,25 +2160,30 @@
         <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>1.006124556800714</v>
+        <v>1.006057677015976</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001342915393307466</v>
+        <v>0.001336822795173632</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3799257519756249</v>
+        <v>-0.379943423006381</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04313692249731006</v>
+        <v>0.04399599665903824</v>
       </c>
       <c r="F56" t="n">
         <v>40</v>
       </c>
       <c r="G56" t="n">
-        <v>23.251</v>
+        <v>23.275</v>
       </c>
       <c r="H56" t="n">
-        <v>0.023251</v>
+        <v>0.023275</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1911,25 +2191,30 @@
         <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>1.006056657059509</v>
+        <v>1.00612412882897</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001241050140502866</v>
+        <v>0.001514332743423973</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3799643584165806</v>
+        <v>-0.3800516738755437</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04344476299043309</v>
+        <v>0.04284934826734735</v>
       </c>
       <c r="F57" t="n">
         <v>40</v>
       </c>
       <c r="G57" t="n">
-        <v>23.25</v>
+        <v>23.27</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02325</v>
+        <v>0.02327</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1937,25 +2222,30 @@
         <v>40</v>
       </c>
       <c r="B58" t="n">
-        <v>1.00611784983105</v>
+        <v>1.006083396874479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001423775519815758</v>
+        <v>0.001292238767940276</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3799781200214305</v>
+        <v>-0.3800310172268366</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04392045008472668</v>
+        <v>0.04420372257544087</v>
       </c>
       <c r="F58" t="n">
         <v>40</v>
       </c>
       <c r="G58" t="n">
-        <v>23.28</v>
+        <v>23.277</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02328</v>
+        <v>0.023277</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1963,25 +2253,30 @@
         <v>40</v>
       </c>
       <c r="B59" t="n">
-        <v>1.006051009251255</v>
+        <v>1.006082394952695</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001270083877033564</v>
+        <v>0.001301068437693556</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3799546151133977</v>
+        <v>-0.3800040587650315</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04403471120818674</v>
+        <v>0.04336935929031452</v>
       </c>
       <c r="F59" t="n">
         <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>23.24</v>
+        <v>23.294</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02324</v>
+        <v>0.023294</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1989,25 +2284,30 @@
         <v>40</v>
       </c>
       <c r="B60" t="n">
-        <v>1.00612412882897</v>
+        <v>1.00611784983105</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001514332743423973</v>
+        <v>0.001423775519815758</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3800516738755437</v>
+        <v>-0.3799781200214305</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04284934826734735</v>
+        <v>0.04392045008472668</v>
       </c>
       <c r="F60" t="n">
         <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>23.27</v>
+        <v>23.28</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02327</v>
+        <v>0.02328</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2015,25 +2315,30 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>1.006082394952695</v>
+        <v>1.006245669343376</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001301068437693556</v>
+        <v>0.002020827506427933</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3800040587650315</v>
+        <v>-0.3803461216024107</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04336935929031452</v>
+        <v>0.0451035476203637</v>
       </c>
       <c r="F61" t="n">
         <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>23.294</v>
+        <v>23.256</v>
       </c>
       <c r="H61" t="n">
-        <v>0.023294</v>
+        <v>0.023256</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2041,25 +2346,30 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.006057677015976</v>
+        <v>1.006056657059509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.001336822795173632</v>
+        <v>0.001241050140502866</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.379943423006381</v>
+        <v>-0.3799643584165806</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04399599665903824</v>
+        <v>0.04344476299043309</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>23.275</v>
+        <v>23.25</v>
       </c>
       <c r="H62" t="n">
-        <v>0.023275</v>
+        <v>0.02325</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2067,25 +2377,30 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.006083396874479</v>
+        <v>1.006124556800714</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001292238767940276</v>
+        <v>0.001342915393307466</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3800310172268366</v>
+        <v>-0.3799257519756249</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04420372257544087</v>
+        <v>0.04313692249731006</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>23.277</v>
+        <v>23.251</v>
       </c>
       <c r="H63" t="n">
-        <v>0.023277</v>
+        <v>0.023251</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2093,25 +2408,30 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.006245669343376</v>
+        <v>1.006051009251255</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002020827506427933</v>
+        <v>0.001270083877033564</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3803461216024107</v>
+        <v>-0.3799546151133977</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0451035476203637</v>
+        <v>0.04403471120818674</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>23.256</v>
+        <v>23.24</v>
       </c>
       <c r="H64" t="n">
-        <v>0.023256</v>
+        <v>0.02324</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2119,25 +2439,30 @@
         <v>46.7</v>
       </c>
       <c r="B65" t="n">
-        <v>1.002259414839683</v>
+        <v>1.002322915513999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001875458373005746</v>
+        <v>0.001418010735913533</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.4436981799798221</v>
+        <v>-0.4439458381087196</v>
       </c>
       <c r="E65" t="n">
-        <v>0.05431420759330401</v>
+        <v>0.04956200666719368</v>
       </c>
       <c r="F65" t="n">
         <v>46.7</v>
       </c>
       <c r="G65" t="n">
-        <v>58.824</v>
+        <v>58.714</v>
       </c>
       <c r="H65" t="n">
-        <v>0.058824</v>
+        <v>0.058714</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2145,25 +2470,30 @@
         <v>46.7</v>
       </c>
       <c r="B66" t="n">
-        <v>1.002274921790924</v>
+        <v>1.002270052586507</v>
       </c>
       <c r="C66" t="n">
-        <v>0.002206356630546909</v>
+        <v>0.00136055666253099</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.443757902623247</v>
+        <v>-0.4438546711761839</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05073249249216184</v>
+        <v>0.05219308006835055</v>
       </c>
       <c r="F66" t="n">
         <v>46.7</v>
       </c>
       <c r="G66" t="n">
-        <v>58.744</v>
+        <v>58.719</v>
       </c>
       <c r="H66" t="n">
-        <v>0.058744</v>
+        <v>0.058719</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2191,31 +2521,41 @@
       <c r="H67" t="n">
         <v>0.058706</v>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>46.7</v>
       </c>
       <c r="B68" t="n">
-        <v>1.002322915513999</v>
+        <v>1.002275478404835</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001418010735913533</v>
+        <v>0.003951092358045093</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.4439458381087196</v>
+        <v>-0.443781652421348</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04956200666719368</v>
+        <v>0.05347735105702025</v>
       </c>
       <c r="F68" t="n">
         <v>46.7</v>
       </c>
       <c r="G68" t="n">
-        <v>58.714</v>
+        <v>58.79</v>
       </c>
       <c r="H68" t="n">
-        <v>0.058714</v>
+        <v>0.05879</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2223,25 +2563,30 @@
         <v>46.7</v>
       </c>
       <c r="B69" t="n">
-        <v>1.002270052586507</v>
+        <v>1.002274921790924</v>
       </c>
       <c r="C69" t="n">
-        <v>0.00136055666253099</v>
+        <v>0.002206356630546909</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4438546711761839</v>
+        <v>-0.443757902623247</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05219308006835055</v>
+        <v>0.05073249249216184</v>
       </c>
       <c r="F69" t="n">
         <v>46.7</v>
       </c>
       <c r="G69" t="n">
-        <v>58.719</v>
+        <v>58.744</v>
       </c>
       <c r="H69" t="n">
-        <v>0.058719</v>
+        <v>0.058744</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2249,25 +2594,30 @@
         <v>46.7</v>
       </c>
       <c r="B70" t="n">
-        <v>1.002326746421274</v>
+        <v>1.002259414839683</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001300720786092885</v>
+        <v>0.001875458373005746</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4440006180044316</v>
+        <v>-0.4436981799798221</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05227998738699895</v>
+        <v>0.05431420759330401</v>
       </c>
       <c r="F70" t="n">
         <v>46.7</v>
       </c>
       <c r="G70" t="n">
-        <v>58.755</v>
+        <v>58.824</v>
       </c>
       <c r="H70" t="n">
-        <v>0.058755</v>
+        <v>0.058824</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2275,25 +2625,30 @@
         <v>46.7</v>
       </c>
       <c r="B71" t="n">
-        <v>1.002292434855539</v>
+        <v>1.002353315699864</v>
       </c>
       <c r="C71" t="n">
-        <v>0.002859205066013125</v>
+        <v>0.001406054567161334</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.4439704607389654</v>
+        <v>-0.4439751273716892</v>
       </c>
       <c r="E71" t="n">
-        <v>0.05246222430111157</v>
+        <v>0.0509778086732252</v>
       </c>
       <c r="F71" t="n">
         <v>46.7</v>
       </c>
       <c r="G71" t="n">
-        <v>58.642</v>
+        <v>58.746</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05864200000000001</v>
+        <v>0.05874600000000001</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2301,25 +2656,30 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.002275478404835</v>
+        <v>1.002292434855539</v>
       </c>
       <c r="C72" t="n">
-        <v>0.003951092358045093</v>
+        <v>0.002859205066013125</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.443781652421348</v>
+        <v>-0.4439704607389654</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05347735105702025</v>
+        <v>0.05246222430111157</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
       </c>
       <c r="G72" t="n">
-        <v>58.79</v>
+        <v>58.642</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05879</v>
+        <v>0.05864200000000001</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2327,25 +2687,30 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.002353315699864</v>
+        <v>1.002326746421274</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001406054567161334</v>
+        <v>0.001300720786092885</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4439751273716892</v>
+        <v>-0.4440006180044316</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0509778086732252</v>
+        <v>0.05227998738699895</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
       </c>
       <c r="G73" t="n">
-        <v>58.746</v>
+        <v>58.755</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05874600000000001</v>
+        <v>0.058755</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2353,25 +2718,30 @@
         <v>50</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000120079588227</v>
+        <v>1.000083677051201</v>
       </c>
       <c r="C74" t="n">
-        <v>0.00125194946477452</v>
+        <v>0.001134417501496831</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4753100583477687</v>
+        <v>-0.4752778844536998</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04710287145461913</v>
+        <v>0.04625736652587002</v>
       </c>
       <c r="F74" t="n">
         <v>50</v>
       </c>
       <c r="G74" t="n">
-        <v>59.114</v>
+        <v>59.049</v>
       </c>
       <c r="H74" t="n">
-        <v>0.059114</v>
+        <v>0.059049</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2379,25 +2749,30 @@
         <v>50</v>
       </c>
       <c r="B75" t="n">
-        <v>1.000083677051201</v>
+        <v>1.000073776908371</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001134417501496831</v>
+        <v>0.001118220625692375</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4752778844536998</v>
+        <v>-0.4752512378071203</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04625736652587002</v>
+        <v>0.04671256225019083</v>
       </c>
       <c r="F75" t="n">
         <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>59.049</v>
+        <v>59.08</v>
       </c>
       <c r="H75" t="n">
-        <v>0.059049</v>
+        <v>0.05908</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2405,25 +2780,30 @@
         <v>50</v>
       </c>
       <c r="B76" t="n">
-        <v>1.000077646048927</v>
+        <v>1.000101407372232</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001202479988172938</v>
+        <v>0.00118761349024863</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4751647119867686</v>
+        <v>-0.4753670650337769</v>
       </c>
       <c r="E76" t="n">
-        <v>0.04530719289455544</v>
+        <v>0.04709563182221436</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>59.056</v>
+        <v>59.1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.059056</v>
+        <v>0.0591</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2431,25 +2811,30 @@
         <v>50</v>
       </c>
       <c r="B77" t="n">
-        <v>1.000115140036217</v>
+        <v>0.9998586180788981</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001229446382828025</v>
+        <v>0.005104580358099737</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4750758501501515</v>
+        <v>-0.4752503124395586</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04623127523618085</v>
+        <v>0.04870269689680491</v>
       </c>
       <c r="F77" t="n">
         <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>59.085</v>
+        <v>59.573</v>
       </c>
       <c r="H77" t="n">
-        <v>0.059085</v>
+        <v>0.059573</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2457,25 +2842,30 @@
         <v>50</v>
       </c>
       <c r="B78" t="n">
-        <v>1.000073776908371</v>
+        <v>1.000115140036217</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001118220625692375</v>
+        <v>0.001229446382828025</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4752512378071203</v>
+        <v>-0.4750758501501515</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04671256225019083</v>
+        <v>0.04623127523618085</v>
       </c>
       <c r="F78" t="n">
         <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>59.08</v>
+        <v>59.085</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05908</v>
+        <v>0.059085</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2483,25 +2873,30 @@
         <v>50</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9998586180788981</v>
+        <v>1.000077646048927</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005104580358099737</v>
+        <v>0.001202479988172938</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4752503124395586</v>
+        <v>-0.4751647119867686</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04870269689680491</v>
+        <v>0.04530719289455544</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>59.573</v>
+        <v>59.056</v>
       </c>
       <c r="H79" t="n">
-        <v>0.059573</v>
+        <v>0.059056</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2509,25 +2904,30 @@
         <v>50</v>
       </c>
       <c r="B80" t="n">
-        <v>1.00009903080144</v>
+        <v>1.000161965124355</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001400029683111015</v>
+        <v>0.001334628993074335</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4753537664785057</v>
+        <v>-0.4751864343663015</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04477248983509553</v>
+        <v>0.04788458033490483</v>
       </c>
       <c r="F80" t="n">
         <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>59.04</v>
+        <v>59.114</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05904</v>
+        <v>0.059114</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2535,25 +2935,30 @@
         <v>50</v>
       </c>
       <c r="B81" t="n">
-        <v>1.000161965124355</v>
+        <v>1.00009903080144</v>
       </c>
       <c r="C81" t="n">
-        <v>0.001334628993074335</v>
+        <v>0.001400029683111015</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4751864343663015</v>
+        <v>-0.4753537664785057</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04788458033490483</v>
+        <v>0.04477248983509553</v>
       </c>
       <c r="F81" t="n">
         <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>59.114</v>
+        <v>59.04</v>
       </c>
       <c r="H81" t="n">
-        <v>0.059114</v>
+        <v>0.05904</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2561,25 +2966,30 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.000101407372232</v>
+        <v>1.000120079588227</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00118761349024863</v>
+        <v>0.00125194946477452</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4753670650337769</v>
+        <v>-0.4753100583477687</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04709563182221436</v>
+        <v>0.04710287145461913</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>59.1</v>
+        <v>59.114</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0591</v>
+        <v>0.059114</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2587,25 +2997,30 @@
         <v>53.3</v>
       </c>
       <c r="B83" t="n">
-        <v>0.997798840835836</v>
+        <v>0.9977746956981622</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001083798426299382</v>
+        <v>0.001228615601818181</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5066267277258882</v>
+        <v>-0.5067556456023392</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04983649840721732</v>
+        <v>0.04957682463768209</v>
       </c>
       <c r="F83" t="n">
         <v>53.3</v>
       </c>
       <c r="G83" t="n">
-        <v>59.372</v>
+        <v>59.37</v>
       </c>
       <c r="H83" t="n">
-        <v>0.059372</v>
+        <v>0.05937</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2613,25 +3028,30 @@
         <v>53.3</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9977606611807561</v>
+        <v>0.997798840835836</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001067373833778054</v>
+        <v>0.001083798426299382</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5064912572706324</v>
+        <v>-0.5066267277258882</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04910978065635066</v>
+        <v>0.04983649840721732</v>
       </c>
       <c r="F84" t="n">
         <v>53.3</v>
       </c>
       <c r="G84" t="n">
-        <v>59.363</v>
+        <v>59.372</v>
       </c>
       <c r="H84" t="n">
-        <v>0.059363</v>
+        <v>0.059372</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2639,25 +3059,30 @@
         <v>53.3</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9977647644161874</v>
+        <v>0.997783028183009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001112700066846933</v>
+        <v>0.001058961052699117</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5067730626874871</v>
+        <v>-0.506531303382153</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05132945216216559</v>
+        <v>0.04877889425943195</v>
       </c>
       <c r="F85" t="n">
         <v>53.3</v>
       </c>
       <c r="G85" t="n">
-        <v>59.348</v>
+        <v>59.332</v>
       </c>
       <c r="H85" t="n">
-        <v>0.059348</v>
+        <v>0.059332</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2665,25 +3090,30 @@
         <v>53.3</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9978171765841489</v>
+        <v>0.9978022434938342</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00118036920769991</v>
+        <v>0.001144100791823931</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5067538523807844</v>
+        <v>-0.5067628875159915</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0516031535725902</v>
+        <v>0.04719824491367382</v>
       </c>
       <c r="F86" t="n">
         <v>53.3</v>
       </c>
       <c r="G86" t="n">
-        <v>59.366</v>
+        <v>59.346</v>
       </c>
       <c r="H86" t="n">
-        <v>0.059366</v>
+        <v>0.059346</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2691,25 +3121,30 @@
         <v>53.3</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9977849833231933</v>
+        <v>0.9977606611807561</v>
       </c>
       <c r="C87" t="n">
-        <v>0.001263003389478122</v>
+        <v>0.001067373833778054</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5066774908148091</v>
+        <v>-0.5064912572706324</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04686164937514554</v>
+        <v>0.04910978065635066</v>
       </c>
       <c r="F87" t="n">
         <v>53.3</v>
       </c>
       <c r="G87" t="n">
-        <v>59.361</v>
+        <v>59.363</v>
       </c>
       <c r="H87" t="n">
-        <v>0.059361</v>
+        <v>0.059363</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2717,25 +3152,30 @@
         <v>53.3</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9977746956981622</v>
+        <v>0.9977849833231933</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001228615601818181</v>
+        <v>0.001263003389478122</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5067556456023392</v>
+        <v>-0.5066774908148091</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04957682463768209</v>
+        <v>0.04686164937514554</v>
       </c>
       <c r="F88" t="n">
         <v>53.3</v>
       </c>
       <c r="G88" t="n">
-        <v>59.37</v>
+        <v>59.361</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05937</v>
+        <v>0.059361</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2743,25 +3183,30 @@
         <v>53.3</v>
       </c>
       <c r="B89" t="n">
-        <v>0.997783028183009</v>
+        <v>0.997811545868352</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001058961052699117</v>
+        <v>0.001119387425501193</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.506531303382153</v>
+        <v>-0.5067425339104936</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04877889425943195</v>
+        <v>0.05010442828507576</v>
       </c>
       <c r="F89" t="n">
         <v>53.3</v>
       </c>
       <c r="G89" t="n">
-        <v>59.332</v>
+        <v>59.331</v>
       </c>
       <c r="H89" t="n">
-        <v>0.059332</v>
+        <v>0.059331</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2769,25 +3214,30 @@
         <v>53.3</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9978022434938342</v>
+        <v>0.9977647644161874</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001144100791823931</v>
+        <v>0.001112700066846933</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5067628875159915</v>
+        <v>-0.5067730626874871</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04719824491367382</v>
+        <v>0.05132945216216559</v>
       </c>
       <c r="F90" t="n">
         <v>53.3</v>
       </c>
       <c r="G90" t="n">
-        <v>59.346</v>
+        <v>59.348</v>
       </c>
       <c r="H90" t="n">
-        <v>0.059346</v>
+        <v>0.059348</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -2795,25 +3245,30 @@
         <v>53.3</v>
       </c>
       <c r="B91" t="n">
-        <v>0.997811545868352</v>
+        <v>0.9978171765841489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001119387425501193</v>
+        <v>0.00118036920769991</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5067425339104936</v>
+        <v>-0.5067538523807844</v>
       </c>
       <c r="E91" t="n">
-        <v>0.05010442828507576</v>
+        <v>0.0516031535725902</v>
       </c>
       <c r="F91" t="n">
         <v>53.3</v>
       </c>
       <c r="G91" t="n">
-        <v>59.331</v>
+        <v>59.366</v>
       </c>
       <c r="H91" t="n">
-        <v>0.059331</v>
+        <v>0.059366</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2841,31 +3296,41 @@
       <c r="H92" t="n">
         <v>0.11575</v>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>63</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9908788301843142</v>
+        <v>0.9905817942416588</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003500651783383291</v>
+        <v>0.003355079349758214</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5983067429909177</v>
+        <v>-0.5987641994613853</v>
       </c>
       <c r="E93" t="n">
-        <v>0.06012226405727895</v>
+        <v>0.0634978016516547</v>
       </c>
       <c r="F93" t="n">
         <v>63</v>
       </c>
       <c r="G93" t="n">
-        <v>115.24</v>
+        <v>115.52</v>
       </c>
       <c r="H93" t="n">
-        <v>0.11524</v>
+        <v>0.11552</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2873,25 +3338,30 @@
         <v>63</v>
       </c>
       <c r="B94" t="n">
-        <v>0.990643886560289</v>
+        <v>0.9907509276229683</v>
       </c>
       <c r="C94" t="n">
-        <v>0.003185676920961594</v>
+        <v>0.003228277754229882</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5987883584132971</v>
+        <v>-0.5985146347380921</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06574389511035855</v>
+        <v>0.06373074776444711</v>
       </c>
       <c r="F94" t="n">
         <v>63</v>
       </c>
       <c r="G94" t="n">
-        <v>115.48</v>
+        <v>115.34</v>
       </c>
       <c r="H94" t="n">
-        <v>0.11548</v>
+        <v>0.11534</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -2899,25 +3369,30 @@
         <v>63</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9907509276229683</v>
+        <v>0.9896730668393184</v>
       </c>
       <c r="C95" t="n">
-        <v>0.003228277754229882</v>
+        <v>0.01167816730916828</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5985146347380921</v>
+        <v>-0.5989993164774932</v>
       </c>
       <c r="E95" t="n">
-        <v>0.06373074776444711</v>
+        <v>0.06885846972088694</v>
       </c>
       <c r="F95" t="n">
         <v>63</v>
       </c>
       <c r="G95" t="n">
-        <v>115.34</v>
+        <v>115.48</v>
       </c>
       <c r="H95" t="n">
-        <v>0.11534</v>
+        <v>0.11548</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -2925,25 +3400,30 @@
         <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9905817942416588</v>
+        <v>0.9904899575585179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.003355079349758214</v>
+        <v>0.008801847576301869</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5987641994613853</v>
+        <v>-0.5987570042649084</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0634978016516547</v>
+        <v>0.067855630791597</v>
       </c>
       <c r="F96" t="n">
         <v>63</v>
       </c>
       <c r="G96" t="n">
-        <v>115.52</v>
+        <v>114.76</v>
       </c>
       <c r="H96" t="n">
-        <v>0.11552</v>
+        <v>0.11476</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -2951,25 +3431,30 @@
         <v>63</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9904899575585179</v>
+        <v>0.9908788301843142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.008801847576301869</v>
+        <v>0.003500651783383291</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5987570042649084</v>
+        <v>-0.5983067429909177</v>
       </c>
       <c r="E97" t="n">
-        <v>0.067855630791597</v>
+        <v>0.06012226405727895</v>
       </c>
       <c r="F97" t="n">
         <v>63</v>
       </c>
       <c r="G97" t="n">
-        <v>114.76</v>
+        <v>115.24</v>
       </c>
       <c r="H97" t="n">
-        <v>0.11476</v>
+        <v>0.11524</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -2997,31 +3482,41 @@
       <c r="H98" t="n">
         <v>0.11662</v>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>63</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9896730668393184</v>
+        <v>0.9907134719935983</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01167816730916828</v>
+        <v>0.005472564316110839</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5989993164774932</v>
+        <v>-0.5990561896848199</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06885846972088694</v>
+        <v>0.06471925635500067</v>
       </c>
       <c r="F99" t="n">
         <v>63</v>
       </c>
       <c r="G99" t="n">
-        <v>115.48</v>
+        <v>114.82</v>
       </c>
       <c r="H99" t="n">
-        <v>0.11548</v>
+        <v>0.11482</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3029,25 +3524,30 @@
         <v>63</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9907134719935983</v>
+        <v>0.990643886560289</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005472564316110839</v>
+        <v>0.003185676920961594</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5990561896848199</v>
+        <v>-0.5987883584132971</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06471925635500067</v>
+        <v>0.06574389511035855</v>
       </c>
       <c r="F100" t="n">
         <v>63</v>
       </c>
       <c r="G100" t="n">
-        <v>114.82</v>
+        <v>115.48</v>
       </c>
       <c r="H100" t="n">
-        <v>0.11482</v>
+        <v>0.11548</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3055,25 +3555,30 @@
         <v>80</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9740951989327673</v>
+        <v>0.9743225937049454</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005743076229550414</v>
+        <v>0.001587017457834239</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.7601753496124921</v>
+        <v>-0.7602770566171975</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07280189194346634</v>
+        <v>0.07223819458952153</v>
       </c>
       <c r="F101" t="n">
         <v>80</v>
       </c>
       <c r="G101" t="n">
-        <v>119.92</v>
+        <v>119.31</v>
       </c>
       <c r="H101" t="n">
-        <v>0.11992</v>
+        <v>0.11931</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -3081,25 +3586,30 @@
         <v>80</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9736595532630642</v>
+        <v>0.9742109752370783</v>
       </c>
       <c r="C102" t="n">
-        <v>0.00139577816576283</v>
+        <v>0.002729114508327373</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.7594417364613797</v>
+        <v>-0.760391888994739</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003141550391312752</v>
+        <v>0.07554494327296021</v>
       </c>
       <c r="F102" t="n">
         <v>80</v>
       </c>
       <c r="G102" t="n">
-        <v>10.014</v>
+        <v>118.89</v>
       </c>
       <c r="H102" t="n">
-        <v>0.010014</v>
+        <v>0.11889</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -3107,25 +3617,30 @@
         <v>80</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9741999700699171</v>
+        <v>0.9735298947631214</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001833001711620609</v>
+        <v>0.008589998683501313</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.7604124842324613</v>
+        <v>-0.7605100867699943</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07296443656934097</v>
+        <v>0.07088131515841294</v>
       </c>
       <c r="F103" t="n">
         <v>80</v>
       </c>
       <c r="G103" t="n">
-        <v>119.05</v>
+        <v>119.47</v>
       </c>
       <c r="H103" t="n">
-        <v>0.11905</v>
+        <v>0.11947</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -3133,25 +3648,30 @@
         <v>80</v>
       </c>
       <c r="B104" t="n">
-        <v>0.973656290505814</v>
+        <v>0.9741057276332549</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001467584184111796</v>
+        <v>0.004982765059473684</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7598334119766728</v>
+        <v>-0.7604285653944913</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003192392852479024</v>
+        <v>0.07570640800607538</v>
       </c>
       <c r="F104" t="n">
         <v>80</v>
       </c>
       <c r="G104" t="n">
-        <v>10.012</v>
+        <v>118.87</v>
       </c>
       <c r="H104" t="n">
-        <v>0.010012</v>
+        <v>0.11887</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -3159,25 +3679,30 @@
         <v>80</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9742109752370783</v>
+        <v>0.9740748151671956</v>
       </c>
       <c r="C105" t="n">
-        <v>0.002729114508327373</v>
+        <v>0.01647114474806117</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.760391888994739</v>
+        <v>-0.7602764251096299</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07554494327296021</v>
+        <v>0.07191660884296545</v>
       </c>
       <c r="F105" t="n">
         <v>80</v>
       </c>
       <c r="G105" t="n">
-        <v>118.89</v>
+        <v>119.32</v>
       </c>
       <c r="H105" t="n">
-        <v>0.11889</v>
+        <v>0.11932</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3185,25 +3710,30 @@
         <v>80</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9740748151671956</v>
+        <v>0.9741999700699171</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01647114474806117</v>
+        <v>0.001833001711620609</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.7602764251096299</v>
+        <v>-0.7604124842324613</v>
       </c>
       <c r="E106" t="n">
-        <v>0.07191660884296545</v>
+        <v>0.07296443656934097</v>
       </c>
       <c r="F106" t="n">
         <v>80</v>
       </c>
       <c r="G106" t="n">
-        <v>119.32</v>
+        <v>119.05</v>
       </c>
       <c r="H106" t="n">
-        <v>0.11932</v>
+        <v>0.11905</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3211,25 +3741,30 @@
         <v>80</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9738547009243695</v>
+        <v>0.9742994812996799</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001693087584004854</v>
+        <v>0.00188520913281514</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7598012722568837</v>
+        <v>-0.7603040533584551</v>
       </c>
       <c r="E107" t="n">
-        <v>0.002950995851322453</v>
+        <v>0.07189352242505845</v>
       </c>
       <c r="F107" t="n">
         <v>80</v>
       </c>
       <c r="G107" t="n">
-        <v>10.025</v>
+        <v>119.29</v>
       </c>
       <c r="H107" t="n">
-        <v>0.010025</v>
+        <v>0.11929</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -3237,25 +3772,30 @@
         <v>80</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9735532531229487</v>
+        <v>0.9743172775535437</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001456837456208084</v>
+        <v>0.001371992007114919</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7596684305692527</v>
+        <v>-0.7603849761187216</v>
       </c>
       <c r="E108" t="n">
-        <v>0.003082103064499644</v>
+        <v>0.07125100131489159</v>
       </c>
       <c r="F108" t="n">
         <v>80</v>
       </c>
       <c r="G108" t="n">
-        <v>10.011</v>
+        <v>119.45</v>
       </c>
       <c r="H108" t="n">
-        <v>0.010011</v>
+        <v>0.11945</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -3263,1663 +3803,1425 @@
         <v>80</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9735988164670034</v>
+        <v>0.9740951989327673</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001537897636818524</v>
+        <v>0.005743076229550414</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7597468962654652</v>
+        <v>-0.7601753496124921</v>
       </c>
       <c r="E109" t="n">
-        <v>0.003548236123051634</v>
+        <v>0.07280189194346634</v>
       </c>
       <c r="F109" t="n">
         <v>80</v>
       </c>
       <c r="G109" t="n">
-        <v>10.011</v>
+        <v>119.92</v>
       </c>
       <c r="H109" t="n">
-        <v>0.010011</v>
+        <v>0.11992</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9743225937049454</v>
+        <v>0.9503290140447423</v>
       </c>
       <c r="C110" t="n">
-        <v>0.001587017457834239</v>
+        <v>0.005170075378040722</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.7602770566171975</v>
+        <v>-0.9503567615143957</v>
       </c>
       <c r="E110" t="n">
-        <v>0.07223819458952153</v>
+        <v>0.08336392491688679</v>
       </c>
       <c r="F110" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>119.31</v>
+        <v>122.65</v>
       </c>
       <c r="H110" t="n">
-        <v>0.11931</v>
+        <v>0.12265</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9737867615404086</v>
+        <v>0.9504770462021258</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001500860804649793</v>
+        <v>0.008991962296805602</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.7594516043122188</v>
+        <v>-0.9502858197342041</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003302645662755301</v>
+        <v>0.08412725353749399</v>
       </c>
       <c r="F111" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>10.008</v>
+        <v>122.43</v>
       </c>
       <c r="H111" t="n">
-        <v>0.010008</v>
+        <v>0.12243</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9742994812996799</v>
+        <v>0.9493308344250868</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00188520913281514</v>
+        <v>0.0183339906902175</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7603040533584551</v>
+        <v>-0.9506214283722692</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07189352242505845</v>
+        <v>0.08423655218502343</v>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>119.29</v>
+        <v>122.18</v>
       </c>
       <c r="H112" t="n">
-        <v>0.11929</v>
+        <v>0.12218</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9735298947631214</v>
+        <v>0.9502858422806368</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008589998683501313</v>
+        <v>0.005618200613682961</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.7605100867699943</v>
+        <v>-0.9504194482850123</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07088131515841294</v>
+        <v>0.08427279661087494</v>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>119.47</v>
+        <v>122.63</v>
       </c>
       <c r="H113" t="n">
-        <v>0.11947</v>
+        <v>0.12263</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9741057276332549</v>
+        <v>0.9505948099233379</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004982765059473684</v>
+        <v>0.002223039157854316</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7604285653944913</v>
+        <v>-0.9503043833189633</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07570640800607538</v>
+        <v>0.08285415308080145</v>
       </c>
       <c r="F114" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>118.87</v>
+        <v>122.85</v>
       </c>
       <c r="H114" t="n">
-        <v>0.11887</v>
+        <v>0.12285</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9737172650555884</v>
+        <v>0.9505560139950782</v>
       </c>
       <c r="C115" t="n">
-        <v>0.001274586810934596</v>
+        <v>0.002669769588350158</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7596613574820577</v>
+        <v>-0.9503505616379808</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003188407106893742</v>
+        <v>0.08364166010139852</v>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>10.012</v>
+        <v>122.92</v>
       </c>
       <c r="H115" t="n">
-        <v>0.010012</v>
+        <v>0.12292</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9734302279367515</v>
+        <v>0.9505289617815247</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001302379126596473</v>
+        <v>0.001475560264946419</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7598192155690358</v>
+        <v>-0.9502117939556953</v>
       </c>
       <c r="E116" t="n">
-        <v>0.003212982355679376</v>
+        <v>0.08119354748445552</v>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>10.012</v>
+        <v>123.13</v>
       </c>
       <c r="H116" t="n">
-        <v>0.010012</v>
+        <v>0.12313</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9743172775535437</v>
+        <v>0.9505057416418247</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001371992007114919</v>
+        <v>0.002526272457334973</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7603849761187216</v>
+        <v>-0.9504722068241893</v>
       </c>
       <c r="E117" t="n">
-        <v>0.07125100131489159</v>
+        <v>0.08341279981029091</v>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>119.45</v>
+        <v>123</v>
       </c>
       <c r="H117" t="n">
-        <v>0.11945</v>
+        <v>0.123</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9734322840673008</v>
+        <v>0.9505922342146408</v>
       </c>
       <c r="C118" t="n">
-        <v>0.001547822716529585</v>
+        <v>0.002201005207666669</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.759781022352219</v>
+        <v>-0.9503487881115706</v>
       </c>
       <c r="E118" t="n">
-        <v>0.003507945363354434</v>
+        <v>0.08215928028129377</v>
       </c>
       <c r="F118" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>10.015</v>
+        <v>122.79</v>
       </c>
       <c r="H118" t="n">
-        <v>0.010015</v>
+        <v>0.12279</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9505289617815247</v>
+        <v>0.9143619544160466</v>
       </c>
       <c r="C119" t="n">
-        <v>0.001475560264946419</v>
+        <v>0.001970858772027842</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.9502117939556953</v>
+        <v>-1.188531739859003</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08119354748445552</v>
+        <v>0.04029604816433354</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G119" t="n">
-        <v>123.13</v>
+        <v>125.44</v>
       </c>
       <c r="H119" t="n">
-        <v>0.12313</v>
+        <v>0.12544</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9504770462021258</v>
+        <v>0.9142887035978408</v>
       </c>
       <c r="C120" t="n">
-        <v>0.008991962296805602</v>
+        <v>0.005893029489615714</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.9502858197342041</v>
+        <v>-1.188418396264915</v>
       </c>
       <c r="E120" t="n">
-        <v>0.08412725353749399</v>
+        <v>0.0383835776009594</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G120" t="n">
-        <v>122.43</v>
+        <v>125.63</v>
       </c>
       <c r="H120" t="n">
-        <v>0.12243</v>
+        <v>0.12563</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9505948099233379</v>
+        <v>0.9144556760291283</v>
       </c>
       <c r="C121" t="n">
-        <v>0.002223039157854316</v>
+        <v>0.001105334291478689</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.9503043833189633</v>
+        <v>-1.188408420070257</v>
       </c>
       <c r="E121" t="n">
-        <v>0.08285415308080145</v>
+        <v>0.03820142180528555</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G121" t="n">
-        <v>122.85</v>
+        <v>125.4</v>
       </c>
       <c r="H121" t="n">
-        <v>0.12285</v>
+        <v>0.1254</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9505057416418247</v>
+        <v>0.9142924955643064</v>
       </c>
       <c r="C122" t="n">
-        <v>0.002526272457334973</v>
+        <v>0.001416713208930858</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9504722068241893</v>
+        <v>-1.188338009316921</v>
       </c>
       <c r="E122" t="n">
-        <v>0.08341279981029091</v>
+        <v>0.03815234597163913</v>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G122" t="n">
-        <v>123</v>
+        <v>125.35</v>
       </c>
       <c r="H122" t="n">
-        <v>0.123</v>
+        <v>0.12535</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9493308344250868</v>
+        <v>0.9141753274198456</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0183339906902175</v>
+        <v>0.009848450079237752</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9506214283722692</v>
+        <v>-1.188417063905921</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08423655218502343</v>
+        <v>0.03787318258132519</v>
       </c>
       <c r="F123" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G123" t="n">
-        <v>122.18</v>
+        <v>126.56</v>
       </c>
       <c r="H123" t="n">
-        <v>0.12218</v>
+        <v>0.12656</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9505560139950782</v>
+        <v>0.9143416110796958</v>
       </c>
       <c r="C124" t="n">
-        <v>0.002669769588350158</v>
+        <v>0.001730754845467551</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9503505616379808</v>
+        <v>-1.188434037676261</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08364166010139852</v>
+        <v>0.04034660493307242</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G124" t="n">
-        <v>122.92</v>
+        <v>125.5</v>
       </c>
       <c r="H124" t="n">
-        <v>0.12292</v>
+        <v>0.1255</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9505922342146408</v>
+        <v>0.9139752896827932</v>
       </c>
       <c r="C125" t="n">
-        <v>0.002201005207666669</v>
+        <v>0.007271167465764599</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9503487881115706</v>
+        <v>-1.188335782599019</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08215928028129377</v>
+        <v>0.03876529825096394</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G125" t="n">
-        <v>122.79</v>
+        <v>126.62</v>
       </c>
       <c r="H125" t="n">
-        <v>0.12279</v>
+        <v>0.12662</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9502858422806368</v>
+        <v>0.9144338915536649</v>
       </c>
       <c r="C126" t="n">
-        <v>0.005618200613682961</v>
+        <v>0.001091303346037814</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9504194482850123</v>
+        <v>-1.188466966017746</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08427279661087494</v>
+        <v>0.03951451993294801</v>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G126" t="n">
-        <v>122.63</v>
+        <v>125.38</v>
       </c>
       <c r="H126" t="n">
-        <v>0.12263</v>
+        <v>0.12538</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9503290140447423</v>
+        <v>0.9142252936062504</v>
       </c>
       <c r="C127" t="n">
-        <v>0.005170075378040722</v>
+        <v>0.003835293944430409</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9503567615143957</v>
+        <v>-1.188413753035149</v>
       </c>
       <c r="E127" t="n">
-        <v>0.08336392491688679</v>
+        <v>0.03962090998182487</v>
       </c>
       <c r="F127" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G127" t="n">
-        <v>122.65</v>
+        <v>125.35</v>
       </c>
       <c r="H127" t="n">
-        <v>0.12265</v>
+        <v>0.12535</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9141753274198456</v>
+        <v>0.8506306792301129</v>
       </c>
       <c r="C128" t="n">
-        <v>0.009848450079237752</v>
+        <v>0.004254792134066974</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.188417063905921</v>
+        <v>-1.518758036868613</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03787318258132519</v>
+        <v>0.05108805123628348</v>
       </c>
       <c r="F128" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G128" t="n">
-        <v>126.56</v>
+        <v>127.64</v>
       </c>
       <c r="H128" t="n">
-        <v>0.12656</v>
+        <v>0.12764</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9139752896827932</v>
+        <v>0.8505911721771636</v>
       </c>
       <c r="C129" t="n">
-        <v>0.007271167465764599</v>
+        <v>0.002236603316633268</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.188335782599019</v>
+        <v>-1.518786625019284</v>
       </c>
       <c r="E129" t="n">
-        <v>0.03876529825096394</v>
+        <v>0.05051662982728972</v>
       </c>
       <c r="F129" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G129" t="n">
-        <v>126.62</v>
+        <v>126.95</v>
       </c>
       <c r="H129" t="n">
-        <v>0.12662</v>
+        <v>0.12695</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9143619544160466</v>
+        <v>0.8505483878006568</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001970858772027842</v>
+        <v>0.002071319580293961</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.188531739859003</v>
+        <v>-1.518907535436964</v>
       </c>
       <c r="E130" t="n">
-        <v>0.04029604816433354</v>
+        <v>0.05097927692170854</v>
       </c>
       <c r="F130" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G130" t="n">
-        <v>125.44</v>
+        <v>126.93</v>
       </c>
       <c r="H130" t="n">
-        <v>0.12544</v>
+        <v>0.12693</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9143416110796958</v>
+        <v>0.8504543309722826</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001730754845467551</v>
+        <v>0.002697752624959981</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.188434037676261</v>
+        <v>-1.518742878389042</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04034660493307242</v>
+        <v>0.0502359361245631</v>
       </c>
       <c r="F131" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G131" t="n">
-        <v>125.5</v>
+        <v>126.89</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1255</v>
+        <v>0.12689</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9142252936062504</v>
+        <v>0.8506479765609418</v>
       </c>
       <c r="C132" t="n">
-        <v>0.003835293944430409</v>
+        <v>0.001554668403458913</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.188413753035149</v>
+        <v>-1.518907185148738</v>
       </c>
       <c r="E132" t="n">
-        <v>0.03962090998182487</v>
+        <v>0.05144487641927613</v>
       </c>
       <c r="F132" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G132" t="n">
-        <v>125.35</v>
+        <v>126.87</v>
       </c>
       <c r="H132" t="n">
-        <v>0.12535</v>
+        <v>0.12687</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9142887035978408</v>
+        <v>0.8507029869956033</v>
       </c>
       <c r="C133" t="n">
-        <v>0.005893029489615714</v>
+        <v>0.001654710195078449</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.188418396264915</v>
+        <v>-1.518823372530194</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0383835776009594</v>
+        <v>0.05164396373101205</v>
       </c>
       <c r="F133" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G133" t="n">
-        <v>125.63</v>
+        <v>126.99</v>
       </c>
       <c r="H133" t="n">
-        <v>0.12563</v>
+        <v>0.12699</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9142924955643064</v>
+        <v>0.8505090669366577</v>
       </c>
       <c r="C134" t="n">
-        <v>0.001416713208930858</v>
+        <v>0.004949790035174069</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.188338009316921</v>
+        <v>-1.518947599333648</v>
       </c>
       <c r="E134" t="n">
-        <v>0.03815234597163913</v>
+        <v>0.05136166688707421</v>
       </c>
       <c r="F134" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G134" t="n">
-        <v>125.35</v>
+        <v>126.63</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12535</v>
+        <v>0.12663</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9144338915536649</v>
+        <v>0.8505631296356724</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001091303346037814</v>
+        <v>0.001468335431133541</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.188466966017746</v>
+        <v>-1.518839888279462</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03951451993294801</v>
+        <v>0.0508809981248614</v>
       </c>
       <c r="F135" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G135" t="n">
-        <v>125.38</v>
+        <v>127.04</v>
       </c>
       <c r="H135" t="n">
-        <v>0.12538</v>
+        <v>0.12704</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9144556760291283</v>
+        <v>0.8506777126419653</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001105334291478689</v>
+        <v>0.001199362576011218</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.188408420070257</v>
+        <v>-1.518810372724479</v>
       </c>
       <c r="E136" t="n">
-        <v>0.03820142180528555</v>
+        <v>0.05038013319017697</v>
       </c>
       <c r="F136" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G136" t="n">
-        <v>125.4</v>
+        <v>127.08</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1254</v>
+        <v>0.12708</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8506306792301129</v>
+        <v>0.7667523441301561</v>
       </c>
       <c r="C137" t="n">
-        <v>0.004254792134066974</v>
+        <v>0.002274595352070691</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.518758036868613</v>
+        <v>-1.900355914511337</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05108805123628348</v>
+        <v>0.05218793286929495</v>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>127.64</v>
+        <v>127.03</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12764</v>
+        <v>0.12703</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8504543309722826</v>
+        <v>0.7668429494312151</v>
       </c>
       <c r="C138" t="n">
-        <v>0.002697752624959981</v>
+        <v>0.001135867023654462</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.518742878389042</v>
+        <v>-1.90029143278972</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0502359361245631</v>
+        <v>0.0524001138630277</v>
       </c>
       <c r="F138" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>126.89</v>
+        <v>127</v>
       </c>
       <c r="H138" t="n">
-        <v>0.12689</v>
+        <v>0.127</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8507029869956033</v>
+        <v>0.7668076664651147</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001654710195078449</v>
+        <v>0.001675498271645209</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.518823372530194</v>
+        <v>-1.900392060924542</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05164396373101205</v>
+        <v>0.05330682534816133</v>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G139" t="n">
-        <v>126.99</v>
+        <v>127.03</v>
       </c>
       <c r="H139" t="n">
-        <v>0.12699</v>
+        <v>0.12703</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8505090669366577</v>
+        <v>0.7667809546272076</v>
       </c>
       <c r="C140" t="n">
-        <v>0.004949790035174069</v>
+        <v>0.001503886279926001</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.518947599333648</v>
+        <v>-1.900270479678716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05136166688707421</v>
+        <v>0.04893123424814268</v>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G140" t="n">
-        <v>126.63</v>
+        <v>127.06</v>
       </c>
       <c r="H140" t="n">
-        <v>0.12663</v>
+        <v>0.12706</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8506777126419653</v>
+        <v>0.7669063780713811</v>
       </c>
       <c r="C141" t="n">
-        <v>0.001199362576011218</v>
+        <v>0.0008750083051359474</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.518810372724479</v>
+        <v>-1.900077220921086</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05038013319017697</v>
+        <v>0.0544063786562218</v>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G141" t="n">
-        <v>127.08</v>
+        <v>127.09</v>
       </c>
       <c r="H141" t="n">
-        <v>0.12708</v>
+        <v>0.12709</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8505631296356724</v>
+        <v>0.7671066022099008</v>
       </c>
       <c r="C142" t="n">
-        <v>0.001468335431133541</v>
+        <v>0.003804828536198508</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518839888279462</v>
+        <v>-1.900278850154099</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0508809981248614</v>
+        <v>0.0502731190928074</v>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>127.04</v>
+        <v>127.03</v>
       </c>
       <c r="H142" t="n">
-        <v>0.12704</v>
+        <v>0.12703</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8505911721771636</v>
+        <v>0.7668722129435901</v>
       </c>
       <c r="C143" t="n">
-        <v>0.002236603316633268</v>
+        <v>0.002418002645923786</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.518786625019284</v>
+        <v>-1.900295366433503</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05051662982728972</v>
+        <v>0.05332590843424716</v>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G143" t="n">
-        <v>126.95</v>
+        <v>127.23</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12695</v>
+        <v>0.12723</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8506479765609418</v>
+        <v>0.7668544156682873</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001554668403458913</v>
+        <v>0.001412693998602425</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.518907185148738</v>
+        <v>-1.900243699498411</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05144487641927613</v>
+        <v>0.05508048044002297</v>
       </c>
       <c r="F144" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>126.87</v>
+        <v>126.89</v>
       </c>
       <c r="H144" t="n">
-        <v>0.12687</v>
+        <v>0.12689</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8505483878006568</v>
+        <v>0.7668734637812835</v>
       </c>
       <c r="C145" t="n">
-        <v>0.002071319580293961</v>
+        <v>0.001017777340116402</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518907535436964</v>
+        <v>-1.900334427303592</v>
       </c>
       <c r="E145" t="n">
-        <v>0.05097927692170854</v>
+        <v>0.05273704322467958</v>
       </c>
       <c r="F145" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G145" t="n">
-        <v>126.93</v>
+        <v>127.08</v>
       </c>
       <c r="H145" t="n">
-        <v>0.12693</v>
+        <v>0.12708</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7668722129435901</v>
+        <v>0.6427334159886314</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002418002645923786</v>
+        <v>0.002717123356561351</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.900295366433503</v>
+        <v>-2.375535352456287</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05332590843424716</v>
+        <v>0.06149987907423719</v>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>127.23</v>
+        <v>126.57</v>
       </c>
       <c r="H146" t="n">
-        <v>0.12723</v>
+        <v>0.12657</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7671066022099008</v>
+        <v>0.6426431066034742</v>
       </c>
       <c r="C147" t="n">
-        <v>0.003804828536198508</v>
+        <v>0.00335194438858316</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.900278850154099</v>
+        <v>-2.375619262464602</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0502731190928074</v>
+        <v>0.06668922946080494</v>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G147" t="n">
-        <v>127.03</v>
+        <v>126.28</v>
       </c>
       <c r="H147" t="n">
-        <v>0.12703</v>
+        <v>0.12628</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7669063780713811</v>
+        <v>0.6428663313313361</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0008750083051359474</v>
+        <v>0.0009459180625325164</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.900077220921086</v>
+        <v>-2.375591964223657</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0544063786562218</v>
+        <v>0.0669453104146799</v>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G148" t="n">
-        <v>127.09</v>
+        <v>126.51</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12709</v>
+        <v>0.12651</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7668076664651147</v>
+        <v>0.642800053124131</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001675498271645209</v>
+        <v>0.001230866555803044</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.900392060924542</v>
+        <v>-2.375705286398805</v>
       </c>
       <c r="E149" t="n">
-        <v>0.05330682534816133</v>
+        <v>0.0642331010733548</v>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G149" t="n">
-        <v>127.03</v>
+        <v>126.43</v>
       </c>
       <c r="H149" t="n">
-        <v>0.12703</v>
+        <v>0.12643</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7668734637812835</v>
+        <v>0.6428199468387751</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001017777340116402</v>
+        <v>0.001264491076821297</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.900334427303592</v>
+        <v>-2.375577967364751</v>
       </c>
       <c r="E150" t="n">
-        <v>0.05273704322467958</v>
+        <v>0.06800238832942589</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G150" t="n">
-        <v>127.08</v>
+        <v>126.62</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12708</v>
+        <v>0.12662</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B151" t="n">
-        <v>0.7668429494312151</v>
+        <v>0.6427672652726951</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001135867023654462</v>
+        <v>0.001052121439891629</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.90029143278972</v>
+        <v>-2.375691495097924</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0524001138630277</v>
+        <v>0.06590195120155411</v>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G151" t="n">
-        <v>127</v>
+        <v>126.61</v>
       </c>
       <c r="H151" t="n">
-        <v>0.127</v>
+        <v>0.12661</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7667523441301561</v>
+        <v>0.6428722170704396</v>
       </c>
       <c r="C152" t="n">
-        <v>0.002274595352070691</v>
+        <v>0.001196311525970824</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.900355914511337</v>
+        <v>-2.375539884697489</v>
       </c>
       <c r="E152" t="n">
-        <v>0.05218793286929495</v>
+        <v>0.06532284051020321</v>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G152" t="n">
-        <v>127.03</v>
+        <v>126.52</v>
       </c>
       <c r="H152" t="n">
-        <v>0.12703</v>
+        <v>0.12652</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7667809546272076</v>
+        <v>0.6428003117377904</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001503886279926001</v>
+        <v>0.001124964906178254</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.900270479678716</v>
+        <v>-2.375669845270338</v>
       </c>
       <c r="E153" t="n">
-        <v>0.04893123424814268</v>
+        <v>0.06592475187399638</v>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G153" t="n">
-        <v>127.06</v>
+        <v>126.46</v>
       </c>
       <c r="H153" t="n">
-        <v>0.12706</v>
+        <v>0.12646</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7668544156682873</v>
+        <v>0.6427180406717253</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001412693998602425</v>
+        <v>0.002148279463598378</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.900243699498411</v>
+        <v>-2.375563163861791</v>
       </c>
       <c r="E154" t="n">
-        <v>0.05508048044002297</v>
+        <v>0.06807961142765194</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G154" t="n">
-        <v>126.89</v>
+        <v>126.48</v>
       </c>
       <c r="H154" t="n">
-        <v>0.12689</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>250</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.642800053124131</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.001230866555803044</v>
-      </c>
-      <c r="D155" t="n">
-        <v>-2.375705286398805</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.0642331010733548</v>
-      </c>
-      <c r="F155" t="n">
-        <v>250</v>
-      </c>
-      <c r="G155" t="n">
-        <v>126.43</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.12643</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>250</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.6427672652726951</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.001052121439891629</v>
-      </c>
-      <c r="D156" t="n">
-        <v>-2.375691495097924</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.06590195120155411</v>
-      </c>
-      <c r="F156" t="n">
-        <v>250</v>
-      </c>
-      <c r="G156" t="n">
-        <v>126.61</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.12661</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>250</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.6429548551138318</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.0008486872532879564</v>
-      </c>
-      <c r="D157" t="n">
-        <v>-2.37534907728023</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.06352048060822905</v>
-      </c>
-      <c r="F157" t="n">
-        <v>250</v>
-      </c>
-      <c r="G157" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.1265</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>250</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.642896452707461</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.001121322175255095</v>
-      </c>
-      <c r="D158" t="n">
-        <v>-2.375578937825531</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.06656443981354315</v>
-      </c>
-      <c r="F158" t="n">
-        <v>250</v>
-      </c>
-      <c r="G158" t="n">
-        <v>126.46</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.12646</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>250</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.6429103254604132</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.001159644045355109</v>
-      </c>
-      <c r="D159" t="n">
-        <v>-2.375420552189119</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.05714009671214807</v>
-      </c>
-      <c r="F159" t="n">
-        <v>250</v>
-      </c>
-      <c r="G159" t="n">
-        <v>126.52</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.12652</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>250</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.6428663313313361</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.0009459180625325164</v>
-      </c>
-      <c r="D160" t="n">
-        <v>-2.375591964223657</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.0669453104146799</v>
-      </c>
-      <c r="F160" t="n">
-        <v>250</v>
-      </c>
-      <c r="G160" t="n">
-        <v>126.51</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.12651</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>250</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.6428199468387751</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.001264491076821297</v>
-      </c>
-      <c r="D161" t="n">
-        <v>-2.375577967364751</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.06800238832942589</v>
-      </c>
-      <c r="F161" t="n">
-        <v>250</v>
-      </c>
-      <c r="G161" t="n">
-        <v>126.62</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.12662</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>250</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.6424856494147834</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.003388457309684121</v>
-      </c>
-      <c r="D162" t="n">
-        <v>-2.375513948628904</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.06850664724829209</v>
-      </c>
-      <c r="F162" t="n">
-        <v>250</v>
-      </c>
-      <c r="G162" t="n">
-        <v>126.28</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.12628</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>250</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.6428003117377904</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.001124964906178254</v>
-      </c>
-      <c r="D163" t="n">
-        <v>-2.375669845270338</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.06592475187399638</v>
-      </c>
-      <c r="F163" t="n">
-        <v>250</v>
-      </c>
-      <c r="G163" t="n">
-        <v>126.46</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.12646</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>250</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.6424820024489829</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.004294087095055468</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-2.375311064335798</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.06343127090055004</v>
-      </c>
-      <c r="F164" t="n">
-        <v>250</v>
-      </c>
-      <c r="G164" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.12608</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>250</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.6428013669193311</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.001618311782499473</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-2.375457009063269</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.06420283437567606</v>
-      </c>
-      <c r="F165" t="n">
-        <v>250</v>
-      </c>
-      <c r="G165" t="n">
-        <v>126.48</v>
-      </c>
-      <c r="H165" t="n">
         <v>0.12648</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>250</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.6429062140161759</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.001342656687398152</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-2.375479731215556</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.06600241459726865</v>
-      </c>
-      <c r="F166" t="n">
-        <v>250</v>
-      </c>
-      <c r="G166" t="n">
-        <v>126.41</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.12641</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>250</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.6426431066034742</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.00335194438858316</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-2.375619262464602</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.06668922946080494</v>
-      </c>
-      <c r="F167" t="n">
-        <v>250</v>
-      </c>
-      <c r="G167" t="n">
-        <v>126.28</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.12628</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>250</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.6428722170704396</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.001196311525970824</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-2.375539884697489</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.06532284051020321</v>
-      </c>
-      <c r="F168" t="n">
-        <v>250</v>
-      </c>
-      <c r="G168" t="n">
-        <v>126.52</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.12652</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>250</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.6428654437743053</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.001181393669123329</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-2.375570569627008</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.06523393601862917</v>
-      </c>
-      <c r="F169" t="n">
-        <v>250</v>
-      </c>
-      <c r="G169" t="n">
-        <v>126.45</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.12645</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>250</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.6431543829479859</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.0009319929034576198</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-2.375473263864733</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.0611380058461866</v>
-      </c>
-      <c r="F170" t="n">
-        <v>250</v>
-      </c>
-      <c r="G170" t="n">
-        <v>126.93</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.12693</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>250</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.6427334159886314</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.002717123356561351</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-2.375535352456287</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.06149987907423719</v>
-      </c>
-      <c r="F171" t="n">
-        <v>250</v>
-      </c>
-      <c r="G171" t="n">
-        <v>126.57</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.12657</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>250</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.6427180406717253</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.002148279463598378</v>
-      </c>
-      <c r="D172" t="n">
-        <v>-2.375563163861791</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.06807961142765194</v>
-      </c>
-      <c r="F172" t="n">
-        <v>250</v>
-      </c>
-      <c r="G172" t="n">
-        <v>126.48</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.12648</v>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>CEM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4933,7 +5235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,6 +5284,11 @@
           <t>Excitation_amplitude_uncert [m s^-2]</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -5008,6 +5315,11 @@
       <c r="H2" t="n">
         <v>0.000547878</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5034,6 +5346,11 @@
       <c r="H3" t="n">
         <v>0.0005497190000000001</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5060,6 +5377,11 @@
       <c r="H4" t="n">
         <v>0.000551123</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5086,6 +5408,11 @@
       <c r="H5" t="n">
         <v>0.000551259</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5112,6 +5439,11 @@
       <c r="H6" t="n">
         <v>0.000549895</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5138,6 +5470,11 @@
       <c r="H7" t="n">
         <v>0.000550481</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5164,6 +5501,11 @@
       <c r="H8" t="n">
         <v>0.000550533</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5190,6 +5532,11 @@
       <c r="H9" t="n">
         <v>0.00054919</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5216,6 +5563,11 @@
       <c r="H10" t="n">
         <v>0.000551925</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5242,6 +5594,11 @@
       <c r="H11" t="n">
         <v>0.00055021</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5268,6 +5625,11 @@
       <c r="H12" t="n">
         <v>0.0005521499999999999</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5294,6 +5656,11 @@
       <c r="H13" t="n">
         <v>0.000551371</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5320,6 +5687,11 @@
       <c r="H14" t="n">
         <v>0.0005521429999999999</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5346,6 +5718,11 @@
       <c r="H15" t="n">
         <v>0.00055136</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5372,6 +5749,11 @@
       <c r="H16" t="n">
         <v>0.000552117</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5398,6 +5780,11 @@
       <c r="H17" t="n">
         <v>0.000548816</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5424,6 +5811,11 @@
       <c r="H18" t="n">
         <v>0.0005506140000000001</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5450,6 +5842,11 @@
       <c r="H19" t="n">
         <v>0.000551356</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5476,6 +5873,11 @@
       <c r="H20" t="n">
         <v>0.000550681</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5502,6 +5904,11 @@
       <c r="H21" t="n">
         <v>0.000550957</v>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5528,6 +5935,11 @@
       <c r="H22" t="n">
         <v>0.001115628</v>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5554,6 +5966,11 @@
       <c r="H23" t="n">
         <v>0.001114562</v>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5580,6 +5997,11 @@
       <c r="H24" t="n">
         <v>0.001116311</v>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5606,6 +6028,11 @@
       <c r="H25" t="n">
         <v>0.001113371</v>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5632,6 +6059,11 @@
       <c r="H26" t="n">
         <v>0.001115576</v>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5658,6 +6090,11 @@
       <c r="H27" t="n">
         <v>0.001109199</v>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5684,6 +6121,11 @@
       <c r="H28" t="n">
         <v>0.001115731</v>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5710,6 +6152,11 @@
       <c r="H29" t="n">
         <v>0.001114655</v>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5736,6 +6183,11 @@
       <c r="H30" t="n">
         <v>0.00111397</v>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5762,6 +6214,11 @@
       <c r="H31" t="n">
         <v>0.001115018</v>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5788,6 +6245,11 @@
       <c r="H32" t="n">
         <v>0.001119259</v>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5814,6 +6276,11 @@
       <c r="H33" t="n">
         <v>0.001113944</v>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5840,6 +6307,11 @@
       <c r="H34" t="n">
         <v>0.001118735</v>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5866,6 +6338,11 @@
       <c r="H35" t="n">
         <v>0.001118395</v>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5892,6 +6369,11 @@
       <c r="H36" t="n">
         <v>0.001119128</v>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5918,6 +6400,11 @@
       <c r="H37" t="n">
         <v>0.001114252</v>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5944,6 +6431,11 @@
       <c r="H38" t="n">
         <v>0.001118636</v>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5970,6 +6462,11 @@
       <c r="H39" t="n">
         <v>0.001116173</v>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5996,6 +6493,11 @@
       <c r="H40" t="n">
         <v>0.00111793</v>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6022,6 +6524,11 @@
       <c r="H41" t="n">
         <v>0.00111722</v>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6048,6 +6555,11 @@
       <c r="H42" t="n">
         <v>0.002256042</v>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6074,6 +6586,11 @@
       <c r="H43" t="n">
         <v>0.002254355</v>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6100,6 +6617,11 @@
       <c r="H44" t="n">
         <v>0.002254673</v>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6126,6 +6648,11 @@
       <c r="H45" t="n">
         <v>0.002254388</v>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6152,6 +6679,11 @@
       <c r="H46" t="n">
         <v>0.00225301</v>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6178,6 +6710,11 @@
       <c r="H47" t="n">
         <v>0.002256496</v>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6204,6 +6741,11 @@
       <c r="H48" t="n">
         <v>0.002256465</v>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6230,6 +6772,11 @@
       <c r="H49" t="n">
         <v>0.00225281</v>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6256,6 +6803,11 @@
       <c r="H50" t="n">
         <v>0.002256829</v>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6282,6 +6834,11 @@
       <c r="H51" t="n">
         <v>0.002256244</v>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6865,11 @@
       <c r="H52" t="n">
         <v>0.002285012</v>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6334,6 +6896,11 @@
       <c r="H53" t="n">
         <v>0.002287214</v>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6360,6 +6927,11 @@
       <c r="H54" t="n">
         <v>0.00228731</v>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6386,6 +6958,11 @@
       <c r="H55" t="n">
         <v>0.00228542</v>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6412,6 +6989,11 @@
       <c r="H56" t="n">
         <v>0.002285675</v>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6438,6 +7020,11 @@
       <c r="H57" t="n">
         <v>0.002281506</v>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +7051,11 @@
       <c r="H58" t="n">
         <v>0.002285501</v>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6490,6 +7082,11 @@
       <c r="H59" t="n">
         <v>0.002284136</v>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6516,6 +7113,11 @@
       <c r="H60" t="n">
         <v>0.002286365</v>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6542,6 +7144,11 @@
       <c r="H61" t="n">
         <v>0.002288201</v>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6568,6 +7175,11 @@
       <c r="H62" t="n">
         <v>0.00464855</v>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6594,6 +7206,11 @@
       <c r="H63" t="n">
         <v>0.004650455</v>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6620,6 +7237,11 @@
       <c r="H64" t="n">
         <v>0.004649079</v>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6646,6 +7268,11 @@
       <c r="H65" t="n">
         <v>0.004647441</v>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6672,6 +7299,11 @@
       <c r="H66" t="n">
         <v>0.00464804</v>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6698,6 +7330,11 @@
       <c r="H67" t="n">
         <v>0.004648389</v>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6724,6 +7361,11 @@
       <c r="H68" t="n">
         <v>0.0046502</v>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6750,6 +7392,11 @@
       <c r="H69" t="n">
         <v>0.004652268</v>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6776,6 +7423,11 @@
       <c r="H70" t="n">
         <v>0.004649516</v>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6802,6 +7454,11 @@
       <c r="H71" t="n">
         <v>0.004648937</v>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6828,6 +7485,11 @@
       <c r="H72" t="n">
         <v>0.011701683</v>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6854,6 +7516,11 @@
       <c r="H73" t="n">
         <v>0.01170086</v>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6880,6 +7547,11 @@
       <c r="H74" t="n">
         <v>0.011704522</v>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6906,6 +7578,11 @@
       <c r="H75" t="n">
         <v>0.011699189</v>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6932,6 +7609,11 @@
       <c r="H76" t="n">
         <v>0.011709924</v>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6958,6 +7640,11 @@
       <c r="H77" t="n">
         <v>0.011699266</v>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6984,6 +7671,11 @@
       <c r="H78" t="n">
         <v>0.011699812</v>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7010,6 +7702,11 @@
       <c r="H79" t="n">
         <v>0.011728122</v>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7036,6 +7733,11 @@
       <c r="H80" t="n">
         <v>0.011718531</v>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7062,6 +7764,11 @@
       <c r="H81" t="n">
         <v>0.011715724</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7088,6 +7795,11 @@
       <c r="H82" t="n">
         <v>0.011740505</v>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7114,6 +7826,11 @@
       <c r="H83" t="n">
         <v>0.01175327</v>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7140,6 +7857,11 @@
       <c r="H84" t="n">
         <v>0.011743551</v>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7166,6 +7888,11 @@
       <c r="H85" t="n">
         <v>0.011743445</v>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7192,6 +7919,11 @@
       <c r="H86" t="n">
         <v>0.011752671</v>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7218,6 +7950,11 @@
       <c r="H87" t="n">
         <v>0.011746171</v>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7244,6 +7981,11 @@
       <c r="H88" t="n">
         <v>0.011747443</v>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7270,6 +8012,11 @@
       <c r="H89" t="n">
         <v>0.011783128</v>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7296,6 +8043,11 @@
       <c r="H90" t="n">
         <v>0.011764438</v>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7322,6 +8074,11 @@
       <c r="H91" t="n">
         <v>0.011741662</v>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7348,6 +8105,11 @@
       <c r="H92" t="n">
         <v>0.011835273</v>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7374,6 +8136,11 @@
       <c r="H93" t="n">
         <v>0.011826076</v>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7400,6 +8167,11 @@
       <c r="H94" t="n">
         <v>0.011817012</v>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7426,6 +8198,11 @@
       <c r="H95" t="n">
         <v>0.011809138</v>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7452,6 +8229,11 @@
       <c r="H96" t="n">
         <v>0.011798353</v>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7478,6 +8260,11 @@
       <c r="H97" t="n">
         <v>0.011857186</v>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7504,6 +8291,11 @@
       <c r="H98" t="n">
         <v>0.011817045</v>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7530,6 +8322,11 @@
       <c r="H99" t="n">
         <v>0.011812307</v>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7556,6 +8353,11 @@
       <c r="H100" t="n">
         <v>0.011804889</v>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7582,6 +8384,11 @@
       <c r="H101" t="n">
         <v>0.011807354</v>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7608,6 +8415,11 @@
       <c r="H102" t="n">
         <v>0.02305018</v>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7634,6 +8446,11 @@
       <c r="H103" t="n">
         <v>0.023087275</v>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7660,6 +8477,11 @@
       <c r="H104" t="n">
         <v>0.023138529</v>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7686,6 +8508,11 @@
       <c r="H105" t="n">
         <v>0.023064556</v>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7712,6 +8539,11 @@
       <c r="H106" t="n">
         <v>0.023177237</v>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7738,6 +8570,11 @@
       <c r="H107" t="n">
         <v>0.023052821</v>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7764,6 +8601,11 @@
       <c r="H108" t="n">
         <v>0.023018107</v>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7790,6 +8632,11 @@
       <c r="H109" t="n">
         <v>0.023089376</v>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7816,6 +8663,11 @@
       <c r="H110" t="n">
         <v>0.023070229</v>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7842,6 +8694,11 @@
       <c r="H111" t="n">
         <v>0.023027636</v>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7868,6 +8725,11 @@
       <c r="H112" t="n">
         <v>0.023929451</v>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7894,6 +8756,11 @@
       <c r="H113" t="n">
         <v>0.023879923</v>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7920,6 +8787,11 @@
       <c r="H114" t="n">
         <v>0.023883058</v>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7946,6 +8818,11 @@
       <c r="H115" t="n">
         <v>0.023828851</v>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7972,6 +8849,11 @@
       <c r="H116" t="n">
         <v>0.023805565</v>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7998,6 +8880,11 @@
       <c r="H117" t="n">
         <v>0.023825362</v>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8024,6 +8911,11 @@
       <c r="H118" t="n">
         <v>0.023796364</v>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8050,6 +8942,11 @@
       <c r="H119" t="n">
         <v>0.023798007</v>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8076,6 +8973,11 @@
       <c r="H120" t="n">
         <v>0.023823957</v>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8102,6 +9004,11 @@
       <c r="H121" t="n">
         <v>0.023823831</v>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8128,6 +9035,11 @@
       <c r="H122" t="n">
         <v>0.024568704</v>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8154,6 +9066,11 @@
       <c r="H123" t="n">
         <v>0.024535121</v>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8180,6 +9097,11 @@
       <c r="H124" t="n">
         <v>0.024553701</v>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8206,6 +9128,11 @@
       <c r="H125" t="n">
         <v>0.024555325</v>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8232,6 +9159,11 @@
       <c r="H126" t="n">
         <v>0.024569623</v>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8258,6 +9190,11 @@
       <c r="H127" t="n">
         <v>0.024587957</v>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8284,6 +9221,11 @@
       <c r="H128" t="n">
         <v>0.024677443</v>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8310,6 +9252,11 @@
       <c r="H129" t="n">
         <v>0.024593212</v>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8336,6 +9283,11 @@
       <c r="H130" t="n">
         <v>0.024547108</v>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8362,6 +9314,11 @@
       <c r="H131" t="n">
         <v>0.024677904</v>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8388,6 +9345,11 @@
       <c r="H132" t="n">
         <v>0.024969882</v>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8414,6 +9376,11 @@
       <c r="H133" t="n">
         <v>0.025113098</v>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8440,6 +9407,11 @@
       <c r="H134" t="n">
         <v>0.025022711</v>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8466,6 +9438,11 @@
       <c r="H135" t="n">
         <v>0.024949005</v>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8492,6 +9469,11 @@
       <c r="H136" t="n">
         <v>0.024941045</v>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8518,6 +9500,11 @@
       <c r="H137" t="n">
         <v>0.024943833</v>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8544,6 +9531,11 @@
       <c r="H138" t="n">
         <v>0.024969691</v>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8570,6 +9562,11 @@
       <c r="H139" t="n">
         <v>0.025096507</v>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8596,6 +9593,11 @@
       <c r="H140" t="n">
         <v>0.02496217</v>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8622,6 +9624,11 @@
       <c r="H141" t="n">
         <v>0.02497762</v>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8648,6 +9655,11 @@
       <c r="H142" t="n">
         <v>0.025343238</v>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8674,6 +9686,11 @@
       <c r="H143" t="n">
         <v>0.025304013</v>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8700,6 +9717,11 @@
       <c r="H144" t="n">
         <v>0.025369601</v>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8726,6 +9748,11 @@
       <c r="H145" t="n">
         <v>0.02544031</v>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8752,6 +9779,11 @@
       <c r="H146" t="n">
         <v>0.025324908</v>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8778,6 +9810,11 @@
       <c r="H147" t="n">
         <v>0.025350843</v>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8804,6 +9841,11 @@
       <c r="H148" t="n">
         <v>0.025406507</v>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8830,6 +9872,11 @@
       <c r="H149" t="n">
         <v>0.025324415</v>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8856,6 +9903,11 @@
       <c r="H150" t="n">
         <v>0.025303425</v>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8882,6 +9934,11 @@
       <c r="H151" t="n">
         <v>0.025345273</v>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8908,6 +9965,11 @@
       <c r="H152" t="n">
         <v>0.025318225</v>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8934,6 +9996,11 @@
       <c r="H153" t="n">
         <v>0.025344364</v>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8960,6 +10027,11 @@
       <c r="H154" t="n">
         <v>0.025340616</v>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8986,6 +10058,11 @@
       <c r="H155" t="n">
         <v>0.025235848</v>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9012,6 +10089,11 @@
       <c r="H156" t="n">
         <v>0.02532687</v>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9038,6 +10120,11 @@
       <c r="H157" t="n">
         <v>0.025409471</v>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9064,6 +10151,11 @@
       <c r="H158" t="n">
         <v>0.025269313</v>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9090,6 +10182,11 @@
       <c r="H159" t="n">
         <v>0.025268999</v>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9116,6 +10213,11 @@
       <c r="H160" t="n">
         <v>0.025287156</v>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9142,6 +10244,11 @@
       <c r="H161" t="n">
         <v>0.025309323</v>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9168,6 +10275,11 @@
       <c r="H162" t="n">
         <v>0.025221348</v>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9194,6 +10306,11 @@
       <c r="H163" t="n">
         <v>0.02520023</v>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9220,6 +10337,11 @@
       <c r="H164" t="n">
         <v>0.025177128</v>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9246,6 +10368,11 @@
       <c r="H165" t="n">
         <v>0.025191638</v>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9272,6 +10399,11 @@
       <c r="H166" t="n">
         <v>0.025194517</v>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9298,6 +10430,11 @@
       <c r="H167" t="n">
         <v>0.025249135</v>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9324,6 +10461,11 @@
       <c r="H168" t="n">
         <v>0.025271213</v>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9350,6 +10492,11 @@
       <c r="H169" t="n">
         <v>0.025326942</v>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9376,6 +10523,11 @@
       <c r="H170" t="n">
         <v>0.025151493</v>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9401,6 +10553,11 @@
       </c>
       <c r="H171" t="n">
         <v>0.025161996</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -442,22 +442,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Magnitude [m s^-2/m s^-2 ]</t>
+          <t>$x_{M},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Uncertainty [m s^-2/m s^-2 ]</t>
+          <t>$U_{M},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Phase [°]</t>
+          <t>$x_{\phi},$ [°]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Uncertainty[°]</t>
+          <t>$U_{\phi},$ [°]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,12 +467,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_amplitude [m s^-2]</t>
+          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_amplitude_uncert [m s^-2]</t>
+          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -5251,22 +5251,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Magnitude [m s^-2/m s^-2 ]</t>
+          <t>$x_{M},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Uncertainty [m s^-2/m s^-2 ]</t>
+          <t>$U_{M},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Phase [°]</t>
+          <t>$x_{\phi},$ [°]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Uncertainty[°]</t>
+          <t>$U_{\phi},$ [°]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_amplitude [m s^-2]</t>
+          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_amplitude_uncert [m s^-2]</t>
+          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -486,16 +486,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.016207539756279</v>
+        <v>1.016221353739043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004531459390946134</v>
+        <v>0.004505550401179603</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09490720713416123</v>
+        <v>-0.09489939558989713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02271408101141177</v>
+        <v>0.02307584415356616</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -517,16 +517,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.016488208330893</v>
+        <v>1.016491903732239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002585641893418523</v>
+        <v>0.002591279760760939</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0949324818521271</v>
+        <v>-0.09493833698709642</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02151388640344262</v>
+        <v>0.02186569396178426</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -548,16 +548,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.016153206936212</v>
+        <v>1.016190953777468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00707292019168445</v>
+        <v>0.006534068767432005</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09505880135712808</v>
+        <v>-0.09506502459264432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02207538812964361</v>
+        <v>0.02249300887370677</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -579,16 +579,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.016145503084303</v>
+        <v>1.016178091559904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004643536762303889</v>
+        <v>0.004328396743068143</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09491544902058835</v>
+        <v>-0.09492133339189546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02264162607413026</v>
+        <v>0.02305880090139898</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -610,16 +610,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.01638514768088</v>
+        <v>1.016434383610606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003711884756216255</v>
+        <v>0.00338340566267992</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09491274360752522</v>
+        <v>-0.09491798203470458</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02198807832947833</v>
+        <v>0.02252044815829665</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -641,16 +641,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.016437602684947</v>
+        <v>1.016501034804796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003429891011434008</v>
+        <v>0.003478565791784261</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09495242943792248</v>
+        <v>-0.09495652075269367</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02241606301790203</v>
+        <v>0.02273502902783985</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.016253016569125</v>
+        <v>1.016259552041373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003156910721065089</v>
+        <v>0.003108515302554242</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09492451212744757</v>
+        <v>-0.09490738186630288</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02264241446322962</v>
+        <v>0.02311632049171362</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -703,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.016352467813792</v>
+        <v>1.016364007565488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002821735764250417</v>
+        <v>0.002806831175359695</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09500445792537127</v>
+        <v>-0.09500212789830487</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02258585368318776</v>
+        <v>0.02305422288739471</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.016314477074825</v>
+        <v>1.016336524318094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002253947662356673</v>
+        <v>0.002252537101909205</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09499844436394134</v>
+        <v>-0.09499762714263649</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02213587594345529</v>
+        <v>0.02247867298697117</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -765,16 +765,16 @@
         <v>12.5</v>
       </c>
       <c r="B11" t="n">
-        <v>1.016054889172679</v>
+        <v>1.016046337939238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002570625926799563</v>
+        <v>0.002606477108876516</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1186166153911385</v>
+        <v>-0.1186075656388388</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0176631871848842</v>
+        <v>0.01813830566928639</v>
       </c>
       <c r="F11" t="n">
         <v>12.5</v>
@@ -796,16 +796,16 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.015991683259904</v>
+        <v>1.016005876226183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002582048633072647</v>
+        <v>0.002508482041580361</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1187707272520968</v>
+        <v>-0.1187654994455594</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01804868477164346</v>
+        <v>0.01848019055783915</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
@@ -827,16 +827,16 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.015947794966095</v>
+        <v>1.015959154855181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002350317249587497</v>
+        <v>0.002331493819394716</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1185860080372783</v>
+        <v>-0.1185572719714054</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01801680207211074</v>
+        <v>0.01849674410750463</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
@@ -858,16 +858,16 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.016074673827146</v>
+        <v>1.016100508829865</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002341797479011423</v>
+        <v>0.002418424653036979</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1186206099236873</v>
+        <v>-0.11861231537677</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01747605540183241</v>
+        <v>0.01794355110217469</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
@@ -889,16 +889,16 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.015804870457872</v>
+        <v>1.015814335459463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002383870495352646</v>
+        <v>0.002323185992247555</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1188744547000109</v>
+        <v>-0.1188750932315825</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01790890607741854</v>
+        <v>0.01835784818337001</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
@@ -920,16 +920,16 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.015845834985022</v>
+        <v>1.015871116320274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00245110583178475</v>
+        <v>0.002473887280884852</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1186740919703169</v>
+        <v>-0.1186862157728514</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01778143376822213</v>
+        <v>0.01826232168202874</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
@@ -951,16 +951,16 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.015923718913078</v>
+        <v>1.015931497207533</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002802230591435549</v>
+        <v>0.002797941886289062</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1187441528976625</v>
+        <v>-0.1187267047729375</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01787240661477236</v>
+        <v>0.01836022556383569</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
@@ -982,16 +982,16 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.01585944468287</v>
+        <v>1.015880540150347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002894666322553297</v>
+        <v>0.002877753827908365</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1186047329239566</v>
+        <v>-0.118624232316243</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01773694573473413</v>
+        <v>0.01814886309162739</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
@@ -1013,16 +1013,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016039726500778</v>
+        <v>1.016057606268652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00328595251820209</v>
+        <v>0.003403582688809903</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.118755208388883</v>
+        <v>-0.1187775467825354</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01820734582261746</v>
+        <v>0.01861608451895676</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -1044,16 +1044,16 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.015282018106542</v>
+        <v>1.015290673216981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001885508951768424</v>
+        <v>0.001883574072838435</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1519344101758771</v>
+        <v>-0.1519281666555481</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02311092095585535</v>
+        <v>0.02344366393527238</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
@@ -1075,16 +1075,16 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>1.015342313862287</v>
+        <v>1.015367047780458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002743192178773673</v>
+        <v>0.002748135302195996</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1520294086538947</v>
+        <v>-0.1520225146388166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02321177607119645</v>
+        <v>0.0234589440924225</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
@@ -1106,16 +1106,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.015423963737577</v>
+        <v>1.01543075156091</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001563813555331117</v>
+        <v>0.001589233899458999</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.152005104227855</v>
+        <v>-0.1520064468840472</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02366277074564493</v>
+        <v>0.02400343347219419</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -1137,16 +1137,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0153879780787</v>
+        <v>1.015417820400213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002698441934644306</v>
+        <v>0.002713697986732306</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1519714866161477</v>
+        <v>-0.1519778600442552</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02437106898473681</v>
+        <v>0.02470280758958586</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
@@ -1168,16 +1168,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.015302893027231</v>
+        <v>1.015315436146209</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002538425312341473</v>
+        <v>0.002539727864973306</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1519370221750491</v>
+        <v>-0.1519387988913341</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02296282828021545</v>
+        <v>0.02329396038052963</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -1199,16 +1199,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.015232410181011</v>
+        <v>1.015246489803044</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002660228033026593</v>
+        <v>0.002896002466918786</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1519881286168721</v>
+        <v>-0.1519772805473059</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02406381665638004</v>
+        <v>0.02442932392612908</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
@@ -1230,16 +1230,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.015334405625699</v>
+        <v>1.015342146236098</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002405539713390132</v>
+        <v>0.002391708870391251</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1520705541895264</v>
+        <v>-0.1520662019278802</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02344121263499648</v>
+        <v>0.02365097824639462</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.015286591307104</v>
+        <v>1.015297395995932</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00223956812398922</v>
+        <v>0.002250700178310598</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1520289935833814</v>
+        <v>-0.1520218112271889</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02310476570907403</v>
+        <v>0.02347869412243381</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -1292,16 +1292,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.015482611373922</v>
+        <v>1.015476828876333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002577644110647759</v>
+        <v>0.002548511332391451</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1521293683683711</v>
+        <v>-0.1521128998875303</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02372831544323271</v>
+        <v>0.02398310220541191</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
@@ -1323,16 +1323,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>1.014320680382152</v>
+        <v>1.014349377548564</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002049333437869113</v>
+        <v>0.002104999684664763</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1899805815150548</v>
+        <v>-0.1899802080796495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0294843582694611</v>
+        <v>0.02992465016125986</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>1.014254268289302</v>
+        <v>1.014271696650168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002202028723031608</v>
+        <v>0.002181608534689814</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1900152941844038</v>
+        <v>-0.1900268748095026</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02903441900374978</v>
+        <v>0.02936885737190516</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1385,16 +1385,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>1.014329358136625</v>
+        <v>1.014322932253982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002104135564413362</v>
+        <v>0.002115306549247475</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1900115983222612</v>
+        <v>-0.1899977308560619</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02952017561798939</v>
+        <v>0.02995845714638698</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
@@ -1416,16 +1416,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.014266459513944</v>
+        <v>1.014261233345473</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002051205660567484</v>
+        <v>0.002015188646295515</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.190014680141718</v>
+        <v>-0.1900021681523258</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0295051435478065</v>
+        <v>0.02985858870669318</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1447,16 +1447,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01431230210048</v>
+        <v>1.014339996138282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00171816024842055</v>
+        <v>0.001765192058444171</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1899769180571484</v>
+        <v>-0.1899878909743611</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289312323916842</v>
+        <v>0.02929430817446244</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -1478,16 +1478,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.014301884662728</v>
+        <v>1.014326249020264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001949274542721694</v>
+        <v>0.002037456336393234</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899695003803974</v>
+        <v>-0.1899621196779109</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02967599377584116</v>
+        <v>0.02999329466444159</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
@@ -1509,16 +1509,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.014311362973607</v>
+        <v>1.014335949534315</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00204827803246876</v>
+        <v>0.002048852978705888</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1899737813179811</v>
+        <v>-0.1899838524707018</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02947381164085018</v>
+        <v>0.02978895473318153</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
@@ -1540,16 +1540,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.014226428872524</v>
+        <v>1.014236204122403</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001897168849495408</v>
+        <v>0.001959970627401939</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1899288801829617</v>
+        <v>-0.1899234593450108</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02919719107411882</v>
+        <v>0.02963757365057287</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
@@ -1571,16 +1571,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.014171209029995</v>
+        <v>1.014196472972832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002662253860059705</v>
+        <v>0.002672778022874739</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.189971241753474</v>
+        <v>-0.1899703924948417</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02925702283818337</v>
+        <v>0.02971643897289864</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
@@ -1602,16 +1602,16 @@
         <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>1.012774801663638</v>
+        <v>1.012757024325507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00245415106309392</v>
+        <v>0.002450054230954536</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2375088122940803</v>
+        <v>-0.2374873540359328</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02600279443418478</v>
+        <v>0.02639016865955729</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
@@ -1633,16 +1633,16 @@
         <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>1.012663449807397</v>
+        <v>1.012695410171934</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002458578643820421</v>
+        <v>0.00252300825766966</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2374420956450813</v>
+        <v>-0.2374600664279516</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02637996130677683</v>
+        <v>0.02666064474093903</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
@@ -1664,16 +1664,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>1.012700859568802</v>
+        <v>1.012701874044128</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001668270186322513</v>
+        <v>0.00164511396982674</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.237493705191449</v>
+        <v>-0.2374901863213341</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02693143563286531</v>
+        <v>0.02727408060932943</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
@@ -1695,16 +1695,16 @@
         <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>1.012894535276204</v>
+        <v>1.012860509407458</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003215025888625154</v>
+        <v>0.003254349188586099</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2376703086788803</v>
+        <v>-0.2376452848415838</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02737603677396717</v>
+        <v>0.02778059752180753</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
@@ -1726,16 +1726,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.012821150438673</v>
+        <v>1.012773072059565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002178030558297567</v>
+        <v>0.002215708835622858</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2375709124997145</v>
+        <v>-0.2375394836965097</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02763829542063597</v>
+        <v>0.02799781916695804</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
@@ -1757,16 +1757,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.012685169795308</v>
+        <v>1.01270674927991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001950269404165584</v>
+        <v>0.001935849322456483</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2374170860742228</v>
+        <v>-0.2374351459387765</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02623656742759538</v>
+        <v>0.02657973202391371</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -1788,16 +1788,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.012756325781004</v>
+        <v>1.012767535224277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001985719130319595</v>
+        <v>0.001955879051151852</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2374897096982078</v>
+        <v>-0.2374981753958154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02589123236039342</v>
+        <v>0.02616003794240204</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
@@ -1819,16 +1819,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.012698705865833</v>
+        <v>1.012686761551335</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001614150899862786</v>
+        <v>0.001580856140609278</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2374714018630524</v>
+        <v>-0.2374584304210696</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02706757448749505</v>
+        <v>0.02727532964597716</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
@@ -1850,16 +1850,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.012837127414155</v>
+        <v>1.012835724532509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001578855140772048</v>
+        <v>0.001579163278896678</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2375776268843728</v>
+        <v>-0.2375784326564412</v>
       </c>
       <c r="E46" t="n">
-        <v>0.026497305501099</v>
+        <v>0.02685200436604533</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
@@ -1881,16 +1881,16 @@
         <v>31.5</v>
       </c>
       <c r="B47" t="n">
-        <v>1.010222492594819</v>
+        <v>1.010222564171225</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001404485403449997</v>
+        <v>0.001413689149142048</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2992005181410653</v>
+        <v>-0.2992067255807453</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03379744711134432</v>
+        <v>0.03410201417881239</v>
       </c>
       <c r="F47" t="n">
         <v>31.5</v>
@@ -1912,16 +1912,16 @@
         <v>31.5</v>
       </c>
       <c r="B48" t="n">
-        <v>1.010177865535322</v>
+        <v>1.010180075688292</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001464292081995721</v>
+        <v>0.001485393901697443</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.299266586748296</v>
+        <v>-0.299272135099466</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03396833620895928</v>
+        <v>0.03428011772486012</v>
       </c>
       <c r="F48" t="n">
         <v>31.5</v>
@@ -1943,16 +1943,16 @@
         <v>31.5</v>
       </c>
       <c r="B49" t="n">
-        <v>1.010239566270887</v>
+        <v>1.010230991620703</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001470961602983216</v>
+        <v>0.001474945822497111</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2992468509901083</v>
+        <v>-0.2992401071229804</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03369820840447599</v>
+        <v>0.03406861100625981</v>
       </c>
       <c r="F49" t="n">
         <v>31.5</v>
@@ -1974,16 +1974,16 @@
         <v>31.5</v>
       </c>
       <c r="B50" t="n">
-        <v>1.010273578548875</v>
+        <v>1.010302091608444</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002131237307668968</v>
+        <v>0.002156915656493926</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2992680018864624</v>
+        <v>-0.2993034093238658</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03233462212194643</v>
+        <v>0.03262967987514286</v>
       </c>
       <c r="F50" t="n">
         <v>31.5</v>
@@ -2005,16 +2005,16 @@
         <v>31.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1.010288407684945</v>
+        <v>1.010282366160279</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001951564609442384</v>
+        <v>0.00194602550978125</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2993486182415808</v>
+        <v>-0.2993476963052519</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03426055447383321</v>
+        <v>0.03458588197135296</v>
       </c>
       <c r="F51" t="n">
         <v>31.5</v>
@@ -2036,16 +2036,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.010106223564815</v>
+        <v>1.010092130033369</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001822771173320155</v>
+        <v>0.001834505094395909</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2992006403042344</v>
+        <v>-0.2991876997305982</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0344301434511199</v>
+        <v>0.03479606869629601</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -2067,16 +2067,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.010198342071692</v>
+        <v>1.010204328833495</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001527782228362219</v>
+        <v>0.001521790325492106</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2992344576484474</v>
+        <v>-0.2992389079780104</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03375255537777028</v>
+        <v>0.03402299701911503</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -2098,16 +2098,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.010146301424405</v>
+        <v>1.010149675443279</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001512433377935116</v>
+        <v>0.001499697433334592</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2992378595369365</v>
+        <v>-0.2992422110311326</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03383168762561344</v>
+        <v>0.03405785702758789</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -2129,16 +2129,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.010222240589606</v>
+        <v>1.010222482609061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001514309245440176</v>
+        <v>0.001492433372913044</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2992118050267822</v>
+        <v>-0.2992177532587834</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03365709592575052</v>
+        <v>0.03398618847244046</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -2160,16 +2160,16 @@
         <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>1.006057677015976</v>
+        <v>1.006058668368302</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001336822795173632</v>
+        <v>0.001346413917326531</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.379943423006381</v>
+        <v>-0.37993411175876</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04399599665903824</v>
+        <v>0.04415376522105354</v>
       </c>
       <c r="F56" t="n">
         <v>40</v>
@@ -2191,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00612412882897</v>
+        <v>1.006137424819669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001514332743423973</v>
+        <v>0.001537179532386766</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3800516738755437</v>
+        <v>-0.3800558713321571</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04284934826734735</v>
+        <v>0.04295146250368759</v>
       </c>
       <c r="F57" t="n">
         <v>40</v>
@@ -2222,16 +2222,16 @@
         <v>40</v>
       </c>
       <c r="B58" t="n">
-        <v>1.006083396874479</v>
+        <v>1.006095288334216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001292238767940276</v>
+        <v>0.001300998140241165</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3800310172268366</v>
+        <v>-0.3800363524387311</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04420372257544087</v>
+        <v>0.04434779337636514</v>
       </c>
       <c r="F58" t="n">
         <v>40</v>
@@ -2253,16 +2253,16 @@
         <v>40</v>
       </c>
       <c r="B59" t="n">
-        <v>1.006082394952695</v>
+        <v>1.006082337508239</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001301068437693556</v>
+        <v>0.001306720277236549</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3800040587650315</v>
+        <v>-0.379986816080395</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04336935929031452</v>
+        <v>0.04364417803751394</v>
       </c>
       <c r="F59" t="n">
         <v>40</v>
@@ -2284,16 +2284,16 @@
         <v>40</v>
       </c>
       <c r="B60" t="n">
-        <v>1.00611784983105</v>
+        <v>1.006130695116773</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001423775519815758</v>
+        <v>0.001459168877618138</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3799781200214305</v>
+        <v>-0.3799825189397357</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04392045008472668</v>
+        <v>0.04409762376799912</v>
       </c>
       <c r="F60" t="n">
         <v>40</v>
@@ -2315,16 +2315,16 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>1.006245669343376</v>
+        <v>1.00624406983715</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002020827506427933</v>
+        <v>0.002018791874151274</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3803461216024107</v>
+        <v>-0.3803292460704215</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0451035476203637</v>
+        <v>0.04531171750235458</v>
       </c>
       <c r="F61" t="n">
         <v>40</v>
@@ -2346,16 +2346,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.006056657059509</v>
+        <v>1.006056076444981</v>
       </c>
       <c r="C62" t="n">
-        <v>0.001241050140502866</v>
+        <v>0.00124583702745687</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3799643584165806</v>
+        <v>-0.3799496242539924</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04344476299043309</v>
+        <v>0.04361252795058035</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
@@ -2377,16 +2377,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.006124556800714</v>
+        <v>1.006132731536673</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001342915393307466</v>
+        <v>0.001367951718813766</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3799257519756249</v>
+        <v>-0.3799327246524533</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04313692249731006</v>
+        <v>0.04318118626285845</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
@@ -2408,16 +2408,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.006051009251255</v>
+        <v>1.006062490126685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001270083877033564</v>
+        <v>0.001292824825718814</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3799546151133977</v>
+        <v>-0.3799590294405899</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04403471120818674</v>
+        <v>0.0441294136749803</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -2439,16 +2439,16 @@
         <v>46.7</v>
       </c>
       <c r="B65" t="n">
-        <v>1.002322915513999</v>
+        <v>1.002334899323309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001418010735913533</v>
+        <v>0.001424962714199331</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.4439458381087196</v>
+        <v>-0.4439639131395339</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04956200666719368</v>
+        <v>0.04970864826203854</v>
       </c>
       <c r="F65" t="n">
         <v>46.7</v>
@@ -2470,16 +2470,16 @@
         <v>46.7</v>
       </c>
       <c r="B66" t="n">
-        <v>1.002270052586507</v>
+        <v>1.002269425912248</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00136055666253099</v>
+        <v>0.001357532576077226</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.4438546711761839</v>
+        <v>-0.4438015300194085</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05219308006835055</v>
+        <v>0.05225348355439718</v>
       </c>
       <c r="F66" t="n">
         <v>46.7</v>
@@ -2501,16 +2501,16 @@
         <v>46.7</v>
       </c>
       <c r="B67" t="n">
-        <v>1.002229006930093</v>
+        <v>1.002245655134968</v>
       </c>
       <c r="C67" t="n">
-        <v>0.002007799324199118</v>
+        <v>0.002015179607258109</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.4437965043620857</v>
+        <v>-0.4438163680086422</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0515831372284261</v>
+        <v>0.0517641707590883</v>
       </c>
       <c r="F67" t="n">
         <v>46.7</v>
@@ -2532,16 +2532,16 @@
         <v>46.7</v>
       </c>
       <c r="B68" t="n">
-        <v>1.002275478404835</v>
+        <v>1.002271543637238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.003951092358045093</v>
+        <v>0.004074273995657044</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.443781652421348</v>
+        <v>-0.4437350664917119</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05347735105702025</v>
+        <v>0.05364038473556872</v>
       </c>
       <c r="F68" t="n">
         <v>46.7</v>
@@ -2563,16 +2563,16 @@
         <v>46.7</v>
       </c>
       <c r="B69" t="n">
-        <v>1.002274921790924</v>
+        <v>1.002284813271255</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002206356630546909</v>
+        <v>0.002376797086665432</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.443757902623247</v>
+        <v>-0.4437609164941847</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05073249249216184</v>
+        <v>0.05086148902504718</v>
       </c>
       <c r="F69" t="n">
         <v>46.7</v>
@@ -2594,16 +2594,16 @@
         <v>46.7</v>
       </c>
       <c r="B70" t="n">
-        <v>1.002259414839683</v>
+        <v>1.002240272781963</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001875458373005746</v>
+        <v>0.001894913593030967</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4436981799798221</v>
+        <v>-0.443600681570441</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05431420759330401</v>
+        <v>0.05442205751338178</v>
       </c>
       <c r="F70" t="n">
         <v>46.7</v>
@@ -2625,16 +2625,16 @@
         <v>46.7</v>
       </c>
       <c r="B71" t="n">
-        <v>1.002353315699864</v>
+        <v>1.002366064593226</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001406054567161334</v>
+        <v>0.001407140787460775</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.4439751273716892</v>
+        <v>-0.4439874749259509</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0509778086732252</v>
+        <v>0.05106300304397077</v>
       </c>
       <c r="F71" t="n">
         <v>46.7</v>
@@ -2656,16 +2656,16 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.002292434855539</v>
+        <v>1.002314347575497</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002859205066013125</v>
+        <v>0.002599055097772728</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4439704607389654</v>
+        <v>-0.4440048476153522</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05246222430111157</v>
+        <v>0.05252579138577182</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
@@ -2687,16 +2687,16 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.002326746421274</v>
+        <v>1.002325646956794</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001300720786092885</v>
+        <v>0.001303985472450783</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4440006180044316</v>
+        <v>-0.4439822353301039</v>
       </c>
       <c r="E73" t="n">
-        <v>0.05227998738699895</v>
+        <v>0.05231918834066101</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
@@ -2718,16 +2718,16 @@
         <v>50</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000083677051201</v>
+        <v>1.000090179280656</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001134417501496831</v>
+        <v>0.001151902466815737</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4752778844536998</v>
+        <v>-0.4752634737250716</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04625736652587002</v>
+        <v>0.04620691030076045</v>
       </c>
       <c r="F74" t="n">
         <v>50</v>
@@ -2749,16 +2749,16 @@
         <v>50</v>
       </c>
       <c r="B75" t="n">
-        <v>1.000073776908371</v>
+        <v>1.000079314626584</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001118220625692375</v>
+        <v>0.001123757635702486</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4752512378071203</v>
+        <v>-0.4752335512545613</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04671256225019083</v>
+        <v>0.04674945674651344</v>
       </c>
       <c r="F75" t="n">
         <v>50</v>
@@ -2780,16 +2780,16 @@
         <v>50</v>
       </c>
       <c r="B76" t="n">
-        <v>1.000101407372232</v>
+        <v>1.000094776584494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00118761349024863</v>
+        <v>0.001183834476336388</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4753670650337769</v>
+        <v>-0.4752938934564535</v>
       </c>
       <c r="E76" t="n">
-        <v>0.04709563182221436</v>
+        <v>0.04715658080305382</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
@@ -2811,16 +2811,16 @@
         <v>50</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9998586180788981</v>
+        <v>0.9996605401204673</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005104580358099737</v>
+        <v>0.006474229022270094</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4752503124395586</v>
+        <v>-0.4752253951123002</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04870269689680491</v>
+        <v>0.04877639621350181</v>
       </c>
       <c r="F77" t="n">
         <v>50</v>
@@ -2842,16 +2842,16 @@
         <v>50</v>
       </c>
       <c r="B78" t="n">
-        <v>1.000115140036217</v>
+        <v>1.000112889893608</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001229446382828025</v>
+        <v>0.001230520043261486</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4750758501501515</v>
+        <v>-0.475019676478992</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04623127523618085</v>
+        <v>0.0464623494799568</v>
       </c>
       <c r="F78" t="n">
         <v>50</v>
@@ -2873,16 +2873,16 @@
         <v>50</v>
       </c>
       <c r="B79" t="n">
-        <v>1.000077646048927</v>
+        <v>1.000086613213667</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001202479988172938</v>
+        <v>0.00122299033377162</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4751647119867686</v>
+        <v>-0.4751720446010208</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04530719289455544</v>
+        <v>0.04521302160149969</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
@@ -2904,16 +2904,16 @@
         <v>50</v>
       </c>
       <c r="B80" t="n">
-        <v>1.000161965124355</v>
+        <v>1.000148652067937</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001334628993074335</v>
+        <v>0.001340284571237665</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4751864343663015</v>
+        <v>-0.4751085972486537</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04788458033490483</v>
+        <v>0.04797347218512352</v>
       </c>
       <c r="F80" t="n">
         <v>50</v>
@@ -2935,16 +2935,16 @@
         <v>50</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00009903080144</v>
+        <v>1.000118471679116</v>
       </c>
       <c r="C81" t="n">
-        <v>0.001400029683111015</v>
+        <v>0.001420670130556744</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4753537664785057</v>
+        <v>-0.4753899240292085</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04477248983509553</v>
+        <v>0.04485806757402643</v>
       </c>
       <c r="F81" t="n">
         <v>50</v>
@@ -2966,16 +2966,16 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.000120079588227</v>
+        <v>1.000112286233619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00125194946477452</v>
+        <v>0.001249397290254408</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4753100583477687</v>
+        <v>-0.475229744033185</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04710287145461913</v>
+        <v>0.04723525838826354</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
@@ -2997,16 +2997,16 @@
         <v>53.3</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9977746956981622</v>
+        <v>0.9977894919096936</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001228615601818181</v>
+        <v>0.001227417724511815</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5067556456023392</v>
+        <v>-0.5067972503468017</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04957682463768209</v>
+        <v>0.04977709473184778</v>
       </c>
       <c r="F83" t="n">
         <v>53.3</v>
@@ -3028,16 +3028,16 @@
         <v>53.3</v>
       </c>
       <c r="B84" t="n">
-        <v>0.997798840835836</v>
+        <v>0.99780337349223</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001083798426299382</v>
+        <v>0.001084708765682497</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5066267277258882</v>
+        <v>-0.5066111394271502</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04983649840721732</v>
+        <v>0.05003039243421883</v>
       </c>
       <c r="F84" t="n">
         <v>53.3</v>
@@ -3059,16 +3059,16 @@
         <v>53.3</v>
       </c>
       <c r="B85" t="n">
-        <v>0.997783028183009</v>
+        <v>0.9977902146524742</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001058961052699117</v>
+        <v>0.001061396384457148</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.506531303382153</v>
+        <v>-0.5065116021592893</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04877889425943195</v>
+        <v>0.04885609706056439</v>
       </c>
       <c r="F85" t="n">
         <v>53.3</v>
@@ -3090,16 +3090,16 @@
         <v>53.3</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9978022434938342</v>
+        <v>0.9978158944387535</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001144100791823931</v>
+        <v>0.001161273584673006</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5067628875159915</v>
+        <v>-0.5068143800130986</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04719824491367382</v>
+        <v>0.04725159687730503</v>
       </c>
       <c r="F86" t="n">
         <v>53.3</v>
@@ -3121,16 +3121,16 @@
         <v>53.3</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9977606611807561</v>
+        <v>0.9977628840189934</v>
       </c>
       <c r="C87" t="n">
-        <v>0.001067373833778054</v>
+        <v>0.001067251344200643</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5064912572706324</v>
+        <v>-0.5064662353953393</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04910978065635066</v>
+        <v>0.04924513894244802</v>
       </c>
       <c r="F87" t="n">
         <v>53.3</v>
@@ -3152,16 +3152,16 @@
         <v>53.3</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9977849833231933</v>
+        <v>0.9977879822475579</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001263003389478122</v>
+        <v>0.0012596913957693</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5066774908148091</v>
+        <v>-0.5066610165980867</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04686164937514554</v>
+        <v>0.04715847698451545</v>
       </c>
       <c r="F88" t="n">
         <v>53.3</v>
@@ -3183,16 +3183,16 @@
         <v>53.3</v>
       </c>
       <c r="B89" t="n">
-        <v>0.997811545868352</v>
+        <v>0.9978181323073312</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001119387425501193</v>
+        <v>0.001118572627717867</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5067425339104936</v>
+        <v>-0.5067402335062097</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05010442828507576</v>
+        <v>0.05014347855326489</v>
       </c>
       <c r="F89" t="n">
         <v>53.3</v>
@@ -3214,16 +3214,16 @@
         <v>53.3</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9977647644161874</v>
+        <v>0.9977640425206238</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001112700066846933</v>
+        <v>0.00111681491249824</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5067730626874871</v>
+        <v>-0.506695082887072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05132945216216559</v>
+        <v>0.05153017702348399</v>
       </c>
       <c r="F90" t="n">
         <v>53.3</v>
@@ -3245,16 +3245,16 @@
         <v>53.3</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9978171765841489</v>
+        <v>0.9978204787644516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00118036920769991</v>
+        <v>0.001184284091928071</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5067538523807844</v>
+        <v>-0.5067094259063354</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0516031535725902</v>
+        <v>0.05174840265375927</v>
       </c>
       <c r="F91" t="n">
         <v>53.3</v>
@@ -3276,16 +3276,16 @@
         <v>63</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9905328341463866</v>
+        <v>0.9904078561782114</v>
       </c>
       <c r="C92" t="n">
-        <v>0.003856767477162491</v>
+        <v>0.005170709804913925</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5987849362576654</v>
+        <v>-0.5987643844764823</v>
       </c>
       <c r="E92" t="n">
-        <v>0.06085949743006427</v>
+        <v>0.0609474397936916</v>
       </c>
       <c r="F92" t="n">
         <v>63</v>
@@ -3307,16 +3307,16 @@
         <v>63</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9905817942416588</v>
+        <v>0.9904836713902518</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003355079349758214</v>
+        <v>0.004444635728616739</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5987641994613853</v>
+        <v>-0.5986444822784129</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0634978016516547</v>
+        <v>0.06373831695505408</v>
       </c>
       <c r="F93" t="n">
         <v>63</v>
@@ -3338,16 +3338,16 @@
         <v>63</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9907509276229683</v>
+        <v>0.9907565438596121</v>
       </c>
       <c r="C94" t="n">
-        <v>0.003228277754229882</v>
+        <v>0.003581889568684025</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5985146347380921</v>
+        <v>-0.5983424242329072</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06373074776444711</v>
+        <v>0.06380208552027811</v>
       </c>
       <c r="F94" t="n">
         <v>63</v>
@@ -3369,16 +3369,16 @@
         <v>63</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9896730668393184</v>
+        <v>0.9897738639581992</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01167816730916828</v>
+        <v>0.01145654306880763</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5989993164774932</v>
+        <v>-0.5987430769094146</v>
       </c>
       <c r="E95" t="n">
-        <v>0.06885846972088694</v>
+        <v>0.06893707066778929</v>
       </c>
       <c r="F95" t="n">
         <v>63</v>
@@ -3400,16 +3400,16 @@
         <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9904899575585179</v>
+        <v>0.9905022447307088</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008801847576301869</v>
+        <v>0.008891047930409223</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5987570042649084</v>
+        <v>-0.5986686611916934</v>
       </c>
       <c r="E96" t="n">
-        <v>0.067855630791597</v>
+        <v>0.06789148441201434</v>
       </c>
       <c r="F96" t="n">
         <v>63</v>
@@ -3431,16 +3431,16 @@
         <v>63</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9908788301843142</v>
+        <v>0.9908407847010936</v>
       </c>
       <c r="C97" t="n">
-        <v>0.003500651783383291</v>
+        <v>0.004179759927278833</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5983067429909177</v>
+        <v>-0.5982693185634975</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06012226405727895</v>
+        <v>0.06067121078456862</v>
       </c>
       <c r="F97" t="n">
         <v>63</v>
@@ -3462,16 +3462,16 @@
         <v>63</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9903680866813054</v>
+        <v>0.9902291774282946</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008918342142490111</v>
+        <v>0.00934475747142917</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5985659117956117</v>
+        <v>-0.5983826260483123</v>
       </c>
       <c r="E98" t="n">
-        <v>0.06164349540333661</v>
+        <v>0.06211813202345862</v>
       </c>
       <c r="F98" t="n">
         <v>63</v>
@@ -3493,16 +3493,16 @@
         <v>63</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9907134719935983</v>
+        <v>0.9907965332868397</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005472564316110839</v>
+        <v>0.005557850755537615</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5990561896848199</v>
+        <v>-0.5988663551342253</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06471925635500067</v>
+        <v>0.06499705653450082</v>
       </c>
       <c r="F99" t="n">
         <v>63</v>
@@ -3524,16 +3524,16 @@
         <v>63</v>
       </c>
       <c r="B100" t="n">
-        <v>0.990643886560289</v>
+        <v>0.9906097357395701</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003185676920961594</v>
+        <v>0.003431410664784512</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5987883584132971</v>
+        <v>-0.5986676777357545</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06574389511035855</v>
+        <v>0.06592435943734011</v>
       </c>
       <c r="F100" t="n">
         <v>63</v>
@@ -3555,16 +3555,16 @@
         <v>80</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9743225937049454</v>
+        <v>0.9743548621147287</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001587017457834239</v>
+        <v>0.001635539491130918</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.7602770566171975</v>
+        <v>-0.7602530028610088</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07223819458952153</v>
+        <v>0.07234490118027075</v>
       </c>
       <c r="F101" t="n">
         <v>80</v>
@@ -3586,16 +3586,16 @@
         <v>80</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9742109752370783</v>
+        <v>0.9742772488318582</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002729114508327373</v>
+        <v>0.002855375364834743</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.760391888994739</v>
+        <v>-0.7602947031901488</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07554494327296021</v>
+        <v>0.07577862831243685</v>
       </c>
       <c r="F102" t="n">
         <v>80</v>
@@ -3617,16 +3617,16 @@
         <v>80</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9735298947631214</v>
+        <v>0.9734840569350309</v>
       </c>
       <c r="C103" t="n">
-        <v>0.008589998683501313</v>
+        <v>0.008595858897259523</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.7605100867699943</v>
+        <v>-0.760619893764408</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07088131515841294</v>
+        <v>0.07104291169507798</v>
       </c>
       <c r="F103" t="n">
         <v>80</v>
@@ -3648,16 +3648,16 @@
         <v>80</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9741057276332549</v>
+        <v>0.9741985915841521</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004982765059473684</v>
+        <v>0.005087005466481581</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7604285653944913</v>
+        <v>-0.7603117085782269</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07570640800607538</v>
+        <v>0.0759168811761689</v>
       </c>
       <c r="F104" t="n">
         <v>80</v>
@@ -3679,16 +3679,16 @@
         <v>80</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9740748151671956</v>
+        <v>0.9739933359524535</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01647114474806117</v>
+        <v>0.01637228641709343</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.7602764251096299</v>
+        <v>-0.760266161582146</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07191660884296545</v>
+        <v>0.07182797579865878</v>
       </c>
       <c r="F105" t="n">
         <v>80</v>
@@ -3710,16 +3710,16 @@
         <v>80</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9741999700699171</v>
+        <v>0.9742299134663669</v>
       </c>
       <c r="C106" t="n">
-        <v>0.001833001711620609</v>
+        <v>0.001897377536828578</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.7604124842324613</v>
+        <v>-0.7604097903563001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.07296443656934097</v>
+        <v>0.07312841001369486</v>
       </c>
       <c r="F106" t="n">
         <v>80</v>
@@ -3741,16 +3741,16 @@
         <v>80</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9742994812996799</v>
+        <v>0.9743020785691057</v>
       </c>
       <c r="C107" t="n">
-        <v>0.00188520913281514</v>
+        <v>0.001881053982458107</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7603040533584551</v>
+        <v>-0.7603736581378646</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07189352242505845</v>
+        <v>0.07167928638681387</v>
       </c>
       <c r="F107" t="n">
         <v>80</v>
@@ -3772,16 +3772,16 @@
         <v>80</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9743172775535437</v>
+        <v>0.9743134109684524</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001371992007114919</v>
+        <v>0.001373012177003124</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7603849761187216</v>
+        <v>-0.7604710990644845</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07125100131489159</v>
+        <v>0.07114597140688335</v>
       </c>
       <c r="F108" t="n">
         <v>80</v>
@@ -3803,16 +3803,16 @@
         <v>80</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9740951989327673</v>
+        <v>0.974062510113388</v>
       </c>
       <c r="C109" t="n">
-        <v>0.005743076229550414</v>
+        <v>0.005654873427357494</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7601753496124921</v>
+        <v>-0.7602147586613164</v>
       </c>
       <c r="E109" t="n">
-        <v>0.07280189194346634</v>
+        <v>0.07285148267541681</v>
       </c>
       <c r="F109" t="n">
         <v>80</v>
@@ -3834,16 +3834,16 @@
         <v>100</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9503290140447423</v>
+        <v>0.9504396955253691</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005170075378040722</v>
+        <v>0.005285139549945556</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.9503567615143957</v>
+        <v>-0.9503166916607437</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08336392491688679</v>
+        <v>0.08348422533830993</v>
       </c>
       <c r="F110" t="n">
         <v>100</v>
@@ -3865,16 +3865,16 @@
         <v>100</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9504770462021258</v>
+        <v>0.950613741061378</v>
       </c>
       <c r="C111" t="n">
-        <v>0.008991962296805602</v>
+        <v>0.009071961027747318</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.9502858197342041</v>
+        <v>-0.9502426453155177</v>
       </c>
       <c r="E111" t="n">
-        <v>0.08412725353749399</v>
+        <v>0.08421170981949253</v>
       </c>
       <c r="F111" t="n">
         <v>100</v>
@@ -3896,16 +3896,16 @@
         <v>100</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9493308344250868</v>
+        <v>0.9495834891343099</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0183339906902175</v>
+        <v>0.01837179594966298</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9506214283722692</v>
+        <v>-0.9505541246303277</v>
       </c>
       <c r="E112" t="n">
-        <v>0.08423655218502343</v>
+        <v>0.08432769458387783</v>
       </c>
       <c r="F112" t="n">
         <v>100</v>
@@ -3927,16 +3927,16 @@
         <v>100</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9502858422806368</v>
+        <v>0.9503908327490325</v>
       </c>
       <c r="C113" t="n">
-        <v>0.005618200613682961</v>
+        <v>0.005696221135883288</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9504194482850123</v>
+        <v>-0.9503705018779742</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08427279661087494</v>
+        <v>0.08436452800392116</v>
       </c>
       <c r="F113" t="n">
         <v>100</v>
@@ -3958,16 +3958,16 @@
         <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9505948099233379</v>
+        <v>0.9506449094635027</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002223039157854316</v>
+        <v>0.002349563766782955</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.9503043833189633</v>
+        <v>-0.950274510771099</v>
       </c>
       <c r="E114" t="n">
-        <v>0.08285415308080145</v>
+        <v>0.08295132509172568</v>
       </c>
       <c r="F114" t="n">
         <v>100</v>
@@ -3989,16 +3989,16 @@
         <v>100</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9505560139950782</v>
+        <v>0.9506099284390931</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002669769588350158</v>
+        <v>0.00274223514813188</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.9503505616379808</v>
+        <v>-0.950321669058118</v>
       </c>
       <c r="E115" t="n">
-        <v>0.08364166010139852</v>
+        <v>0.08376136840437276</v>
       </c>
       <c r="F115" t="n">
         <v>100</v>
@@ -4020,16 +4020,16 @@
         <v>100</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9505289617815247</v>
+        <v>0.9505564299428614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001475560264946419</v>
+        <v>0.00147004566733835</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.9502117939556953</v>
+        <v>-0.9502105658798961</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08119354748445552</v>
+        <v>0.08120339958554496</v>
       </c>
       <c r="F116" t="n">
         <v>100</v>
@@ -4051,16 +4051,16 @@
         <v>100</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9505057416418247</v>
+        <v>0.9505780772076764</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002526272457334973</v>
+        <v>0.00253830501560246</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.9504722068241893</v>
+        <v>-0.9504080997861761</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08341279981029091</v>
+        <v>0.08344976512068879</v>
       </c>
       <c r="F117" t="n">
         <v>100</v>
@@ -4082,16 +4082,16 @@
         <v>100</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9505922342146408</v>
+        <v>0.9506622727062036</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002201005207666669</v>
+        <v>0.002327543296827776</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.9503487881115706</v>
+        <v>-0.9502816312635396</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08215928028129377</v>
+        <v>0.08231735473937481</v>
       </c>
       <c r="F118" t="n">
         <v>100</v>
@@ -4113,16 +4113,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9143619544160466</v>
+        <v>0.9144739659546574</v>
       </c>
       <c r="C119" t="n">
-        <v>0.001970858772027842</v>
+        <v>0.001983400001651364</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.188531739859003</v>
+        <v>-1.188486300546924</v>
       </c>
       <c r="E119" t="n">
-        <v>0.04029604816433354</v>
+        <v>0.04033491974318872</v>
       </c>
       <c r="F119" t="n">
         <v>125</v>
@@ -4144,16 +4144,16 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9142887035978408</v>
+        <v>0.914473969349156</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005893029489615714</v>
+        <v>0.005558422652407928</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.188418396264915</v>
+        <v>-1.18841388622204</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0383835776009594</v>
+        <v>0.03839090192952184</v>
       </c>
       <c r="F120" t="n">
         <v>125</v>
@@ -4175,16 +4175,16 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9144556760291283</v>
+        <v>0.9144959508199328</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001105334291478689</v>
+        <v>0.001209587064558978</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.188408420070257</v>
+        <v>-1.188443265305489</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03820142180528555</v>
+        <v>0.03837556537095856</v>
       </c>
       <c r="F121" t="n">
         <v>125</v>
@@ -4206,16 +4206,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9142924955643064</v>
+        <v>0.9142831442477314</v>
       </c>
       <c r="C122" t="n">
-        <v>0.001416713208930858</v>
+        <v>0.001392287047783192</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.188338009316921</v>
+        <v>-1.18841862424757</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03815234597163913</v>
+        <v>1.15955023858155</v>
       </c>
       <c r="F122" t="n">
         <v>125</v>
@@ -4237,16 +4237,16 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9141753274198456</v>
+        <v>0.9137970785948555</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009848450079237752</v>
+        <v>0.01046595969660233</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.188417063905921</v>
+        <v>-1.188531149508791</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03787318258132519</v>
+        <v>0.03803712967655585</v>
       </c>
       <c r="F123" t="n">
         <v>125</v>
@@ -4268,16 +4268,16 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9143416110796958</v>
+        <v>0.9144103831666377</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001730754845467551</v>
+        <v>0.001789075851195221</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.188434037676261</v>
+        <v>-1.188442191371498</v>
       </c>
       <c r="E124" t="n">
-        <v>0.04034660493307242</v>
+        <v>0.04036013782289369</v>
       </c>
       <c r="F124" t="n">
         <v>125</v>
@@ -4299,16 +4299,16 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9139752896827932</v>
+        <v>0.9140696840791451</v>
       </c>
       <c r="C125" t="n">
-        <v>0.007271167465764599</v>
+        <v>0.007126868002735341</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.188335782599019</v>
+        <v>-1.188398488844712</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03876529825096394</v>
+        <v>0.03872169462858448</v>
       </c>
       <c r="F125" t="n">
         <v>125</v>
@@ -4330,16 +4330,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9144338915536649</v>
+        <v>0.9144778167224458</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001091303346037814</v>
+        <v>0.001178207119814471</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.188466966017746</v>
+        <v>-1.188506253626575</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03951451993294801</v>
+        <v>0.03969747762776245</v>
       </c>
       <c r="F126" t="n">
         <v>125</v>
@@ -4361,16 +4361,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9142252936062504</v>
+        <v>0.9142155865276351</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003835293944430409</v>
+        <v>0.003804884284410737</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.188413753035149</v>
+        <v>-1.188418670935846</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03962090998182487</v>
+        <v>0.03968807627979782</v>
       </c>
       <c r="F127" t="n">
         <v>125</v>
@@ -4392,16 +4392,16 @@
         <v>160</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8506306792301129</v>
+        <v>0.8506231423193242</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004254792134066974</v>
+        <v>0.004295712467334489</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.518758036868613</v>
+        <v>-1.518753241341666</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05108805123628348</v>
+        <v>0.05130189818493257</v>
       </c>
       <c r="F128" t="n">
         <v>160</v>
@@ -4423,16 +4423,16 @@
         <v>160</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8505911721771636</v>
+        <v>0.8506414831486939</v>
       </c>
       <c r="C129" t="n">
-        <v>0.002236603316633268</v>
+        <v>0.002304400711031164</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.518786625019284</v>
+        <v>-1.518770178658682</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05051662982728972</v>
+        <v>0.05058182007878204</v>
       </c>
       <c r="F129" t="n">
         <v>160</v>
@@ -4454,16 +4454,16 @@
         <v>160</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8505483878006568</v>
+        <v>0.8506774407425942</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002071319580293961</v>
+        <v>0.002118890074338511</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.518907535436964</v>
+        <v>-1.51884968356861</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05097927692170854</v>
+        <v>0.05103508825831341</v>
       </c>
       <c r="F130" t="n">
         <v>160</v>
@@ -4485,16 +4485,16 @@
         <v>160</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8504543309722826</v>
+        <v>0.8504698605141532</v>
       </c>
       <c r="C131" t="n">
-        <v>0.002697752624959981</v>
+        <v>0.002728817666806877</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.518742878389042</v>
+        <v>-1.518747339481527</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0502359361245631</v>
+        <v>0.05042718368356365</v>
       </c>
       <c r="F131" t="n">
         <v>160</v>
@@ -4516,16 +4516,16 @@
         <v>160</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8506479765609418</v>
+        <v>0.8507421883476729</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001554668403458913</v>
+        <v>0.001678174010017625</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.518907185148738</v>
+        <v>-1.51913197942646</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05144487641927613</v>
+        <v>0.05166891006634523</v>
       </c>
       <c r="F132" t="n">
         <v>160</v>
@@ -4547,16 +4547,16 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8507029869956033</v>
+        <v>0.8507931811490305</v>
       </c>
       <c r="C133" t="n">
-        <v>0.001654710195078449</v>
+        <v>0.001613411940007246</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.518823372530194</v>
+        <v>-1.518822225260473</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05164396373101205</v>
+        <v>0.05161823598595774</v>
       </c>
       <c r="F133" t="n">
         <v>160</v>
@@ -4578,16 +4578,16 @@
         <v>160</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8505090669366577</v>
+        <v>0.8506901544756795</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004949790035174069</v>
+        <v>0.005262263245702007</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.518947599333648</v>
+        <v>-1.518871438392694</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05136166688707421</v>
+        <v>0.05137899679660699</v>
       </c>
       <c r="F134" t="n">
         <v>160</v>
@@ -4609,16 +4609,16 @@
         <v>160</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8505631296356724</v>
+        <v>0.8506382187676866</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001468335431133541</v>
+        <v>0.001550433770284733</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.518839888279462</v>
+        <v>-1.518836371026528</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0508809981248614</v>
+        <v>0.05101712751425801</v>
       </c>
       <c r="F135" t="n">
         <v>160</v>
@@ -4640,16 +4640,16 @@
         <v>160</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8506777126419653</v>
+        <v>0.8507145617406373</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001199362576011218</v>
+        <v>0.001216962324129293</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.518810372724479</v>
+        <v>-1.518852826412392</v>
       </c>
       <c r="E136" t="n">
-        <v>0.05038013319017697</v>
+        <v>0.05030721274476453</v>
       </c>
       <c r="F136" t="n">
         <v>160</v>
@@ -4671,16 +4671,16 @@
         <v>200</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7667523441301561</v>
+        <v>0.7668450319799199</v>
       </c>
       <c r="C137" t="n">
-        <v>0.002274595352070691</v>
+        <v>0.002513798667793206</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.900355914511337</v>
+        <v>-1.900337653802967</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05218793286929495</v>
+        <v>0.05230545598403376</v>
       </c>
       <c r="F137" t="n">
         <v>200</v>
@@ -4702,16 +4702,16 @@
         <v>200</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7668429494312151</v>
+        <v>0.7669059066040005</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001135867023654462</v>
+        <v>0.001274088066498462</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.90029143278972</v>
+        <v>-1.900321271975968</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0524001138630277</v>
+        <v>0.0527387844963263</v>
       </c>
       <c r="F138" t="n">
         <v>200</v>
@@ -4733,16 +4733,16 @@
         <v>200</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7668076664651147</v>
+        <v>0.7669038539519523</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001675498271645209</v>
+        <v>0.001710112525526007</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.900392060924542</v>
+        <v>-1.900359438794287</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05330682534816133</v>
+        <v>0.0534611206802276</v>
       </c>
       <c r="F139" t="n">
         <v>200</v>
@@ -4764,16 +4764,16 @@
         <v>200</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7667809546272076</v>
+        <v>0.7668482630005938</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001503886279926001</v>
+        <v>0.001522870494702903</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.900270479678716</v>
+        <v>-1.90029625352027</v>
       </c>
       <c r="E140" t="n">
-        <v>0.04893123424814268</v>
+        <v>0.04899172417014108</v>
       </c>
       <c r="F140" t="n">
         <v>200</v>
@@ -4795,16 +4795,16 @@
         <v>200</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7669063780713811</v>
+        <v>0.7669457456741104</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0008750083051359474</v>
+        <v>0.000908328558290907</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.900077220921086</v>
+        <v>-1.900270448214112</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0544063786562218</v>
+        <v>0.05427668868057123</v>
       </c>
       <c r="F141" t="n">
         <v>200</v>
@@ -4826,16 +4826,16 @@
         <v>200</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7671066022099008</v>
+        <v>0.7672541962297393</v>
       </c>
       <c r="C142" t="n">
-        <v>0.003804828536198508</v>
+        <v>0.003726323867354386</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.900278850154099</v>
+        <v>-1.900264236034524</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0502731190928074</v>
+        <v>0.05032915825501857</v>
       </c>
       <c r="F142" t="n">
         <v>200</v>
@@ -4857,16 +4857,16 @@
         <v>200</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7668722129435901</v>
+        <v>0.7668859058308469</v>
       </c>
       <c r="C143" t="n">
-        <v>0.002418002645923786</v>
+        <v>0.002415585160069062</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.900295366433503</v>
+        <v>-1.900291532471433</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05332590843424716</v>
+        <v>0.05360465656082067</v>
       </c>
       <c r="F143" t="n">
         <v>200</v>
@@ -4888,16 +4888,16 @@
         <v>200</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7668544156682873</v>
+        <v>0.7669487697009447</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001412693998602425</v>
+        <v>0.001627181727041195</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.900243699498411</v>
+        <v>-1.900292843635255</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05508048044002297</v>
+        <v>5.466367110610495</v>
       </c>
       <c r="F144" t="n">
         <v>200</v>
@@ -4919,16 +4919,16 @@
         <v>200</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7668734637812835</v>
+        <v>0.7669245222139707</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001017777340116402</v>
+        <v>0.001062163529072134</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.900334427303592</v>
+        <v>-1.900371961894693</v>
       </c>
       <c r="E145" t="n">
-        <v>0.05273704322467958</v>
+        <v>0.05267825130914428</v>
       </c>
       <c r="F145" t="n">
         <v>200</v>
@@ -4950,16 +4950,16 @@
         <v>250</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6427334159886314</v>
+        <v>0.6426971620776223</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002717123356561351</v>
+        <v>0.002664113583018951</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.375535352456287</v>
+        <v>-2.375504473793933</v>
       </c>
       <c r="E146" t="n">
-        <v>0.06149987907423719</v>
+        <v>5.428128016580445</v>
       </c>
       <c r="F146" t="n">
         <v>250</v>
@@ -4981,16 +4981,16 @@
         <v>250</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6426431066034742</v>
+        <v>0.6428150282576126</v>
       </c>
       <c r="C147" t="n">
-        <v>0.00335194438858316</v>
+        <v>0.003375311550369481</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.375619262464602</v>
+        <v>-2.375636752824754</v>
       </c>
       <c r="E147" t="n">
-        <v>0.06668922946080494</v>
+        <v>0.06699731646671432</v>
       </c>
       <c r="F147" t="n">
         <v>250</v>
@@ -5012,16 +5012,16 @@
         <v>250</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6428663313313361</v>
+        <v>0.6429148585798811</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0009459180625325164</v>
+        <v>0.001019619871499212</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.375591964223657</v>
+        <v>-2.375595668389065</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0669453104146799</v>
+        <v>0.06730190990543931</v>
       </c>
       <c r="F148" t="n">
         <v>250</v>
@@ -5043,16 +5043,16 @@
         <v>250</v>
       </c>
       <c r="B149" t="n">
-        <v>0.642800053124131</v>
+        <v>0.6428848089159781</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001230866555803044</v>
+        <v>0.00136818474685649</v>
       </c>
       <c r="D149" t="n">
-        <v>-2.375705286398805</v>
+        <v>-2.375673082652553</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0642331010733548</v>
+        <v>0.06467475927245807</v>
       </c>
       <c r="F149" t="n">
         <v>250</v>
@@ -5074,16 +5074,16 @@
         <v>250</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6428199468387751</v>
+        <v>0.6428850231928975</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001264491076821297</v>
+        <v>0.001282965829750043</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.375577967364751</v>
+        <v>-2.375572582177151</v>
       </c>
       <c r="E150" t="n">
-        <v>0.06800238832942589</v>
+        <v>0.06813189605048543</v>
       </c>
       <c r="F150" t="n">
         <v>250</v>
@@ -5105,16 +5105,16 @@
         <v>250</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6427672652726951</v>
+        <v>0.6428005422316265</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001052121439891629</v>
+        <v>0.001071923567863798</v>
       </c>
       <c r="D151" t="n">
-        <v>-2.375691495097924</v>
+        <v>-2.375695648714824</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06590195120155411</v>
+        <v>0.0661938432464481</v>
       </c>
       <c r="F151" t="n">
         <v>250</v>
@@ -5136,16 +5136,16 @@
         <v>250</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6428722170704396</v>
+        <v>0.6429477724141622</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001196311525970824</v>
+        <v>0.001238804588277877</v>
       </c>
       <c r="D152" t="n">
-        <v>-2.375539884697489</v>
+        <v>-2.375534639416466</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06532284051020321</v>
+        <v>0.06551002218375108</v>
       </c>
       <c r="F152" t="n">
         <v>250</v>
@@ -5167,16 +5167,16 @@
         <v>250</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6428003117377904</v>
+        <v>0.6428622671813262</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001124964906178254</v>
+        <v>0.001187801632667264</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.375669845270338</v>
+        <v>-2.375664368779442</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06592475187399638</v>
+        <v>0.06621008630201355</v>
       </c>
       <c r="F153" t="n">
         <v>250</v>
@@ -5198,16 +5198,16 @@
         <v>250</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6427180406717253</v>
+        <v>0.6427629948494958</v>
       </c>
       <c r="C154" t="n">
-        <v>0.002148279463598378</v>
+        <v>0.002252842818037244</v>
       </c>
       <c r="D154" t="n">
-        <v>-2.375563163861791</v>
+        <v>-2.375551901601199</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06807961142765194</v>
+        <v>0.06832326019555925</v>
       </c>
       <c r="F154" t="n">
         <v>250</v>
@@ -5295,16 +5295,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.01939924079704</v>
+        <v>1.019554075344435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002580091657208682</v>
+        <v>0.002727269778079021</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09496696980046737</v>
+        <v>-0.09468334655837385</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002695965851425542</v>
+        <v>0.002650884773585667</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -5326,16 +5326,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.018972265871191</v>
+        <v>1.019261585620192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004122285961526118</v>
+        <v>0.004366400307735925</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09440491039972532</v>
+        <v>-0.0946125908928126</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004065344133429051</v>
+        <v>0.004008323233318047</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -5357,16 +5357,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.018810488297618</v>
+        <v>1.019093028818399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003101339005672954</v>
+        <v>0.003428259640340347</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0948216230925425</v>
+        <v>-0.09493073917926154</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003221512192579334</v>
+        <v>0.00327885425462548</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -5388,16 +5388,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.019132083513059</v>
+        <v>1.019204741137607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002463256271460341</v>
+        <v>0.002474594472791646</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09471260857195851</v>
+        <v>-0.09460161716786786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002742583772422535</v>
+        <v>0.002777570668200934</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -5419,16 +5419,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.019332309750883</v>
+        <v>1.019102087925779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002883199709274764</v>
+        <v>0.003085892443546447</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09463006597588741</v>
+        <v>-0.09461147220217114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00349923581975443</v>
+        <v>0.003523505478424553</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -5450,16 +5450,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.019299941515856</v>
+        <v>1.019098044268865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003091336500219548</v>
+        <v>0.003233010351364168</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09465875653014066</v>
+        <v>-0.09471154036066665</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002971784548721088</v>
+        <v>0.003067191633660133</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -5481,16 +5481,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.019073347180251</v>
+        <v>1.019075540730297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002855424156777483</v>
+        <v>0.002909528673587467</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0949526492099686</v>
+        <v>-0.09498311173208762</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003180906036253526</v>
+        <v>0.003287788772564636</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -5512,16 +5512,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.018979408882469</v>
+        <v>1.01884136271871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003437254895899455</v>
+        <v>0.00340215246976841</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09459000833047204</v>
+        <v>-0.09458455173055569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003764589015282639</v>
+        <v>0.003790035921042809</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -5543,16 +5543,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.019095103356949</v>
+        <v>1.01917642599856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002833157524192164</v>
+        <v>0.002894534446569723</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09457072569908176</v>
+        <v>-0.09456145455669462</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002912154251760601</v>
+        <v>0.002861737429263812</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -5574,16 +5574,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.018983882560442</v>
+        <v>1.019313120427164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00521032104617498</v>
+        <v>0.005397926273466158</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09463231408513995</v>
+        <v>-0.0947191212682732</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003350275857443354</v>
+        <v>0.003375538886502044</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -5605,16 +5605,16 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.018177866035013</v>
+        <v>1.018037979074269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004130868940909345</v>
+        <v>0.004021478324989575</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1183282072097365</v>
+        <v>-0.1186006945062923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004643180080091598</v>
+        <v>0.004607310936689208</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
@@ -5636,16 +5636,16 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.018481581073518</v>
+        <v>1.018413368660527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004408386501105022</v>
+        <v>0.003801087696675347</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1188165177491562</v>
+        <v>-0.1188698360140208</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005597388163773661</v>
+        <v>0.005310583697011984</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
@@ -5667,16 +5667,16 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.018297049338361</v>
+        <v>1.018343704017587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004623262968326122</v>
+        <v>0.00396437939734387</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1186699117372605</v>
+        <v>-0.1186059230062089</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005210118128297064</v>
+        <v>0.005060478528523094</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
@@ -5698,16 +5698,16 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.018601747693024</v>
+        <v>1.018477963631924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002581509838164837</v>
+        <v>0.002635495649623836</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1181530704866312</v>
+        <v>-0.1180289189380215</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005103263866330901</v>
+        <v>0.005095910317460198</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
@@ -5729,16 +5729,16 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.018343718245903</v>
+        <v>1.018494189716521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005557217756001262</v>
+        <v>0.005309805762061174</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1189573440960081</v>
+        <v>-0.1190525402896148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006442351398722225</v>
+        <v>0.006473447497041524</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
@@ -5760,16 +5760,16 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018808763538118</v>
+        <v>1.019093308800979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002818756965604842</v>
+        <v>0.003008043096820824</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1186355319118064</v>
+        <v>-0.1188203214284194</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006221329116230795</v>
+        <v>0.006247746238057713</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
@@ -5791,16 +5791,16 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.018579163825723</v>
+        <v>1.018155278664403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005164990196536264</v>
+        <v>0.005084008292014733</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1188637539612576</v>
+        <v>-0.1187594740928746</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00486992557606357</v>
+        <v>0.004690334867231138</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
@@ -5822,16 +5822,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.018029118586835</v>
+        <v>1.017900921226268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005203604660079761</v>
+        <v>0.004888400573603017</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1185224461153185</v>
+        <v>-0.1183983028725031</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005024739777370198</v>
+        <v>0.004697948685862925</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -5853,16 +5853,16 @@
         <v>12.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.018691563110946</v>
+        <v>1.018783365784723</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003973580798425154</v>
+        <v>0.003923544972139723</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1194356326040005</v>
+        <v>-0.119515322980225</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004245800357883259</v>
+        <v>0.004025303968045519</v>
       </c>
       <c r="F20" t="n">
         <v>12.5</v>
@@ -5884,16 +5884,16 @@
         <v>12.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018420512225047</v>
+        <v>1.018516310406719</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002902556474672801</v>
+        <v>0.00290035826043759</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.118392795441411</v>
+        <v>-0.1184922950650629</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004287792834754701</v>
+        <v>0.00441254691501835</v>
       </c>
       <c r="F21" t="n">
         <v>12.5</v>
@@ -5915,16 +5915,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.018114276382647</v>
+        <v>1.018439405367733</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003483745449933992</v>
+        <v>0.003800064895743408</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.151757208355157</v>
+        <v>-0.1519605907815968</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004210304347866648</v>
+        <v>0.004394047800653621</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -5946,16 +5946,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.017735474795342</v>
+        <v>1.017730241897327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00203386551368787</v>
+        <v>0.001940544864462019</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.15155837692435</v>
+        <v>-0.1516432617501735</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003140455586159428</v>
+        <v>0.003033984141698215</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
@@ -5977,16 +5977,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0178496575895</v>
+        <v>1.017711034393314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004669272677492974</v>
+        <v>0.004539834980281238</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1522227978233253</v>
+        <v>-0.1521381842843788</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004957163895482214</v>
+        <v>0.004954290090074451</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -6008,16 +6008,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.01818151541211</v>
+        <v>1.018575216675492</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003622604921471993</v>
+        <v>0.003890944482210001</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1520832470554758</v>
+        <v>-0.1523009645633007</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004336072149091649</v>
+        <v>0.004497146603961831</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
@@ -6039,16 +6039,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.017927337355236</v>
+        <v>1.017924191795018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002457917011412506</v>
+        <v>0.002287857860034984</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1518178405410033</v>
+        <v>-0.1518716649503773</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003164630040685648</v>
+        <v>0.00307490236394366</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -6070,16 +6070,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.018179331306853</v>
+        <v>1.018381880962696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005310644765718115</v>
+        <v>0.005223787129857408</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1522457761369229</v>
+        <v>-0.152329712453918</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005317192538999996</v>
+        <v>0.005354886323430647</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -6101,16 +6101,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.017927537840574</v>
+        <v>1.018325523147314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003869308520609171</v>
+        <v>0.00407362256385915</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1520093634199484</v>
+        <v>-0.1522435623338492</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004852696769492065</v>
+        <v>0.005000138032736631</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
@@ -6132,16 +6132,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>1.017874469420392</v>
+        <v>1.017669869082379</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00270851702647006</v>
+        <v>0.002761021869819183</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1516560469344612</v>
+        <v>-0.1516284838573192</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003671160981751104</v>
+        <v>0.003514143181872307</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
@@ -6163,16 +6163,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>1.017962435953003</v>
+        <v>1.01821299945399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003027004419661089</v>
+        <v>0.003163645679012032</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1521236566448856</v>
+        <v>-0.1523040161909961</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004041202917486083</v>
+        <v>0.004122939273896427</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
@@ -6194,16 +6194,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017992986861455</v>
+        <v>1.017740025096042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002896871844157692</v>
+        <v>0.003090760892892811</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1519394620890218</v>
+        <v>-0.1517500620777219</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003955061751858379</v>
+        <v>0.003903096114591057</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
@@ -6225,16 +6225,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.016896821053681</v>
+        <v>1.016881785355286</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00261435567760535</v>
+        <v>0.002517431641371211</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1895377028522969</v>
+        <v>-0.1894688819871511</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004156208127998669</v>
+        <v>0.004187171690810781</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -6256,16 +6256,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.016762461819975</v>
+        <v>1.016443673832847</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003209303163540109</v>
+        <v>0.003505842714217945</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1897785191338213</v>
+        <v>-0.1893762232358069</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004452408063627109</v>
+        <v>0.004848200256922806</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -6287,16 +6287,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.016815254673173</v>
+        <v>1.016767617414664</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00248029945139294</v>
+        <v>0.002421203929406732</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899444888436812</v>
+        <v>-0.1899023048692374</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004789546125432869</v>
+        <v>0.004710992557895201</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
@@ -6318,16 +6318,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.016787888235668</v>
+        <v>1.016683507077402</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00277027270325532</v>
+        <v>0.002710049424263291</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1897402905780714</v>
+        <v>-0.1897262550960099</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004776905640157791</v>
+        <v>0.004524881886536669</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
@@ -6349,16 +6349,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.016836219611182</v>
+        <v>1.016992205529661</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002397706385794561</v>
+        <v>0.002476486873600231</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1895131154426828</v>
+        <v>-0.1897733725101443</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005084586962714868</v>
+        <v>0.005177860544108947</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
@@ -6380,16 +6380,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.017082375471265</v>
+        <v>1.016985517793772</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003554215744726484</v>
+        <v>0.003333708899213893</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1901035898162604</v>
+        <v>-0.1899356670924703</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005313925503428343</v>
+        <v>0.005266682999690975</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
@@ -6411,16 +6411,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>1.016695636496027</v>
+        <v>1.016476983248544</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003017007611353808</v>
+        <v>0.003069736584795785</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1900635589847912</v>
+        <v>-0.1898097716587106</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005178435181236805</v>
+        <v>0.005166345578749109</v>
       </c>
       <c r="F38" t="n">
         <v>20</v>
@@ -6442,16 +6442,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1.017020727048789</v>
+        <v>1.017032157646075</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002819759523202519</v>
+        <v>0.002690310028175008</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1901229640450905</v>
+        <v>-0.190099357505694</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004982968590313834</v>
+        <v>0.005004539381515035</v>
       </c>
       <c r="F39" t="n">
         <v>20</v>
@@ -6473,16 +6473,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1.016944662678422</v>
+        <v>1.016991786081049</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002518472500863831</v>
+        <v>0.002358279124155136</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1899562076709369</v>
+        <v>-0.1901219675676096</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004697629776343452</v>
+        <v>0.004658543453798609</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
@@ -6504,16 +6504,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="n">
-        <v>1.016915930321261</v>
+        <v>1.016771677751503</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002016574050975375</v>
+        <v>0.002103381749392564</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1895171196570509</v>
+        <v>-0.1894231748405133</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003906578212796434</v>
+        <v>0.003810035761980522</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
@@ -6535,16 +6535,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.015457783323388</v>
+        <v>1.015287530407921</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002408973895776347</v>
+        <v>0.002275833400120042</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2374234082511997</v>
+        <v>-0.2371998853184878</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004816239836405021</v>
+        <v>0.004677983425827682</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
@@ -6566,16 +6566,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.015467965212592</v>
+        <v>1.015507186627925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002100389396102055</v>
+        <v>0.002032333309267355</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.237416466190298</v>
+        <v>-0.2374395819185646</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004495782214936553</v>
+        <v>0.004466009340725324</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -6597,16 +6597,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.015413296713558</v>
+        <v>1.015401747170086</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00226655231308327</v>
+        <v>0.002180314542183768</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2372695507819991</v>
+        <v>-0.2372800959535142</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005140512271267623</v>
+        <v>0.005049474218747999</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
@@ -6628,16 +6628,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.015348235938518</v>
+        <v>1.015553862880644</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002253386101187291</v>
+        <v>0.002383380657269722</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.237458761098889</v>
+        <v>-0.2377231383081622</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005550664094905388</v>
+        <v>0.005780066592166548</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
@@ -6659,16 +6659,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.015433436432928</v>
+        <v>1.015218700003683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00182483280929804</v>
+        <v>0.002065711984895735</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2369008881468972</v>
+        <v>-0.2366795653815452</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003484005845667923</v>
+        <v>0.003783034253880214</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
@@ -6690,16 +6690,16 @@
         <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>1.015493820858994</v>
+        <v>1.015376833564796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001819763453935993</v>
+        <v>0.001798479740805707</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2375163308806489</v>
+        <v>-0.2374148123250777</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003841872919656306</v>
+        <v>0.003760404978194415</v>
       </c>
       <c r="F47" t="n">
         <v>25</v>
@@ -6721,16 +6721,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.015386363056383</v>
+        <v>1.015282931925448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001868964249168365</v>
+        <v>0.001857484125177588</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.237171317635795</v>
+        <v>-0.2370541101449355</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00411969889770005</v>
+        <v>0.004107603114918367</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
@@ -6752,16 +6752,16 @@
         <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01520094583423</v>
+        <v>1.015083332124154</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001952676996963241</v>
+        <v>0.001776856749087893</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2367906754125211</v>
+        <v>-0.2366787440806886</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003972791225105947</v>
+        <v>0.00394206550500496</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
@@ -6783,16 +6783,16 @@
         <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>1.015232928891381</v>
+        <v>1.014817389565052</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002459723563783398</v>
+        <v>0.003028725886386801</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2371718555139202</v>
+        <v>-0.2365628462472777</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004817747824830632</v>
+        <v>0.005247178269503631</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
@@ -6814,16 +6814,16 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1.015221152129579</v>
+        <v>1.015285155687832</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002764954825379887</v>
+        <v>0.002646732716388129</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2373245024929176</v>
+        <v>-0.2373388304187092</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005910861493875616</v>
+        <v>0.005812371967319529</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
@@ -6845,16 +6845,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.012927331607946</v>
+        <v>1.012798565612575</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001275301499150009</v>
+        <v>0.001317895097973391</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2989822165590201</v>
+        <v>-0.2987690316026668</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004597736274241043</v>
+        <v>0.004542964479785078</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -6876,16 +6876,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.012852298708986</v>
+        <v>1.012732527275202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001630979374119623</v>
+        <v>0.001579440086809221</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2988773970883098</v>
+        <v>-0.2986780075205857</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005535116422594785</v>
+        <v>0.005431877957671252</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -6907,16 +6907,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.012844503794522</v>
+        <v>1.012643604832383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0009489298047293791</v>
+        <v>0.001390550047495048</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2990213886889368</v>
+        <v>-0.2985702903566385</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003477741585433311</v>
+        <v>0.003927353192248178</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -6938,16 +6938,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.012894135330381</v>
+        <v>1.012746611112256</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001433964537833256</v>
+        <v>0.001471493148399249</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2992167737290252</v>
+        <v>-0.2988232228014631</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004171772556190489</v>
+        <v>0.004224607664785457</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -6969,16 +6969,16 @@
         <v>31.5</v>
       </c>
       <c r="B56" t="n">
-        <v>1.01285883967761</v>
+        <v>1.012805724027027</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001440205062151408</v>
+        <v>0.001287486787169087</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2989972862397661</v>
+        <v>-0.2989192140410388</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004607190410281642</v>
+        <v>0.0045312619636799</v>
       </c>
       <c r="F56" t="n">
         <v>31.5</v>
@@ -7000,16 +7000,16 @@
         <v>31.5</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013132934900092</v>
+        <v>1.013319075107058</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001791642648173279</v>
+        <v>0.001935409640250741</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2990565705499719</v>
+        <v>-0.2995803894459321</v>
       </c>
       <c r="E57" t="n">
-        <v>0.006679554906079672</v>
+        <v>0.006955713022003767</v>
       </c>
       <c r="F57" t="n">
         <v>31.5</v>
@@ -7031,16 +7031,16 @@
         <v>31.5</v>
       </c>
       <c r="B58" t="n">
-        <v>1.013007731901054</v>
+        <v>1.013309990265584</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002704900788701524</v>
+        <v>0.002775620896835994</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2995504095653039</v>
+        <v>-0.3003890696497273</v>
       </c>
       <c r="E58" t="n">
-        <v>0.009883026118169913</v>
+        <v>0.01030691098204181</v>
       </c>
       <c r="F58" t="n">
         <v>31.5</v>
@@ -7062,16 +7062,16 @@
         <v>31.5</v>
       </c>
       <c r="B59" t="n">
-        <v>1.013039025903749</v>
+        <v>1.013213698702451</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001156097240378327</v>
+        <v>0.001346886556464187</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2992633300975407</v>
+        <v>-0.2996998273128906</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004502369239150285</v>
+        <v>0.005041632543873857</v>
       </c>
       <c r="F59" t="n">
         <v>31.5</v>
@@ -7093,16 +7093,16 @@
         <v>31.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1.012846607827305</v>
+        <v>1.012786754896114</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001433510403308453</v>
+        <v>0.001394441696270687</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.298975142237992</v>
+        <v>-0.2989371990692202</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005592533496617799</v>
+        <v>0.005277321220272012</v>
       </c>
       <c r="F60" t="n">
         <v>31.5</v>
@@ -7124,16 +7124,16 @@
         <v>31.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.012887660694748</v>
+        <v>1.012777493648792</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001129060246327243</v>
+        <v>0.001235048675867902</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2988687970838653</v>
+        <v>-0.2986611660641376</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0043418580312751</v>
+        <v>0.004239750753347627</v>
       </c>
       <c r="F61" t="n">
         <v>31.5</v>
@@ -7155,16 +7155,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.008760752493371</v>
+        <v>1.008743004782503</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0006190281670005679</v>
+        <v>0.0006188942268609531</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3794979277664527</v>
+        <v>-0.3793909895452927</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00586057960386176</v>
+        <v>0.005775673234740155</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
@@ -7186,16 +7186,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.008778833069726</v>
+        <v>1.008795948182865</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0005211848279312294</v>
+        <v>0.0005130272904628983</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3794633580568423</v>
+        <v>-0.3796630755180423</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005594869292068433</v>
+        <v>0.005493509866824172</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
@@ -7217,16 +7217,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.008829773987517</v>
+        <v>1.008848308117584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0004863811313796224</v>
+        <v>0.000480003247303224</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3800579014967433</v>
+        <v>-0.3801400695000194</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004251298396117668</v>
+        <v>0.00426795347897894</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -7248,16 +7248,16 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>1.008827602875058</v>
+        <v>1.008880806452842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0006507547360741038</v>
+        <v>0.0007152140043369755</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3800913655998026</v>
+        <v>-0.3806289297772563</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006911207387490689</v>
+        <v>0.007646665030136414</v>
       </c>
       <c r="F65" t="n">
         <v>40</v>
@@ -7279,16 +7279,16 @@
         <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1.008781550843744</v>
+        <v>1.008767253564015</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004450237640124094</v>
+        <v>0.000458896742908232</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.379779665624298</v>
+        <v>-0.379646782715092</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002632216515442998</v>
+        <v>0.003104974776617666</v>
       </c>
       <c r="F66" t="n">
         <v>40</v>
@@ -7310,16 +7310,16 @@
         <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1.008785479113119</v>
+        <v>1.00880012313433</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000617925295767694</v>
+        <v>0.0006043905947760397</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3796926204278961</v>
+        <v>-0.3798326864262567</v>
       </c>
       <c r="E67" t="n">
-        <v>0.006559291525515988</v>
+        <v>0.006706519349730921</v>
       </c>
       <c r="F67" t="n">
         <v>40</v>
@@ -7341,16 +7341,16 @@
         <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1.008808982838239</v>
+        <v>1.008819087026807</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004978222808121699</v>
+        <v>0.0004952964115552573</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3796142440243742</v>
+        <v>-0.3796860457913436</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004194295917333971</v>
+        <v>0.004271809999604935</v>
       </c>
       <c r="F68" t="n">
         <v>40</v>
@@ -7372,16 +7372,16 @@
         <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00898713242451</v>
+        <v>1.008947718565326</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0008014919810962868</v>
+        <v>0.0007834565992972237</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3795381432053837</v>
+        <v>-0.3790988973363305</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008212805981267094</v>
+        <v>0.008122015256838014</v>
       </c>
       <c r="F69" t="n">
         <v>40</v>
@@ -7403,16 +7403,16 @@
         <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>1.008876930707309</v>
+        <v>1.008915435332726</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0007085371564593508</v>
+        <v>0.0007327419983774329</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3800763722075988</v>
+        <v>-0.3802869483453453</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007266641695424543</v>
+        <v>0.007471535264056618</v>
       </c>
       <c r="F70" t="n">
         <v>40</v>
@@ -7434,16 +7434,16 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1.008895857871965</v>
+        <v>1.008898780802105</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0006606348128278513</v>
+        <v>0.0006247070872633826</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3798289107522015</v>
+        <v>-0.3798335799455481</v>
       </c>
       <c r="E71" t="n">
-        <v>0.005968636741399189</v>
+        <v>0.005892960890666474</v>
       </c>
       <c r="F71" t="n">
         <v>40</v>
@@ -7465,16 +7465,16 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.005022357461994</v>
+        <v>1.005107405803018</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0007242215767851481</v>
+        <v>0.0006938895193048429</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4434521470059707</v>
+        <v>-0.4432829090577766</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006498527199657936</v>
+        <v>0.006328700254578512</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
@@ -7496,16 +7496,16 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.005032286178608</v>
+        <v>1.005098523516386</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0007446124983241579</v>
+        <v>0.0007448873174388475</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4432267707887463</v>
+        <v>-0.4431887348588752</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005268208149422393</v>
+        <v>0.005254788985729672</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
@@ -7527,16 +7527,16 @@
         <v>46.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.004965723463847</v>
+        <v>1.005038047011123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0005360027988931019</v>
+        <v>0.0005730195850275204</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4437875227980168</v>
+        <v>-0.4436922818451068</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00623215945996779</v>
+        <v>0.00615751733750868</v>
       </c>
       <c r="F74" t="n">
         <v>46.7</v>
@@ -7558,16 +7558,16 @@
         <v>46.7</v>
       </c>
       <c r="B75" t="n">
-        <v>1.005006440918113</v>
+        <v>1.0049714430507</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000950914346899991</v>
+        <v>0.0009110738410539554</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4433597543164081</v>
+        <v>-0.4440611722757204</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008653172680643542</v>
+        <v>0.008980581688344851</v>
       </c>
       <c r="F75" t="n">
         <v>46.7</v>
@@ -7589,16 +7589,16 @@
         <v>46.7</v>
       </c>
       <c r="B76" t="n">
-        <v>1.004985589424707</v>
+        <v>1.004886724708956</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0007656626338113003</v>
+        <v>0.0008939268606069564</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4438102147751088</v>
+        <v>-0.4448773241140502</v>
       </c>
       <c r="E76" t="n">
-        <v>0.009677544602475866</v>
+        <v>0.01104931157933835</v>
       </c>
       <c r="F76" t="n">
         <v>46.7</v>
@@ -7620,16 +7620,16 @@
         <v>46.7</v>
       </c>
       <c r="B77" t="n">
-        <v>1.005039851545511</v>
+        <v>1.005158716885821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000746609200196139</v>
+        <v>0.0008666186709015164</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4432087374893161</v>
+        <v>-0.4428157156132215</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006230871774102245</v>
+        <v>0.006182918027742793</v>
       </c>
       <c r="F77" t="n">
         <v>46.7</v>
@@ -7651,16 +7651,16 @@
         <v>46.7</v>
       </c>
       <c r="B78" t="n">
-        <v>1.004995978368559</v>
+        <v>1.005042486455825</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005080081831871213</v>
+        <v>0.0005811420008264676</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4434395839760175</v>
+        <v>-0.4435049194146803</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004225609184023361</v>
+        <v>0.00424140280736689</v>
       </c>
       <c r="F78" t="n">
         <v>46.7</v>
@@ -7682,16 +7682,16 @@
         <v>46.7</v>
       </c>
       <c r="B79" t="n">
-        <v>1.005130554342414</v>
+        <v>1.005142059325903</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0006005783426022966</v>
+        <v>0.0005693805506528204</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4437009780727657</v>
+        <v>-0.4441734789781684</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008104649667446263</v>
+        <v>0.008200224644868531</v>
       </c>
       <c r="F79" t="n">
         <v>46.7</v>
@@ -7713,16 +7713,16 @@
         <v>46.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.005148834131944</v>
+        <v>1.005186746805919</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0006166598210190965</v>
+        <v>0.000545424481733629</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4432042002073686</v>
+        <v>-0.4433168205627993</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005612787911114809</v>
+        <v>0.005719352232659852</v>
       </c>
       <c r="F80" t="n">
         <v>46.7</v>
@@ -7744,16 +7744,16 @@
         <v>46.7</v>
       </c>
       <c r="B81" t="n">
-        <v>1.005037032376942</v>
+        <v>1.00503150015044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0008074231015721199</v>
+        <v>0.0007623540759091094</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4435937585859762</v>
+        <v>-0.4441091368642232</v>
       </c>
       <c r="E81" t="n">
-        <v>0.007506456903190132</v>
+        <v>0.008319221944347692</v>
       </c>
       <c r="F81" t="n">
         <v>46.7</v>
@@ -7775,16 +7775,16 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.002868776154935</v>
+        <v>1.003008958551172</v>
       </c>
       <c r="C82" t="n">
-        <v>0.001086410952977599</v>
+        <v>0.001195183272415961</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4743297739290728</v>
+        <v>-0.4737995644254909</v>
       </c>
       <c r="E82" t="n">
-        <v>0.006211116202965454</v>
+        <v>0.006340931164617068</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
@@ -7806,16 +7806,16 @@
         <v>50</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00289859844173</v>
+        <v>1.002856270164012</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0006449227211924485</v>
+        <v>0.0006628492677808865</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4746448287911789</v>
+        <v>-0.4749359986494808</v>
       </c>
       <c r="E83" t="n">
-        <v>0.004736916962748679</v>
+        <v>0.005218759822757341</v>
       </c>
       <c r="F83" t="n">
         <v>50</v>
@@ -7837,16 +7837,16 @@
         <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>1.002861526622846</v>
+        <v>1.002948083467374</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0007690216701620383</v>
+        <v>0.0008132471568312264</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4745091022649639</v>
+        <v>-0.4741788867141796</v>
       </c>
       <c r="E84" t="n">
-        <v>0.005471937139552377</v>
+        <v>0.005423322192415129</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
@@ -7868,16 +7868,16 @@
         <v>50</v>
       </c>
       <c r="B85" t="n">
-        <v>1.002929609675323</v>
+        <v>1.003101974586293</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001358632850222332</v>
+        <v>0.001447768816053458</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4742544672204314</v>
+        <v>-0.4734197183754638</v>
       </c>
       <c r="E85" t="n">
-        <v>0.008306848856977193</v>
+        <v>0.00851414526595112</v>
       </c>
       <c r="F85" t="n">
         <v>50</v>
@@ -7899,16 +7899,16 @@
         <v>50</v>
       </c>
       <c r="B86" t="n">
-        <v>1.002855667141114</v>
+        <v>1.00284393036314</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0006320032117622986</v>
+        <v>0.0006089363975253932</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4745997680771374</v>
+        <v>-0.474710677019571</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00438082772848433</v>
+        <v>0.004667803252319287</v>
       </c>
       <c r="F86" t="n">
         <v>50</v>
@@ -7930,16 +7930,16 @@
         <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>1.002895753654703</v>
+        <v>1.002991016004691</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0006099305188366761</v>
+        <v>0.0008015146303457005</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4744319794273566</v>
+        <v>-0.4740426886204592</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003582652514192301</v>
+        <v>0.003806753403919151</v>
       </c>
       <c r="F87" t="n">
         <v>50</v>
@@ -7961,16 +7961,16 @@
         <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>1.002825034398319</v>
+        <v>1.002820698251491</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0008257242127622771</v>
+        <v>0.0008044652594121662</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4746703098797855</v>
+        <v>-0.4747647558484589</v>
       </c>
       <c r="E88" t="n">
-        <v>0.005998690527619342</v>
+        <v>0.005857264996242345</v>
       </c>
       <c r="F88" t="n">
         <v>50</v>
@@ -7992,16 +7992,16 @@
         <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>1.002973926608652</v>
+        <v>1.002944760265613</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001014724672572602</v>
+        <v>0.0009772539016839909</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4747307757442094</v>
+        <v>-0.4749757367430192</v>
       </c>
       <c r="E89" t="n">
-        <v>0.006953021611192866</v>
+        <v>0.007199835296872906</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
@@ -8023,16 +8023,16 @@
         <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1.002951748745446</v>
+        <v>1.002898124359427</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0007634604109090933</v>
+        <v>0.000801546355087023</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4744620591146851</v>
+        <v>-0.4748442714114933</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005450483479132248</v>
+        <v>0.006041496608760932</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
@@ -8054,16 +8054,16 @@
         <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>1.002920018872123</v>
+        <v>1.002977582562383</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0005335981215277314</v>
+        <v>0.0006074932791632436</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4743467550273568</v>
+        <v>-0.4741270282298089</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003324331488938983</v>
+        <v>0.003267555785050042</v>
       </c>
       <c r="F91" t="n">
         <v>50</v>
@@ -8085,16 +8085,16 @@
         <v>53.3</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000442473089959</v>
+        <v>1.000302478993602</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0007471734283083376</v>
+        <v>0.001016755695935325</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5066151967171737</v>
+        <v>-0.5071334044733611</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004851173285270525</v>
+        <v>0.005910438497024655</v>
       </c>
       <c r="F92" t="n">
         <v>53.3</v>
@@ -8116,16 +8116,16 @@
         <v>53.3</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000610606817987</v>
+        <v>1.000601743112231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.000721605360202757</v>
+        <v>0.0007054709402630273</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5062264819121491</v>
+        <v>-0.5062970903269521</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00425633534533301</v>
+        <v>0.004131623982788135</v>
       </c>
       <c r="F93" t="n">
         <v>53.3</v>
@@ -8147,16 +8147,16 @@
         <v>53.3</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000474097508123</v>
+        <v>1.000416725420546</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001080320066997439</v>
+        <v>0.001102024480203008</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5064092183826965</v>
+        <v>-0.5065916413741229</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006113999340722363</v>
+        <v>0.006380330332379534</v>
       </c>
       <c r="F94" t="n">
         <v>53.3</v>
@@ -8178,16 +8178,16 @@
         <v>53.3</v>
       </c>
       <c r="B95" t="n">
-        <v>1.00045959536737</v>
+        <v>1.000442436851985</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001379098709518678</v>
+        <v>0.001278855325574684</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5063592119607314</v>
+        <v>-0.5063865215699002</v>
       </c>
       <c r="E95" t="n">
-        <v>0.008248853974274275</v>
+        <v>0.007934019482824822</v>
       </c>
       <c r="F95" t="n">
         <v>53.3</v>
@@ -8209,16 +8209,16 @@
         <v>53.3</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000602996183679</v>
+        <v>1.000713209376424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001199024275062819</v>
+        <v>0.001295204879006197</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.505804417315685</v>
+        <v>-0.5054276184582656</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005601004272982452</v>
+        <v>0.005641492952161436</v>
       </c>
       <c r="F96" t="n">
         <v>53.3</v>
@@ -8240,16 +8240,16 @@
         <v>53.3</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000661081194216</v>
+        <v>1.000740016813188</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001913513434922257</v>
+        <v>0.001813490323674015</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5061325505782506</v>
+        <v>-0.505865281108747</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01097161309737691</v>
+        <v>0.01071221846448692</v>
       </c>
       <c r="F97" t="n">
         <v>53.3</v>
@@ -8271,16 +8271,16 @@
         <v>53.3</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000636123656165</v>
+        <v>1.000677726783866</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0007901702009244709</v>
+        <v>0.0007664061688882179</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5058107092111097</v>
+        <v>-0.5056590384670043</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004110820664145811</v>
+        <v>0.004107259775127078</v>
       </c>
       <c r="F98" t="n">
         <v>53.3</v>
@@ -8302,16 +8302,16 @@
         <v>53.3</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00053836934828</v>
+        <v>1.000507130517553</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0009399534291382433</v>
+        <v>0.0008918049749794767</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.506125605945277</v>
+        <v>-0.506192729228804</v>
       </c>
       <c r="E99" t="n">
-        <v>0.005638854492464365</v>
+        <v>0.005555704384954184</v>
       </c>
       <c r="F99" t="n">
         <v>53.3</v>
@@ -8333,16 +8333,16 @@
         <v>53.3</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000530817137213</v>
+        <v>1.000608542067903</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001211993911052187</v>
+        <v>0.001154448130471067</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.505960899525677</v>
+        <v>-0.5056735640272274</v>
       </c>
       <c r="E100" t="n">
-        <v>0.006194528878177922</v>
+        <v>0.006086135153106748</v>
       </c>
       <c r="F100" t="n">
         <v>53.3</v>
@@ -8364,16 +8364,16 @@
         <v>53.3</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000433138521917</v>
+        <v>1.000435580193142</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0008771725577071117</v>
+        <v>0.0008026045534770059</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5064637673963457</v>
+        <v>-0.5064506142633363</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004726726183232247</v>
+        <v>0.004773791226745492</v>
       </c>
       <c r="F101" t="n">
         <v>53.3</v>
@@ -8395,16 +8395,16 @@
         <v>63</v>
       </c>
       <c r="B102" t="n">
-        <v>0.993609043070439</v>
+        <v>0.9939434688355893</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003675261623501156</v>
+        <v>0.003653135883510654</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5978330238940046</v>
+        <v>-0.5976971222590945</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005538842596823998</v>
+        <v>0.005504645519067452</v>
       </c>
       <c r="F102" t="n">
         <v>63</v>
@@ -8426,16 +8426,16 @@
         <v>63</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9933441378487615</v>
+        <v>0.9935461601441324</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001866615640028031</v>
+        <v>0.001831818414019675</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5982324296488599</v>
+        <v>-0.5983078826098929</v>
       </c>
       <c r="E103" t="n">
-        <v>0.004628594341516246</v>
+        <v>0.004818399893193354</v>
       </c>
       <c r="F103" t="n">
         <v>63</v>
@@ -8457,16 +8457,16 @@
         <v>63</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9935451634232371</v>
+        <v>0.9939960754575132</v>
       </c>
       <c r="C104" t="n">
-        <v>0.002608195012124134</v>
+        <v>0.003117247252114826</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.598004532451851</v>
+        <v>-0.5976911989313223</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00536349260999619</v>
+        <v>0.005307337888492782</v>
       </c>
       <c r="F104" t="n">
         <v>63</v>
@@ -8488,16 +8488,16 @@
         <v>63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9933781374066903</v>
+        <v>0.993883100689876</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00205098054553995</v>
+        <v>0.002926451674864713</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5981446834464457</v>
+        <v>-0.5977550400034044</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003709830379429907</v>
+        <v>0.00387133345501833</v>
       </c>
       <c r="F105" t="n">
         <v>63</v>
@@ -8519,16 +8519,16 @@
         <v>63</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9935827897740317</v>
+        <v>0.9944590431376519</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004152092784849141</v>
+        <v>0.005157418113155363</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5980415187920478</v>
+        <v>-0.597071998075446</v>
       </c>
       <c r="E106" t="n">
-        <v>0.007335163400005551</v>
+        <v>0.007701458200183732</v>
       </c>
       <c r="F106" t="n">
         <v>63</v>
@@ -8550,16 +8550,16 @@
         <v>63</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9936036620381783</v>
+        <v>0.9942926491893594</v>
       </c>
       <c r="C107" t="n">
-        <v>0.003191712003945802</v>
+        <v>0.004453303538116554</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5978125213384526</v>
+        <v>-0.5971422271119691</v>
       </c>
       <c r="E107" t="n">
-        <v>0.004909480000741939</v>
+        <v>0.005438767880528224</v>
       </c>
       <c r="F107" t="n">
         <v>63</v>
@@ -8581,16 +8581,16 @@
         <v>63</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9933423866862273</v>
+        <v>0.993721084606155</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002105328961952996</v>
+        <v>0.002899869023338145</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5981384246568551</v>
+        <v>-0.5979441023017706</v>
       </c>
       <c r="E108" t="n">
-        <v>0.006313112995580744</v>
+        <v>0.006019360887686716</v>
       </c>
       <c r="F108" t="n">
         <v>63</v>
@@ -8612,16 +8612,16 @@
         <v>63</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9935934494081695</v>
+        <v>0.9943510165121016</v>
       </c>
       <c r="C109" t="n">
-        <v>0.002877934049586875</v>
+        <v>0.004575057991306231</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5978748310729722</v>
+        <v>-0.5970863788181591</v>
       </c>
       <c r="E109" t="n">
-        <v>0.00452962797225895</v>
+        <v>0.005391730326231246</v>
       </c>
       <c r="F109" t="n">
         <v>63</v>
@@ -8643,16 +8643,16 @@
         <v>63</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9937549306925911</v>
+        <v>0.994652212581369</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003826416788780783</v>
+        <v>0.005509654224407282</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5975195251815286</v>
+        <v>-0.5965079799581208</v>
       </c>
       <c r="E110" t="n">
-        <v>0.00491435339585665</v>
+        <v>0.00622084891038389</v>
       </c>
       <c r="F110" t="n">
         <v>63</v>
@@ -8674,16 +8674,16 @@
         <v>63</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9934439517748848</v>
+        <v>0.993640575284635</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001405665587211837</v>
+        <v>0.001887103867000799</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.5980365085361097</v>
+        <v>-0.5981342549151609</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005643386462890524</v>
+        <v>0.005529079267281862</v>
       </c>
       <c r="F111" t="n">
         <v>63</v>
@@ -8705,16 +8705,16 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9773672385081553</v>
+        <v>0.9771322202867175</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003294373029015147</v>
+        <v>0.003255705564828582</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7593085485459579</v>
+        <v>-0.7596292382625762</v>
       </c>
       <c r="E112" t="n">
-        <v>0.006691981182174617</v>
+        <v>0.006915347079967608</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
@@ -8736,16 +8736,16 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9770568942983117</v>
+        <v>0.9773777380087626</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002072707229520107</v>
+        <v>0.002509090433015603</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.759585253980573</v>
+        <v>-0.7592754973844293</v>
       </c>
       <c r="E113" t="n">
-        <v>0.004651844801420861</v>
+        <v>0.004550176518354937</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
@@ -8767,16 +8767,16 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9773330043392641</v>
+        <v>0.9774698201524012</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002836039237254087</v>
+        <v>0.002591413217192807</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7591769772539516</v>
+        <v>-0.7590793197359971</v>
       </c>
       <c r="E114" t="n">
-        <v>0.003795801339719317</v>
+        <v>0.004070978101950447</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
@@ -8798,16 +8798,16 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9769173494484292</v>
+        <v>0.9768800989061388</v>
       </c>
       <c r="C115" t="n">
-        <v>0.00213501599795046</v>
+        <v>0.001967676275560494</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7596610019744823</v>
+        <v>-0.759750156766934</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004103977969473237</v>
+        <v>0.004583469060982305</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
@@ -8829,16 +8829,16 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9770330603042341</v>
+        <v>0.9771757651461548</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001370472485305246</v>
+        <v>0.001595269451332501</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.759581936355807</v>
+        <v>-0.7594672025045952</v>
       </c>
       <c r="E116" t="n">
-        <v>0.003664989895547963</v>
+        <v>0.003689473855571278</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
@@ -8860,16 +8860,16 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9770670757599457</v>
+        <v>0.9772643297239428</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002053003590165794</v>
+        <v>0.002108856697127697</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7594534350453275</v>
+        <v>-0.759292523987054</v>
       </c>
       <c r="E117" t="n">
-        <v>0.003325854057400744</v>
+        <v>0.003524144772022452</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
@@ -8891,16 +8891,16 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.97727855335486</v>
+        <v>0.9776792272661068</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002636659902731799</v>
+        <v>0.003210393410125534</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7592575880647487</v>
+        <v>-0.7588672838944923</v>
       </c>
       <c r="E118" t="n">
-        <v>0.004223077677804035</v>
+        <v>0.004296226256817996</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
@@ -8922,16 +8922,16 @@
         <v>80</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9769568755602309</v>
+        <v>0.9770412299602415</v>
       </c>
       <c r="C119" t="n">
-        <v>0.002139128627937573</v>
+        <v>0.002123581001825162</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7596334843516139</v>
+        <v>-0.7595893493914758</v>
       </c>
       <c r="E119" t="n">
-        <v>0.004986443537330014</v>
+        <v>0.004975812066346623</v>
       </c>
       <c r="F119" t="n">
         <v>80</v>
@@ -8953,16 +8953,16 @@
         <v>80</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9770935386965248</v>
+        <v>0.9772793968157187</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002113526462711266</v>
+        <v>0.002298469928672843</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.759547912043562</v>
+        <v>-0.7594048238661202</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00499431808539512</v>
+        <v>0.00480328780613388</v>
       </c>
       <c r="F120" t="n">
         <v>80</v>
@@ -8984,16 +8984,16 @@
         <v>80</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9768438386094048</v>
+        <v>0.9764961437811924</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003046978857094563</v>
+        <v>0.002855000694217955</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.759756260959787</v>
+        <v>-0.7602017327104917</v>
       </c>
       <c r="E121" t="n">
-        <v>0.006261351621934206</v>
+        <v>0.006430132201106533</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
@@ -9015,16 +9015,16 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9536723628860881</v>
+        <v>0.9541296505332271</v>
       </c>
       <c r="C122" t="n">
-        <v>0.002857554212102793</v>
+        <v>0.00352052062888685</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9492785644020838</v>
+        <v>-0.948929802936898</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004493848113827721</v>
+        <v>0.00451021160134022</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
@@ -9046,16 +9046,16 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9535492386192076</v>
+        <v>0.9537091177055039</v>
       </c>
       <c r="C123" t="n">
-        <v>0.00263486033775006</v>
+        <v>0.0024886951964316</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9493832113946539</v>
+        <v>-0.9492894722787781</v>
       </c>
       <c r="E123" t="n">
-        <v>0.003464359251056624</v>
+        <v>0.003808140961753151</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
@@ -9077,16 +9077,16 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9534044362429831</v>
+        <v>0.9534665323274073</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00189587253096481</v>
+        <v>0.001835003107467644</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9495076592831753</v>
+        <v>-0.9495101192600726</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004611437809791574</v>
+        <v>0.004765389830422674</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
@@ -9108,16 +9108,16 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9534107461763913</v>
+        <v>0.953725065465031</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001812366701951643</v>
+        <v>0.002299532877093119</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9494685326768035</v>
+        <v>-0.9492472189533192</v>
       </c>
       <c r="E125" t="n">
-        <v>0.00400470483723883</v>
+        <v>0.003997304596100254</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
@@ -9139,16 +9139,16 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9532681850557833</v>
+        <v>0.9530257884496489</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003937734266115979</v>
+        <v>0.003873390451815236</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9496383074775885</v>
+        <v>-0.9498801032131396</v>
       </c>
       <c r="E126" t="n">
-        <v>0.00650869783947002</v>
+        <v>0.006843559706600483</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
@@ -9170,16 +9170,16 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9534028579313125</v>
+        <v>0.9532664425503489</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001675625735045636</v>
+        <v>0.001893269482915919</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9495127837432378</v>
+        <v>-0.9496571161971641</v>
       </c>
       <c r="E127" t="n">
-        <v>0.003867806535743219</v>
+        <v>0.004649964508201499</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
@@ -9201,16 +9201,16 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9536685637054445</v>
+        <v>0.9539330816510354</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00279542117693702</v>
+        <v>0.002945575976242074</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9493191458279178</v>
+        <v>-0.9491564293827892</v>
       </c>
       <c r="E128" t="n">
-        <v>0.004234939253192484</v>
+        <v>0.004207273500658417</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
@@ -9232,16 +9232,16 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9532834765341595</v>
+        <v>0.9531039333918172</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001930185144422259</v>
+        <v>0.001790567125726424</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9496468352985374</v>
+        <v>-0.9498168403266742</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004536224563268814</v>
+        <v>0.004814708518909327</v>
       </c>
       <c r="F129" t="n">
         <v>100</v>
@@ -9263,16 +9263,16 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9535609607676158</v>
+        <v>0.9538901952260755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002086040921758431</v>
+        <v>0.00258527696623669</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.949367302335137</v>
+        <v>-0.9491429470889994</v>
       </c>
       <c r="E130" t="n">
-        <v>0.003461517437083749</v>
+        <v>0.003501159583963316</v>
       </c>
       <c r="F130" t="n">
         <v>100</v>
@@ -9294,16 +9294,16 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9532003957519999</v>
+        <v>0.9528352042606453</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00354551107525869</v>
+        <v>0.003873434203833819</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9496868314370346</v>
+        <v>-0.9500188739287694</v>
       </c>
       <c r="E131" t="n">
-        <v>0.005313167506045736</v>
+        <v>0.006070213575892489</v>
       </c>
       <c r="F131" t="n">
         <v>100</v>
@@ -9325,16 +9325,16 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9162213966211225</v>
+        <v>0.9165779654274984</v>
       </c>
       <c r="C132" t="n">
-        <v>0.002103105476014987</v>
+        <v>0.002758628895216595</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.186775480540248</v>
+        <v>-1.18658022828677</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004292683278605573</v>
+        <v>0.004268151164359103</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
@@ -9356,16 +9356,16 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9163323517659354</v>
+        <v>0.9161927121234198</v>
       </c>
       <c r="C133" t="n">
-        <v>0.002008469913425571</v>
+        <v>0.002082829939119567</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.186816241052611</v>
+        <v>-1.186931403487286</v>
       </c>
       <c r="E133" t="n">
-        <v>0.004013403993813464</v>
+        <v>0.004583433402519595</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
@@ -9387,16 +9387,16 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9163454239379402</v>
+        <v>0.916474650699224</v>
       </c>
       <c r="C134" t="n">
-        <v>0.00276096699108088</v>
+        <v>0.002620313987846979</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.186676043609464</v>
+        <v>-1.186624941759957</v>
       </c>
       <c r="E134" t="n">
-        <v>0.003577129038985786</v>
+        <v>0.004109784272339861</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
@@ -9418,16 +9418,16 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.915928676409543</v>
+        <v>0.9156005889524115</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004472782830740636</v>
+        <v>0.004317788488115067</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.186934717196241</v>
+        <v>-1.187158538531468</v>
       </c>
       <c r="E135" t="n">
-        <v>0.006839556890833488</v>
+        <v>0.007143812894110692</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
@@ -9449,16 +9449,16 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.916260014249355</v>
+        <v>0.9161802444970711</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0007473844244847192</v>
+        <v>0.0007967507237491857</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.186717791636594</v>
+        <v>-1.186774130447548</v>
       </c>
       <c r="E136" t="n">
-        <v>0.004106913895196757</v>
+        <v>0.004672534488886012</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
@@ -9480,16 +9480,16 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9161366082827184</v>
+        <v>0.916170972489581</v>
       </c>
       <c r="C137" t="n">
-        <v>0.00170426033094136</v>
+        <v>0.001623784021437055</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.186819929194208</v>
+        <v>-1.186820647196159</v>
       </c>
       <c r="E137" t="n">
-        <v>0.004252764777256626</v>
+        <v>0.004747297713825467</v>
       </c>
       <c r="F137" t="n">
         <v>125</v>
@@ -9511,16 +9511,16 @@
         <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.91630448418494</v>
+        <v>0.9163709896100748</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001250669318780569</v>
+        <v>0.001271450092583491</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.186727544668891</v>
+        <v>-1.186710359491613</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004143759149508187</v>
+        <v>0.004405430995368715</v>
       </c>
       <c r="F138" t="n">
         <v>125</v>
@@ -9542,16 +9542,16 @@
         <v>125</v>
       </c>
       <c r="B139" t="n">
-        <v>0.916460794597816</v>
+        <v>0.9162484063848727</v>
       </c>
       <c r="C139" t="n">
-        <v>0.002194635398780813</v>
+        <v>0.002580844211249053</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.186623335950459</v>
+        <v>-1.186780981985173</v>
       </c>
       <c r="E139" t="n">
-        <v>0.003831264963876578</v>
+        <v>0.004826638553231869</v>
       </c>
       <c r="F139" t="n">
         <v>125</v>
@@ -9573,16 +9573,16 @@
         <v>125</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9162872784285629</v>
+        <v>0.9163336196391467</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001596117172106522</v>
+        <v>0.001573092483114294</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.186708836520877</v>
+        <v>-1.186701620339448</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004049248008121569</v>
+        <v>0.004338839047602706</v>
       </c>
       <c r="F140" t="n">
         <v>125</v>
@@ -9604,16 +9604,16 @@
         <v>125</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9163041784892635</v>
+        <v>0.9161959494460225</v>
       </c>
       <c r="C141" t="n">
-        <v>0.003502261441275344</v>
+        <v>0.003392899093316837</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.186687245420016</v>
+        <v>-1.186773069264444</v>
       </c>
       <c r="E141" t="n">
-        <v>0.005741075962155592</v>
+        <v>0.006070773446789492</v>
       </c>
       <c r="F141" t="n">
         <v>125</v>
@@ -9635,16 +9635,16 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8537130685920172</v>
+        <v>0.8537166431443853</v>
       </c>
       <c r="C142" t="n">
-        <v>0.002333927511534691</v>
+        <v>0.002196009970753123</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518957263416644</v>
+        <v>-1.518937567296391</v>
       </c>
       <c r="E142" t="n">
-        <v>0.005038231598606383</v>
+        <v>0.005671520169742633</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
@@ -9666,16 +9666,16 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8537475791945858</v>
+        <v>0.8539019845033062</v>
       </c>
       <c r="C143" t="n">
-        <v>0.001667926434727842</v>
+        <v>0.00153451077821105</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.518925185425918</v>
+        <v>-1.518823543817629</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004705791011161697</v>
+        <v>0.005297201303503253</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
@@ -9697,16 +9697,16 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8537989210170074</v>
+        <v>0.8537276019911119</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001660420122817111</v>
+        <v>0.001628807578721217</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.51890494335703</v>
+        <v>-1.51893134980203</v>
       </c>
       <c r="E144" t="n">
-        <v>0.00520023830833857</v>
+        <v>0.00588879877978051</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
@@ -9728,16 +9728,16 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8539377986780431</v>
+        <v>0.8540196910475237</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001475448994753232</v>
+        <v>0.001512282322659092</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518845534123379</v>
+        <v>-1.518758754577133</v>
       </c>
       <c r="E145" t="n">
-        <v>0.004003344741634929</v>
+        <v>0.004617688670906079</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
@@ -9759,16 +9759,16 @@
         <v>160</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8537548058901007</v>
+        <v>0.8538386812127285</v>
       </c>
       <c r="C146" t="n">
-        <v>0.001245126483056715</v>
+        <v>0.00125585163318639</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.51890956804284</v>
+        <v>-1.518838544379392</v>
       </c>
       <c r="E146" t="n">
-        <v>0.004834789713021865</v>
+        <v>0.005377445943376896</v>
       </c>
       <c r="F146" t="n">
         <v>160</v>
@@ -9790,16 +9790,16 @@
         <v>160</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8538721941565603</v>
+        <v>0.853904568350252</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001792310428179335</v>
+        <v>0.001626564967178627</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.518855341387469</v>
+        <v>-1.518819917775347</v>
       </c>
       <c r="E147" t="n">
-        <v>0.004253984988319569</v>
+        <v>0.00501715919016678</v>
       </c>
       <c r="F147" t="n">
         <v>160</v>
@@ -9821,16 +9821,16 @@
         <v>160</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8537185518354052</v>
+        <v>0.8537514465359</v>
       </c>
       <c r="C148" t="n">
-        <v>0.002141531382027174</v>
+        <v>0.002112925246247757</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.518985094083956</v>
+        <v>-1.518925885199194</v>
       </c>
       <c r="E148" t="n">
-        <v>0.005242758785864926</v>
+        <v>0.005582330784730373</v>
       </c>
       <c r="F148" t="n">
         <v>160</v>
@@ -9852,16 +9852,16 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8535673914642806</v>
+        <v>0.8534848476882091</v>
       </c>
       <c r="C149" t="n">
-        <v>0.002304711307315401</v>
+        <v>0.002295354833398723</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.519042507573966</v>
+        <v>-1.519087181429692</v>
       </c>
       <c r="E149" t="n">
-        <v>0.005919520811857319</v>
+        <v>0.006429343488366255</v>
       </c>
       <c r="F149" t="n">
         <v>160</v>
@@ -9883,16 +9883,16 @@
         <v>160</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8538580717666445</v>
+        <v>0.8540664738165095</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001513108938634076</v>
+        <v>0.001542758930046254</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.518856152148558</v>
+        <v>-1.518727038925356</v>
       </c>
       <c r="E150" t="n">
-        <v>0.004518998936653497</v>
+        <v>0.005108382540009343</v>
       </c>
       <c r="F150" t="n">
         <v>160</v>
@@ -9914,16 +9914,16 @@
         <v>160</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8538393931909605</v>
+        <v>0.8538077943626698</v>
       </c>
       <c r="C151" t="n">
-        <v>0.002602019510316377</v>
+        <v>0.002393332811996517</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.518891076841971</v>
+        <v>-1.518904462931708</v>
       </c>
       <c r="E151" t="n">
-        <v>0.005865772468171948</v>
+        <v>0.006156757193742601</v>
       </c>
       <c r="F151" t="n">
         <v>160</v>
@@ -9945,16 +9945,16 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.767973392627754</v>
+        <v>0.7682038669211567</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001547879424923332</v>
+        <v>0.001786308276841608</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.898711674283948</v>
+        <v>-1.898589826459754</v>
       </c>
       <c r="E152" t="n">
-        <v>0.005764819488127598</v>
+        <v>0.006322797897403185</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
@@ -9976,16 +9976,16 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7677026025888861</v>
+        <v>0.7674482671952352</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002281667845805054</v>
+        <v>0.00240975725526543</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.898889341178682</v>
+        <v>-1.899042666046124</v>
       </c>
       <c r="E153" t="n">
-        <v>0.007073704800521513</v>
+        <v>0.007932778116363785</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
@@ -10007,16 +10007,16 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7678374399053182</v>
+        <v>0.767768371505224</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001713058623123475</v>
+        <v>0.001494453438061183</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.898824822448728</v>
+        <v>-1.898864387378894</v>
       </c>
       <c r="E154" t="n">
-        <v>0.006015613213404627</v>
+        <v>0.006571557643752999</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
@@ -10038,16 +10038,16 @@
         <v>200</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7677936052828351</v>
+        <v>0.7677624418654958</v>
       </c>
       <c r="C155" t="n">
-        <v>0.001012722093059642</v>
+        <v>0.0009110600691936078</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.898817535608363</v>
+        <v>-1.89883609478878</v>
       </c>
       <c r="E155" t="n">
-        <v>0.006199084543365822</v>
+        <v>0.006939174656103877</v>
       </c>
       <c r="F155" t="n">
         <v>200</v>
@@ -10069,16 +10069,16 @@
         <v>200</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7676201914460895</v>
+        <v>0.7672834699918051</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00276331226970383</v>
+        <v>0.00296731625449074</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.898937768017423</v>
+        <v>-1.899141760410184</v>
       </c>
       <c r="E156" t="n">
-        <v>0.007245890773101298</v>
+        <v>0.008230495427163632</v>
       </c>
       <c r="F156" t="n">
         <v>200</v>
@@ -10100,16 +10100,16 @@
         <v>200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7677853849835301</v>
+        <v>0.7675176928707133</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001810771245515849</v>
+        <v>0.001992928011031356</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.898862027733254</v>
+        <v>-1.899003930223922</v>
       </c>
       <c r="E157" t="n">
-        <v>0.005909774464973042</v>
+        <v>0.006693562734260586</v>
       </c>
       <c r="F157" t="n">
         <v>200</v>
@@ -10131,16 +10131,16 @@
         <v>200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7678341837214102</v>
+        <v>0.767818269201986</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0009052508237622919</v>
+        <v>0.0008601244536637746</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.89880612821479</v>
+        <v>-1.898816828186664</v>
       </c>
       <c r="E158" t="n">
-        <v>0.005927488390928566</v>
+        <v>0.006779635677055917</v>
       </c>
       <c r="F158" t="n">
         <v>200</v>
@@ -10162,16 +10162,16 @@
         <v>200</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7676848333054214</v>
+        <v>0.7673586689589769</v>
       </c>
       <c r="C159" t="n">
-        <v>0.001532421157521543</v>
+        <v>0.001952834881462217</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.898865848605849</v>
+        <v>-1.899057303744951</v>
       </c>
       <c r="E159" t="n">
-        <v>0.006601104405607319</v>
+        <v>0.007622738140024179</v>
       </c>
       <c r="F159" t="n">
         <v>200</v>
@@ -10193,16 +10193,16 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7676011884255919</v>
+        <v>0.7674007975669344</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001988281313519</v>
+        <v>0.002123764132778973</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.898951906504367</v>
+        <v>-1.899080660961807</v>
       </c>
       <c r="E160" t="n">
-        <v>0.006577764863504075</v>
+        <v>0.007545656773069365</v>
       </c>
       <c r="F160" t="n">
         <v>200</v>
@@ -10224,16 +10224,16 @@
         <v>200</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7678369504370306</v>
+        <v>0.7677462644691124</v>
       </c>
       <c r="C161" t="n">
-        <v>0.001209695568053307</v>
+        <v>0.001243936164894452</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.898817295384235</v>
+        <v>-1.898878062051497</v>
       </c>
       <c r="E161" t="n">
-        <v>0.005722062779269903</v>
+        <v>0.006731996210816367</v>
       </c>
       <c r="F161" t="n">
         <v>200</v>
@@ -10255,16 +10255,16 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6438159094278254</v>
+        <v>0.643647877929571</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001209877455052989</v>
+        <v>0.001330760936018007</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.373469497947217</v>
+        <v>-2.373597698265332</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0080199974252394</v>
+        <v>0.009111964914726069</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
@@ -10286,16 +10286,16 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6439481886385021</v>
+        <v>0.6441364437552256</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001068376881290346</v>
+        <v>0.001292728752218664</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.373366263687108</v>
+        <v>-2.373259509544288</v>
       </c>
       <c r="E163" t="n">
-        <v>0.007454844843179788</v>
+        <v>0.008370234037306896</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
@@ -10317,16 +10317,16 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6439261660267577</v>
+        <v>0.6442987780177012</v>
       </c>
       <c r="C164" t="n">
-        <v>0.002109836945314549</v>
+        <v>0.002559565770865414</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.373405029794463</v>
+        <v>-2.373180416186525</v>
       </c>
       <c r="E164" t="n">
-        <v>0.007242463194647093</v>
+        <v>0.008019000266752454</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
@@ -10348,16 +10348,16 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6438827793194887</v>
+        <v>0.6438666374086549</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001898897928988318</v>
+        <v>0.001747894618489967</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.373431931787326</v>
+        <v>-2.373449451752527</v>
       </c>
       <c r="E165" t="n">
-        <v>0.007226818348886299</v>
+        <v>0.008492736243273067</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
@@ -10379,16 +10379,16 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6439220732926512</v>
+        <v>0.643937550664205</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00189988428110082</v>
+        <v>0.00180347144518139</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.373399782437906</v>
+        <v>-2.373395373567627</v>
       </c>
       <c r="E166" t="n">
-        <v>0.008129548810449201</v>
+        <v>0.008883283407423405</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
@@ -10410,16 +10410,16 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6439087386699857</v>
+        <v>0.6437934057140996</v>
       </c>
       <c r="C167" t="n">
-        <v>0.001019569437216613</v>
+        <v>0.001142856708262416</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.373413784479109</v>
+        <v>-2.373483787257357</v>
       </c>
       <c r="E167" t="n">
-        <v>0.007331118610537532</v>
+        <v>0.008427588346177574</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
@@ -10441,16 +10441,16 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6438832706049067</v>
+        <v>0.6438774793166253</v>
       </c>
       <c r="C168" t="n">
-        <v>0.00165124533711729</v>
+        <v>0.001514300605316795</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.373423819147928</v>
+        <v>-2.37343776005603</v>
       </c>
       <c r="E168" t="n">
-        <v>0.006668073053671286</v>
+        <v>0.007786072948954779</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
@@ -10472,16 +10472,16 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6440422111847639</v>
+        <v>0.6440538801090113</v>
       </c>
       <c r="C169" t="n">
-        <v>0.001829084647955733</v>
+        <v>0.00172250428664435</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.373321658998223</v>
+        <v>-2.373321900615153</v>
       </c>
       <c r="E169" t="n">
-        <v>0.006898812451600783</v>
+        <v>0.007684892282223782</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
@@ -10503,16 +10503,16 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6438503975612681</v>
+        <v>0.6439495959144614</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001452954063663897</v>
+        <v>0.001494459367666015</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.373434322574614</v>
+        <v>-2.373392368610785</v>
       </c>
       <c r="E170" t="n">
-        <v>0.007218091608104188</v>
+        <v>0.008114348447653687</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
@@ -10534,16 +10534,16 @@
         <v>250</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6439465692693739</v>
+        <v>0.644138517181246</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0009777696881257843</v>
+        <v>0.0013608603897953</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.37338492392807</v>
+        <v>-2.373280387953113</v>
       </c>
       <c r="E171" t="n">
-        <v>0.007703397077217346</v>
+        <v>0.008489728557177443</v>
       </c>
       <c r="F171" t="n">
         <v>250</v>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -486,16 +486,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.016207539756279</v>
+        <v>1.016220707418671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004531459390946134</v>
+        <v>0.00450549412202403</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09490720713416123</v>
+        <v>-0.09490098379149092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02271408101141177</v>
+        <v>0.00237184996624063</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -517,16 +517,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.016488208330893</v>
+        <v>1.016490983811237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002585641893418523</v>
+        <v>0.002591175740004481</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0949324818521271</v>
+        <v>-0.09493754083166195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02151388640344262</v>
+        <v>0.002383448151861857</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -548,16 +548,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.016153206936212</v>
+        <v>1.016191742483831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00707292019168445</v>
+        <v>0.006534123548379272</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09505880135712808</v>
+        <v>-0.09506614560065429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02207538812964361</v>
+        <v>0.002415555877716278</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -579,16 +579,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.016145503084303</v>
+        <v>1.016178945170904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004643536762303889</v>
+        <v>0.004328507068584091</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09491544902058835</v>
+        <v>-0.09492255230641256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02264162607413026</v>
+        <v>0.00237169227993486</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -610,16 +610,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.01638514768088</v>
+        <v>1.016433808495085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003711884756216255</v>
+        <v>0.00338346199641053</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09491274360752522</v>
+        <v>-0.09491637108012307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02198807832947833</v>
+        <v>0.002467591066849102</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -641,16 +641,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.016437602684947</v>
+        <v>1.016500493038226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003429891011434008</v>
+        <v>0.003478689171489296</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09495242943792248</v>
+        <v>-0.09495477593897261</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02241606301790203</v>
+        <v>0.002453341356470803</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.016253016569125</v>
+        <v>1.016258739736802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003156910721065089</v>
+        <v>0.003108425545309711</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09492451212744757</v>
+        <v>-0.09490612399867215</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02264241446322962</v>
+        <v>0.002422075419849778</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -703,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.016352467813792</v>
+        <v>1.016362974792704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002821735764250417</v>
+        <v>0.002806833509060454</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09500445792537127</v>
+        <v>-0.09500262398987003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02258585368318776</v>
+        <v>0.00235205926530222</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.016314477074825</v>
+        <v>1.016336015301094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002253947662356673</v>
+        <v>0.002252539104022379</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09499844436394134</v>
+        <v>-0.09499575897705714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02213587594345529</v>
+        <v>0.002373534896703042</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -765,16 +765,16 @@
         <v>12.5</v>
       </c>
       <c r="B11" t="n">
-        <v>1.016054889172679</v>
+        <v>1.016046430783153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002570625926799563</v>
+        <v>0.002606250281296498</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1186166153911385</v>
+        <v>-0.1186075116292842</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0176631871848842</v>
+        <v>0.002547631823806951</v>
       </c>
       <c r="F11" t="n">
         <v>12.5</v>
@@ -796,16 +796,16 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.015991683259904</v>
+        <v>1.016005924032146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002582048633072647</v>
+        <v>0.002508265293801322</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1187707272520968</v>
+        <v>-0.1187653403076712</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01804868477164346</v>
+        <v>0.00254768487629959</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
@@ -827,16 +827,16 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.015947794966095</v>
+        <v>1.015959233531712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002350317249587497</v>
+        <v>0.002331508792670797</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1185860080372783</v>
+        <v>-0.1185574198406316</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01801680207211074</v>
+        <v>0.002652651781776873</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
@@ -858,16 +858,16 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.016074673827146</v>
+        <v>1.016100599423217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002341797479011423</v>
+        <v>0.002418249697106656</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1186206099236873</v>
+        <v>-0.1186122351193246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01747605540183241</v>
+        <v>0.002648313627882315</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
@@ -889,16 +889,16 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.015804870457872</v>
+        <v>1.015814401168796</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002383870495352646</v>
+        <v>0.002322960708201692</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1188744547000109</v>
+        <v>-0.1188749578738921</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01790890607741854</v>
+        <v>0.00255285148766159</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
@@ -920,16 +920,16 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.015845834985022</v>
+        <v>1.015871206640095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00245110583178475</v>
+        <v>0.002473547745980342</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1186740919703169</v>
+        <v>-0.1186861469991904</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01778143376822213</v>
+        <v>0.002609877911217738</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
@@ -951,16 +951,16 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.015923718913078</v>
+        <v>1.015931555041308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002802230591435549</v>
+        <v>0.002798366966119971</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1187441528976625</v>
+        <v>-0.1187265637347776</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01787240661477236</v>
+        <v>0.002619073671270283</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
@@ -982,16 +982,16 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.01585944468287</v>
+        <v>1.01588064961267</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002894666322553297</v>
+        <v>0.002877613105487006</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1186047329239566</v>
+        <v>-0.1186242689491723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01773694573473413</v>
+        <v>0.002590990177256517</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
@@ -1013,16 +1013,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016039726500778</v>
+        <v>1.016057694552099</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00328595251820209</v>
+        <v>0.003403531580611143</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.118755208388883</v>
+        <v>-0.1187774982851453</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01820734582261746</v>
+        <v>0.002524005561009088</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -1044,16 +1044,16 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.015282018106542</v>
+        <v>1.015290654571038</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001885508951768424</v>
+        <v>0.00188328104747503</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1519344101758771</v>
+        <v>-0.1519282841462735</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02311092095585535</v>
+        <v>0.002119429696215954</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
@@ -1075,16 +1075,16 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>1.015342313862287</v>
+        <v>1.015367094179741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002743192178773673</v>
+        <v>0.002748118584629703</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1520294086538947</v>
+        <v>-0.1520226621309866</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02321177607119645</v>
+        <v>0.002233361695738702</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
@@ -1106,16 +1106,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.015423963737577</v>
+        <v>1.015430836742256</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001563813555331117</v>
+        <v>0.001588991235870039</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.152005104227855</v>
+        <v>-0.1520064972936499</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02366277074564493</v>
+        <v>0.002271069715988835</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
@@ -1137,16 +1137,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0153879780787</v>
+        <v>1.015417873264592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002698441934644306</v>
+        <v>0.002713651214027948</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1519714866161477</v>
+        <v>-0.151977795334544</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02437106898473681</v>
+        <v>0.002259893993235644</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
@@ -1168,16 +1168,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.015302893027231</v>
+        <v>1.015315362219621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002538425312341473</v>
+        <v>0.002539903359160419</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1519370221750491</v>
+        <v>-0.1519387535102137</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02296282828021545</v>
+        <v>0.002184436044715763</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -1199,16 +1199,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.015232410181011</v>
+        <v>1.015246559191653</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002660228033026593</v>
+        <v>0.002896059531374346</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1519881286168721</v>
+        <v>-0.151977252933623</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02406381665638004</v>
+        <v>0.002082405169627163</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
@@ -1230,16 +1230,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.015334405625699</v>
+        <v>1.015342230412651</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002405539713390132</v>
+        <v>0.002391856457292151</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1520705541895264</v>
+        <v>-0.1520662004873081</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02344121263499648</v>
+        <v>0.002127757466046588</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.015286591307104</v>
+        <v>1.015297415964585</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00223956812398922</v>
+        <v>0.00225072320342512</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1520289935833814</v>
+        <v>-0.1520216846850904</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02310476570907403</v>
+        <v>0.002169559280877515</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -1292,16 +1292,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.015482611373922</v>
+        <v>1.015476793550976</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002577644110647759</v>
+        <v>0.002548724504693623</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1521293683683711</v>
+        <v>-0.1521130090855269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02372831544323271</v>
+        <v>0.002250962164030241</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
@@ -1323,16 +1323,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>1.014320680382152</v>
+        <v>1.014349356209129</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002049333437869113</v>
+        <v>0.002104748696427519</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1899805815150548</v>
+        <v>-0.1899802859774296</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0294843582694611</v>
+        <v>0.002278686399745048</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
@@ -1354,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>1.014254268289302</v>
+        <v>1.014271651739868</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002202028723031608</v>
+        <v>0.002181825482078575</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1900152941844038</v>
+        <v>-0.1900267683865398</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02903441900374978</v>
+        <v>0.002374602083820078</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1385,16 +1385,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>1.014329358136625</v>
+        <v>1.014322893764675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002104135564413362</v>
+        <v>0.002115341199310364</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1900115983222612</v>
+        <v>-0.1899976234690697</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02952017561798939</v>
+        <v>0.002256928029884612</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
@@ -1416,16 +1416,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.014266459513944</v>
+        <v>1.014261176239275</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002051205660567484</v>
+        <v>0.002015030306774031</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.190014680141718</v>
+        <v>-0.1900021392440987</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0295051435478065</v>
+        <v>0.002267666627043394</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1447,16 +1447,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01431230210048</v>
+        <v>1.014339940211383</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00171816024842055</v>
+        <v>0.00176538127592965</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1899769180571484</v>
+        <v>-0.1899878551868355</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289312323916842</v>
+        <v>0.002316451375293104</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -1478,16 +1478,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.014301884662728</v>
+        <v>1.014326206322096</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001949274542721694</v>
+        <v>0.002037415051981547</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899695003803974</v>
+        <v>-0.1899620258516395</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02967599377584116</v>
+        <v>0.002277304291781246</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
@@ -1509,16 +1509,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.014311362973607</v>
+        <v>1.014335939974527</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00204827803246876</v>
+        <v>0.002048830449594626</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1899737813179811</v>
+        <v>-0.1899837551597954</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02947381164085018</v>
+        <v>0.002247572906125799</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
@@ -1540,16 +1540,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.014226428872524</v>
+        <v>1.014236186057899</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001897168849495408</v>
+        <v>0.001960010081794928</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1899288801829617</v>
+        <v>-0.1899235395226624</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02919719107411882</v>
+        <v>0.002209243102462169</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
@@ -1571,16 +1571,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.014171209029995</v>
+        <v>1.014196441742645</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002662253860059705</v>
+        <v>0.002672886600260413</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.189971241753474</v>
+        <v>-0.1899702736393722</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02925702283818337</v>
+        <v>0.002439881240641157</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
@@ -1602,16 +1602,16 @@
         <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>1.012774801663638</v>
+        <v>1.012757014844058</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00245415106309392</v>
+        <v>0.002449917405386916</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2375088122940803</v>
+        <v>-0.2374873591589912</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02600279443418478</v>
+        <v>0.002633061917920036</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
@@ -1633,16 +1633,16 @@
         <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>1.012663449807397</v>
+        <v>1.012695400902419</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002458578643820421</v>
+        <v>0.002523038646231138</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2374420956450813</v>
+        <v>-0.2374600599049623</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02637996130677683</v>
+        <v>0.002565349863495042</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
@@ -1664,16 +1664,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>1.012700859568802</v>
+        <v>1.012701874011798</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001668270186322513</v>
+        <v>0.001645000549357983</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.237493705191449</v>
+        <v>-0.2374901841848951</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02693143563286531</v>
+        <v>0.002141959796956373</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
@@ -1695,16 +1695,16 @@
         <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>1.012894535276204</v>
+        <v>1.012860533405247</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003215025888625154</v>
+        <v>0.00325428989712499</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2376703086788803</v>
+        <v>-0.2376452808322473</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02737603677396717</v>
+        <v>0.003075843706267197</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
@@ -1726,16 +1726,16 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.012821150438673</v>
+        <v>1.012773095569281</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002178030558297567</v>
+        <v>0.002215616509305082</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2375709124997145</v>
+        <v>-0.2375395202056421</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02763829542063597</v>
+        <v>0.002427472433412513</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
@@ -1757,16 +1757,16 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.012685169795308</v>
+        <v>1.012706748177043</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001950269404165584</v>
+        <v>0.001936079576474306</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2374170860742228</v>
+        <v>-0.2374351476504861</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02623656742759538</v>
+        <v>0.002334131140137014</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
@@ -1788,16 +1788,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.012756325781004</v>
+        <v>1.012767532238178</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001985719130319595</v>
+        <v>0.0019560910966401</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2374897096982078</v>
+        <v>-0.237498161018145</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02589123236039342</v>
+        <v>0.002239008103877114</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
@@ -1819,16 +1819,16 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.012698705865833</v>
+        <v>1.012686768245908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001614150899862786</v>
+        <v>0.001580820609541321</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2374714018630524</v>
+        <v>-0.2374584137851032</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02706757448749505</v>
+        <v>0.002133626920005151</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
@@ -1850,16 +1850,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.012837127414155</v>
+        <v>1.01283570946527</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001578855140772048</v>
+        <v>0.001579303680535275</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2375776268843728</v>
+        <v>-0.2375784390126423</v>
       </c>
       <c r="E46" t="n">
-        <v>0.026497305501099</v>
+        <v>0.002272022666151821</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
@@ -1881,16 +1881,16 @@
         <v>31.5</v>
       </c>
       <c r="B47" t="n">
-        <v>1.010222492594819</v>
+        <v>1.010222557374126</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001404485403449997</v>
+        <v>0.001413579410327174</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2992005181410653</v>
+        <v>-0.2992067224903359</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03379744711134432</v>
+        <v>0.002168603607402066</v>
       </c>
       <c r="F47" t="n">
         <v>31.5</v>
@@ -1912,16 +1912,16 @@
         <v>31.5</v>
       </c>
       <c r="B48" t="n">
-        <v>1.010177865535322</v>
+        <v>1.010180089298461</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001464292081995721</v>
+        <v>0.001485354601477638</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.299266586748296</v>
+        <v>-0.29927216721308</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03396833620895928</v>
+        <v>0.002200191170322056</v>
       </c>
       <c r="F48" t="n">
         <v>31.5</v>
@@ -1943,16 +1943,16 @@
         <v>31.5</v>
       </c>
       <c r="B49" t="n">
-        <v>1.010239566270887</v>
+        <v>1.010230987710017</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001470961602983216</v>
+        <v>0.001475078871312013</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2992468509901083</v>
+        <v>-0.2992400779381938</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03369820840447599</v>
+        <v>0.002167198923968901</v>
       </c>
       <c r="F49" t="n">
         <v>31.5</v>
@@ -1974,16 +1974,16 @@
         <v>31.5</v>
       </c>
       <c r="B50" t="n">
-        <v>1.010273578548875</v>
+        <v>1.01030210746814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002131237307668968</v>
+        <v>0.00215685565023609</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2992680018864624</v>
+        <v>-0.2993034620718884</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03233462212194643</v>
+        <v>0.00288805598524429</v>
       </c>
       <c r="F50" t="n">
         <v>31.5</v>
@@ -2005,16 +2005,16 @@
         <v>31.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1.010288407684945</v>
+        <v>1.010282390028014</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001951564609442384</v>
+        <v>0.001945997870333978</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2993486182415808</v>
+        <v>-0.2993477053779703</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03426055447383321</v>
+        <v>0.002697874285146297</v>
       </c>
       <c r="F51" t="n">
         <v>31.5</v>
@@ -2036,16 +2036,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.010106223564815</v>
+        <v>1.010092130568419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001822771173320155</v>
+        <v>0.001834495022017445</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2992006403042344</v>
+        <v>-0.2991876808287959</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0344301434511199</v>
+        <v>0.002521524628979841</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -2067,16 +2067,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.010198342071692</v>
+        <v>1.01020434303915</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001527782228362219</v>
+        <v>0.001521901650918416</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2992344576484474</v>
+        <v>-0.299238961950465</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03375255537777028</v>
+        <v>0.002385365013906294</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -2098,16 +2098,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.010146301424405</v>
+        <v>1.010149676599778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001512433377935116</v>
+        <v>0.001499750871267251</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2992378595369365</v>
+        <v>-0.2992422119479397</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03383168762561344</v>
+        <v>0.002247229934141384</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -2129,16 +2129,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.010222240589606</v>
+        <v>1.010222475596074</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001514309245440176</v>
+        <v>0.001492396626580033</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2992118050267822</v>
+        <v>-0.2992177360819506</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03365709592575052</v>
+        <v>0.002174797017474057</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -2160,16 +2160,16 @@
         <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>1.006057677015976</v>
+        <v>1.006058680832486</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001336822795173632</v>
+        <v>0.001346598590508411</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.379943423006381</v>
+        <v>-0.3799340638213087</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04399599665903824</v>
+        <v>0.00244429578804197</v>
       </c>
       <c r="F56" t="n">
         <v>40</v>
@@ -2191,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00612412882897</v>
+        <v>1.006137447395141</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001514332743423973</v>
+        <v>0.001537413745888649</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3800516738755437</v>
+        <v>-0.3800558238618681</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04284934826734735</v>
+        <v>0.002770008040881773</v>
       </c>
       <c r="F57" t="n">
         <v>40</v>
@@ -2222,16 +2222,16 @@
         <v>40</v>
       </c>
       <c r="B58" t="n">
-        <v>1.006083396874479</v>
+        <v>1.006095306232906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001292238767940276</v>
+        <v>0.001301204226755745</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3800310172268366</v>
+        <v>-0.3800363489366401</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04420372257544087</v>
+        <v>0.002347772316827647</v>
       </c>
       <c r="F58" t="n">
         <v>40</v>
@@ -2253,16 +2253,16 @@
         <v>40</v>
       </c>
       <c r="B59" t="n">
-        <v>1.006082394952695</v>
+        <v>1.006082341213285</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001301068437693556</v>
+        <v>0.001306829248198734</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3800040587650315</v>
+        <v>-0.3799867706403526</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04336935929031452</v>
+        <v>0.002386789944890159</v>
       </c>
       <c r="F59" t="n">
         <v>40</v>
@@ -2284,16 +2284,16 @@
         <v>40</v>
       </c>
       <c r="B60" t="n">
-        <v>1.00611784983105</v>
+        <v>1.006130707639072</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001423775519815758</v>
+        <v>0.00145914518980736</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3799781200214305</v>
+        <v>-0.3799825438186</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04392045008472668</v>
+        <v>0.002619288571254281</v>
       </c>
       <c r="F60" t="n">
         <v>40</v>
@@ -2315,16 +2315,16 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>1.006245669343376</v>
+        <v>1.006244109631115</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002020827506427933</v>
+        <v>0.002018874177533402</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3803461216024107</v>
+        <v>-0.3803294125611245</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0451035476203637</v>
+        <v>0.004085821698758035</v>
       </c>
       <c r="F61" t="n">
         <v>40</v>
@@ -2346,16 +2346,16 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.006056657059509</v>
+        <v>1.006056100716037</v>
       </c>
       <c r="C62" t="n">
-        <v>0.001241050140502866</v>
+        <v>0.001245837591660193</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3799643584165806</v>
+        <v>-0.3799496746458892</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04344476299043309</v>
+        <v>0.002232910496894016</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
@@ -2377,16 +2377,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.006124556800714</v>
+        <v>1.006132759870731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001342915393307466</v>
+        <v>0.001367862828346118</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3799257519756249</v>
+        <v>-0.3799327821073595</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04313692249731006</v>
+        <v>0.002490432709493548</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
@@ -2408,16 +2408,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.006051009251255</v>
+        <v>1.006062494519703</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001270083877033564</v>
+        <v>0.001292829600221185</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3799546151133977</v>
+        <v>-0.3799590247553715</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04403471120818674</v>
+        <v>0.002360907836305644</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -2439,16 +2439,16 @@
         <v>46.7</v>
       </c>
       <c r="B65" t="n">
-        <v>1.002322915513999</v>
+        <v>1.002334895236418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001418010735913533</v>
+        <v>0.001424992988261045</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.4439458381087196</v>
+        <v>-0.4439638310885132</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04956200666719368</v>
+        <v>0.003875780446758796</v>
       </c>
       <c r="F65" t="n">
         <v>46.7</v>
@@ -2470,16 +2470,16 @@
         <v>46.7</v>
       </c>
       <c r="B66" t="n">
-        <v>1.002270052586507</v>
+        <v>1.002269434965046</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00136055666253099</v>
+        <v>0.001357577929985256</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.4438546711761839</v>
+        <v>-0.4438016025767313</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05219308006835055</v>
+        <v>0.003836851259256577</v>
       </c>
       <c r="F66" t="n">
         <v>46.7</v>
@@ -2501,16 +2501,16 @@
         <v>46.7</v>
       </c>
       <c r="B67" t="n">
-        <v>1.002229006930093</v>
+        <v>1.002245657784038</v>
       </c>
       <c r="C67" t="n">
-        <v>0.002007799324199118</v>
+        <v>0.0020151815513238</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.4437965043620857</v>
+        <v>-0.4438162484623915</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0515831372284261</v>
+        <v>0.004372960293141369</v>
       </c>
       <c r="F67" t="n">
         <v>46.7</v>
@@ -2532,16 +2532,16 @@
         <v>46.7</v>
       </c>
       <c r="B68" t="n">
-        <v>1.002275478404835</v>
+        <v>1.002271545549023</v>
       </c>
       <c r="C68" t="n">
-        <v>0.003951092358045093</v>
+        <v>0.004074181699940888</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.443781652421348</v>
+        <v>-0.4437350408315166</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05347735105702025</v>
+        <v>0.003418328446727958</v>
       </c>
       <c r="F68" t="n">
         <v>46.7</v>
@@ -2563,16 +2563,16 @@
         <v>46.7</v>
       </c>
       <c r="B69" t="n">
-        <v>1.002274921790924</v>
+        <v>1.002284835392819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002206356630546909</v>
+        <v>0.002376801103115871</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.443757902623247</v>
+        <v>-0.4437608591370985</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05073249249216184</v>
+        <v>0.004766431920105351</v>
       </c>
       <c r="F69" t="n">
         <v>46.7</v>
@@ -2594,16 +2594,16 @@
         <v>46.7</v>
       </c>
       <c r="B70" t="n">
-        <v>1.002259414839683</v>
+        <v>1.002240276648647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001875458373005746</v>
+        <v>0.001894899802712974</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4436981799798221</v>
+        <v>-0.4436004779161982</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05431420759330401</v>
+        <v>0.006089726315389412</v>
       </c>
       <c r="F70" t="n">
         <v>46.7</v>
@@ -2625,16 +2625,16 @@
         <v>46.7</v>
       </c>
       <c r="B71" t="n">
-        <v>1.002353315699864</v>
+        <v>1.002366091621688</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001406054567161334</v>
+        <v>0.00140711615010656</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.4439751273716892</v>
+        <v>-0.4439873519392066</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0509778086732252</v>
+        <v>0.003642454261473002</v>
       </c>
       <c r="F71" t="n">
         <v>46.7</v>
@@ -2656,16 +2656,16 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.002292434855539</v>
+        <v>1.002314362914365</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002859205066013125</v>
+        <v>0.002599106381647937</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4439704607389654</v>
+        <v>-0.4440049098439856</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05246222430111157</v>
+        <v>0.003809016497470151</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
@@ -2687,16 +2687,16 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.002326746421274</v>
+        <v>1.002325637216467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001300720786092885</v>
+        <v>0.001303902687417516</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4440006180044316</v>
+        <v>-0.4439823488534325</v>
       </c>
       <c r="E73" t="n">
-        <v>0.05227998738699895</v>
+        <v>0.003641457629488056</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
@@ -2718,16 +2718,16 @@
         <v>50</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000083677051201</v>
+        <v>1.000090204388712</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001134417501496831</v>
+        <v>0.001151945962672966</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4752778844536998</v>
+        <v>-0.4752634849217316</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04625736652587002</v>
+        <v>0.002921928330444692</v>
       </c>
       <c r="F74" t="n">
         <v>50</v>
@@ -2749,16 +2749,16 @@
         <v>50</v>
       </c>
       <c r="B75" t="n">
-        <v>1.000073776908371</v>
+        <v>1.000079345262135</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001118220625692375</v>
+        <v>0.001123793440258745</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4752512378071203</v>
+        <v>-0.4752334921613675</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04671256225019083</v>
+        <v>0.00351841830486159</v>
       </c>
       <c r="F75" t="n">
         <v>50</v>
@@ -2780,16 +2780,16 @@
         <v>50</v>
       </c>
       <c r="B76" t="n">
-        <v>1.000101407372232</v>
+        <v>1.000094753272615</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00118761349024863</v>
+        <v>0.00118373049703314</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4753670650337769</v>
+        <v>-0.4752939645797514</v>
       </c>
       <c r="E76" t="n">
-        <v>0.04709563182221436</v>
+        <v>0.003689720294852918</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
@@ -2811,16 +2811,16 @@
         <v>50</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9998586180788981</v>
+        <v>0.9996605432055572</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005104580358099737</v>
+        <v>0.006473962546404804</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4752503124395586</v>
+        <v>-0.4752254626301298</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04870269689680491</v>
+        <v>0.003334351258186235</v>
       </c>
       <c r="F77" t="n">
         <v>50</v>
@@ -2842,16 +2842,16 @@
         <v>50</v>
       </c>
       <c r="B78" t="n">
-        <v>1.000115140036217</v>
+        <v>1.000112890551466</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001229446382828025</v>
+        <v>0.001230553571634954</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4750758501501515</v>
+        <v>-0.4750196009778298</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04623127523618085</v>
+        <v>0.00390174284781517</v>
       </c>
       <c r="F78" t="n">
         <v>50</v>
@@ -2873,16 +2873,16 @@
         <v>50</v>
       </c>
       <c r="B79" t="n">
-        <v>1.000077646048927</v>
+        <v>1.000086636332272</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001202479988172938</v>
+        <v>0.001222978285369284</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4751647119867686</v>
+        <v>-0.475172190837081</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04530719289455544</v>
+        <v>0.003707952794814172</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
@@ -2904,16 +2904,16 @@
         <v>50</v>
       </c>
       <c r="B80" t="n">
-        <v>1.000161965124355</v>
+        <v>1.000148683102032</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001334628993074335</v>
+        <v>0.001340265844678751</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4751864343663015</v>
+        <v>-0.4751085338854977</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04788458033490483</v>
+        <v>0.004456766641899758</v>
       </c>
       <c r="F80" t="n">
         <v>50</v>
@@ -2935,16 +2935,16 @@
         <v>50</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00009903080144</v>
+        <v>1.00011847514561</v>
       </c>
       <c r="C81" t="n">
-        <v>0.001400029683111015</v>
+        <v>0.001420704762504373</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4753537664785057</v>
+        <v>-0.4753898477994403</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04477248983509553</v>
+        <v>0.004390494447506329</v>
       </c>
       <c r="F81" t="n">
         <v>50</v>
@@ -2966,16 +2966,16 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.000120079588227</v>
+        <v>1.000112253316627</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00125194946477452</v>
+        <v>0.00124940709282058</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4753100583477687</v>
+        <v>-0.4752296371584142</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04710287145461913</v>
+        <v>0.004290329631562714</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
@@ -2997,16 +2997,16 @@
         <v>53.3</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9977746956981622</v>
+        <v>0.997789506743804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001228615601818181</v>
+        <v>0.001227446641556311</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5067556456023392</v>
+        <v>-0.5067972796954825</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04957682463768209</v>
+        <v>0.004965505165970469</v>
       </c>
       <c r="F83" t="n">
         <v>53.3</v>
@@ -3028,16 +3028,16 @@
         <v>53.3</v>
       </c>
       <c r="B84" t="n">
-        <v>0.997798840835836</v>
+        <v>0.9978033900986841</v>
       </c>
       <c r="C84" t="n">
-        <v>0.001083798426299382</v>
+        <v>0.001084687115344299</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5066267277258882</v>
+        <v>-0.5066111357570149</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04983649840721732</v>
+        <v>0.003326168941036396</v>
       </c>
       <c r="F84" t="n">
         <v>53.3</v>
@@ -3059,16 +3059,16 @@
         <v>53.3</v>
       </c>
       <c r="B85" t="n">
-        <v>0.997783028183009</v>
+        <v>0.997790237348621</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001058961052699117</v>
+        <v>0.001061387157420252</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.506531303382153</v>
+        <v>-0.506511553705109</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04877889425943195</v>
+        <v>0.002815025711820736</v>
       </c>
       <c r="F85" t="n">
         <v>53.3</v>
@@ -3090,16 +3090,16 @@
         <v>53.3</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9978022434938342</v>
+        <v>0.9978159084345427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001144100791823931</v>
+        <v>0.001161298060383687</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5067628875159915</v>
+        <v>-0.5068144513529989</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04719824491367382</v>
+        <v>0.003450402015025913</v>
       </c>
       <c r="F86" t="n">
         <v>53.3</v>
@@ -3121,16 +3121,16 @@
         <v>53.3</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9977606611807561</v>
+        <v>0.9977628970168498</v>
       </c>
       <c r="C87" t="n">
-        <v>0.001067373833778054</v>
+        <v>0.001067249528078866</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5064912572706324</v>
+        <v>-0.5064662526859047</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04910978065635066</v>
+        <v>0.003067667362035791</v>
       </c>
       <c r="F87" t="n">
         <v>53.3</v>
@@ -3152,16 +3152,16 @@
         <v>53.3</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9977849833231933</v>
+        <v>0.9977879951381655</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001263003389478122</v>
+        <v>0.001259688629705108</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5066774908148091</v>
+        <v>-0.5066609161872635</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04686164937514554</v>
+        <v>0.004827257269872772</v>
       </c>
       <c r="F88" t="n">
         <v>53.3</v>
@@ -3183,16 +3183,16 @@
         <v>53.3</v>
       </c>
       <c r="B89" t="n">
-        <v>0.997811545868352</v>
+        <v>0.997818145890606</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001119387425501193</v>
+        <v>0.001118572705592973</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5067425339104936</v>
+        <v>-0.5067402757227937</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05010442828507576</v>
+        <v>0.003876354023815777</v>
       </c>
       <c r="F89" t="n">
         <v>53.3</v>
@@ -3214,16 +3214,16 @@
         <v>53.3</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9977647644161874</v>
+        <v>0.9977640628952416</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001112700066846933</v>
+        <v>0.00111680609200209</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5067730626874871</v>
+        <v>-0.5066951066594187</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05132945216216559</v>
+        <v>0.004797612459671957</v>
       </c>
       <c r="F90" t="n">
         <v>53.3</v>
@@ -3245,16 +3245,16 @@
         <v>53.3</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9978171765841489</v>
+        <v>0.9978204933771571</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00118036920769991</v>
+        <v>0.001184284351558219</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5067538523807844</v>
+        <v>-0.5067095829321993</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0516031535725902</v>
+        <v>0.005739372182186777</v>
       </c>
       <c r="F91" t="n">
         <v>53.3</v>
@@ -3276,16 +3276,16 @@
         <v>63</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9905328341463866</v>
+        <v>0.9904078795823279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.003856767477162491</v>
+        <v>0.005170780061856669</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5987849362576654</v>
+        <v>-0.5987643525022901</v>
       </c>
       <c r="E92" t="n">
-        <v>0.06085949743006427</v>
+        <v>0.003626503547106915</v>
       </c>
       <c r="F92" t="n">
         <v>63</v>
@@ -3307,16 +3307,16 @@
         <v>63</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9905817942416588</v>
+        <v>0.9904836881883016</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003355079349758214</v>
+        <v>0.004444528391246073</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5987641994613853</v>
+        <v>-0.5986437649456597</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0634978016516547</v>
+        <v>0.009019773808048897</v>
       </c>
       <c r="F93" t="n">
         <v>63</v>
@@ -3338,16 +3338,16 @@
         <v>63</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9907509276229683</v>
+        <v>0.9907565587312331</v>
       </c>
       <c r="C94" t="n">
-        <v>0.003228277754229882</v>
+        <v>0.003581950718501153</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5985146347380921</v>
+        <v>-0.5983422111507557</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06373074776444711</v>
+        <v>0.009492411223262137</v>
       </c>
       <c r="F94" t="n">
         <v>63</v>
@@ -3369,16 +3369,16 @@
         <v>63</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9896730668393184</v>
+        <v>0.9897738789799332</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01167816730916828</v>
+        <v>0.01145653064222487</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5989993164774932</v>
+        <v>-0.5987431327772055</v>
       </c>
       <c r="E95" t="n">
-        <v>0.06885846972088694</v>
+        <v>0.01124327168537409</v>
       </c>
       <c r="F95" t="n">
         <v>63</v>
@@ -3400,16 +3400,16 @@
         <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9904899575585179</v>
+        <v>0.9905022607401953</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008801847576301869</v>
+        <v>0.008891037384121054</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5987570042649084</v>
+        <v>-0.5986685198646722</v>
       </c>
       <c r="E96" t="n">
-        <v>0.067855630791597</v>
+        <v>0.009855080287820265</v>
       </c>
       <c r="F96" t="n">
         <v>63</v>
@@ -3431,16 +3431,16 @@
         <v>63</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9908788301843142</v>
+        <v>0.9908407996491629</v>
       </c>
       <c r="C97" t="n">
-        <v>0.003500651783383291</v>
+        <v>0.004179645825082729</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5983067429909177</v>
+        <v>-0.5982688036560813</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06012226405727895</v>
+        <v>0.006447833816186175</v>
       </c>
       <c r="F97" t="n">
         <v>63</v>
@@ -3462,16 +3462,16 @@
         <v>63</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9903680866813054</v>
+        <v>0.9902291924848194</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008918342142490111</v>
+        <v>0.00934472437964845</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5985659117956117</v>
+        <v>-0.598382280097459</v>
       </c>
       <c r="E98" t="n">
-        <v>0.06164349540333661</v>
+        <v>0.008828036430936924</v>
       </c>
       <c r="F98" t="n">
         <v>63</v>
@@ -3493,16 +3493,16 @@
         <v>63</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9907134719935983</v>
+        <v>0.9907965480139393</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005472564316110839</v>
+        <v>0.005557879205118988</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5990561896848199</v>
+        <v>-0.5988665762890655</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06471925635500067</v>
+        <v>0.007898100074126644</v>
       </c>
       <c r="F99" t="n">
         <v>63</v>
@@ -3524,16 +3524,16 @@
         <v>63</v>
       </c>
       <c r="B100" t="n">
-        <v>0.990643886560289</v>
+        <v>0.9906097507459501</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003185676920961594</v>
+        <v>0.003431371842814164</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5987883584132971</v>
+        <v>-0.598667614176887</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06574389511035855</v>
+        <v>0.008968691193959972</v>
       </c>
       <c r="F100" t="n">
         <v>63</v>
@@ -3555,16 +3555,16 @@
         <v>80</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9743225937049454</v>
+        <v>0.9743548735106364</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001587017457834239</v>
+        <v>0.001635616826565663</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.7602770566171975</v>
+        <v>-0.7602529154620719</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07223819458952153</v>
+        <v>0.003561141252641501</v>
       </c>
       <c r="F101" t="n">
         <v>80</v>
@@ -3586,16 +3586,16 @@
         <v>80</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9742109752370783</v>
+        <v>0.9742772775581647</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002729114508327373</v>
+        <v>0.002855447435327035</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.760391888994739</v>
+        <v>-0.760294960136076</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07554494327296021</v>
+        <v>0.005338146992794572</v>
       </c>
       <c r="F102" t="n">
         <v>80</v>
@@ -3617,16 +3617,16 @@
         <v>80</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9735298947631214</v>
+        <v>0.9734840402116814</v>
       </c>
       <c r="C103" t="n">
-        <v>0.008589998683501313</v>
+        <v>0.008595913564499551</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.7605100867699943</v>
+        <v>-0.7606197909657459</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07088131515841294</v>
+        <v>0.006272294698620328</v>
       </c>
       <c r="F103" t="n">
         <v>80</v>
@@ -3648,16 +3648,16 @@
         <v>80</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9741057276332549</v>
+        <v>0.9741985849142811</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004982765059473684</v>
+        <v>0.005086949160090531</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7604285653944913</v>
+        <v>-0.7603115902431421</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07570640800607538</v>
+        <v>0.005979545248476438</v>
       </c>
       <c r="F104" t="n">
         <v>80</v>
@@ -3679,16 +3679,16 @@
         <v>80</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9740748151671956</v>
+        <v>0.9739933244500321</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01647114474806117</v>
+        <v>0.01637207739141628</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.7602764251096299</v>
+        <v>-0.7602661790257907</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07191660884296545</v>
+        <v>0.006115398606288984</v>
       </c>
       <c r="F105" t="n">
         <v>80</v>
@@ -3710,16 +3710,16 @@
         <v>80</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9741999700699171</v>
+        <v>0.9742299141056556</v>
       </c>
       <c r="C106" t="n">
-        <v>0.001833001711620609</v>
+        <v>0.001897356202604459</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.7604124842324613</v>
+        <v>-0.7604096812627583</v>
       </c>
       <c r="E106" t="n">
-        <v>0.07296443656934097</v>
+        <v>0.003469033996473398</v>
       </c>
       <c r="F106" t="n">
         <v>80</v>
@@ -3741,16 +3741,16 @@
         <v>80</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9742994812996799</v>
+        <v>0.9743020728592571</v>
       </c>
       <c r="C107" t="n">
-        <v>0.00188520913281514</v>
+        <v>0.001880987007601515</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7603040533584551</v>
+        <v>-0.7603738707440346</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07189352242505845</v>
+        <v>0.005523276286862526</v>
       </c>
       <c r="F107" t="n">
         <v>80</v>
@@ -3772,16 +3772,16 @@
         <v>80</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9743172775535437</v>
+        <v>0.9743134387102662</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001371992007114919</v>
+        <v>0.001372987575200198</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7603849761187216</v>
+        <v>-0.7604712024148172</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07125100131489159</v>
+        <v>0.004679515118502753</v>
       </c>
       <c r="F108" t="n">
         <v>80</v>
@@ -3803,16 +3803,16 @@
         <v>80</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9740951989327673</v>
+        <v>0.9740625368273298</v>
       </c>
       <c r="C109" t="n">
-        <v>0.005743076229550414</v>
+        <v>0.0056549912444696</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7601753496124921</v>
+        <v>-0.7602148606777197</v>
       </c>
       <c r="E109" t="n">
-        <v>0.07280189194346634</v>
+        <v>0.003975724784775197</v>
       </c>
       <c r="F109" t="n">
         <v>80</v>
@@ -3834,16 +3834,16 @@
         <v>100</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9503290140447423</v>
+        <v>0.9504397058889782</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005170075378040722</v>
+        <v>0.005285089863045159</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.9503567615143957</v>
+        <v>-0.950316716074084</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08336392491688679</v>
+        <v>0.003653592149312507</v>
       </c>
       <c r="F110" t="n">
         <v>100</v>
@@ -3865,16 +3865,16 @@
         <v>100</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9504770462021258</v>
+        <v>0.950613750851233</v>
       </c>
       <c r="C111" t="n">
-        <v>0.008991962296805602</v>
+        <v>0.009071857985323119</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.9502858197342041</v>
+        <v>-0.9502425015849076</v>
       </c>
       <c r="E111" t="n">
-        <v>0.08412725353749399</v>
+        <v>0.003350907046063175</v>
       </c>
       <c r="F111" t="n">
         <v>100</v>
@@ -3896,16 +3896,16 @@
         <v>100</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9493308344250868</v>
+        <v>0.9495834957922072</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0183339906902175</v>
+        <v>0.01837183796709718</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9506214283722692</v>
+        <v>-0.950554461261635</v>
       </c>
       <c r="E112" t="n">
-        <v>0.08423655218502343</v>
+        <v>0.006047124154309701</v>
       </c>
       <c r="F112" t="n">
         <v>100</v>
@@ -3927,16 +3927,16 @@
         <v>100</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9502858422806368</v>
+        <v>0.950390836807059</v>
       </c>
       <c r="C113" t="n">
-        <v>0.005618200613682961</v>
+        <v>0.005696156353351921</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9504194482850123</v>
+        <v>-0.9503705234918081</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08427279661087494</v>
+        <v>0.004243748621595397</v>
       </c>
       <c r="F113" t="n">
         <v>100</v>
@@ -3958,16 +3958,16 @@
         <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9505948099233379</v>
+        <v>0.9506449167119202</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002223039157854316</v>
+        <v>0.002349580149118659</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.9503043833189633</v>
+        <v>-0.9502744088677506</v>
       </c>
       <c r="E114" t="n">
-        <v>0.08285415308080145</v>
+        <v>0.003158740939998743</v>
       </c>
       <c r="F114" t="n">
         <v>100</v>
@@ -3989,16 +3989,16 @@
         <v>100</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9505560139950782</v>
+        <v>0.9506099368106026</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002669769588350158</v>
+        <v>0.002742188326761777</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.9503505616379808</v>
+        <v>-0.9503215055822087</v>
       </c>
       <c r="E115" t="n">
-        <v>0.08364166010139852</v>
+        <v>0.003737783694848867</v>
       </c>
       <c r="F115" t="n">
         <v>100</v>
@@ -4020,16 +4020,16 @@
         <v>100</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9505289617815247</v>
+        <v>0.9505564321827187</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001475560264946419</v>
+        <v>0.001470076667540164</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.9502117939556953</v>
+        <v>-0.9502107294850779</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08119354748445552</v>
+        <v>0.003025262131378964</v>
       </c>
       <c r="F116" t="n">
         <v>100</v>
@@ -4051,16 +4051,16 @@
         <v>100</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9505057416418247</v>
+        <v>0.9505780785100912</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002526272457334973</v>
+        <v>0.002538331380428918</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.9504722068241893</v>
+        <v>-0.9504081233209734</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08341279981029091</v>
+        <v>0.003510991592975358</v>
       </c>
       <c r="F117" t="n">
         <v>100</v>
@@ -4082,16 +4082,16 @@
         <v>100</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9505922342146408</v>
+        <v>0.950662277535389</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002201005207666669</v>
+        <v>0.002327639910483563</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.9503487881115706</v>
+        <v>-0.9502814346334034</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08215928028129377</v>
+        <v>0.003357548199017401</v>
       </c>
       <c r="F118" t="n">
         <v>100</v>
@@ -4113,16 +4113,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9143619544160466</v>
+        <v>0.9144739856088087</v>
       </c>
       <c r="C119" t="n">
-        <v>0.001970858772027842</v>
+        <v>0.001983493911790961</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.188531739859003</v>
+        <v>-1.188486371931398</v>
       </c>
       <c r="E119" t="n">
-        <v>0.04029604816433354</v>
+        <v>0.002730235120793676</v>
       </c>
       <c r="F119" t="n">
         <v>125</v>
@@ -4144,16 +4144,16 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9142887035978408</v>
+        <v>0.9144739735414819</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005893029489615714</v>
+        <v>0.005558483405230041</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.188418396264915</v>
+        <v>-1.188413931608047</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0383835776009594</v>
+        <v>0.002440246312147657</v>
       </c>
       <c r="F120" t="n">
         <v>125</v>
@@ -4175,16 +4175,16 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9144556760291283</v>
+        <v>0.9144959662727624</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001105334291478689</v>
+        <v>0.001209502053618568</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.188408420070257</v>
+        <v>-1.188443229145544</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03820142180528555</v>
+        <v>0.002749379266862906</v>
       </c>
       <c r="F121" t="n">
         <v>125</v>
@@ -4206,16 +4206,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9142924955643064</v>
+        <v>0.9142829887441944</v>
       </c>
       <c r="C122" t="n">
-        <v>0.001416713208930858</v>
+        <v>0.001392075603853741</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.188338009316921</v>
+        <v>-1.188418756865659</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03815234597163913</v>
+        <v>0.002657279069722894</v>
       </c>
       <c r="F122" t="n">
         <v>125</v>
@@ -4237,16 +4237,16 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9141753274198456</v>
+        <v>0.9137970619605155</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009848450079237752</v>
+        <v>0.0104659654204103</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.188417063905921</v>
+        <v>-1.188531170299455</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03787318258132519</v>
+        <v>0.00321559025847445</v>
       </c>
       <c r="F123" t="n">
         <v>125</v>
@@ -4268,16 +4268,16 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9143416110796958</v>
+        <v>0.9144104202480937</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001730754845467551</v>
+        <v>0.001789091471066118</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.188434037676261</v>
+        <v>-1.188442201741738</v>
       </c>
       <c r="E124" t="n">
-        <v>0.04034660493307242</v>
+        <v>0.002206532715853473</v>
       </c>
       <c r="F124" t="n">
         <v>125</v>
@@ -4299,16 +4299,16 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9139752896827932</v>
+        <v>0.9140697092325037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.007271167465764599</v>
+        <v>0.00712698654488514</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.188335782599019</v>
+        <v>-1.188398427459407</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03876529825096394</v>
+        <v>0.002861235591472242</v>
       </c>
       <c r="F125" t="n">
         <v>125</v>
@@ -4330,16 +4330,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9144338915536649</v>
+        <v>0.9144778308789741</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001091303346037814</v>
+        <v>0.001178176212524074</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.188466966017746</v>
+        <v>-1.188506184334294</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03951451993294801</v>
+        <v>0.002335677584309706</v>
       </c>
       <c r="F126" t="n">
         <v>125</v>
@@ -4361,16 +4361,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9142252936062504</v>
+        <v>0.914215592810922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003835293944430409</v>
+        <v>0.003804845642784736</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.188413753035149</v>
+        <v>-1.188418625640789</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03962090998182487</v>
+        <v>0.00216522046627203</v>
       </c>
       <c r="F127" t="n">
         <v>125</v>
@@ -4392,16 +4392,16 @@
         <v>160</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8506306792301129</v>
+        <v>0.8506231728394604</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004254792134066974</v>
+        <v>0.004295710059565071</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.518758036868613</v>
+        <v>-1.518753292801714</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05108805123628348</v>
+        <v>0.00331205543109905</v>
       </c>
       <c r="F128" t="n">
         <v>160</v>
@@ -4423,16 +4423,16 @@
         <v>160</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8505911721771636</v>
+        <v>0.8506415132056262</v>
       </c>
       <c r="C129" t="n">
-        <v>0.002236603316633268</v>
+        <v>0.002304399222799948</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.518786625019284</v>
+        <v>-1.518770148766056</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05051662982728972</v>
+        <v>0.004875624278058787</v>
       </c>
       <c r="F129" t="n">
         <v>160</v>
@@ -4454,16 +4454,16 @@
         <v>160</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8505483878006568</v>
+        <v>0.8506774678820486</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002071319580293961</v>
+        <v>0.002118894303396309</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.518907535436964</v>
+        <v>-1.518849703731583</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05097927692170854</v>
+        <v>0.005000006984569884</v>
       </c>
       <c r="F130" t="n">
         <v>160</v>
@@ -4485,16 +4485,16 @@
         <v>160</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8504543309722826</v>
+        <v>0.8504698859610471</v>
       </c>
       <c r="C131" t="n">
-        <v>0.002697752624959981</v>
+        <v>0.002728809976143718</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.518742878389042</v>
+        <v>-1.518747316593634</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0502359361245631</v>
+        <v>0.005886890376777794</v>
       </c>
       <c r="F131" t="n">
         <v>160</v>
@@ -4516,16 +4516,16 @@
         <v>160</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8506479765609418</v>
+        <v>0.8507422195765841</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001554668403458913</v>
+        <v>0.001678174546486652</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.518907185148738</v>
+        <v>-1.519132001692756</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05144487641927613</v>
+        <v>0.006393466865926548</v>
       </c>
       <c r="F132" t="n">
         <v>160</v>
@@ -4547,16 +4547,16 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8507029869956033</v>
+        <v>0.8507932094491758</v>
       </c>
       <c r="C133" t="n">
-        <v>0.001654710195078449</v>
+        <v>0.001613418187252233</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.518823372530194</v>
+        <v>-1.518822219894022</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05164396373101205</v>
+        <v>0.002558831114389422</v>
       </c>
       <c r="F133" t="n">
         <v>160</v>
@@ -4578,16 +4578,16 @@
         <v>160</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8505090669366577</v>
+        <v>0.8506901810081238</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004949790035174069</v>
+        <v>0.005262251378957923</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.518947599333648</v>
+        <v>-1.518871443451931</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05136166688707421</v>
+        <v>0.002436969583918679</v>
       </c>
       <c r="F134" t="n">
         <v>160</v>
@@ -4609,16 +4609,16 @@
         <v>160</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8505631296356724</v>
+        <v>0.8506382464252384</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001468335431133541</v>
+        <v>0.001550431892462315</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.518839888279462</v>
+        <v>-1.518836364228701</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0508809981248614</v>
+        <v>0.003142306188850814</v>
       </c>
       <c r="F135" t="n">
         <v>160</v>
@@ -4640,16 +4640,16 @@
         <v>160</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8506777126419653</v>
+        <v>0.850714592437491</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001199362576011218</v>
+        <v>0.001216973811134892</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.518810372724479</v>
+        <v>-1.518852835438275</v>
       </c>
       <c r="E136" t="n">
-        <v>0.05038013319017697</v>
+        <v>0.002308585098640407</v>
       </c>
       <c r="F136" t="n">
         <v>160</v>
@@ -4671,16 +4671,16 @@
         <v>200</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7667523441301561</v>
+        <v>0.7668450011908396</v>
       </c>
       <c r="C137" t="n">
-        <v>0.002274595352070691</v>
+        <v>0.00251376517018391</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.900355914511337</v>
+        <v>-1.900337614453161</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05218793286929495</v>
+        <v>0.002991513276533441</v>
       </c>
       <c r="F137" t="n">
         <v>200</v>
@@ -4702,16 +4702,16 @@
         <v>200</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7668429494312151</v>
+        <v>0.7669059201441437</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001135867023654462</v>
+        <v>0.001274053761189238</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.90029143278972</v>
+        <v>-1.900321317126918</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0524001138630277</v>
+        <v>0.002378414557466493</v>
       </c>
       <c r="F138" t="n">
         <v>200</v>
@@ -4733,16 +4733,16 @@
         <v>200</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7668076664651147</v>
+        <v>0.7669038549765668</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001675498271645209</v>
+        <v>0.001710074552476283</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.900392060924542</v>
+        <v>-1.9003595586322</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05330682534816133</v>
+        <v>0.002681233242082818</v>
       </c>
       <c r="F139" t="n">
         <v>200</v>
@@ -4764,16 +4764,16 @@
         <v>200</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7667809546272076</v>
+        <v>0.766848250022314</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001503886279926001</v>
+        <v>0.001522835466941173</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.900270479678716</v>
+        <v>-1.900296284714824</v>
       </c>
       <c r="E140" t="n">
-        <v>0.04893123424814268</v>
+        <v>0.002669876197720517</v>
       </c>
       <c r="F140" t="n">
         <v>200</v>
@@ -4795,16 +4795,16 @@
         <v>200</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7669063780713811</v>
+        <v>0.7669457483439792</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0008750083051359474</v>
+        <v>0.0009082304819460576</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.900077220921086</v>
+        <v>-1.900270501814934</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0544063786562218</v>
+        <v>0.007062377032395878</v>
       </c>
       <c r="F141" t="n">
         <v>200</v>
@@ -4826,16 +4826,16 @@
         <v>200</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7671066022099008</v>
+        <v>0.7672541997800126</v>
       </c>
       <c r="C142" t="n">
-        <v>0.003804828536198508</v>
+        <v>0.003726381026564038</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.900278850154099</v>
+        <v>-1.900264231345141</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0502731190928074</v>
+        <v>0.003049023511730607</v>
       </c>
       <c r="F142" t="n">
         <v>200</v>
@@ -4857,16 +4857,16 @@
         <v>200</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7668722129435901</v>
+        <v>0.7668859096624695</v>
       </c>
       <c r="C143" t="n">
-        <v>0.002418002645923786</v>
+        <v>0.002415328602141853</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.900295366433503</v>
+        <v>-1.900291548634787</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05332590843424716</v>
+        <v>0.003427968172446118</v>
       </c>
       <c r="F143" t="n">
         <v>200</v>
@@ -4888,16 +4888,16 @@
         <v>200</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7668544156682873</v>
+        <v>0.7669487770910092</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001412693998602425</v>
+        <v>0.001627324546082467</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.900243699498411</v>
+        <v>-1.90029282875162</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05508048044002297</v>
+        <v>0.0032666249198391</v>
       </c>
       <c r="F144" t="n">
         <v>200</v>
@@ -4919,16 +4919,16 @@
         <v>200</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7668734637812835</v>
+        <v>0.7669245162567174</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001017777340116402</v>
+        <v>0.001062065229532648</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.900334427303592</v>
+        <v>-1.900371983116234</v>
       </c>
       <c r="E145" t="n">
-        <v>0.05273704322467958</v>
+        <v>0.002873380396414634</v>
       </c>
       <c r="F145" t="n">
         <v>200</v>
@@ -4950,16 +4950,16 @@
         <v>250</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6427334159886314</v>
+        <v>0.6426971771293579</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002717123356561351</v>
+        <v>0.002664068409528553</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.375535352456287</v>
+        <v>-2.375504572850455</v>
       </c>
       <c r="E146" t="n">
-        <v>0.06149987907423719</v>
+        <v>0.002737971448196293</v>
       </c>
       <c r="F146" t="n">
         <v>250</v>
@@ -4981,16 +4981,16 @@
         <v>250</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6426431066034742</v>
+        <v>0.6428150201247239</v>
       </c>
       <c r="C147" t="n">
-        <v>0.00335194438858316</v>
+        <v>0.003375307818573698</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.375619262464602</v>
+        <v>-2.375636650526243</v>
       </c>
       <c r="E147" t="n">
-        <v>0.06668922946080494</v>
+        <v>0.002669727339829662</v>
       </c>
       <c r="F147" t="n">
         <v>250</v>
@@ -5012,16 +5012,16 @@
         <v>250</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6428663313313361</v>
+        <v>0.6429148753243419</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0009459180625325164</v>
+        <v>0.001019608803664287</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.375591964223657</v>
+        <v>-2.375595654851566</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0669453104146799</v>
+        <v>0.003581746520332039</v>
       </c>
       <c r="F148" t="n">
         <v>250</v>
@@ -5043,16 +5043,16 @@
         <v>250</v>
       </c>
       <c r="B149" t="n">
-        <v>0.642800053124131</v>
+        <v>0.642884812463557</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001230866555803044</v>
+        <v>0.001368114623055233</v>
       </c>
       <c r="D149" t="n">
-        <v>-2.375705286398805</v>
+        <v>-2.375673057083487</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0642331010733548</v>
+        <v>0.002965261242641522</v>
       </c>
       <c r="F149" t="n">
         <v>250</v>
@@ -5074,16 +5074,16 @@
         <v>250</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6428199468387751</v>
+        <v>0.6428850139805863</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001264491076821297</v>
+        <v>0.001282879729564938</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.375577967364751</v>
+        <v>-2.375572555326662</v>
       </c>
       <c r="E150" t="n">
-        <v>0.06800238832942589</v>
+        <v>0.002419995764033478</v>
       </c>
       <c r="F150" t="n">
         <v>250</v>
@@ -5105,16 +5105,16 @@
         <v>250</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6427672652726951</v>
+        <v>0.6428005467666191</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001052121439891629</v>
+        <v>0.001071918839064897</v>
       </c>
       <c r="D151" t="n">
-        <v>-2.375691495097924</v>
+        <v>-2.375695659299429</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06590195120155411</v>
+        <v>0.0029478142074438</v>
       </c>
       <c r="F151" t="n">
         <v>250</v>
@@ -5136,16 +5136,16 @@
         <v>250</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6428722170704396</v>
+        <v>0.6429477771524577</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001196311525970824</v>
+        <v>0.001238760472164528</v>
       </c>
       <c r="D152" t="n">
-        <v>-2.375539884697489</v>
+        <v>-2.375534647198231</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06532284051020321</v>
+        <v>0.00266998440586768</v>
       </c>
       <c r="F152" t="n">
         <v>250</v>
@@ -5167,16 +5167,16 @@
         <v>250</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6428003117377904</v>
+        <v>0.6428622642208819</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001124964906178254</v>
+        <v>0.001187813101036078</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.375669845270338</v>
+        <v>-2.375664387794588</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06592475187399638</v>
+        <v>0.003169789976414654</v>
       </c>
       <c r="F153" t="n">
         <v>250</v>
@@ -5198,16 +5198,16 @@
         <v>250</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6427180406717253</v>
+        <v>0.6427630250148426</v>
       </c>
       <c r="C154" t="n">
-        <v>0.002148279463598378</v>
+        <v>0.002252714950101807</v>
       </c>
       <c r="D154" t="n">
-        <v>-2.375563163861791</v>
+        <v>-2.375551958042625</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06807961142765194</v>
+        <v>0.003104879941868966</v>
       </c>
       <c r="F154" t="n">
         <v>250</v>
@@ -5295,16 +5295,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.01939924079704</v>
+        <v>1.01955413479884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002580091657208682</v>
+        <v>0.002727262931784652</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09496696980046737</v>
+        <v>-0.09468368881641709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002695965851425542</v>
+        <v>0.003021956283692417</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -5326,16 +5326,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1.018972265871191</v>
+        <v>1.019261501905951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004122285961526118</v>
+        <v>0.004366399591716795</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09440491039972532</v>
+        <v>-0.09461263669183584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004065344133429051</v>
+        <v>0.003794443326087043</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -5357,16 +5357,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.018810488297618</v>
+        <v>1.019092986583491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003101339005672954</v>
+        <v>0.003428262062275564</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0948216230925425</v>
+        <v>-0.09493052876059216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003221512192579334</v>
+        <v>0.002979155229610883</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -5388,16 +5388,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.019132083513059</v>
+        <v>1.01920468111376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002463256271460341</v>
+        <v>0.002474593453094589</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09471260857195851</v>
+        <v>-0.09460199638093547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002742583772422535</v>
+        <v>0.002423688984029623</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -5419,16 +5419,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.019332309750883</v>
+        <v>1.019102067054115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002883199709274764</v>
+        <v>0.003085895778865776</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09463006597588741</v>
+        <v>-0.09461164680031775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00349923581975443</v>
+        <v>0.003811230200601842</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -5450,16 +5450,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.019299941515856</v>
+        <v>1.019098138575958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003091336500219548</v>
+        <v>0.00323301063452513</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09465875653014066</v>
+        <v>-0.0947113851968906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002971784548721088</v>
+        <v>0.003142997389139526</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -5481,16 +5481,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.019073347180251</v>
+        <v>1.019075735219341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002855424156777483</v>
+        <v>0.002909525172730187</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0949526492099686</v>
+        <v>-0.09498309447476005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003180906036253526</v>
+        <v>0.003044622398465742</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -5512,16 +5512,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.018979408882469</v>
+        <v>1.018841099849396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003437254895899455</v>
+        <v>0.003402162084148781</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09459000833047204</v>
+        <v>-0.09458392019252382</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003764589015282639</v>
+        <v>0.003291433366817916</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -5543,16 +5543,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.019095103356949</v>
+        <v>1.019176444798685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002833157524192164</v>
+        <v>0.002894534635686457</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09457072569908176</v>
+        <v>-0.09456147092396305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002912154251760601</v>
+        <v>0.002755793885553373</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -5574,16 +5574,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.018983882560442</v>
+        <v>1.019313135262444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00521032104617498</v>
+        <v>0.005397927985709474</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09463231408513995</v>
+        <v>-0.09471901459374377</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003350275857443354</v>
+        <v>0.003132864956856241</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -5605,25 +5605,25 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.018177866035013</v>
+        <v>1.018516313126167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004130868940909345</v>
+        <v>0.002900375987305232</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1183282072097365</v>
+        <v>-0.1184922992798134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004643180080091598</v>
+        <v>0.004223488120206054</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.761</v>
+        <v>2.755</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005521499999999999</v>
+        <v>0.000550957</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5636,25 +5636,25 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.018481581073518</v>
+        <v>1.018783375294373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004408386501105022</v>
+        <v>0.003923529700670683</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1188165177491562</v>
+        <v>-0.1195153545433347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005597388163773661</v>
+        <v>0.003980871428451336</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.757</v>
+        <v>2.753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000551371</v>
+        <v>0.000550681</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5667,25 +5667,25 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.018297049338361</v>
+        <v>1.017900904988349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004623262968326122</v>
+        <v>0.004888293682926267</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1186699117372605</v>
+        <v>-0.118398307234427</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005210118128297064</v>
+        <v>0.004834552973868721</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.761</v>
+        <v>2.757</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005521429999999999</v>
+        <v>0.000551356</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5698,25 +5698,25 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.018601747693024</v>
+        <v>1.01815527775581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002581509838164837</v>
+        <v>0.005084010327959773</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1181530704866312</v>
+        <v>-0.1187594703689183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005103263866330901</v>
+        <v>0.00440951353652374</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.757</v>
+        <v>2.753</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00055136</v>
+        <v>0.0005506140000000001</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5729,25 +5729,25 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.018343718245903</v>
+        <v>1.019093297623116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005557217756001262</v>
+        <v>0.003008083837759189</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1189573440960081</v>
+        <v>-0.1188203516166466</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006442351398722225</v>
+        <v>0.006454607481246742</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.761</v>
+        <v>2.744</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000552117</v>
+        <v>0.000548816</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5760,25 +5760,25 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018808763538118</v>
+        <v>1.018343700268765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002818756965604842</v>
+        <v>0.003964453143655546</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1186355319118064</v>
+        <v>-0.1186059136544484</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006221329116230795</v>
+        <v>0.004681979998663601</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.744</v>
+        <v>2.761</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000548816</v>
+        <v>0.0005521429999999999</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5791,25 +5791,25 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.018579163825723</v>
+        <v>1.018477952815318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005164990196536264</v>
+        <v>0.002635570880354945</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1188637539612576</v>
+        <v>-0.1180289245665194</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00486992557606357</v>
+        <v>0.005000876928010161</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.753</v>
+        <v>2.757</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0005506140000000001</v>
+        <v>0.00055136</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5822,16 +5822,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.018029118586835</v>
+        <v>1.018413370767813</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005203604660079761</v>
+        <v>0.003801090636467539</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1185224461153185</v>
+        <v>-0.1188698326590361</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005024739777370198</v>
+        <v>0.005442275296618245</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -5840,7 +5840,7 @@
         <v>2.757</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000551356</v>
+        <v>0.000551371</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5853,25 +5853,25 @@
         <v>12.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.018691563110946</v>
+        <v>1.018037974265213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003973580798425154</v>
+        <v>0.004021363958810756</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1194356326040005</v>
+        <v>-0.1186007078629865</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004245800357883259</v>
+        <v>0.004516403881084933</v>
       </c>
       <c r="F20" t="n">
         <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.753</v>
+        <v>2.761</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000550681</v>
+        <v>0.0005521499999999999</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5884,25 +5884,25 @@
         <v>12.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018420512225047</v>
+        <v>1.018494187448801</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002902556474672801</v>
+        <v>0.00530984915594112</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.118392795441411</v>
+        <v>-0.1190525439858523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004287792834754701</v>
+        <v>0.006925191981711419</v>
       </c>
       <c r="F21" t="n">
         <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.755</v>
+        <v>2.761</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000550957</v>
+        <v>0.000552117</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -5915,25 +5915,25 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.018114276382647</v>
+        <v>1.018325530689699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003483745449933992</v>
+        <v>0.004073645633316419</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.151757208355157</v>
+        <v>-0.1522435997185894</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004210304347866648</v>
+        <v>0.004719555271615341</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>5.578</v>
+        <v>5.579</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001115628</v>
+        <v>0.001115731</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5946,25 +5946,25 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.017735474795342</v>
+        <v>1.017740064549845</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00203386551368787</v>
+        <v>0.003090647901958218</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.15155837692435</v>
+        <v>-0.1517500518851931</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003140455586159428</v>
+        <v>0.003976861527258027</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>5.573</v>
+        <v>5.575</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001114562</v>
+        <v>0.001115018</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5977,25 +5977,25 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0178496575895</v>
+        <v>1.018213012197017</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004669272677492974</v>
+        <v>0.003163649795984415</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1522227978233253</v>
+        <v>-0.1523040484881624</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004957163895482214</v>
+        <v>0.004008706138716321</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>5.582</v>
+        <v>5.57</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001116311</v>
+        <v>0.00111397</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -6008,25 +6008,25 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.01818151541211</v>
+        <v>1.017669872079825</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003622604921471993</v>
+        <v>0.002761032464980853</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1520832470554758</v>
+        <v>-0.1516284990597248</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004336072149091649</v>
+        <v>0.003440860726251004</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>5.567</v>
+        <v>5.573</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001113371</v>
+        <v>0.001114655</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -6039,25 +6039,25 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.017927337355236</v>
+        <v>1.018381879256725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002457917011412506</v>
+        <v>0.005223860833804657</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1518178405410033</v>
+        <v>-0.1523297439645124</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003164630040685648</v>
+        <v>0.005133686376421993</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>5.578</v>
+        <v>5.546</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001115576</v>
+        <v>0.001109199</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -6070,25 +6070,25 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.018179331306853</v>
+        <v>1.017711034216828</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005310644765718115</v>
+        <v>0.004539838697563177</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1522457761369229</v>
+        <v>-0.1521381790959864</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005317192538999996</v>
+        <v>0.005154340388982034</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>5.546</v>
+        <v>5.582</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001109199</v>
+        <v>0.001116311</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -6101,25 +6101,25 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.017927537840574</v>
+        <v>1.018575221931231</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003869308520609171</v>
+        <v>0.003890918079105336</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1520093634199484</v>
+        <v>-0.1523009152981192</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004852696769492065</v>
+        <v>0.004122259438787054</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>5.579</v>
+        <v>5.567</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001115731</v>
+        <v>0.001113371</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -6132,16 +6132,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>1.017874469420392</v>
+        <v>1.017730243177382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00270851702647006</v>
+        <v>0.001940541796348569</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1516560469344612</v>
+        <v>-0.1516432644978034</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003671160981751104</v>
+        <v>0.002967129053751449</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
@@ -6150,7 +6150,7 @@
         <v>5.573</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001114655</v>
+        <v>0.001114562</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6163,25 +6163,25 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>1.017962435953003</v>
+        <v>1.01843940537399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003027004419661089</v>
+        <v>0.003800065894958993</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1521236566448856</v>
+        <v>-0.1519605918834235</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004041202917486083</v>
+        <v>0.004227941770197761</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>5.57</v>
+        <v>5.578</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00111397</v>
+        <v>0.001115628</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6194,25 +6194,25 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017992986861455</v>
+        <v>1.017924185605009</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002896871844157692</v>
+        <v>0.002287883311508676</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1519394620890218</v>
+        <v>-0.1518716401407625</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003955061751858379</v>
+        <v>0.002955757907198396</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>5.575</v>
+        <v>5.578</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001115018</v>
+        <v>0.001115576</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6225,25 +6225,25 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.016896821053681</v>
+        <v>1.01677167320184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00261435567760535</v>
+        <v>0.002103378256928673</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1895377028522969</v>
+        <v>-0.189423168809548</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004156208127998669</v>
+        <v>0.004133101393506703</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>5.596</v>
+        <v>5.586</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001119259</v>
+        <v>0.00111722</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6256,25 +6256,25 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.016762461819975</v>
+        <v>1.016991791201618</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003209303163540109</v>
+        <v>0.002358273030176507</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1897785191338213</v>
+        <v>-0.1901219848709348</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004452408063627109</v>
+        <v>0.004814841353128162</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>5.57</v>
+        <v>5.59</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001113944</v>
+        <v>0.00111793</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -6287,25 +6287,25 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.016815254673173</v>
+        <v>1.017032160321141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00248029945139294</v>
+        <v>0.002690369349173385</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1899444888436812</v>
+        <v>-0.1900993259780035</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004789546125432869</v>
+        <v>0.004969384625137245</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>5.594</v>
+        <v>5.581</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001118735</v>
+        <v>0.001116173</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -6318,25 +6318,25 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.016787888235668</v>
+        <v>1.016476989247063</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00277027270325532</v>
+        <v>0.003069688421780098</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1897402905780714</v>
+        <v>-0.1898097927036959</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004776905640157791</v>
+        <v>0.005198630080698111</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>5.592</v>
+        <v>5.593</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001118395</v>
+        <v>0.001118636</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -6349,25 +6349,25 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.016836219611182</v>
+        <v>1.016985494451034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002397706385794561</v>
+        <v>0.003333709501632135</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1895131154426828</v>
+        <v>-0.1899356200044511</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005084586962714868</v>
+        <v>0.005546110814668203</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>5.596</v>
+        <v>5.571</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001119128</v>
+        <v>0.001114252</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -6380,25 +6380,25 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.017082375471265</v>
+        <v>1.016683512507745</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003554215744726484</v>
+        <v>0.002710059438792958</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1901035898162604</v>
+        <v>-0.1897262701136946</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005313925503428343</v>
+        <v>0.00446173349155104</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>5.571</v>
+        <v>5.592</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001114252</v>
+        <v>0.001118395</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -6411,25 +6411,25 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>1.016695636496027</v>
+        <v>1.016767628922006</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003017007611353808</v>
+        <v>0.002421107806708582</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1900635589847912</v>
+        <v>-0.1899022828866734</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005178435181236805</v>
+        <v>0.004255721608728055</v>
       </c>
       <c r="F38" t="n">
         <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>5.593</v>
+        <v>5.594</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001118636</v>
+        <v>0.001118735</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -6442,25 +6442,25 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1.017020727048789</v>
+        <v>1.016443709258752</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002819759523202519</v>
+        <v>0.003505712878289714</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1901229640450905</v>
+        <v>-0.1893762681164637</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004982968590313834</v>
+        <v>0.004923809438576209</v>
       </c>
       <c r="F39" t="n">
         <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.581</v>
+        <v>5.57</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001116173</v>
+        <v>0.001113944</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -6473,25 +6473,25 @@
         <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1.016944662678422</v>
+        <v>1.016881802964801</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002518472500863831</v>
+        <v>0.002517404189356286</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1899562076709369</v>
+        <v>-0.1894688903953767</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004697629776343452</v>
+        <v>0.004075581928912268</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>5.59</v>
+        <v>5.596</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00111793</v>
+        <v>0.001119259</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -6504,25 +6504,25 @@
         <v>20</v>
       </c>
       <c r="B41" t="n">
-        <v>1.016915930321261</v>
+        <v>1.016992201397093</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002016574050975375</v>
+        <v>0.002476498359863639</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1895171196570509</v>
+        <v>-0.1897733691051613</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003906578212796434</v>
+        <v>0.005335087846687372</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>5.586</v>
+        <v>5.596</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00111722</v>
+        <v>0.001119128</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -6535,25 +6535,25 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.015457783323388</v>
+        <v>1.015282931577932</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002408973895776347</v>
+        <v>0.001857528762469348</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2374234082511997</v>
+        <v>-0.237054109419446</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004816239836405021</v>
+        <v>0.00399934226411509</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>11.28</v>
+        <v>11.282</v>
       </c>
       <c r="H42" t="n">
-        <v>0.002256042</v>
+        <v>0.002256465</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -6566,25 +6566,25 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.015467965212592</v>
+        <v>1.015285154307868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002100389396102055</v>
+        <v>0.002646685685617881</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.237416466190298</v>
+        <v>-0.2373388303386905</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004495782214936553</v>
+        <v>0.005814352228945436</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
       </c>
       <c r="G43" t="n">
-        <v>11.272</v>
+        <v>11.281</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002254355</v>
+        <v>0.002256244</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -6597,25 +6597,25 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.015413296713558</v>
+        <v>1.014817390689611</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00226655231308327</v>
+        <v>0.003028690216879394</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2372695507819991</v>
+        <v>-0.2365628466730563</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005140512271267623</v>
+        <v>0.005840326200999466</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>11.273</v>
+        <v>11.284</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002254673</v>
+        <v>0.002256829</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -6628,25 +6628,25 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.015348235938518</v>
+        <v>1.015083331313351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002253386101187291</v>
+        <v>0.001776884298835166</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.237458761098889</v>
+        <v>-0.2366787429961543</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005550664094905388</v>
+        <v>0.004193156487429048</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>11.272</v>
+        <v>11.264</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002254388</v>
+        <v>0.00225281</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -6659,25 +6659,25 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.015433436432928</v>
+        <v>1.015376833937671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00182483280929804</v>
+        <v>0.001798534864085495</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2369008881468972</v>
+        <v>-0.2374148109787018</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003484005845667923</v>
+        <v>0.003801884319205859</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>11.265</v>
+        <v>11.282</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00225301</v>
+        <v>0.002256496</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -6690,25 +6690,25 @@
         <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>1.015493820858994</v>
+        <v>1.015401747564822</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001819763453935993</v>
+        <v>0.002180257135799891</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2375163308806489</v>
+        <v>-0.2372800976627194</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003841872919656306</v>
+        <v>0.004951510211681543</v>
       </c>
       <c r="F47" t="n">
         <v>25</v>
       </c>
       <c r="G47" t="n">
-        <v>11.282</v>
+        <v>11.273</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002256496</v>
+        <v>0.002254673</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -6721,25 +6721,25 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.015386363056383</v>
+        <v>1.0155538649882</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001868964249168365</v>
+        <v>0.002383383929122085</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.237171317635795</v>
+        <v>-0.2377231390478642</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00411969889770005</v>
+        <v>0.005229460350016756</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>11.282</v>
+        <v>11.272</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002256465</v>
+        <v>0.002254388</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -6752,25 +6752,25 @@
         <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01520094583423</v>
+        <v>1.015287530429565</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001952676996963241</v>
+        <v>0.002275882137218842</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2367906754125211</v>
+        <v>-0.2371998859887468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003972791225105947</v>
+        <v>0.004763326257833165</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
       </c>
       <c r="G49" t="n">
-        <v>11.264</v>
+        <v>11.28</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00225281</v>
+        <v>0.002256042</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -6783,25 +6783,25 @@
         <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>1.015232928891381</v>
+        <v>1.015218699552001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002459723563783398</v>
+        <v>0.002065698100613004</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2371718555139202</v>
+        <v>-0.2366795655649319</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004817747824830632</v>
+        <v>0.003842855917915327</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>11.284</v>
+        <v>11.265</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002256829</v>
+        <v>0.00225301</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -6814,25 +6814,25 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1.015221152129579</v>
+        <v>1.015507185881661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002764954825379887</v>
+        <v>0.00203233755083447</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2373245024929176</v>
+        <v>-0.2374395802762082</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005910861493875616</v>
+        <v>0.004393827621271999</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>11.281</v>
+        <v>11.272</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002256244</v>
+        <v>0.002254355</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -6845,16 +6845,16 @@
         <v>31.5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.012927331607946</v>
+        <v>1.012798570405463</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001275301499150009</v>
+        <v>0.001317846985944281</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2989822165590201</v>
+        <v>-0.2987690391140281</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004597736274241043</v>
+        <v>0.004543404298629128</v>
       </c>
       <c r="F52" t="n">
         <v>31.5</v>
@@ -6876,16 +6876,16 @@
         <v>31.5</v>
       </c>
       <c r="B53" t="n">
-        <v>1.012852298708986</v>
+        <v>1.012732527434692</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001630979374119623</v>
+        <v>0.001579439874526018</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2988773970883098</v>
+        <v>-0.2986780078685594</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005535116422594785</v>
+        <v>0.00545309350612366</v>
       </c>
       <c r="F53" t="n">
         <v>31.5</v>
@@ -6907,16 +6907,16 @@
         <v>31.5</v>
       </c>
       <c r="B54" t="n">
-        <v>1.012844503794522</v>
+        <v>1.012643600138697</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0009489298047293791</v>
+        <v>0.001390569541604939</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2990213886889368</v>
+        <v>-0.2985702850478891</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003477741585433311</v>
+        <v>0.004030177391488642</v>
       </c>
       <c r="F54" t="n">
         <v>31.5</v>
@@ -6938,16 +6938,16 @@
         <v>31.5</v>
       </c>
       <c r="B55" t="n">
-        <v>1.012894135330381</v>
+        <v>1.012746610054463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001433964537833256</v>
+        <v>0.001471493274832445</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2992167737290252</v>
+        <v>-0.298823225309897</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004171772556190489</v>
+        <v>0.004486972396571668</v>
       </c>
       <c r="F55" t="n">
         <v>31.5</v>
@@ -6969,25 +6969,25 @@
         <v>31.5</v>
       </c>
       <c r="B56" t="n">
-        <v>1.01285883967761</v>
+        <v>1.013319075603283</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001440205062151408</v>
+        <v>0.001935391162793501</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2989972862397661</v>
+        <v>-0.2995803928810874</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004607190410281642</v>
+        <v>0.006666748542171996</v>
       </c>
       <c r="F56" t="n">
         <v>31.5</v>
       </c>
       <c r="G56" t="n">
-        <v>11.428</v>
+        <v>11.408</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002285675</v>
+        <v>0.002281506</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -7000,25 +7000,25 @@
         <v>31.5</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013132934900092</v>
+        <v>1.013309994471796</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001791642648173279</v>
+        <v>0.002775611203701994</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2990565705499719</v>
+        <v>-0.3003890740551816</v>
       </c>
       <c r="E57" t="n">
-        <v>0.006679554906079672</v>
+        <v>0.00957139722439173</v>
       </c>
       <c r="F57" t="n">
         <v>31.5</v>
       </c>
       <c r="G57" t="n">
-        <v>11.408</v>
+        <v>11.428</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002281506</v>
+        <v>0.002285501</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -7031,25 +7031,25 @@
         <v>31.5</v>
       </c>
       <c r="B58" t="n">
-        <v>1.013007731901054</v>
+        <v>1.013213696022409</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002704900788701524</v>
+        <v>0.00134686692720598</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2995504095653039</v>
+        <v>-0.2996998233577313</v>
       </c>
       <c r="E58" t="n">
-        <v>0.009883026118169913</v>
+        <v>0.004616541580922706</v>
       </c>
       <c r="F58" t="n">
         <v>31.5</v>
       </c>
       <c r="G58" t="n">
-        <v>11.428</v>
+        <v>11.421</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002285501</v>
+        <v>0.002284136</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -7062,25 +7062,25 @@
         <v>31.5</v>
       </c>
       <c r="B59" t="n">
-        <v>1.013039025903749</v>
+        <v>1.012786753961046</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001156097240378327</v>
+        <v>0.001394466215983616</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2992633300975407</v>
+        <v>-0.2989371966815226</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004502369239150285</v>
+        <v>0.005223560172719405</v>
       </c>
       <c r="F59" t="n">
         <v>31.5</v>
       </c>
       <c r="G59" t="n">
-        <v>11.421</v>
+        <v>11.432</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002284136</v>
+        <v>0.002286365</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -7093,25 +7093,25 @@
         <v>31.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1.012846607827305</v>
+        <v>1.012777492710821</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001433510403308453</v>
+        <v>0.001235051607266392</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.298975142237992</v>
+        <v>-0.2986611663022831</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005592533496617799</v>
+        <v>0.004416704592171663</v>
       </c>
       <c r="F60" t="n">
         <v>31.5</v>
       </c>
       <c r="G60" t="n">
-        <v>11.432</v>
+        <v>11.441</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002286365</v>
+        <v>0.002288201</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -7124,25 +7124,25 @@
         <v>31.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.012887660694748</v>
+        <v>1.012805725212618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001129060246327243</v>
+        <v>0.001287487584829475</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2988687970838653</v>
+        <v>-0.2989192184229506</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0043418580312751</v>
+        <v>0.004470508207132741</v>
       </c>
       <c r="F61" t="n">
         <v>31.5</v>
       </c>
       <c r="G61" t="n">
-        <v>11.441</v>
+        <v>11.428</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002288201</v>
+        <v>0.002285675</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -7155,25 +7155,25 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.008760752493371</v>
+        <v>1.008898780563483</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0006190281670005679</v>
+        <v>0.0006247134220685095</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3794979277664527</v>
+        <v>-0.3798335801087296</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00586057960386176</v>
+        <v>0.005706083765309294</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>23.243</v>
+        <v>23.245</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00464855</v>
+        <v>0.004648937</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -7186,25 +7186,25 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.008778833069726</v>
+        <v>1.008819087953056</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0005211848279312294</v>
+        <v>0.0004953411539011634</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3794633580568423</v>
+        <v>-0.3796860475339305</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005594869292068433</v>
+        <v>0.003766578878839854</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>23.252</v>
+        <v>23.251</v>
       </c>
       <c r="H63" t="n">
-        <v>0.004650455</v>
+        <v>0.0046502</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -7217,25 +7217,25 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.008829773987517</v>
+        <v>1.008915434191853</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0004863811313796224</v>
+        <v>0.000732735977403343</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3800579014967433</v>
+        <v>-0.3802869488155958</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004251298396117668</v>
+        <v>0.006875831850745954</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>23.245</v>
+        <v>23.248</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004649079</v>
+        <v>0.004649516</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -7248,25 +7248,25 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>1.008827602875058</v>
+        <v>1.008947717669804</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0006507547360741038</v>
+        <v>0.0007834326876717969</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3800913655998026</v>
+        <v>-0.379098896239479</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006911207387490689</v>
+        <v>0.008560806220076952</v>
       </c>
       <c r="F65" t="n">
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>23.237</v>
+        <v>23.261</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004647441</v>
+        <v>0.004652268</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -7279,25 +7279,25 @@
         <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1.008781550843744</v>
+        <v>1.008800123212527</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004450237640124094</v>
+        <v>0.0006043842282571993</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.379779665624298</v>
+        <v>-0.3798326866942965</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002632216515442998</v>
+        <v>0.006860598448317614</v>
       </c>
       <c r="F66" t="n">
         <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>23.24</v>
+        <v>23.242</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00464804</v>
+        <v>0.004648389</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -7310,25 +7310,25 @@
         <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1.008785479113119</v>
+        <v>1.008880806262734</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000617925295767694</v>
+        <v>0.0007152510191612711</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3796926204278961</v>
+        <v>-0.3806289309495394</v>
       </c>
       <c r="E67" t="n">
-        <v>0.006559291525515988</v>
+        <v>0.006958277636986455</v>
       </c>
       <c r="F67" t="n">
         <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>23.242</v>
+        <v>23.237</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004648389</v>
+        <v>0.004647441</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -7341,25 +7341,25 @@
         <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1.008808982838239</v>
+        <v>1.008848307172733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004978222808121699</v>
+        <v>0.0004799887246263073</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3796142440243742</v>
+        <v>-0.38014006893932</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004194295917333971</v>
+        <v>0.003946606120689429</v>
       </c>
       <c r="F68" t="n">
         <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>23.251</v>
+        <v>23.245</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0046502</v>
+        <v>0.004649079</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -7372,25 +7372,25 @@
         <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00898713242451</v>
+        <v>1.0087959486256</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0008014919810962868</v>
+        <v>0.0005130120482461199</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3795381432053837</v>
+        <v>-0.3796630766128217</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008212805981267094</v>
+        <v>0.005166240368279907</v>
       </c>
       <c r="F69" t="n">
         <v>40</v>
       </c>
       <c r="G69" t="n">
-        <v>23.261</v>
+        <v>23.252</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004652268</v>
+        <v>0.004650455</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -7403,25 +7403,25 @@
         <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>1.008876930707309</v>
+        <v>1.008743004541071</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0007085371564593508</v>
+        <v>0.000618909021383461</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3800763722075988</v>
+        <v>-0.3793909902467334</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007266641695424543</v>
+        <v>0.005924166924650098</v>
       </c>
       <c r="F70" t="n">
         <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>23.248</v>
+        <v>23.243</v>
       </c>
       <c r="H70" t="n">
-        <v>0.004649516</v>
+        <v>0.00464855</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -7434,25 +7434,25 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1.008895857871965</v>
+        <v>1.008767253431289</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0006606348128278513</v>
+        <v>0.0004589046753223188</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3798289107522015</v>
+        <v>-0.3796467833670958</v>
       </c>
       <c r="E71" t="n">
-        <v>0.005968636741399189</v>
+        <v>0.003087299717730167</v>
       </c>
       <c r="F71" t="n">
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>23.245</v>
+        <v>23.24</v>
       </c>
       <c r="H71" t="n">
-        <v>0.004648937</v>
+        <v>0.00464804</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -7465,25 +7465,25 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.005022357461994</v>
+        <v>1.005031494570573</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0007242215767851481</v>
+        <v>0.0007623566128473175</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4434521470059707</v>
+        <v>-0.4441091353740227</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006498527199657936</v>
+        <v>0.008201610206624329</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
       </c>
       <c r="G72" t="n">
-        <v>58.508</v>
+        <v>58.579</v>
       </c>
       <c r="H72" t="n">
-        <v>0.011701683</v>
+        <v>0.011715724</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -7496,25 +7496,25 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.005032286178608</v>
+        <v>1.005186741502615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0007446124983241579</v>
+        <v>0.0005454115884150253</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4432267707887463</v>
+        <v>-0.4433168180520348</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005268208149422393</v>
+        <v>0.005411465036616317</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
       </c>
       <c r="G73" t="n">
-        <v>58.504</v>
+        <v>58.593</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01170086</v>
+        <v>0.011718531</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -7527,25 +7527,25 @@
         <v>46.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.004965723463847</v>
+        <v>1.005142061184867</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0005360027988931019</v>
+        <v>0.0005693971787223368</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4437875227980168</v>
+        <v>-0.4441734776141759</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00623215945996779</v>
+        <v>0.007690030018126687</v>
       </c>
       <c r="F74" t="n">
         <v>46.7</v>
       </c>
       <c r="G74" t="n">
-        <v>58.523</v>
+        <v>58.641</v>
       </c>
       <c r="H74" t="n">
-        <v>0.011704522</v>
+        <v>0.011728122</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7558,25 +7558,25 @@
         <v>46.7</v>
       </c>
       <c r="B75" t="n">
-        <v>1.005006440918113</v>
+        <v>1.00504248163198</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000950914346899991</v>
+        <v>0.0005811448184493322</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4433597543164081</v>
+        <v>-0.4435049172289358</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008653172680643542</v>
+        <v>0.003971740791587839</v>
       </c>
       <c r="F75" t="n">
         <v>46.7</v>
       </c>
       <c r="G75" t="n">
-        <v>58.496</v>
+        <v>58.499</v>
       </c>
       <c r="H75" t="n">
-        <v>0.011699189</v>
+        <v>0.011699812</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7589,25 +7589,25 @@
         <v>46.7</v>
       </c>
       <c r="B76" t="n">
-        <v>1.004985589424707</v>
+        <v>1.005158721225767</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0007656626338113003</v>
+        <v>0.0008666352545804811</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4438102147751088</v>
+        <v>-0.4428157179747494</v>
       </c>
       <c r="E76" t="n">
-        <v>0.009677544602475866</v>
+        <v>0.006405817906388747</v>
       </c>
       <c r="F76" t="n">
         <v>46.7</v>
       </c>
       <c r="G76" t="n">
-        <v>58.55</v>
+        <v>58.496</v>
       </c>
       <c r="H76" t="n">
-        <v>0.011709924</v>
+        <v>0.011699266</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7620,25 +7620,25 @@
         <v>46.7</v>
       </c>
       <c r="B77" t="n">
-        <v>1.005039851545511</v>
+        <v>1.004886720036684</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000746609200196139</v>
+        <v>0.0008939251019939975</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4432087374893161</v>
+        <v>-0.4448773254100908</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006230871774102245</v>
+        <v>0.01020047967023718</v>
       </c>
       <c r="F77" t="n">
         <v>46.7</v>
       </c>
       <c r="G77" t="n">
-        <v>58.496</v>
+        <v>58.55</v>
       </c>
       <c r="H77" t="n">
-        <v>0.011699266</v>
+        <v>0.011709924</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7651,25 +7651,25 @@
         <v>46.7</v>
       </c>
       <c r="B78" t="n">
-        <v>1.004995978368559</v>
+        <v>1.00503804030251</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005080081831871213</v>
+        <v>0.0005730189609135099</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4434395839760175</v>
+        <v>-0.4436922790960365</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004225609184023361</v>
+        <v>0.005624677039575032</v>
       </c>
       <c r="F78" t="n">
         <v>46.7</v>
       </c>
       <c r="G78" t="n">
-        <v>58.499</v>
+        <v>58.523</v>
       </c>
       <c r="H78" t="n">
-        <v>0.011699812</v>
+        <v>0.011704522</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7682,25 +7682,25 @@
         <v>46.7</v>
       </c>
       <c r="B79" t="n">
-        <v>1.005130554342414</v>
+        <v>1.005098519074723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0006005783426022966</v>
+        <v>0.0007449078710313631</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4437009780727657</v>
+        <v>-0.4431887334387503</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008104649667446263</v>
+        <v>0.005239413339541462</v>
       </c>
       <c r="F79" t="n">
         <v>46.7</v>
       </c>
       <c r="G79" t="n">
-        <v>58.641</v>
+        <v>58.504</v>
       </c>
       <c r="H79" t="n">
-        <v>0.011728122</v>
+        <v>0.01170086</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7713,25 +7713,25 @@
         <v>46.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.005148834131944</v>
+        <v>1.005107399069952</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0006166598210190965</v>
+        <v>0.0006938924553663514</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4432042002073686</v>
+        <v>-0.4432829053829517</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005612787911114809</v>
+        <v>0.00628551610965945</v>
       </c>
       <c r="F80" t="n">
         <v>46.7</v>
       </c>
       <c r="G80" t="n">
-        <v>58.593</v>
+        <v>58.508</v>
       </c>
       <c r="H80" t="n">
-        <v>0.011718531</v>
+        <v>0.011701683</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7744,25 +7744,25 @@
         <v>46.7</v>
       </c>
       <c r="B81" t="n">
-        <v>1.005037032376942</v>
+        <v>1.004971440676563</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0008074231015721199</v>
+        <v>0.0009110726529398588</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4435937585859762</v>
+        <v>-0.4440611706876556</v>
       </c>
       <c r="E81" t="n">
-        <v>0.007506456903190132</v>
+        <v>0.008680208863216595</v>
       </c>
       <c r="F81" t="n">
         <v>46.7</v>
       </c>
       <c r="G81" t="n">
-        <v>58.579</v>
+        <v>58.496</v>
       </c>
       <c r="H81" t="n">
-        <v>0.011715724</v>
+        <v>0.011699189</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7775,25 +7775,25 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.002868776154935</v>
+        <v>1.002820704358146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.001086410952977599</v>
+        <v>0.0008044732315429368</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4743297739290728</v>
+        <v>-0.4747647576397078</v>
       </c>
       <c r="E82" t="n">
-        <v>0.006211116202965454</v>
+        <v>0.0055143711750257</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>58.703</v>
+        <v>58.737</v>
       </c>
       <c r="H82" t="n">
-        <v>0.011740505</v>
+        <v>0.011747443</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7806,25 +7806,25 @@
         <v>50</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00289859844173</v>
+        <v>1.002977583220767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0006449227211924485</v>
+        <v>0.0006075181167209473</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4746448287911789</v>
+        <v>-0.4741270289349737</v>
       </c>
       <c r="E83" t="n">
-        <v>0.004736916962748679</v>
+        <v>0.003092572341925582</v>
       </c>
       <c r="F83" t="n">
         <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>58.766</v>
+        <v>58.708</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01175327</v>
+        <v>0.011741662</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7837,25 +7837,25 @@
         <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>1.002861526622846</v>
+        <v>1.002898128664435</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0007690216701620383</v>
+        <v>0.0008015352464668286</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4745091022649639</v>
+        <v>-0.4748442727500737</v>
       </c>
       <c r="E84" t="n">
-        <v>0.005471937139552377</v>
+        <v>0.005531212584383749</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>58.718</v>
+        <v>58.822</v>
       </c>
       <c r="H84" t="n">
-        <v>0.011743551</v>
+        <v>0.011764438</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -7868,25 +7868,25 @@
         <v>50</v>
       </c>
       <c r="B85" t="n">
-        <v>1.002929609675323</v>
+        <v>1.002944764019071</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001358632850222332</v>
+        <v>0.0009772441830977262</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4742544672204314</v>
+        <v>-0.4749757376033585</v>
       </c>
       <c r="E85" t="n">
-        <v>0.008306848856977193</v>
+        <v>0.007311735289425404</v>
       </c>
       <c r="F85" t="n">
         <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>58.717</v>
+        <v>58.916</v>
       </c>
       <c r="H85" t="n">
-        <v>0.011743445</v>
+        <v>0.011783128</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -7899,25 +7899,25 @@
         <v>50</v>
       </c>
       <c r="B86" t="n">
-        <v>1.002855667141114</v>
+        <v>1.002991023267885</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0006320032117622986</v>
+        <v>0.0008015285676968817</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4745997680771374</v>
+        <v>-0.4740426902533468</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00438082772848433</v>
+        <v>0.003877047906066091</v>
       </c>
       <c r="F86" t="n">
         <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>58.763</v>
+        <v>58.731</v>
       </c>
       <c r="H86" t="n">
-        <v>0.011752671</v>
+        <v>0.011746171</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -7930,25 +7930,25 @@
         <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>1.002895753654703</v>
+        <v>1.002843934701599</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0006099305188366761</v>
+        <v>0.0006089208175329934</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4744319794273566</v>
+        <v>-0.4747106782280412</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003582652514192301</v>
+        <v>0.004474506043153698</v>
       </c>
       <c r="F87" t="n">
         <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>58.731</v>
+        <v>58.763</v>
       </c>
       <c r="H87" t="n">
-        <v>0.011746171</v>
+        <v>0.011752671</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -7961,25 +7961,25 @@
         <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>1.002825034398319</v>
+        <v>1.003101970502895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0008257242127622771</v>
+        <v>0.001447757567339947</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4746703098797855</v>
+        <v>-0.4734197171541923</v>
       </c>
       <c r="E88" t="n">
-        <v>0.005998690527619342</v>
+        <v>0.009215628511054487</v>
       </c>
       <c r="F88" t="n">
         <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>58.737</v>
+        <v>58.717</v>
       </c>
       <c r="H88" t="n">
-        <v>0.011747443</v>
+        <v>0.011743445</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -7992,25 +7992,25 @@
         <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>1.002973926608652</v>
+        <v>1.002948091020979</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001014724672572602</v>
+        <v>0.0008132357011881613</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4747307757442094</v>
+        <v>-0.4741788883501683</v>
       </c>
       <c r="E89" t="n">
-        <v>0.006953021611192866</v>
+        <v>0.005043963871839006</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>58.916</v>
+        <v>58.718</v>
       </c>
       <c r="H89" t="n">
-        <v>0.011783128</v>
+        <v>0.011743551</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8023,25 +8023,25 @@
         <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1.002951748745446</v>
+        <v>1.002856263815213</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0007634604109090933</v>
+        <v>0.0006628116990986085</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4744620591146851</v>
+        <v>-0.4749359970228033</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005450483479132248</v>
+        <v>0.00452651062955079</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>58.822</v>
+        <v>58.766</v>
       </c>
       <c r="H90" t="n">
-        <v>0.011764438</v>
+        <v>0.01175327</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8054,25 +8054,25 @@
         <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>1.002920018872123</v>
+        <v>1.003008962794092</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0005335981215277314</v>
+        <v>0.001195208795783718</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4743467550273568</v>
+        <v>-0.4737995664330619</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003324331488938983</v>
+        <v>0.006901764902503381</v>
       </c>
       <c r="F91" t="n">
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>58.708</v>
+        <v>58.703</v>
       </c>
       <c r="H91" t="n">
-        <v>0.011741662</v>
+        <v>0.011740505</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8085,25 +8085,25 @@
         <v>53.3</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000442473089959</v>
+        <v>1.000435579192966</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0007471734283083376</v>
+        <v>0.000802603733420683</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5066151967171737</v>
+        <v>-0.5064506136142399</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004851173285270525</v>
+        <v>0.004127681184885922</v>
       </c>
       <c r="F92" t="n">
         <v>53.3</v>
       </c>
       <c r="G92" t="n">
-        <v>59.176</v>
+        <v>59.037</v>
       </c>
       <c r="H92" t="n">
-        <v>0.011835273</v>
+        <v>0.011807354</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8116,25 +8116,25 @@
         <v>53.3</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000610606817987</v>
+        <v>1.000608541474318</v>
       </c>
       <c r="C93" t="n">
-        <v>0.000721605360202757</v>
+        <v>0.001154449425608166</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5062264819121491</v>
+        <v>-0.5056735641900763</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00425633534533301</v>
+        <v>0.006285996509312694</v>
       </c>
       <c r="F93" t="n">
         <v>53.3</v>
       </c>
       <c r="G93" t="n">
-        <v>59.13</v>
+        <v>59.024</v>
       </c>
       <c r="H93" t="n">
-        <v>0.011826076</v>
+        <v>0.011804889</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8147,25 +8147,25 @@
         <v>53.3</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000474097508123</v>
+        <v>1.000507128380559</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001080320066997439</v>
+        <v>0.0008917972066861384</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5064092183826965</v>
+        <v>-0.5061927284693635</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006113999340722363</v>
+        <v>0.004624305515969822</v>
       </c>
       <c r="F94" t="n">
         <v>53.3</v>
       </c>
       <c r="G94" t="n">
-        <v>59.085</v>
+        <v>59.062</v>
       </c>
       <c r="H94" t="n">
-        <v>0.011817012</v>
+        <v>0.011812307</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8178,25 +8178,25 @@
         <v>53.3</v>
       </c>
       <c r="B95" t="n">
-        <v>1.00045959536737</v>
+        <v>1.000677724758322</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001379098709518678</v>
+        <v>0.0007664184776829521</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5063592119607314</v>
+        <v>-0.5056590382522268</v>
       </c>
       <c r="E95" t="n">
-        <v>0.008248853974274275</v>
+        <v>0.003591149916128268</v>
       </c>
       <c r="F95" t="n">
         <v>53.3</v>
       </c>
       <c r="G95" t="n">
-        <v>59.046</v>
+        <v>59.085</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011809138</v>
+        <v>0.011817045</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -8209,25 +8209,25 @@
         <v>53.3</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000602996183679</v>
+        <v>1.000740015621597</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001199024275062819</v>
+        <v>0.00181348687971633</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.505804417315685</v>
+        <v>-0.505865278335131</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005601004272982452</v>
+        <v>0.01106203072280869</v>
       </c>
       <c r="F96" t="n">
         <v>53.3</v>
       </c>
       <c r="G96" t="n">
-        <v>58.992</v>
+        <v>59.286</v>
       </c>
       <c r="H96" t="n">
-        <v>0.011798353</v>
+        <v>0.011857186</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -8240,25 +8240,25 @@
         <v>53.3</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000661081194216</v>
+        <v>1.000442435622856</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001913513434922257</v>
+        <v>0.00127885797659287</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5061325505782506</v>
+        <v>-0.5063865216671704</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01097161309737691</v>
+        <v>0.007124830051112781</v>
       </c>
       <c r="F97" t="n">
         <v>53.3</v>
       </c>
       <c r="G97" t="n">
-        <v>59.286</v>
+        <v>59.046</v>
       </c>
       <c r="H97" t="n">
-        <v>0.011857186</v>
+        <v>0.011809138</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -8271,16 +8271,16 @@
         <v>53.3</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000636123656165</v>
+        <v>1.000416723284994</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0007901702009244709</v>
+        <v>0.001102022451582698</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5058107092111097</v>
+        <v>-0.5065916404885544</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004110820664145811</v>
+        <v>0.005577625301102573</v>
       </c>
       <c r="F98" t="n">
         <v>53.3</v>
@@ -8289,7 +8289,7 @@
         <v>59.085</v>
       </c>
       <c r="H98" t="n">
-        <v>0.011817045</v>
+        <v>0.011817012</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -8302,25 +8302,25 @@
         <v>53.3</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00053836934828</v>
+        <v>1.000601742357886</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0009399534291382433</v>
+        <v>0.000705473856335205</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.506125605945277</v>
+        <v>-0.5062970902106931</v>
       </c>
       <c r="E99" t="n">
-        <v>0.005638854492464365</v>
+        <v>0.003737265869941882</v>
       </c>
       <c r="F99" t="n">
         <v>53.3</v>
       </c>
       <c r="G99" t="n">
-        <v>59.062</v>
+        <v>59.13</v>
       </c>
       <c r="H99" t="n">
-        <v>0.011812307</v>
+        <v>0.011826076</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -8333,25 +8333,25 @@
         <v>53.3</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000530817137213</v>
+        <v>1.00030247871122</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001211993911052187</v>
+        <v>0.001016751950319031</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.505960899525677</v>
+        <v>-0.5071334051566674</v>
       </c>
       <c r="E100" t="n">
-        <v>0.006194528878177922</v>
+        <v>0.004940901561947913</v>
       </c>
       <c r="F100" t="n">
         <v>53.3</v>
       </c>
       <c r="G100" t="n">
-        <v>59.024</v>
+        <v>59.176</v>
       </c>
       <c r="H100" t="n">
-        <v>0.011804889</v>
+        <v>0.011835273</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -8364,25 +8364,25 @@
         <v>53.3</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000433138521917</v>
+        <v>1.000713208568959</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0008771725577071117</v>
+        <v>0.001295209350263033</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5064637673963457</v>
+        <v>-0.5054276178447537</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004726726183232247</v>
+        <v>0.005918744538037955</v>
       </c>
       <c r="F101" t="n">
         <v>53.3</v>
       </c>
       <c r="G101" t="n">
-        <v>59.037</v>
+        <v>58.992</v>
       </c>
       <c r="H101" t="n">
-        <v>0.011807354</v>
+        <v>0.011798353</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -8395,25 +8395,25 @@
         <v>63</v>
       </c>
       <c r="B102" t="n">
-        <v>0.993609043070439</v>
+        <v>0.9937210820841557</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003675261623501156</v>
+        <v>0.002899864988146195</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5978330238940046</v>
+        <v>-0.5979441024274195</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005538842596823998</v>
+        <v>0.005405458802180511</v>
       </c>
       <c r="F102" t="n">
         <v>63</v>
       </c>
       <c r="G102" t="n">
-        <v>115.251</v>
+        <v>115.091</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02305018</v>
+        <v>0.023018107</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -8426,25 +8426,25 @@
         <v>63</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9933441378487615</v>
+        <v>0.993640572754817</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001866615640028031</v>
+        <v>0.001887100421278943</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5982324296488599</v>
+        <v>-0.5981342549897857</v>
       </c>
       <c r="E103" t="n">
-        <v>0.004628594341516246</v>
+        <v>0.004466645484975569</v>
       </c>
       <c r="F103" t="n">
         <v>63</v>
       </c>
       <c r="G103" t="n">
-        <v>115.436</v>
+        <v>115.138</v>
       </c>
       <c r="H103" t="n">
-        <v>0.023087275</v>
+        <v>0.023027636</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -8457,25 +8457,25 @@
         <v>63</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9935451634232371</v>
+        <v>0.9946522119315668</v>
       </c>
       <c r="C104" t="n">
-        <v>0.002608195012124134</v>
+        <v>0.005509655595497407</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.598004532451851</v>
+        <v>-0.5965079763688514</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00536349260999619</v>
+        <v>0.007143155223988795</v>
       </c>
       <c r="F104" t="n">
         <v>63</v>
       </c>
       <c r="G104" t="n">
-        <v>115.693</v>
+        <v>115.351</v>
       </c>
       <c r="H104" t="n">
-        <v>0.023138529</v>
+        <v>0.023070229</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -8488,25 +8488,25 @@
         <v>63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9933781374066903</v>
+        <v>0.9943510137388091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00205098054553995</v>
+        <v>0.004575055152978852</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5981446834464457</v>
+        <v>-0.5970863784477247</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003709830379429907</v>
+        <v>0.005906665907467721</v>
       </c>
       <c r="F105" t="n">
         <v>63</v>
       </c>
       <c r="G105" t="n">
-        <v>115.323</v>
+        <v>115.447</v>
       </c>
       <c r="H105" t="n">
-        <v>0.023064556</v>
+        <v>0.023089376</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -8519,25 +8519,25 @@
         <v>63</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9935827897740317</v>
+        <v>0.9942926483548257</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004152092784849141</v>
+        <v>0.004453306542905417</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5980415187920478</v>
+        <v>-0.597142226360595</v>
       </c>
       <c r="E106" t="n">
-        <v>0.007335163400005551</v>
+        <v>0.006198029163385935</v>
       </c>
       <c r="F106" t="n">
         <v>63</v>
       </c>
       <c r="G106" t="n">
-        <v>115.886</v>
+        <v>115.264</v>
       </c>
       <c r="H106" t="n">
-        <v>0.023177237</v>
+        <v>0.023052821</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -8550,25 +8550,25 @@
         <v>63</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9936036620381783</v>
+        <v>0.9944590423837842</v>
       </c>
       <c r="C107" t="n">
-        <v>0.003191712003945802</v>
+        <v>0.005157415741780886</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5978125213384526</v>
+        <v>-0.597071998626868</v>
       </c>
       <c r="E107" t="n">
-        <v>0.004909480000741939</v>
+        <v>0.008329425739637198</v>
       </c>
       <c r="F107" t="n">
         <v>63</v>
       </c>
       <c r="G107" t="n">
-        <v>115.264</v>
+        <v>115.886</v>
       </c>
       <c r="H107" t="n">
-        <v>0.023052821</v>
+        <v>0.023177237</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -8581,25 +8581,25 @@
         <v>63</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9933423866862273</v>
+        <v>0.9938830985744908</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002105328961952996</v>
+        <v>0.002926454872046902</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5981384246568551</v>
+        <v>-0.5977550400612124</v>
       </c>
       <c r="E108" t="n">
-        <v>0.006313112995580744</v>
+        <v>0.003978963823919161</v>
       </c>
       <c r="F108" t="n">
         <v>63</v>
       </c>
       <c r="G108" t="n">
-        <v>115.091</v>
+        <v>115.323</v>
       </c>
       <c r="H108" t="n">
-        <v>0.023018107</v>
+        <v>0.023064556</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -8612,25 +8612,25 @@
         <v>63</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9935934494081695</v>
+        <v>0.993996073970748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.002877934049586875</v>
+        <v>0.00311724582444718</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5978748310729722</v>
+        <v>-0.5976911990363138</v>
       </c>
       <c r="E109" t="n">
-        <v>0.00452962797225895</v>
+        <v>0.005293056480448713</v>
       </c>
       <c r="F109" t="n">
         <v>63</v>
       </c>
       <c r="G109" t="n">
-        <v>115.447</v>
+        <v>115.693</v>
       </c>
       <c r="H109" t="n">
-        <v>0.023089376</v>
+        <v>0.023138529</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -8643,25 +8643,25 @@
         <v>63</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9937549306925911</v>
+        <v>0.9935461577843577</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003826416788780783</v>
+        <v>0.001831817407153226</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5975195251815286</v>
+        <v>-0.598307882922839</v>
       </c>
       <c r="E110" t="n">
-        <v>0.00491435339585665</v>
+        <v>0.004103717028462928</v>
       </c>
       <c r="F110" t="n">
         <v>63</v>
       </c>
       <c r="G110" t="n">
-        <v>115.351</v>
+        <v>115.436</v>
       </c>
       <c r="H110" t="n">
-        <v>0.023070229</v>
+        <v>0.023087275</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -8674,25 +8674,25 @@
         <v>63</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9934439517748848</v>
+        <v>0.9939434667755147</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001405665587211837</v>
+        <v>0.003653134965881874</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.5980365085361097</v>
+        <v>-0.5976971218334075</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005643386462890524</v>
+        <v>0.005851187114788707</v>
       </c>
       <c r="F111" t="n">
         <v>63</v>
       </c>
       <c r="G111" t="n">
-        <v>115.138</v>
+        <v>115.251</v>
       </c>
       <c r="H111" t="n">
-        <v>0.023027636</v>
+        <v>0.02305018</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -8705,25 +8705,25 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9773672385081553</v>
+        <v>0.976496140086431</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003294373029015147</v>
+        <v>0.002855034786768541</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7593085485459579</v>
+        <v>-0.7602017360284696</v>
       </c>
       <c r="E112" t="n">
-        <v>0.006691981182174617</v>
+        <v>0.005062927252179292</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>119.647</v>
+        <v>119.119</v>
       </c>
       <c r="H112" t="n">
-        <v>0.023929451</v>
+        <v>0.023823831</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -8736,25 +8736,25 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9770568942983117</v>
+        <v>0.9772793926524992</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002072707229520107</v>
+        <v>0.002298462385526022</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.759585253980573</v>
+        <v>-0.75940482596714</v>
       </c>
       <c r="E113" t="n">
-        <v>0.004651844801420861</v>
+        <v>0.003592495276380842</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
       </c>
       <c r="G113" t="n">
-        <v>119.4</v>
+        <v>119.12</v>
       </c>
       <c r="H113" t="n">
-        <v>0.023879923</v>
+        <v>0.023823957</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -8767,25 +8767,25 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9773330043392641</v>
+        <v>0.9770412320295218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002836039237254087</v>
+        <v>0.002123584633633482</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7591769772539516</v>
+        <v>-0.7595893450976803</v>
       </c>
       <c r="E114" t="n">
-        <v>0.003795801339719317</v>
+        <v>0.003804609059658195</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
       </c>
       <c r="G114" t="n">
-        <v>119.415</v>
+        <v>118.99</v>
       </c>
       <c r="H114" t="n">
-        <v>0.023883058</v>
+        <v>0.023798007</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -8798,25 +8798,25 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9769173494484292</v>
+        <v>0.9776792250672337</v>
       </c>
       <c r="C115" t="n">
-        <v>0.00213501599795046</v>
+        <v>0.003210387415244089</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7596610019744823</v>
+        <v>-0.7588672876817322</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004103977969473237</v>
+        <v>0.00423258127639447</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
       </c>
       <c r="G115" t="n">
-        <v>119.144</v>
+        <v>118.982</v>
       </c>
       <c r="H115" t="n">
-        <v>0.023828851</v>
+        <v>0.023796364</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -8829,25 +8829,25 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9770330603042341</v>
+        <v>0.977264325783747</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001370472485305246</v>
+        <v>0.002108831940075859</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.759581936355807</v>
+        <v>-0.7592925282587082</v>
       </c>
       <c r="E116" t="n">
-        <v>0.003664989895547963</v>
+        <v>0.00316846531950267</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>119.028</v>
+        <v>119.127</v>
       </c>
       <c r="H116" t="n">
-        <v>0.023805565</v>
+        <v>0.023825362</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -8860,25 +8860,25 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9770670757599457</v>
+        <v>0.9771757691242559</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002053003590165794</v>
+        <v>0.001595278247850214</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.7594534350453275</v>
+        <v>-0.759467197854363</v>
       </c>
       <c r="E117" t="n">
-        <v>0.003325854057400744</v>
+        <v>0.002454842634962154</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
       </c>
       <c r="G117" t="n">
-        <v>119.127</v>
+        <v>119.028</v>
       </c>
       <c r="H117" t="n">
-        <v>0.023825362</v>
+        <v>0.023805565</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -8891,25 +8891,25 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.97727855335486</v>
+        <v>0.976880099216017</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002636659902731799</v>
+        <v>0.001967682073466924</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7592575880647487</v>
+        <v>-0.7597501588892772</v>
       </c>
       <c r="E118" t="n">
-        <v>0.004223077677804035</v>
+        <v>0.00334317780060153</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
       </c>
       <c r="G118" t="n">
-        <v>118.982</v>
+        <v>119.144</v>
       </c>
       <c r="H118" t="n">
-        <v>0.023796364</v>
+        <v>0.023828851</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -8922,25 +8922,25 @@
         <v>80</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9769568755602309</v>
+        <v>0.9774698177707487</v>
       </c>
       <c r="C119" t="n">
-        <v>0.002139128627937573</v>
+        <v>0.002591407432822546</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7596334843516139</v>
+        <v>-0.7590793233862385</v>
       </c>
       <c r="E119" t="n">
-        <v>0.004986443537330014</v>
+        <v>0.003731608165210109</v>
       </c>
       <c r="F119" t="n">
         <v>80</v>
       </c>
       <c r="G119" t="n">
-        <v>118.99</v>
+        <v>119.415</v>
       </c>
       <c r="H119" t="n">
-        <v>0.023798007</v>
+        <v>0.023883058</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -8953,25 +8953,25 @@
         <v>80</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9770935386965248</v>
+        <v>0.9773777377782764</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002113526462711266</v>
+        <v>0.002509077375338799</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.759547912043562</v>
+        <v>-0.7592754993932411</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00499431808539512</v>
+        <v>0.003694400847280154</v>
       </c>
       <c r="F120" t="n">
         <v>80</v>
       </c>
       <c r="G120" t="n">
-        <v>119.12</v>
+        <v>119.4</v>
       </c>
       <c r="H120" t="n">
-        <v>0.023823957</v>
+        <v>0.023879923</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -8984,25 +8984,25 @@
         <v>80</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9768438386094048</v>
+        <v>0.977132219697786</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003046978857094563</v>
+        <v>0.003255716620761533</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.759756260959787</v>
+        <v>-0.7596292363509924</v>
       </c>
       <c r="E121" t="n">
-        <v>0.006261351621934206</v>
+        <v>0.005767047503487042</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>119.119</v>
+        <v>119.647</v>
       </c>
       <c r="H121" t="n">
-        <v>0.023823831</v>
+        <v>0.023929451</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -9015,25 +9015,25 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9536723628860881</v>
+        <v>0.952835204003287</v>
       </c>
       <c r="C122" t="n">
-        <v>0.002857554212102793</v>
+        <v>0.003873431596101744</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9492785644020838</v>
+        <v>-0.9500188749385403</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004493848113827721</v>
+        <v>0.004332580265925076</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>122.844</v>
+        <v>123.39</v>
       </c>
       <c r="H122" t="n">
-        <v>0.024568704</v>
+        <v>0.024677904</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -9046,25 +9046,25 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9535492386192076</v>
+        <v>0.9538901949936344</v>
       </c>
       <c r="C123" t="n">
-        <v>0.00263486033775006</v>
+        <v>0.002585285132760562</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9493832113946539</v>
+        <v>-0.9491429471997908</v>
       </c>
       <c r="E123" t="n">
-        <v>0.003464359251056624</v>
+        <v>0.002728547953282314</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>122.676</v>
+        <v>122.736</v>
       </c>
       <c r="H123" t="n">
-        <v>0.024535121</v>
+        <v>0.024547108</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -9077,25 +9077,25 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9534044362429831</v>
+        <v>0.9539330808202905</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00189587253096481</v>
+        <v>0.002945578975113296</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9495076592831753</v>
+        <v>-0.9491564302578315</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004611437809791574</v>
+        <v>0.003480736729177546</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>122.769</v>
+        <v>123.387</v>
       </c>
       <c r="H124" t="n">
-        <v>0.024553701</v>
+        <v>0.024677443</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -9108,25 +9108,25 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9534107461763913</v>
+        <v>0.9532664419925558</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001812366701951643</v>
+        <v>0.001893271932260457</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9494685326768035</v>
+        <v>-0.9496571179323254</v>
       </c>
       <c r="E125" t="n">
-        <v>0.00400470483723883</v>
+        <v>0.002385315497673422</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>122.777</v>
+        <v>122.94</v>
       </c>
       <c r="H125" t="n">
-        <v>0.024555325</v>
+        <v>0.024587957</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -9139,25 +9139,25 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9532681850557833</v>
+        <v>0.9531039332102981</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003937734266115979</v>
+        <v>0.001790550129442137</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9496383074775885</v>
+        <v>-0.9498168403947123</v>
       </c>
       <c r="E126" t="n">
-        <v>0.00650869783947002</v>
+        <v>0.002396336055970608</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>122.848</v>
+        <v>122.966</v>
       </c>
       <c r="H126" t="n">
-        <v>0.024569623</v>
+        <v>0.024593212</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -9170,25 +9170,25 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9534028579313125</v>
+        <v>0.9537250651154463</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001675625735045636</v>
+        <v>0.002299525926997527</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9495127837432378</v>
+        <v>-0.9492472185373213</v>
       </c>
       <c r="E127" t="n">
-        <v>0.003867806535743219</v>
+        <v>0.002478349523181519</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>122.94</v>
+        <v>122.777</v>
       </c>
       <c r="H127" t="n">
-        <v>0.024587957</v>
+        <v>0.024555325</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -9201,25 +9201,25 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9536685637054445</v>
+        <v>0.9534665326893835</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00279542117693702</v>
+        <v>0.001834993207715379</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9493191458279178</v>
+        <v>-0.9495101185182167</v>
       </c>
       <c r="E128" t="n">
-        <v>0.004234939253192484</v>
+        <v>0.002671931595895467</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>123.387</v>
+        <v>122.769</v>
       </c>
       <c r="H128" t="n">
-        <v>0.024677443</v>
+        <v>0.024553701</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -9232,25 +9232,25 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9532834765341595</v>
+        <v>0.9530257886449571</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001930185144422259</v>
+        <v>0.003873407886520117</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9496468352985374</v>
+        <v>-0.9498801016630445</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004536224563268814</v>
+        <v>0.004866752972496316</v>
       </c>
       <c r="F129" t="n">
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>122.966</v>
+        <v>122.848</v>
       </c>
       <c r="H129" t="n">
-        <v>0.024593212</v>
+        <v>0.024569623</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -9263,25 +9263,25 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9535609607676158</v>
+        <v>0.9537091168123721</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002086040921758431</v>
+        <v>0.002488703321096372</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.949367302335137</v>
+        <v>-0.9492894734206061</v>
       </c>
       <c r="E130" t="n">
-        <v>0.003461517437083749</v>
+        <v>0.002835119772846961</v>
       </c>
       <c r="F130" t="n">
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>122.736</v>
+        <v>122.676</v>
       </c>
       <c r="H130" t="n">
-        <v>0.024547108</v>
+        <v>0.024535121</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -9294,25 +9294,25 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9532003957519999</v>
+        <v>0.9541296511929237</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00354551107525869</v>
+        <v>0.00352052019405556</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9496868314370346</v>
+        <v>-0.9489298025605883</v>
       </c>
       <c r="E131" t="n">
-        <v>0.005313167506045736</v>
+        <v>0.003721451553624241</v>
       </c>
       <c r="F131" t="n">
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>123.39</v>
+        <v>122.844</v>
       </c>
       <c r="H131" t="n">
-        <v>0.024677904</v>
+        <v>0.024568704</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -9325,25 +9325,25 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9162213966211225</v>
+        <v>0.9161959483144212</v>
       </c>
       <c r="C132" t="n">
-        <v>0.002103105476014987</v>
+        <v>0.003392895574455821</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.186775480540248</v>
+        <v>-1.186773062639309</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004292683278605573</v>
+        <v>0.00334335803521617</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
       </c>
       <c r="G132" t="n">
-        <v>124.849</v>
+        <v>124.888</v>
       </c>
       <c r="H132" t="n">
-        <v>0.024969882</v>
+        <v>0.02497762</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -9356,25 +9356,25 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9163323517659354</v>
+        <v>0.916333622678056</v>
       </c>
       <c r="C133" t="n">
-        <v>0.002008469913425571</v>
+        <v>0.00157308392351989</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.186816241052611</v>
+        <v>-1.186701620199536</v>
       </c>
       <c r="E133" t="n">
-        <v>0.004013403993813464</v>
+        <v>0.001586176754005291</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
       </c>
       <c r="G133" t="n">
-        <v>125.565</v>
+        <v>124.811</v>
       </c>
       <c r="H133" t="n">
-        <v>0.025113098</v>
+        <v>0.02496217</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -9387,25 +9387,25 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9163454239379402</v>
+        <v>0.9162484054918366</v>
       </c>
       <c r="C134" t="n">
-        <v>0.00276096699108088</v>
+        <v>0.002580845846603492</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.186676043609464</v>
+        <v>-1.186780988970187</v>
       </c>
       <c r="E134" t="n">
-        <v>0.003577129038985786</v>
+        <v>0.002384775009633334</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
       </c>
       <c r="G134" t="n">
-        <v>125.114</v>
+        <v>125.483</v>
       </c>
       <c r="H134" t="n">
-        <v>0.025022711</v>
+        <v>0.025096507</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -9418,25 +9418,25 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.915928676409543</v>
+        <v>0.9163709886390076</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004472782830740636</v>
+        <v>0.001271456553351721</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.186934717196241</v>
+        <v>-1.186710365962002</v>
       </c>
       <c r="E135" t="n">
-        <v>0.006839556890833488</v>
+        <v>0.001496902258416641</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
       </c>
       <c r="G135" t="n">
-        <v>124.745</v>
+        <v>124.848</v>
       </c>
       <c r="H135" t="n">
-        <v>0.024949005</v>
+        <v>0.024969691</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -9449,25 +9449,25 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.916260014249355</v>
+        <v>0.9161709685855326</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0007473844244847192</v>
+        <v>0.001623788431388811</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.186717791636594</v>
+        <v>-1.186820647904797</v>
       </c>
       <c r="E136" t="n">
-        <v>0.004106913895196757</v>
+        <v>0.001648898330839087</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
       </c>
       <c r="G136" t="n">
-        <v>124.705</v>
+        <v>124.719</v>
       </c>
       <c r="H136" t="n">
-        <v>0.024941045</v>
+        <v>0.024943833</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -9480,25 +9480,25 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9161366082827184</v>
+        <v>0.9161802403790318</v>
       </c>
       <c r="C137" t="n">
-        <v>0.00170426033094136</v>
+        <v>0.0007967290817473758</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.186819929194208</v>
+        <v>-1.186774132225347</v>
       </c>
       <c r="E137" t="n">
-        <v>0.004252764777256626</v>
+        <v>0.001043381267189409</v>
       </c>
       <c r="F137" t="n">
         <v>125</v>
       </c>
       <c r="G137" t="n">
-        <v>124.719</v>
+        <v>124.705</v>
       </c>
       <c r="H137" t="n">
-        <v>0.024943833</v>
+        <v>0.024941045</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -9511,25 +9511,25 @@
         <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.91630448418494</v>
+        <v>0.9156005847838052</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001250669318780569</v>
+        <v>0.004317784767575751</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.186727544668891</v>
+        <v>-1.187158541512341</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004143759149508187</v>
+        <v>0.004226891150804468</v>
       </c>
       <c r="F138" t="n">
         <v>125</v>
       </c>
       <c r="G138" t="n">
-        <v>124.848</v>
+        <v>124.745</v>
       </c>
       <c r="H138" t="n">
-        <v>0.024969691</v>
+        <v>0.024949005</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -9542,25 +9542,25 @@
         <v>125</v>
       </c>
       <c r="B139" t="n">
-        <v>0.916460794597816</v>
+        <v>0.9164746491661087</v>
       </c>
       <c r="C139" t="n">
-        <v>0.002194635398780813</v>
+        <v>0.002620327193440102</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.186623335950459</v>
+        <v>-1.186624936693005</v>
       </c>
       <c r="E139" t="n">
-        <v>0.003831264963876578</v>
+        <v>0.002447437681520747</v>
       </c>
       <c r="F139" t="n">
         <v>125</v>
       </c>
       <c r="G139" t="n">
-        <v>125.483</v>
+        <v>125.114</v>
       </c>
       <c r="H139" t="n">
-        <v>0.025096507</v>
+        <v>0.025022711</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -9573,25 +9573,25 @@
         <v>125</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9162872784285629</v>
+        <v>0.9161927095137331</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001596117172106522</v>
+        <v>0.002082840461689428</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.186708836520877</v>
+        <v>-1.186931408591655</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004049248008121569</v>
+        <v>0.002101995547004868</v>
       </c>
       <c r="F140" t="n">
         <v>125</v>
       </c>
       <c r="G140" t="n">
-        <v>124.811</v>
+        <v>125.565</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02496217</v>
+        <v>0.025113098</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -9604,25 +9604,25 @@
         <v>125</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9163041784892635</v>
+        <v>0.9165779630276262</v>
       </c>
       <c r="C141" t="n">
-        <v>0.003502261441275344</v>
+        <v>0.002758622988913007</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.186687245420016</v>
+        <v>-1.186580235218716</v>
       </c>
       <c r="E141" t="n">
-        <v>0.005741075962155592</v>
+        <v>0.002211429058380542</v>
       </c>
       <c r="F141" t="n">
         <v>125</v>
       </c>
       <c r="G141" t="n">
-        <v>124.888</v>
+        <v>124.849</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02497762</v>
+        <v>0.024969882</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -9635,25 +9635,25 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8537130685920172</v>
+        <v>0.8540664710598472</v>
       </c>
       <c r="C142" t="n">
-        <v>0.002333927511534691</v>
+        <v>0.001542759105635947</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518957263416644</v>
+        <v>-1.518727038605024</v>
       </c>
       <c r="E142" t="n">
-        <v>0.005038231598606383</v>
+        <v>0.001467534337048641</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
       </c>
       <c r="G142" t="n">
-        <v>126.716</v>
+        <v>126.517</v>
       </c>
       <c r="H142" t="n">
-        <v>0.025343238</v>
+        <v>0.025303425</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -9666,25 +9666,25 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8537475791945858</v>
+        <v>0.8538077921184046</v>
       </c>
       <c r="C143" t="n">
-        <v>0.001667926434727842</v>
+        <v>0.002393332709695696</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.518925185425918</v>
+        <v>-1.518904461856806</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004705791011161697</v>
+        <v>0.002233161178730343</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
       </c>
       <c r="G143" t="n">
-        <v>126.52</v>
+        <v>126.726</v>
       </c>
       <c r="H143" t="n">
-        <v>0.025304013</v>
+        <v>0.025345273</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -9697,25 +9697,25 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8537989210170074</v>
+        <v>0.853751444335992</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001660420122817111</v>
+        <v>0.002112925860926384</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.51890494335703</v>
+        <v>-1.518925884532245</v>
       </c>
       <c r="E144" t="n">
-        <v>0.00520023830833857</v>
+        <v>0.001780205997926938</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
       </c>
       <c r="G144" t="n">
-        <v>126.848</v>
+        <v>127.033</v>
       </c>
       <c r="H144" t="n">
-        <v>0.025369601</v>
+        <v>0.025406507</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -9728,25 +9728,25 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8539377986780431</v>
+        <v>0.8539045660047971</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001475448994753232</v>
+        <v>0.00162656558085253</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518845534123379</v>
+        <v>-1.518819918207938</v>
       </c>
       <c r="E145" t="n">
-        <v>0.004003344741634929</v>
+        <v>0.001703073843978293</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
       </c>
       <c r="G145" t="n">
-        <v>127.202</v>
+        <v>126.754</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02544031</v>
+        <v>0.025350843</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -9759,25 +9759,25 @@
         <v>160</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8537548058901007</v>
+        <v>0.8534848452334569</v>
       </c>
       <c r="C146" t="n">
-        <v>0.001245126483056715</v>
+        <v>0.002295354905862594</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.51890956804284</v>
+        <v>-1.519087181449516</v>
       </c>
       <c r="E146" t="n">
-        <v>0.004834789713021865</v>
+        <v>0.002091765282029701</v>
       </c>
       <c r="F146" t="n">
         <v>160</v>
       </c>
       <c r="G146" t="n">
-        <v>126.625</v>
+        <v>126.622</v>
       </c>
       <c r="H146" t="n">
-        <v>0.025324908</v>
+        <v>0.025324415</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -9790,25 +9790,25 @@
         <v>160</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8538721941565603</v>
+        <v>0.8540196889231098</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001792310428179335</v>
+        <v>0.001512282544325826</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.518855341387469</v>
+        <v>-1.518758754548577</v>
       </c>
       <c r="E147" t="n">
-        <v>0.004253984988319569</v>
+        <v>0.001522579243566783</v>
       </c>
       <c r="F147" t="n">
         <v>160</v>
       </c>
       <c r="G147" t="n">
-        <v>126.754</v>
+        <v>127.202</v>
       </c>
       <c r="H147" t="n">
-        <v>0.025350843</v>
+        <v>0.02544031</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -9821,25 +9821,25 @@
         <v>160</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8537185518354052</v>
+        <v>0.8537275993475835</v>
       </c>
       <c r="C148" t="n">
-        <v>0.002141531382027174</v>
+        <v>0.001628807617440066</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.518985094083956</v>
+        <v>-1.518931350802526</v>
       </c>
       <c r="E148" t="n">
-        <v>0.005242758785864926</v>
+        <v>0.001523422752610095</v>
       </c>
       <c r="F148" t="n">
         <v>160</v>
       </c>
       <c r="G148" t="n">
-        <v>127.033</v>
+        <v>126.848</v>
       </c>
       <c r="H148" t="n">
-        <v>0.025406507</v>
+        <v>0.025369601</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -9852,25 +9852,25 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8535673914642806</v>
+        <v>0.8539019817307391</v>
       </c>
       <c r="C149" t="n">
-        <v>0.002304711307315401</v>
+        <v>0.001534511180430807</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.519042507573966</v>
+        <v>-1.518823543825993</v>
       </c>
       <c r="E149" t="n">
-        <v>0.005919520811857319</v>
+        <v>0.001586237453220688</v>
       </c>
       <c r="F149" t="n">
         <v>160</v>
       </c>
       <c r="G149" t="n">
-        <v>126.622</v>
+        <v>126.52</v>
       </c>
       <c r="H149" t="n">
-        <v>0.025324415</v>
+        <v>0.025304013</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -9883,25 +9883,25 @@
         <v>160</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8538580717666445</v>
+        <v>0.8537166402900869</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001513108938634076</v>
+        <v>0.002196010453649702</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.518856152148558</v>
+        <v>-1.518937567689745</v>
       </c>
       <c r="E150" t="n">
-        <v>0.004518998936653497</v>
+        <v>0.002234983390651338</v>
       </c>
       <c r="F150" t="n">
         <v>160</v>
       </c>
       <c r="G150" t="n">
-        <v>126.517</v>
+        <v>126.716</v>
       </c>
       <c r="H150" t="n">
-        <v>0.025303425</v>
+        <v>0.025343238</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -9914,25 +9914,25 @@
         <v>160</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8538393931909605</v>
+        <v>0.8538386783932411</v>
       </c>
       <c r="C151" t="n">
-        <v>0.002602019510316377</v>
+        <v>0.001255851242978765</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.518891076841971</v>
+        <v>-1.518838544036293</v>
       </c>
       <c r="E151" t="n">
-        <v>0.005865772468171948</v>
+        <v>0.00133548853390024</v>
       </c>
       <c r="F151" t="n">
         <v>160</v>
       </c>
       <c r="G151" t="n">
-        <v>126.726</v>
+        <v>126.625</v>
       </c>
       <c r="H151" t="n">
-        <v>0.025345273</v>
+        <v>0.025324908</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -9945,25 +9945,25 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.767973392627754</v>
+        <v>0.76774626200166</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001547879424923332</v>
+        <v>0.001243945519867335</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.898711674283948</v>
+        <v>-1.898878061643849</v>
       </c>
       <c r="E152" t="n">
-        <v>0.005764819488127598</v>
+        <v>0.001404387150902915</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
       </c>
       <c r="G152" t="n">
-        <v>126.591</v>
+        <v>126.547</v>
       </c>
       <c r="H152" t="n">
-        <v>0.025318225</v>
+        <v>0.025309323</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -9976,25 +9976,25 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7677026025888861</v>
+        <v>0.7674007994372982</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002281667845805054</v>
+        <v>0.002123758542342436</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.898889341178682</v>
+        <v>-1.899080665398786</v>
       </c>
       <c r="E153" t="n">
-        <v>0.007073704800521513</v>
+        <v>0.001796712524865338</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>126.722</v>
+        <v>126.436</v>
       </c>
       <c r="H153" t="n">
-        <v>0.025344364</v>
+        <v>0.025287156</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -10007,25 +10007,25 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7678374399053182</v>
+        <v>0.7678182702325892</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001713058623123475</v>
+        <v>0.0008601235613632995</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.898824822448728</v>
+        <v>-1.898816833625994</v>
       </c>
       <c r="E154" t="n">
-        <v>0.006015613213404627</v>
+        <v>0.001058605468619985</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
       </c>
       <c r="G154" t="n">
-        <v>126.703</v>
+        <v>126.347</v>
       </c>
       <c r="H154" t="n">
-        <v>0.025340616</v>
+        <v>0.025269313</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -10038,25 +10038,25 @@
         <v>200</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7677936052828351</v>
+        <v>0.7675176941755193</v>
       </c>
       <c r="C155" t="n">
-        <v>0.001012722093059642</v>
+        <v>0.001992928059122261</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.898817535608363</v>
+        <v>-1.899003934365898</v>
       </c>
       <c r="E155" t="n">
-        <v>0.006199084543365822</v>
+        <v>0.001666186245253762</v>
       </c>
       <c r="F155" t="n">
         <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>126.179</v>
+        <v>127.047</v>
       </c>
       <c r="H155" t="n">
-        <v>0.025235848</v>
+        <v>0.025409471</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -10069,25 +10069,25 @@
         <v>200</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7676201914460895</v>
+        <v>0.7673586675447344</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00276331226970383</v>
+        <v>0.001952833231211985</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.898937768017423</v>
+        <v>-1.899057307546973</v>
       </c>
       <c r="E156" t="n">
-        <v>0.007245890773101298</v>
+        <v>0.001692019737089502</v>
       </c>
       <c r="F156" t="n">
         <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>126.634</v>
+        <v>126.345</v>
       </c>
       <c r="H156" t="n">
-        <v>0.02532687</v>
+        <v>0.025268999</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -10100,25 +10100,25 @@
         <v>200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7677853849835301</v>
+        <v>0.7677624394224872</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001810771245515849</v>
+        <v>0.0009110532213234339</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.898862027733254</v>
+        <v>-1.898836092833925</v>
       </c>
       <c r="E157" t="n">
-        <v>0.005909774464973042</v>
+        <v>0.001184120961817424</v>
       </c>
       <c r="F157" t="n">
         <v>200</v>
       </c>
       <c r="G157" t="n">
-        <v>127.047</v>
+        <v>126.179</v>
       </c>
       <c r="H157" t="n">
-        <v>0.025409471</v>
+        <v>0.025235848</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -10131,25 +10131,25 @@
         <v>200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7678341837214102</v>
+        <v>0.7677683733378668</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0009052508237622919</v>
+        <v>0.001494454718159408</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.89880612821479</v>
+        <v>-1.898864387823961</v>
       </c>
       <c r="E158" t="n">
-        <v>0.005927488390928566</v>
+        <v>0.001583394665957081</v>
       </c>
       <c r="F158" t="n">
         <v>200</v>
       </c>
       <c r="G158" t="n">
-        <v>126.347</v>
+        <v>126.703</v>
       </c>
       <c r="H158" t="n">
-        <v>0.025269313</v>
+        <v>0.025340616</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -10162,25 +10162,25 @@
         <v>200</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7676848333054214</v>
+        <v>0.7674482686022198</v>
       </c>
       <c r="C159" t="n">
-        <v>0.001532421157521543</v>
+        <v>0.002409760303162789</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.898865848605849</v>
+        <v>-1.899042664673275</v>
       </c>
       <c r="E159" t="n">
-        <v>0.006601104405607319</v>
+        <v>0.002230262151081557</v>
       </c>
       <c r="F159" t="n">
         <v>200</v>
       </c>
       <c r="G159" t="n">
-        <v>126.345</v>
+        <v>126.722</v>
       </c>
       <c r="H159" t="n">
-        <v>0.025268999</v>
+        <v>0.025344364</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -10193,25 +10193,25 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7676011884255919</v>
+        <v>0.7682038651522488</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001988281313519</v>
+        <v>0.001786309723362741</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.898951906504367</v>
+        <v>-1.898589827761933</v>
       </c>
       <c r="E160" t="n">
-        <v>0.006577764863504075</v>
+        <v>0.001520103519535235</v>
       </c>
       <c r="F160" t="n">
         <v>200</v>
       </c>
       <c r="G160" t="n">
-        <v>126.436</v>
+        <v>126.591</v>
       </c>
       <c r="H160" t="n">
-        <v>0.025287156</v>
+        <v>0.025318225</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -10224,25 +10224,25 @@
         <v>200</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7678369504370306</v>
+        <v>0.7672834720240541</v>
       </c>
       <c r="C161" t="n">
-        <v>0.001209695568053307</v>
+        <v>0.00296731269902812</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.898817295384235</v>
+        <v>-1.89914176301677</v>
       </c>
       <c r="E161" t="n">
-        <v>0.005722062779269903</v>
+        <v>0.00250971414411737</v>
       </c>
       <c r="F161" t="n">
         <v>200</v>
       </c>
       <c r="G161" t="n">
-        <v>126.547</v>
+        <v>126.634</v>
       </c>
       <c r="H161" t="n">
-        <v>0.025309323</v>
+        <v>0.02532687</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -10255,25 +10255,25 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6438159094278254</v>
+        <v>0.6439495957148142</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001209877455052989</v>
+        <v>0.001494460295682958</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.373469497947217</v>
+        <v>-2.373392370945519</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0080199974252394</v>
+        <v>0.001578049107048324</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
       </c>
       <c r="G162" t="n">
-        <v>126.107</v>
+        <v>125.757</v>
       </c>
       <c r="H162" t="n">
-        <v>0.025221348</v>
+        <v>0.025151493</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -10286,25 +10286,25 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6439481886385021</v>
+        <v>0.643647877621464</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001068376881290346</v>
+        <v>0.001330767763937959</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.373366263687108</v>
+        <v>-2.373597696771729</v>
       </c>
       <c r="E163" t="n">
-        <v>0.007454844843179788</v>
+        <v>0.001571001824718288</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
       </c>
       <c r="G163" t="n">
-        <v>126.001</v>
+        <v>126.107</v>
       </c>
       <c r="H163" t="n">
-        <v>0.02520023</v>
+        <v>0.025221348</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -10317,25 +10317,25 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6439261660267577</v>
+        <v>0.644136441947274</v>
       </c>
       <c r="C164" t="n">
-        <v>0.002109836945314549</v>
+        <v>0.001292722958397157</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.373405029794463</v>
+        <v>-2.37325950540645</v>
       </c>
       <c r="E164" t="n">
-        <v>0.007242463194647093</v>
+        <v>0.001480105326754935</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
       </c>
       <c r="G164" t="n">
-        <v>125.886</v>
+        <v>126.001</v>
       </c>
       <c r="H164" t="n">
-        <v>0.025177128</v>
+        <v>0.02520023</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -10348,25 +10348,25 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6438827793194887</v>
+        <v>0.644298778778711</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001898897928988318</v>
+        <v>0.002559571885455578</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.373431931787326</v>
+        <v>-2.373180416349297</v>
       </c>
       <c r="E165" t="n">
-        <v>0.007226818348886299</v>
+        <v>0.002315092903704753</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
       </c>
       <c r="G165" t="n">
-        <v>125.958</v>
+        <v>125.886</v>
       </c>
       <c r="H165" t="n">
-        <v>0.025191638</v>
+        <v>0.025177128</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -10379,25 +10379,25 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6439220732926512</v>
+        <v>0.6438666362961364</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00189988428110082</v>
+        <v>0.00174789059171001</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.373399782437906</v>
+        <v>-2.373449453611761</v>
       </c>
       <c r="E166" t="n">
-        <v>0.008129548810449201</v>
+        <v>0.001918496511894563</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>125.973</v>
+        <v>125.958</v>
       </c>
       <c r="H166" t="n">
-        <v>0.025194517</v>
+        <v>0.025191638</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -10410,25 +10410,25 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6439087386699857</v>
+        <v>0.6439375518524958</v>
       </c>
       <c r="C167" t="n">
-        <v>0.001019569437216613</v>
+        <v>0.001803478170396795</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.373413784479109</v>
+        <v>-2.373395375307986</v>
       </c>
       <c r="E167" t="n">
-        <v>0.007331118610537532</v>
+        <v>0.002096893840901229</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
       </c>
       <c r="G167" t="n">
-        <v>126.246</v>
+        <v>125.973</v>
       </c>
       <c r="H167" t="n">
-        <v>0.025249135</v>
+        <v>0.025194517</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -10441,25 +10441,25 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6438832706049067</v>
+        <v>0.6437934038996345</v>
       </c>
       <c r="C168" t="n">
-        <v>0.00165124533711729</v>
+        <v>0.00114285237459502</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.373423819147928</v>
+        <v>-2.373483785676584</v>
       </c>
       <c r="E168" t="n">
-        <v>0.006668073053671286</v>
+        <v>0.001479318219216294</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
       </c>
       <c r="G168" t="n">
-        <v>126.356</v>
+        <v>126.246</v>
       </c>
       <c r="H168" t="n">
-        <v>0.025271213</v>
+        <v>0.025249135</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -10472,25 +10472,25 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6440422111847639</v>
+        <v>0.6438774804572911</v>
       </c>
       <c r="C169" t="n">
-        <v>0.001829084647955733</v>
+        <v>0.001514294878484339</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.373321658998223</v>
+        <v>-2.373437763512482</v>
       </c>
       <c r="E169" t="n">
-        <v>0.006898812451600783</v>
+        <v>0.0017886046419506</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
       </c>
       <c r="G169" t="n">
-        <v>126.635</v>
+        <v>126.356</v>
       </c>
       <c r="H169" t="n">
-        <v>0.025326942</v>
+        <v>0.025271213</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -10503,25 +10503,25 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6438503975612681</v>
+        <v>0.6440538802373571</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001452954063663897</v>
+        <v>0.001722506386205171</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.373434322574614</v>
+        <v>-2.373321900953357</v>
       </c>
       <c r="E170" t="n">
-        <v>0.007218091608104188</v>
+        <v>0.001924183900871986</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>125.757</v>
+        <v>126.635</v>
       </c>
       <c r="H170" t="n">
-        <v>0.025151493</v>
+        <v>0.025326942</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -10534,16 +10534,16 @@
         <v>250</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6439465692693739</v>
+        <v>0.6441385187123638</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0009777696881257843</v>
+        <v>0.001360858696768395</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.37338492392807</v>
+        <v>-2.373280389812181</v>
       </c>
       <c r="E171" t="n">
-        <v>0.007703397077217346</v>
+        <v>0.001433802126796865</v>
       </c>
       <c r="F171" t="n">
         <v>250</v>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -452,12 +452,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>$x_{\phi},$ [°]</t>
+          <t>$x_{\phi},$ [rad]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$U_{\phi},$ [°]</t>
+          <t>$U_{\phi},$ [rad]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5235,7 +5235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5261,30 +5261,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>$x_{\phi},$ [rad]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>$U_{\phi},$ [rad]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Excitation_freq [Hz]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>$x_{\phi},$ [°]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>$U_{\phi},$ [°]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Excitation_freq [Hz]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
@@ -5315,7 +5320,10 @@
       <c r="H2" t="n">
         <v>0.000547878</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>-0.09468368881641709</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5346,7 +5354,10 @@
       <c r="H3" t="n">
         <v>0.0005497190000000001</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>-0.09461263669183584</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5377,7 +5388,10 @@
       <c r="H4" t="n">
         <v>0.000551123</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>-0.09493052876059216</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5408,7 +5422,10 @@
       <c r="H5" t="n">
         <v>0.000551259</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>-0.09460199638093547</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5439,7 +5456,10 @@
       <c r="H6" t="n">
         <v>0.000549895</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>-0.09461164680031775</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5470,7 +5490,10 @@
       <c r="H7" t="n">
         <v>0.000550481</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>-0.0947113851968906</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5501,7 +5524,10 @@
       <c r="H8" t="n">
         <v>0.000550533</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>-0.09498309447476005</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5532,7 +5558,10 @@
       <c r="H9" t="n">
         <v>0.00054919</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>-0.09458392019252382</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5563,7 +5592,10 @@
       <c r="H10" t="n">
         <v>0.000551925</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>-0.09456147092396305</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5594,7 +5626,10 @@
       <c r="H11" t="n">
         <v>0.00055021</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>-0.09471901459374377</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5605,27 +5640,30 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.018516313126167</v>
+        <v>1.018037974265213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002900375987305232</v>
+        <v>0.004021363958810756</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1184922992798134</v>
+        <v>-0.1186007078629865</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004223488120206054</v>
+        <v>0.004516403881084933</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.755</v>
+        <v>2.761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000550957</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>0.0005521499999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1186007078629865</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5636,27 +5674,30 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.018783375294373</v>
+        <v>1.018413370767813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003923529700670683</v>
+        <v>0.003801090636467539</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1195153545433347</v>
+        <v>-0.1188698326590361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003980871428451336</v>
+        <v>0.005442275296618245</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.753</v>
+        <v>2.757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000550681</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>0.000551371</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.1188698326590361</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5667,27 +5708,30 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.017900904988349</v>
+        <v>1.018343700268765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004888293682926267</v>
+        <v>0.003964453143655546</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.118398307234427</v>
+        <v>-0.1186059136544484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004834552973868721</v>
+        <v>0.004681979998663601</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.757</v>
+        <v>2.761</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000551356</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>0.0005521429999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.1186059136544484</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5698,27 +5742,30 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.01815527775581</v>
+        <v>1.018477952815318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005084010327959773</v>
+        <v>0.002635570880354945</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1187594703689183</v>
+        <v>-0.1180289245665194</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00440951353652374</v>
+        <v>0.005000876928010161</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.753</v>
+        <v>2.757</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0005506140000000001</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>0.00055136</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.1180289245665194</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5729,27 +5776,30 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.019093297623116</v>
+        <v>1.018494187448801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003008083837759189</v>
+        <v>0.00530984915594112</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1188203516166466</v>
+        <v>-0.1190525439858523</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006454607481246742</v>
+        <v>0.006925191981711419</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.744</v>
+        <v>2.761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000548816</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>0.000552117</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.1190525439858523</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5760,27 +5810,30 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018343700268765</v>
+        <v>1.019093297623116</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003964453143655546</v>
+        <v>0.003008083837759189</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1186059136544484</v>
+        <v>-0.1188203516166466</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004681979998663601</v>
+        <v>0.006454607481246742</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.761</v>
+        <v>2.744</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0005521429999999999</v>
-      </c>
-      <c r="I17" t="inlineStr">
+        <v>0.000548816</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.1188203516166466</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5791,27 +5844,30 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.018477952815318</v>
+        <v>1.01815527775581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002635570880354945</v>
+        <v>0.005084010327959773</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1180289245665194</v>
+        <v>-0.1187594703689183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005000876928010161</v>
+        <v>0.00440951353652374</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.757</v>
+        <v>2.753</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00055136</v>
-      </c>
-      <c r="I18" t="inlineStr">
+        <v>0.0005506140000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1187594703689183</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5822,16 +5878,16 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.018413370767813</v>
+        <v>1.017900904988349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003801090636467539</v>
+        <v>0.004888293682926267</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1188698326590361</v>
+        <v>-0.118398307234427</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005442275296618245</v>
+        <v>0.004834552973868721</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
@@ -5840,9 +5896,12 @@
         <v>2.757</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000551371</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>0.000551356</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.118398307234427</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5853,27 +5912,30 @@
         <v>12.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.018037974265213</v>
+        <v>1.018783375294373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004021363958810756</v>
+        <v>0.003923529700670683</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1186007078629865</v>
+        <v>-0.1195153545433347</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004516403881084933</v>
+        <v>0.003980871428451336</v>
       </c>
       <c r="F20" t="n">
         <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.761</v>
+        <v>2.753</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0005521499999999999</v>
-      </c>
-      <c r="I20" t="inlineStr">
+        <v>0.000550681</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.1195153545433347</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5884,27 +5946,30 @@
         <v>12.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018494187448801</v>
+        <v>1.018516313126167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00530984915594112</v>
+        <v>0.002900375987305232</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1190525439858523</v>
+        <v>-0.1184922992798134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006925191981711419</v>
+        <v>0.004223488120206054</v>
       </c>
       <c r="F21" t="n">
         <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.761</v>
+        <v>2.755</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000552117</v>
-      </c>
-      <c r="I21" t="inlineStr">
+        <v>0.000550957</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.1184922992798134</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5915,27 +5980,30 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.018325530689699</v>
+        <v>1.01843940537399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004073645633316419</v>
+        <v>0.003800065894958993</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1522435997185894</v>
+        <v>-0.1519605918834235</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004719555271615341</v>
+        <v>0.004227941770197761</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>5.579</v>
+        <v>5.578</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001115731</v>
-      </c>
-      <c r="I22" t="inlineStr">
+        <v>0.001115628</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1519605918834235</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5946,27 +6014,30 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.017740064549845</v>
+        <v>1.017730243177382</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003090647901958218</v>
+        <v>0.001940541796348569</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1517500518851931</v>
+        <v>-0.1516432644978034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003976861527258027</v>
+        <v>0.002967129053751449</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>5.575</v>
+        <v>5.573</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001115018</v>
-      </c>
-      <c r="I23" t="inlineStr">
+        <v>0.001114562</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1516432644978034</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5977,27 +6048,30 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.018213012197017</v>
+        <v>1.017711034216828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003163649795984415</v>
+        <v>0.004539838697563177</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1523040484881624</v>
+        <v>-0.1521381790959864</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004008706138716321</v>
+        <v>0.005154340388982034</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>5.57</v>
+        <v>5.582</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00111397</v>
-      </c>
-      <c r="I24" t="inlineStr">
+        <v>0.001116311</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.1521381790959864</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6008,27 +6082,30 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.017669872079825</v>
+        <v>1.018575221931231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002761032464980853</v>
+        <v>0.003890918079105336</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1516284990597248</v>
+        <v>-0.1523009152981192</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003440860726251004</v>
+        <v>0.004122259438787054</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>5.573</v>
+        <v>5.567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001114655</v>
-      </c>
-      <c r="I25" t="inlineStr">
+        <v>0.001113371</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.1523009152981192</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6039,27 +6116,30 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.018381879256725</v>
+        <v>1.017924185605009</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005223860833804657</v>
+        <v>0.002287883311508676</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1523297439645124</v>
+        <v>-0.1518716401407625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005133686376421993</v>
+        <v>0.002955757907198396</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>5.546</v>
+        <v>5.578</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001109199</v>
-      </c>
-      <c r="I26" t="inlineStr">
+        <v>0.001115576</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.1518716401407625</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6070,27 +6150,30 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.017711034216828</v>
+        <v>1.018381879256725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004539838697563177</v>
+        <v>0.005223860833804657</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1521381790959864</v>
+        <v>-0.1523297439645124</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005154340388982034</v>
+        <v>0.005133686376421993</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>5.582</v>
+        <v>5.546</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001116311</v>
-      </c>
-      <c r="I27" t="inlineStr">
+        <v>0.001109199</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.1523297439645124</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6101,27 +6184,30 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.018575221931231</v>
+        <v>1.018325530689699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003890918079105336</v>
+        <v>0.004073645633316419</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1523009152981192</v>
+        <v>-0.1522435997185894</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004122259438787054</v>
+        <v>0.004719555271615341</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>5.567</v>
+        <v>5.579</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001113371</v>
-      </c>
-      <c r="I28" t="inlineStr">
+        <v>0.001115731</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.1522435997185894</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6132,16 +6218,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>1.017730243177382</v>
+        <v>1.017669872079825</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001940541796348569</v>
+        <v>0.002761032464980853</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1516432644978034</v>
+        <v>-0.1516284990597248</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002967129053751449</v>
+        <v>0.003440860726251004</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
@@ -6150,9 +6236,12 @@
         <v>5.573</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001114562</v>
-      </c>
-      <c r="I29" t="inlineStr">
+        <v>0.001114655</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.1516284990597248</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6163,27 +6252,30 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01843940537399</v>
+        <v>1.018213012197017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003800065894958993</v>
+        <v>0.003163649795984415</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1519605918834235</v>
+        <v>-0.1523040484881624</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004227941770197761</v>
+        <v>0.004008706138716321</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>5.578</v>
+        <v>5.57</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001115628</v>
-      </c>
-      <c r="I30" t="inlineStr">
+        <v>0.00111397</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.1523040484881624</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6194,27 +6286,30 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017924185605009</v>
+        <v>1.017740064549845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002287883311508676</v>
+        <v>0.003090647901958218</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1518716401407625</v>
+        <v>-0.1517500518851931</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002955757907198396</v>
+        <v>0.003976861527258027</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>5.578</v>
+        <v>5.575</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001115576</v>
-      </c>
-      <c r="I31" t="inlineStr">
+        <v>0.001115018</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.1517500518851931</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6225,27 +6320,30 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.01677167320184</v>
+        <v>1.016881802964801</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002103378256928673</v>
+        <v>0.002517404189356286</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.189423168809548</v>
+        <v>-0.1894688903953767</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004133101393506703</v>
+        <v>0.004075581928912268</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>5.586</v>
+        <v>5.596</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00111722</v>
-      </c>
-      <c r="I32" t="inlineStr">
+        <v>0.001119259</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.1894688903953767</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6256,27 +6354,30 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.016991791201618</v>
+        <v>1.016443709258752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002358273030176507</v>
+        <v>0.003505712878289714</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1901219848709348</v>
+        <v>-0.1893762681164637</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004814841353128162</v>
+        <v>0.004923809438576209</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>5.59</v>
+        <v>5.57</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00111793</v>
-      </c>
-      <c r="I33" t="inlineStr">
+        <v>0.001113944</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.1893762681164637</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6287,27 +6388,30 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.017032160321141</v>
+        <v>1.016767628922006</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002690369349173385</v>
+        <v>0.002421107806708582</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1900993259780035</v>
+        <v>-0.1899022828866734</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004969384625137245</v>
+        <v>0.004255721608728055</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>5.581</v>
+        <v>5.594</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001116173</v>
-      </c>
-      <c r="I34" t="inlineStr">
+        <v>0.001118735</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.1899022828866734</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6318,27 +6422,30 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.016476989247063</v>
+        <v>1.016683512507745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003069688421780098</v>
+        <v>0.002710059438792958</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1898097927036959</v>
+        <v>-0.1897262701136946</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005198630080698111</v>
+        <v>0.00446173349155104</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>5.593</v>
+        <v>5.592</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001118636</v>
-      </c>
-      <c r="I35" t="inlineStr">
+        <v>0.001118395</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.1897262701136946</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6349,27 +6456,30 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.016985494451034</v>
+        <v>1.016992201397093</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003333709501632135</v>
+        <v>0.002476498359863639</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1899356200044511</v>
+        <v>-0.1897733691051613</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005546110814668203</v>
+        <v>0.005335087846687372</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>5.571</v>
+        <v>5.596</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001114252</v>
-      </c>
-      <c r="I36" t="inlineStr">
+        <v>0.001119128</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.1897733691051613</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6380,27 +6490,30 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.016683512507745</v>
+        <v>1.016985494451034</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002710059438792958</v>
+        <v>0.003333709501632135</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1897262701136946</v>
+        <v>-0.1899356200044511</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00446173349155104</v>
+        <v>0.005546110814668203</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>5.592</v>
+        <v>5.571</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001118395</v>
-      </c>
-      <c r="I37" t="inlineStr">
+        <v>0.001114252</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.1899356200044511</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6411,27 +6524,30 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>1.016767628922006</v>
+        <v>1.016476989247063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002421107806708582</v>
+        <v>0.003069688421780098</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1899022828866734</v>
+        <v>-0.1898097927036959</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004255721608728055</v>
+        <v>0.005198630080698111</v>
       </c>
       <c r="F38" t="n">
         <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>5.594</v>
+        <v>5.593</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001118735</v>
-      </c>
-      <c r="I38" t="inlineStr">
+        <v>0.001118636</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.1898097927036959</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6442,27 +6558,30 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1.016443709258752</v>
+        <v>1.017032160321141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003505712878289714</v>
+        <v>0.002690369349173385</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1893762681164637</v>
+        <v>-0.1900993259780035</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004923809438576209</v>
+        <v>0.004969384625137245</v>
       </c>
       <c r="F39" t="n">
         <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.57</v>
+        <v>5.581</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001113944</v>
-      </c>
-      <c r="I39" t="inlineStr">
+        <v>0.001116173</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.1900993259780035</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6473,27 +6592,30 @@
         <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1.016881802964801</v>
+        <v>1.016991791201618</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002517404189356286</v>
+        <v>0.002358273030176507</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1894688903953767</v>
+        <v>-0.1901219848709348</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004075581928912268</v>
+        <v>0.004814841353128162</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>5.596</v>
+        <v>5.59</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001119259</v>
-      </c>
-      <c r="I40" t="inlineStr">
+        <v>0.00111793</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1901219848709348</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6504,27 +6626,30 @@
         <v>20</v>
       </c>
       <c r="B41" t="n">
-        <v>1.016992201397093</v>
+        <v>1.01677167320184</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002476498359863639</v>
+        <v>0.002103378256928673</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1897733691051613</v>
+        <v>-0.189423168809548</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005335087846687372</v>
+        <v>0.004133101393506703</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>5.596</v>
+        <v>5.586</v>
       </c>
       <c r="H41" t="n">
-        <v>0.001119128</v>
-      </c>
-      <c r="I41" t="inlineStr">
+        <v>0.00111722</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.189423168809548</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6535,27 +6660,30 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.015282931577932</v>
+        <v>1.015287530429565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001857528762469348</v>
+        <v>0.002275882137218842</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.237054109419446</v>
+        <v>-0.2371998859887468</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00399934226411509</v>
+        <v>0.004763326257833165</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>11.282</v>
+        <v>11.28</v>
       </c>
       <c r="H42" t="n">
-        <v>0.002256465</v>
-      </c>
-      <c r="I42" t="inlineStr">
+        <v>0.002256042</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.2371998859887468</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6566,27 +6694,30 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.015285154307868</v>
+        <v>1.015507185881661</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002646685685617881</v>
+        <v>0.00203233755083447</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2373388303386905</v>
+        <v>-0.2374395802762082</v>
       </c>
       <c r="E43" t="n">
-        <v>0.005814352228945436</v>
+        <v>0.004393827621271999</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
       </c>
       <c r="G43" t="n">
-        <v>11.281</v>
+        <v>11.272</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002256244</v>
-      </c>
-      <c r="I43" t="inlineStr">
+        <v>0.002254355</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.2374395802762082</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6597,27 +6728,30 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.014817390689611</v>
+        <v>1.015401747564822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003028690216879394</v>
+        <v>0.002180257135799891</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2365628466730563</v>
+        <v>-0.2372800976627194</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005840326200999466</v>
+        <v>0.004951510211681543</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>11.284</v>
+        <v>11.273</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002256829</v>
-      </c>
-      <c r="I44" t="inlineStr">
+        <v>0.002254673</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.2372800976627194</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6628,27 +6762,30 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.015083331313351</v>
+        <v>1.0155538649882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001776884298835166</v>
+        <v>0.002383383929122085</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2366787429961543</v>
+        <v>-0.2377231390478642</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004193156487429048</v>
+        <v>0.005229460350016756</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>11.264</v>
+        <v>11.272</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00225281</v>
-      </c>
-      <c r="I45" t="inlineStr">
+        <v>0.002254388</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.2377231390478642</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6659,27 +6796,30 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.015376833937671</v>
+        <v>1.015218699552001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001798534864085495</v>
+        <v>0.002065698100613004</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2374148109787018</v>
+        <v>-0.2366795655649319</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003801884319205859</v>
+        <v>0.003842855917915327</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>11.282</v>
+        <v>11.265</v>
       </c>
       <c r="H46" t="n">
-        <v>0.002256496</v>
-      </c>
-      <c r="I46" t="inlineStr">
+        <v>0.00225301</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.2366795655649319</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6690,27 +6830,30 @@
         <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>1.015401747564822</v>
+        <v>1.015376833937671</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002180257135799891</v>
+        <v>0.001798534864085495</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2372800976627194</v>
+        <v>-0.2374148109787018</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004951510211681543</v>
+        <v>0.003801884319205859</v>
       </c>
       <c r="F47" t="n">
         <v>25</v>
       </c>
       <c r="G47" t="n">
-        <v>11.273</v>
+        <v>11.282</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002254673</v>
-      </c>
-      <c r="I47" t="inlineStr">
+        <v>0.002256496</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.2374148109787018</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6721,27 +6864,30 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0155538649882</v>
+        <v>1.015282931577932</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002383383929122085</v>
+        <v>0.001857528762469348</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2377231390478642</v>
+        <v>-0.237054109419446</v>
       </c>
       <c r="E48" t="n">
-        <v>0.005229460350016756</v>
+        <v>0.00399934226411509</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>11.272</v>
+        <v>11.282</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002254388</v>
-      </c>
-      <c r="I48" t="inlineStr">
+        <v>0.002256465</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.237054109419446</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6752,27 +6898,30 @@
         <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>1.015287530429565</v>
+        <v>1.015083331313351</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002275882137218842</v>
+        <v>0.001776884298835166</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2371998859887468</v>
+        <v>-0.2366787429961543</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004763326257833165</v>
+        <v>0.004193156487429048</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
       </c>
       <c r="G49" t="n">
-        <v>11.28</v>
+        <v>11.264</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002256042</v>
-      </c>
-      <c r="I49" t="inlineStr">
+        <v>0.00225281</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.2366787429961543</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6783,27 +6932,30 @@
         <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>1.015218699552001</v>
+        <v>1.014817390689611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002065698100613004</v>
+        <v>0.003028690216879394</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2366795655649319</v>
+        <v>-0.2365628466730563</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003842855917915327</v>
+        <v>0.005840326200999466</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>11.265</v>
+        <v>11.284</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00225301</v>
-      </c>
-      <c r="I50" t="inlineStr">
+        <v>0.002256829</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.2365628466730563</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6814,27 +6966,30 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1.015507185881661</v>
+        <v>1.015285154307868</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00203233755083447</v>
+        <v>0.002646685685617881</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2374395802762082</v>
+        <v>-0.2373388303386905</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004393827621271999</v>
+        <v>0.005814352228945436</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>11.272</v>
+        <v>11.281</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002254355</v>
-      </c>
-      <c r="I51" t="inlineStr">
+        <v>0.002256244</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.2373388303386905</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6865,7 +7020,10 @@
       <c r="H52" t="n">
         <v>0.002285012</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I52" t="n">
+        <v>-0.2987690391140281</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6896,7 +7054,10 @@
       <c r="H53" t="n">
         <v>0.002287214</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I53" t="n">
+        <v>-0.2986780078685594</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6927,7 +7088,10 @@
       <c r="H54" t="n">
         <v>0.00228731</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I54" t="n">
+        <v>-0.2985702850478891</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6958,7 +7122,10 @@
       <c r="H55" t="n">
         <v>0.00228542</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55" t="n">
+        <v>-0.298823225309897</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6969,27 +7136,30 @@
         <v>31.5</v>
       </c>
       <c r="B56" t="n">
-        <v>1.013319075603283</v>
+        <v>1.012805725212618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001935391162793501</v>
+        <v>0.001287487584829475</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2995803928810874</v>
+        <v>-0.2989192184229506</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006666748542171996</v>
+        <v>0.004470508207132741</v>
       </c>
       <c r="F56" t="n">
         <v>31.5</v>
       </c>
       <c r="G56" t="n">
-        <v>11.408</v>
+        <v>11.428</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002281506</v>
-      </c>
-      <c r="I56" t="inlineStr">
+        <v>0.002285675</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.2989192184229506</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7000,27 +7170,30 @@
         <v>31.5</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013309994471796</v>
+        <v>1.013319075603283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002775611203701994</v>
+        <v>0.001935391162793501</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3003890740551816</v>
+        <v>-0.2995803928810874</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00957139722439173</v>
+        <v>0.006666748542171996</v>
       </c>
       <c r="F57" t="n">
         <v>31.5</v>
       </c>
       <c r="G57" t="n">
-        <v>11.428</v>
+        <v>11.408</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002285501</v>
-      </c>
-      <c r="I57" t="inlineStr">
+        <v>0.002281506</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.2995803928810874</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7031,27 +7204,30 @@
         <v>31.5</v>
       </c>
       <c r="B58" t="n">
-        <v>1.013213696022409</v>
+        <v>1.013309994471796</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00134686692720598</v>
+        <v>0.002775611203701994</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2996998233577313</v>
+        <v>-0.3003890740551816</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004616541580922706</v>
+        <v>0.00957139722439173</v>
       </c>
       <c r="F58" t="n">
         <v>31.5</v>
       </c>
       <c r="G58" t="n">
-        <v>11.421</v>
+        <v>11.428</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002284136</v>
-      </c>
-      <c r="I58" t="inlineStr">
+        <v>0.002285501</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.3003890740551816</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7062,27 +7238,30 @@
         <v>31.5</v>
       </c>
       <c r="B59" t="n">
-        <v>1.012786753961046</v>
+        <v>1.013213696022409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001394466215983616</v>
+        <v>0.00134686692720598</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2989371966815226</v>
+        <v>-0.2996998233577313</v>
       </c>
       <c r="E59" t="n">
-        <v>0.005223560172719405</v>
+        <v>0.004616541580922706</v>
       </c>
       <c r="F59" t="n">
         <v>31.5</v>
       </c>
       <c r="G59" t="n">
-        <v>11.432</v>
+        <v>11.421</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002286365</v>
-      </c>
-      <c r="I59" t="inlineStr">
+        <v>0.002284136</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.2996998233577313</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7093,27 +7272,30 @@
         <v>31.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1.012777492710821</v>
+        <v>1.012786753961046</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001235051607266392</v>
+        <v>0.001394466215983616</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2986611663022831</v>
+        <v>-0.2989371966815226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004416704592171663</v>
+        <v>0.005223560172719405</v>
       </c>
       <c r="F60" t="n">
         <v>31.5</v>
       </c>
       <c r="G60" t="n">
-        <v>11.441</v>
+        <v>11.432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002288201</v>
-      </c>
-      <c r="I60" t="inlineStr">
+        <v>0.002286365</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.2989371966815226</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7124,27 +7306,30 @@
         <v>31.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.012805725212618</v>
+        <v>1.012777492710821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001287487584829475</v>
+        <v>0.001235051607266392</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2989192184229506</v>
+        <v>-0.2986611663022831</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004470508207132741</v>
+        <v>0.004416704592171663</v>
       </c>
       <c r="F61" t="n">
         <v>31.5</v>
       </c>
       <c r="G61" t="n">
-        <v>11.428</v>
+        <v>11.441</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002285675</v>
-      </c>
-      <c r="I61" t="inlineStr">
+        <v>0.002288201</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.2986611663022831</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7155,27 +7340,30 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.008898780563483</v>
+        <v>1.008743004541071</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0006247134220685095</v>
+        <v>0.000618909021383461</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3798335801087296</v>
+        <v>-0.3793909902467334</v>
       </c>
       <c r="E62" t="n">
-        <v>0.005706083765309294</v>
+        <v>0.005924166924650098</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>23.245</v>
+        <v>23.243</v>
       </c>
       <c r="H62" t="n">
-        <v>0.004648937</v>
-      </c>
-      <c r="I62" t="inlineStr">
+        <v>0.00464855</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.3793909902467334</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7186,27 +7374,30 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.008819087953056</v>
+        <v>1.0087959486256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004953411539011634</v>
+        <v>0.0005130120482461199</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3796860475339305</v>
+        <v>-0.3796630766128217</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003766578878839854</v>
+        <v>0.005166240368279907</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>23.251</v>
+        <v>23.252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0046502</v>
-      </c>
-      <c r="I63" t="inlineStr">
+        <v>0.004650455</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.3796630766128217</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7217,27 +7408,30 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.008915434191853</v>
+        <v>1.008848307172733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.000732735977403343</v>
+        <v>0.0004799887246263073</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3802869488155958</v>
+        <v>-0.38014006893932</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006875831850745954</v>
+        <v>0.003946606120689429</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>23.248</v>
+        <v>23.245</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004649516</v>
-      </c>
-      <c r="I64" t="inlineStr">
+        <v>0.004649079</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.38014006893932</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7248,27 +7442,30 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>1.008947717669804</v>
+        <v>1.008880806262734</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0007834326876717969</v>
+        <v>0.0007152510191612711</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.379098896239479</v>
+        <v>-0.3806289309495394</v>
       </c>
       <c r="E65" t="n">
-        <v>0.008560806220076952</v>
+        <v>0.006958277636986455</v>
       </c>
       <c r="F65" t="n">
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>23.261</v>
+        <v>23.237</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004652268</v>
-      </c>
-      <c r="I65" t="inlineStr">
+        <v>0.004647441</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.3806289309495394</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7279,27 +7476,30 @@
         <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1.008800123212527</v>
+        <v>1.008767253431289</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0006043842282571993</v>
+        <v>0.0004589046753223188</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3798326866942965</v>
+        <v>-0.3796467833670958</v>
       </c>
       <c r="E66" t="n">
-        <v>0.006860598448317614</v>
+        <v>0.003087299717730167</v>
       </c>
       <c r="F66" t="n">
         <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>23.242</v>
+        <v>23.24</v>
       </c>
       <c r="H66" t="n">
-        <v>0.004648389</v>
-      </c>
-      <c r="I66" t="inlineStr">
+        <v>0.00464804</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.3796467833670958</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7310,27 +7510,30 @@
         <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1.008880806262734</v>
+        <v>1.008800123212527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0007152510191612711</v>
+        <v>0.0006043842282571993</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3806289309495394</v>
+        <v>-0.3798326866942965</v>
       </c>
       <c r="E67" t="n">
-        <v>0.006958277636986455</v>
+        <v>0.006860598448317614</v>
       </c>
       <c r="F67" t="n">
         <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>23.237</v>
+        <v>23.242</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004647441</v>
-      </c>
-      <c r="I67" t="inlineStr">
+        <v>0.004648389</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.3798326866942965</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7341,27 +7544,30 @@
         <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1.008848307172733</v>
+        <v>1.008819087953056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004799887246263073</v>
+        <v>0.0004953411539011634</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.38014006893932</v>
+        <v>-0.3796860475339305</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003946606120689429</v>
+        <v>0.003766578878839854</v>
       </c>
       <c r="F68" t="n">
         <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>23.245</v>
+        <v>23.251</v>
       </c>
       <c r="H68" t="n">
-        <v>0.004649079</v>
-      </c>
-      <c r="I68" t="inlineStr">
+        <v>0.0046502</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.3796860475339305</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7372,27 +7578,30 @@
         <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>1.0087959486256</v>
+        <v>1.008947717669804</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005130120482461199</v>
+        <v>0.0007834326876717969</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3796630766128217</v>
+        <v>-0.379098896239479</v>
       </c>
       <c r="E69" t="n">
-        <v>0.005166240368279907</v>
+        <v>0.008560806220076952</v>
       </c>
       <c r="F69" t="n">
         <v>40</v>
       </c>
       <c r="G69" t="n">
-        <v>23.252</v>
+        <v>23.261</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004650455</v>
-      </c>
-      <c r="I69" t="inlineStr">
+        <v>0.004652268</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.379098896239479</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7403,27 +7612,30 @@
         <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>1.008743004541071</v>
+        <v>1.008915434191853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.000618909021383461</v>
+        <v>0.000732735977403343</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3793909902467334</v>
+        <v>-0.3802869488155958</v>
       </c>
       <c r="E70" t="n">
-        <v>0.005924166924650098</v>
+        <v>0.006875831850745954</v>
       </c>
       <c r="F70" t="n">
         <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>23.243</v>
+        <v>23.248</v>
       </c>
       <c r="H70" t="n">
-        <v>0.00464855</v>
-      </c>
-      <c r="I70" t="inlineStr">
+        <v>0.004649516</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.3802869488155958</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7434,27 +7646,30 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1.008767253431289</v>
+        <v>1.008898780563483</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0004589046753223188</v>
+        <v>0.0006247134220685095</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3796467833670958</v>
+        <v>-0.3798335801087296</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003087299717730167</v>
+        <v>0.005706083765309294</v>
       </c>
       <c r="F71" t="n">
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>23.24</v>
+        <v>23.245</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00464804</v>
-      </c>
-      <c r="I71" t="inlineStr">
+        <v>0.004648937</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.3798335801087296</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7465,27 +7680,30 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.005031494570573</v>
+        <v>1.005107399069952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0007623566128473175</v>
+        <v>0.0006938924553663514</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4441091353740227</v>
+        <v>-0.4432829053829517</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008201610206624329</v>
+        <v>0.00628551610965945</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
       </c>
       <c r="G72" t="n">
-        <v>58.579</v>
+        <v>58.508</v>
       </c>
       <c r="H72" t="n">
-        <v>0.011715724</v>
-      </c>
-      <c r="I72" t="inlineStr">
+        <v>0.011701683</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.4432829053829517</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7496,27 +7714,30 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.005186741502615</v>
+        <v>1.005098519074723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0005454115884150253</v>
+        <v>0.0007449078710313631</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4433168180520348</v>
+        <v>-0.4431887334387503</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005411465036616317</v>
+        <v>0.005239413339541462</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
       </c>
       <c r="G73" t="n">
-        <v>58.593</v>
+        <v>58.504</v>
       </c>
       <c r="H73" t="n">
-        <v>0.011718531</v>
-      </c>
-      <c r="I73" t="inlineStr">
+        <v>0.01170086</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.4431887334387503</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7527,27 +7748,30 @@
         <v>46.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.005142061184867</v>
+        <v>1.00503804030251</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0005693971787223368</v>
+        <v>0.0005730189609135099</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4441734776141759</v>
+        <v>-0.4436922790960365</v>
       </c>
       <c r="E74" t="n">
-        <v>0.007690030018126687</v>
+        <v>0.005624677039575032</v>
       </c>
       <c r="F74" t="n">
         <v>46.7</v>
       </c>
       <c r="G74" t="n">
-        <v>58.641</v>
+        <v>58.523</v>
       </c>
       <c r="H74" t="n">
-        <v>0.011728122</v>
-      </c>
-      <c r="I74" t="inlineStr">
+        <v>0.011704522</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.4436922790960365</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7558,27 +7782,30 @@
         <v>46.7</v>
       </c>
       <c r="B75" t="n">
-        <v>1.00504248163198</v>
+        <v>1.004971440676563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0005811448184493322</v>
+        <v>0.0009110726529398588</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4435049172289358</v>
+        <v>-0.4440611706876556</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003971740791587839</v>
+        <v>0.008680208863216595</v>
       </c>
       <c r="F75" t="n">
         <v>46.7</v>
       </c>
       <c r="G75" t="n">
-        <v>58.499</v>
+        <v>58.496</v>
       </c>
       <c r="H75" t="n">
-        <v>0.011699812</v>
-      </c>
-      <c r="I75" t="inlineStr">
+        <v>0.011699189</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.4440611706876556</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7589,27 +7816,30 @@
         <v>46.7</v>
       </c>
       <c r="B76" t="n">
-        <v>1.005158721225767</v>
+        <v>1.004886720036684</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0008666352545804811</v>
+        <v>0.0008939251019939975</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4428157179747494</v>
+        <v>-0.4448773254100908</v>
       </c>
       <c r="E76" t="n">
-        <v>0.006405817906388747</v>
+        <v>0.01020047967023718</v>
       </c>
       <c r="F76" t="n">
         <v>46.7</v>
       </c>
       <c r="G76" t="n">
-        <v>58.496</v>
+        <v>58.55</v>
       </c>
       <c r="H76" t="n">
-        <v>0.011699266</v>
-      </c>
-      <c r="I76" t="inlineStr">
+        <v>0.011709924</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.4448773254100908</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7620,27 +7850,30 @@
         <v>46.7</v>
       </c>
       <c r="B77" t="n">
-        <v>1.004886720036684</v>
+        <v>1.005158721225767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0008939251019939975</v>
+        <v>0.0008666352545804811</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4448773254100908</v>
+        <v>-0.4428157179747494</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01020047967023718</v>
+        <v>0.006405817906388747</v>
       </c>
       <c r="F77" t="n">
         <v>46.7</v>
       </c>
       <c r="G77" t="n">
-        <v>58.55</v>
+        <v>58.496</v>
       </c>
       <c r="H77" t="n">
-        <v>0.011709924</v>
-      </c>
-      <c r="I77" t="inlineStr">
+        <v>0.011699266</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.4428157179747494</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7651,27 +7884,30 @@
         <v>46.7</v>
       </c>
       <c r="B78" t="n">
-        <v>1.00503804030251</v>
+        <v>1.00504248163198</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005730189609135099</v>
+        <v>0.0005811448184493322</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4436922790960365</v>
+        <v>-0.4435049172289358</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005624677039575032</v>
+        <v>0.003971740791587839</v>
       </c>
       <c r="F78" t="n">
         <v>46.7</v>
       </c>
       <c r="G78" t="n">
-        <v>58.523</v>
+        <v>58.499</v>
       </c>
       <c r="H78" t="n">
-        <v>0.011704522</v>
-      </c>
-      <c r="I78" t="inlineStr">
+        <v>0.011699812</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.4435049172289358</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7682,27 +7918,30 @@
         <v>46.7</v>
       </c>
       <c r="B79" t="n">
-        <v>1.005098519074723</v>
+        <v>1.005142061184867</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0007449078710313631</v>
+        <v>0.0005693971787223368</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4431887334387503</v>
+        <v>-0.4441734776141759</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005239413339541462</v>
+        <v>0.007690030018126687</v>
       </c>
       <c r="F79" t="n">
         <v>46.7</v>
       </c>
       <c r="G79" t="n">
-        <v>58.504</v>
+        <v>58.641</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01170086</v>
-      </c>
-      <c r="I79" t="inlineStr">
+        <v>0.011728122</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.4441734776141759</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7713,27 +7952,30 @@
         <v>46.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.005107399069952</v>
+        <v>1.005186741502615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0006938924553663514</v>
+        <v>0.0005454115884150253</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4432829053829517</v>
+        <v>-0.4433168180520348</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00628551610965945</v>
+        <v>0.005411465036616317</v>
       </c>
       <c r="F80" t="n">
         <v>46.7</v>
       </c>
       <c r="G80" t="n">
-        <v>58.508</v>
+        <v>58.593</v>
       </c>
       <c r="H80" t="n">
-        <v>0.011701683</v>
-      </c>
-      <c r="I80" t="inlineStr">
+        <v>0.011718531</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.4433168180520348</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7744,27 +7986,30 @@
         <v>46.7</v>
       </c>
       <c r="B81" t="n">
-        <v>1.004971440676563</v>
+        <v>1.005031494570573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0009110726529398588</v>
+        <v>0.0007623566128473175</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4440611706876556</v>
+        <v>-0.4441091353740227</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008680208863216595</v>
+        <v>0.008201610206624329</v>
       </c>
       <c r="F81" t="n">
         <v>46.7</v>
       </c>
       <c r="G81" t="n">
-        <v>58.496</v>
+        <v>58.579</v>
       </c>
       <c r="H81" t="n">
-        <v>0.011699189</v>
-      </c>
-      <c r="I81" t="inlineStr">
+        <v>0.011715724</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.4441091353740227</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7775,27 +8020,30 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.002820704358146</v>
+        <v>1.003008962794092</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0008044732315429368</v>
+        <v>0.001195208795783718</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4747647576397078</v>
+        <v>-0.4737995664330619</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0055143711750257</v>
+        <v>0.006901764902503381</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>58.737</v>
+        <v>58.703</v>
       </c>
       <c r="H82" t="n">
-        <v>0.011747443</v>
-      </c>
-      <c r="I82" t="inlineStr">
+        <v>0.011740505</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.4737995664330619</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7806,27 +8054,30 @@
         <v>50</v>
       </c>
       <c r="B83" t="n">
-        <v>1.002977583220767</v>
+        <v>1.002856263815213</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0006075181167209473</v>
+        <v>0.0006628116990986085</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4741270289349737</v>
+        <v>-0.4749359970228033</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003092572341925582</v>
+        <v>0.00452651062955079</v>
       </c>
       <c r="F83" t="n">
         <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>58.708</v>
+        <v>58.766</v>
       </c>
       <c r="H83" t="n">
-        <v>0.011741662</v>
-      </c>
-      <c r="I83" t="inlineStr">
+        <v>0.01175327</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.4749359970228033</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7837,27 +8088,30 @@
         <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>1.002898128664435</v>
+        <v>1.002948091020979</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0008015352464668286</v>
+        <v>0.0008132357011881613</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4748442727500737</v>
+        <v>-0.4741788883501683</v>
       </c>
       <c r="E84" t="n">
-        <v>0.005531212584383749</v>
+        <v>0.005043963871839006</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>58.822</v>
+        <v>58.718</v>
       </c>
       <c r="H84" t="n">
-        <v>0.011764438</v>
-      </c>
-      <c r="I84" t="inlineStr">
+        <v>0.011743551</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.4741788883501683</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7868,27 +8122,30 @@
         <v>50</v>
       </c>
       <c r="B85" t="n">
-        <v>1.002944764019071</v>
+        <v>1.003101970502895</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0009772441830977262</v>
+        <v>0.001447757567339947</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4749757376033585</v>
+        <v>-0.4734197171541923</v>
       </c>
       <c r="E85" t="n">
-        <v>0.007311735289425404</v>
+        <v>0.009215628511054487</v>
       </c>
       <c r="F85" t="n">
         <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>58.916</v>
+        <v>58.717</v>
       </c>
       <c r="H85" t="n">
-        <v>0.011783128</v>
-      </c>
-      <c r="I85" t="inlineStr">
+        <v>0.011743445</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.4734197171541923</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7899,27 +8156,30 @@
         <v>50</v>
       </c>
       <c r="B86" t="n">
-        <v>1.002991023267885</v>
+        <v>1.002843934701599</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0008015285676968817</v>
+        <v>0.0006089208175329934</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4740426902533468</v>
+        <v>-0.4747106782280412</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003877047906066091</v>
+        <v>0.004474506043153698</v>
       </c>
       <c r="F86" t="n">
         <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>58.731</v>
+        <v>58.763</v>
       </c>
       <c r="H86" t="n">
-        <v>0.011746171</v>
-      </c>
-      <c r="I86" t="inlineStr">
+        <v>0.011752671</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.4747106782280412</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7930,27 +8190,30 @@
         <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>1.002843934701599</v>
+        <v>1.002991023267885</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0006089208175329934</v>
+        <v>0.0008015285676968817</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4747106782280412</v>
+        <v>-0.4740426902533468</v>
       </c>
       <c r="E87" t="n">
-        <v>0.004474506043153698</v>
+        <v>0.003877047906066091</v>
       </c>
       <c r="F87" t="n">
         <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>58.763</v>
+        <v>58.731</v>
       </c>
       <c r="H87" t="n">
-        <v>0.011752671</v>
-      </c>
-      <c r="I87" t="inlineStr">
+        <v>0.011746171</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.4740426902533468</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7961,27 +8224,30 @@
         <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>1.003101970502895</v>
+        <v>1.002820704358146</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001447757567339947</v>
+        <v>0.0008044732315429368</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4734197171541923</v>
+        <v>-0.4747647576397078</v>
       </c>
       <c r="E88" t="n">
-        <v>0.009215628511054487</v>
+        <v>0.0055143711750257</v>
       </c>
       <c r="F88" t="n">
         <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>58.717</v>
+        <v>58.737</v>
       </c>
       <c r="H88" t="n">
-        <v>0.011743445</v>
-      </c>
-      <c r="I88" t="inlineStr">
+        <v>0.011747443</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.4747647576397078</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7992,27 +8258,30 @@
         <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>1.002948091020979</v>
+        <v>1.002944764019071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0008132357011881613</v>
+        <v>0.0009772441830977262</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4741788883501683</v>
+        <v>-0.4749757376033585</v>
       </c>
       <c r="E89" t="n">
-        <v>0.005043963871839006</v>
+        <v>0.007311735289425404</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>58.718</v>
+        <v>58.916</v>
       </c>
       <c r="H89" t="n">
-        <v>0.011743551</v>
-      </c>
-      <c r="I89" t="inlineStr">
+        <v>0.011783128</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.4749757376033585</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8023,27 +8292,30 @@
         <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1.002856263815213</v>
+        <v>1.002898128664435</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0006628116990986085</v>
+        <v>0.0008015352464668286</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4749359970228033</v>
+        <v>-0.4748442727500737</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00452651062955079</v>
+        <v>0.005531212584383749</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>58.766</v>
+        <v>58.822</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01175327</v>
-      </c>
-      <c r="I90" t="inlineStr">
+        <v>0.011764438</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.4748442727500737</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8054,27 +8326,30 @@
         <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>1.003008962794092</v>
+        <v>1.002977583220767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001195208795783718</v>
+        <v>0.0006075181167209473</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4737995664330619</v>
+        <v>-0.4741270289349737</v>
       </c>
       <c r="E91" t="n">
-        <v>0.006901764902503381</v>
+        <v>0.003092572341925582</v>
       </c>
       <c r="F91" t="n">
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>58.703</v>
+        <v>58.708</v>
       </c>
       <c r="H91" t="n">
-        <v>0.011740505</v>
-      </c>
-      <c r="I91" t="inlineStr">
+        <v>0.011741662</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.4741270289349737</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8085,27 +8360,30 @@
         <v>53.3</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000435579192966</v>
+        <v>1.00030247871122</v>
       </c>
       <c r="C92" t="n">
-        <v>0.000802603733420683</v>
+        <v>0.001016751950319031</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5064506136142399</v>
+        <v>-0.5071334051566674</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004127681184885922</v>
+        <v>0.004940901561947913</v>
       </c>
       <c r="F92" t="n">
         <v>53.3</v>
       </c>
       <c r="G92" t="n">
-        <v>59.037</v>
+        <v>59.176</v>
       </c>
       <c r="H92" t="n">
-        <v>0.011807354</v>
-      </c>
-      <c r="I92" t="inlineStr">
+        <v>0.011835273</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.5071334051566674</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8116,27 +8394,30 @@
         <v>53.3</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000608541474318</v>
+        <v>1.000601742357886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001154449425608166</v>
+        <v>0.000705473856335205</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5056735641900763</v>
+        <v>-0.5062970902106931</v>
       </c>
       <c r="E93" t="n">
-        <v>0.006285996509312694</v>
+        <v>0.003737265869941882</v>
       </c>
       <c r="F93" t="n">
         <v>53.3</v>
       </c>
       <c r="G93" t="n">
-        <v>59.024</v>
+        <v>59.13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.011804889</v>
-      </c>
-      <c r="I93" t="inlineStr">
+        <v>0.011826076</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.5062970902106931</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8147,27 +8428,30 @@
         <v>53.3</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000507128380559</v>
+        <v>1.000416723284994</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0008917972066861384</v>
+        <v>0.001102022451582698</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5061927284693635</v>
+        <v>-0.5065916404885544</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004624305515969822</v>
+        <v>0.005577625301102573</v>
       </c>
       <c r="F94" t="n">
         <v>53.3</v>
       </c>
       <c r="G94" t="n">
-        <v>59.062</v>
+        <v>59.085</v>
       </c>
       <c r="H94" t="n">
-        <v>0.011812307</v>
-      </c>
-      <c r="I94" t="inlineStr">
+        <v>0.011817012</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.5065916404885544</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8178,27 +8462,30 @@
         <v>53.3</v>
       </c>
       <c r="B95" t="n">
-        <v>1.000677724758322</v>
+        <v>1.000442435622856</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0007664184776829521</v>
+        <v>0.00127885797659287</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5056590382522268</v>
+        <v>-0.5063865216671704</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003591149916128268</v>
+        <v>0.007124830051112781</v>
       </c>
       <c r="F95" t="n">
         <v>53.3</v>
       </c>
       <c r="G95" t="n">
-        <v>59.085</v>
+        <v>59.046</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011817045</v>
-      </c>
-      <c r="I95" t="inlineStr">
+        <v>0.011809138</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.5063865216671704</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8209,27 +8496,30 @@
         <v>53.3</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000740015621597</v>
+        <v>1.000713208568959</v>
       </c>
       <c r="C96" t="n">
-        <v>0.00181348687971633</v>
+        <v>0.001295209350263033</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.505865278335131</v>
+        <v>-0.5054276178447537</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01106203072280869</v>
+        <v>0.005918744538037955</v>
       </c>
       <c r="F96" t="n">
         <v>53.3</v>
       </c>
       <c r="G96" t="n">
-        <v>59.286</v>
+        <v>58.992</v>
       </c>
       <c r="H96" t="n">
-        <v>0.011857186</v>
-      </c>
-      <c r="I96" t="inlineStr">
+        <v>0.011798353</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.5054276178447537</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8240,27 +8530,30 @@
         <v>53.3</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000442435622856</v>
+        <v>1.000740015621597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00127885797659287</v>
+        <v>0.00181348687971633</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5063865216671704</v>
+        <v>-0.505865278335131</v>
       </c>
       <c r="E97" t="n">
-        <v>0.007124830051112781</v>
+        <v>0.01106203072280869</v>
       </c>
       <c r="F97" t="n">
         <v>53.3</v>
       </c>
       <c r="G97" t="n">
-        <v>59.046</v>
+        <v>59.286</v>
       </c>
       <c r="H97" t="n">
-        <v>0.011809138</v>
-      </c>
-      <c r="I97" t="inlineStr">
+        <v>0.011857186</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.505865278335131</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8271,16 +8564,16 @@
         <v>53.3</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000416723284994</v>
+        <v>1.000677724758322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001102022451582698</v>
+        <v>0.0007664184776829521</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5065916404885544</v>
+        <v>-0.5056590382522268</v>
       </c>
       <c r="E98" t="n">
-        <v>0.005577625301102573</v>
+        <v>0.003591149916128268</v>
       </c>
       <c r="F98" t="n">
         <v>53.3</v>
@@ -8289,9 +8582,12 @@
         <v>59.085</v>
       </c>
       <c r="H98" t="n">
-        <v>0.011817012</v>
-      </c>
-      <c r="I98" t="inlineStr">
+        <v>0.011817045</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.5056590382522268</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8302,27 +8598,30 @@
         <v>53.3</v>
       </c>
       <c r="B99" t="n">
-        <v>1.000601742357886</v>
+        <v>1.000507128380559</v>
       </c>
       <c r="C99" t="n">
-        <v>0.000705473856335205</v>
+        <v>0.0008917972066861384</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5062970902106931</v>
+        <v>-0.5061927284693635</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003737265869941882</v>
+        <v>0.004624305515969822</v>
       </c>
       <c r="F99" t="n">
         <v>53.3</v>
       </c>
       <c r="G99" t="n">
-        <v>59.13</v>
+        <v>59.062</v>
       </c>
       <c r="H99" t="n">
-        <v>0.011826076</v>
-      </c>
-      <c r="I99" t="inlineStr">
+        <v>0.011812307</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.5061927284693635</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8333,27 +8632,30 @@
         <v>53.3</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00030247871122</v>
+        <v>1.000608541474318</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001016751950319031</v>
+        <v>0.001154449425608166</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5071334051566674</v>
+        <v>-0.5056735641900763</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004940901561947913</v>
+        <v>0.006285996509312694</v>
       </c>
       <c r="F100" t="n">
         <v>53.3</v>
       </c>
       <c r="G100" t="n">
-        <v>59.176</v>
+        <v>59.024</v>
       </c>
       <c r="H100" t="n">
-        <v>0.011835273</v>
-      </c>
-      <c r="I100" t="inlineStr">
+        <v>0.011804889</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.5056735641900763</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8364,27 +8666,30 @@
         <v>53.3</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000713208568959</v>
+        <v>1.000435579192966</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001295209350263033</v>
+        <v>0.000802603733420683</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5054276178447537</v>
+        <v>-0.5064506136142399</v>
       </c>
       <c r="E101" t="n">
-        <v>0.005918744538037955</v>
+        <v>0.004127681184885922</v>
       </c>
       <c r="F101" t="n">
         <v>53.3</v>
       </c>
       <c r="G101" t="n">
-        <v>58.992</v>
+        <v>59.037</v>
       </c>
       <c r="H101" t="n">
-        <v>0.011798353</v>
-      </c>
-      <c r="I101" t="inlineStr">
+        <v>0.011807354</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.5064506136142399</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8395,27 +8700,30 @@
         <v>63</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9937210820841557</v>
+        <v>0.9939434667755147</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002899864988146195</v>
+        <v>0.003653134965881874</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5979441024274195</v>
+        <v>-0.5976971218334075</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005405458802180511</v>
+        <v>0.005851187114788707</v>
       </c>
       <c r="F102" t="n">
         <v>63</v>
       </c>
       <c r="G102" t="n">
-        <v>115.091</v>
+        <v>115.251</v>
       </c>
       <c r="H102" t="n">
-        <v>0.023018107</v>
-      </c>
-      <c r="I102" t="inlineStr">
+        <v>0.02305018</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.5976971218334075</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8426,27 +8734,30 @@
         <v>63</v>
       </c>
       <c r="B103" t="n">
-        <v>0.993640572754817</v>
+        <v>0.9935461577843577</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001887100421278943</v>
+        <v>0.001831817407153226</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5981342549897857</v>
+        <v>-0.598307882922839</v>
       </c>
       <c r="E103" t="n">
-        <v>0.004466645484975569</v>
+        <v>0.004103717028462928</v>
       </c>
       <c r="F103" t="n">
         <v>63</v>
       </c>
       <c r="G103" t="n">
-        <v>115.138</v>
+        <v>115.436</v>
       </c>
       <c r="H103" t="n">
-        <v>0.023027636</v>
-      </c>
-      <c r="I103" t="inlineStr">
+        <v>0.023087275</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.598307882922839</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8457,27 +8768,30 @@
         <v>63</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9946522119315668</v>
+        <v>0.993996073970748</v>
       </c>
       <c r="C104" t="n">
-        <v>0.005509655595497407</v>
+        <v>0.00311724582444718</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.5965079763688514</v>
+        <v>-0.5976911990363138</v>
       </c>
       <c r="E104" t="n">
-        <v>0.007143155223988795</v>
+        <v>0.005293056480448713</v>
       </c>
       <c r="F104" t="n">
         <v>63</v>
       </c>
       <c r="G104" t="n">
-        <v>115.351</v>
+        <v>115.693</v>
       </c>
       <c r="H104" t="n">
-        <v>0.023070229</v>
-      </c>
-      <c r="I104" t="inlineStr">
+        <v>0.023138529</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.5976911990363138</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8488,27 +8802,30 @@
         <v>63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9943510137388091</v>
+        <v>0.9938830985744908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004575055152978852</v>
+        <v>0.002926454872046902</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5970863784477247</v>
+        <v>-0.5977550400612124</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005906665907467721</v>
+        <v>0.003978963823919161</v>
       </c>
       <c r="F105" t="n">
         <v>63</v>
       </c>
       <c r="G105" t="n">
-        <v>115.447</v>
+        <v>115.323</v>
       </c>
       <c r="H105" t="n">
-        <v>0.023089376</v>
-      </c>
-      <c r="I105" t="inlineStr">
+        <v>0.023064556</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.5977550400612124</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8519,27 +8836,30 @@
         <v>63</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9942926483548257</v>
+        <v>0.9944590423837842</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004453306542905417</v>
+        <v>0.005157415741780886</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.597142226360595</v>
+        <v>-0.597071998626868</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006198029163385935</v>
+        <v>0.008329425739637198</v>
       </c>
       <c r="F106" t="n">
         <v>63</v>
       </c>
       <c r="G106" t="n">
-        <v>115.264</v>
+        <v>115.886</v>
       </c>
       <c r="H106" t="n">
-        <v>0.023052821</v>
-      </c>
-      <c r="I106" t="inlineStr">
+        <v>0.023177237</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.597071998626868</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8550,27 +8870,30 @@
         <v>63</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9944590423837842</v>
+        <v>0.9942926483548257</v>
       </c>
       <c r="C107" t="n">
-        <v>0.005157415741780886</v>
+        <v>0.004453306542905417</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.597071998626868</v>
+        <v>-0.597142226360595</v>
       </c>
       <c r="E107" t="n">
-        <v>0.008329425739637198</v>
+        <v>0.006198029163385935</v>
       </c>
       <c r="F107" t="n">
         <v>63</v>
       </c>
       <c r="G107" t="n">
-        <v>115.886</v>
+        <v>115.264</v>
       </c>
       <c r="H107" t="n">
-        <v>0.023177237</v>
-      </c>
-      <c r="I107" t="inlineStr">
+        <v>0.023052821</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.597142226360595</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8581,27 +8904,30 @@
         <v>63</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9938830985744908</v>
+        <v>0.9937210820841557</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002926454872046902</v>
+        <v>0.002899864988146195</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5977550400612124</v>
+        <v>-0.5979441024274195</v>
       </c>
       <c r="E108" t="n">
-        <v>0.003978963823919161</v>
+        <v>0.005405458802180511</v>
       </c>
       <c r="F108" t="n">
         <v>63</v>
       </c>
       <c r="G108" t="n">
-        <v>115.323</v>
+        <v>115.091</v>
       </c>
       <c r="H108" t="n">
-        <v>0.023064556</v>
-      </c>
-      <c r="I108" t="inlineStr">
+        <v>0.023018107</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.5979441024274195</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8612,27 +8938,30 @@
         <v>63</v>
       </c>
       <c r="B109" t="n">
-        <v>0.993996073970748</v>
+        <v>0.9943510137388091</v>
       </c>
       <c r="C109" t="n">
-        <v>0.00311724582444718</v>
+        <v>0.004575055152978852</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5976911990363138</v>
+        <v>-0.5970863784477247</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005293056480448713</v>
+        <v>0.005906665907467721</v>
       </c>
       <c r="F109" t="n">
         <v>63</v>
       </c>
       <c r="G109" t="n">
-        <v>115.693</v>
+        <v>115.447</v>
       </c>
       <c r="H109" t="n">
-        <v>0.023138529</v>
-      </c>
-      <c r="I109" t="inlineStr">
+        <v>0.023089376</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.5970863784477247</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8643,27 +8972,30 @@
         <v>63</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9935461577843577</v>
+        <v>0.9946522119315668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.001831817407153226</v>
+        <v>0.005509655595497407</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.598307882922839</v>
+        <v>-0.5965079763688514</v>
       </c>
       <c r="E110" t="n">
-        <v>0.004103717028462928</v>
+        <v>0.007143155223988795</v>
       </c>
       <c r="F110" t="n">
         <v>63</v>
       </c>
       <c r="G110" t="n">
-        <v>115.436</v>
+        <v>115.351</v>
       </c>
       <c r="H110" t="n">
-        <v>0.023087275</v>
-      </c>
-      <c r="I110" t="inlineStr">
+        <v>0.023070229</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.5965079763688514</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8674,27 +9006,30 @@
         <v>63</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9939434667755147</v>
+        <v>0.993640572754817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003653134965881874</v>
+        <v>0.001887100421278943</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.5976971218334075</v>
+        <v>-0.5981342549897857</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005851187114788707</v>
+        <v>0.004466645484975569</v>
       </c>
       <c r="F111" t="n">
         <v>63</v>
       </c>
       <c r="G111" t="n">
-        <v>115.251</v>
+        <v>115.138</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02305018</v>
-      </c>
-      <c r="I111" t="inlineStr">
+        <v>0.023027636</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.5981342549897857</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8705,27 +9040,30 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.976496140086431</v>
+        <v>0.977132219697786</v>
       </c>
       <c r="C112" t="n">
-        <v>0.002855034786768541</v>
+        <v>0.003255716620761533</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7602017360284696</v>
+        <v>-0.7596292363509924</v>
       </c>
       <c r="E112" t="n">
-        <v>0.005062927252179292</v>
+        <v>0.005767047503487042</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>119.119</v>
+        <v>119.647</v>
       </c>
       <c r="H112" t="n">
-        <v>0.023823831</v>
-      </c>
-      <c r="I112" t="inlineStr">
+        <v>0.023929451</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.7596292363509924</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8736,27 +9074,30 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9772793926524992</v>
+        <v>0.9773777377782764</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002298462385526022</v>
+        <v>0.002509077375338799</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.75940482596714</v>
+        <v>-0.7592754993932411</v>
       </c>
       <c r="E113" t="n">
-        <v>0.003592495276380842</v>
+        <v>0.003694400847280154</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
       </c>
       <c r="G113" t="n">
-        <v>119.12</v>
+        <v>119.4</v>
       </c>
       <c r="H113" t="n">
-        <v>0.023823957</v>
-      </c>
-      <c r="I113" t="inlineStr">
+        <v>0.023879923</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.7592754993932411</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8767,27 +9108,30 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9770412320295218</v>
+        <v>0.9774698177707487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002123584633633482</v>
+        <v>0.002591407432822546</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7595893450976803</v>
+        <v>-0.7590793233862385</v>
       </c>
       <c r="E114" t="n">
-        <v>0.003804609059658195</v>
+        <v>0.003731608165210109</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
       </c>
       <c r="G114" t="n">
-        <v>118.99</v>
+        <v>119.415</v>
       </c>
       <c r="H114" t="n">
-        <v>0.023798007</v>
-      </c>
-      <c r="I114" t="inlineStr">
+        <v>0.023883058</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.7590793233862385</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8798,27 +9142,30 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9776792250672337</v>
+        <v>0.976880099216017</v>
       </c>
       <c r="C115" t="n">
-        <v>0.003210387415244089</v>
+        <v>0.001967682073466924</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7588672876817322</v>
+        <v>-0.7597501588892772</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00423258127639447</v>
+        <v>0.00334317780060153</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
       </c>
       <c r="G115" t="n">
-        <v>118.982</v>
+        <v>119.144</v>
       </c>
       <c r="H115" t="n">
-        <v>0.023796364</v>
-      </c>
-      <c r="I115" t="inlineStr">
+        <v>0.023828851</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.7597501588892772</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8829,27 +9176,30 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.977264325783747</v>
+        <v>0.9771757691242559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.002108831940075859</v>
+        <v>0.001595278247850214</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7592925282587082</v>
+        <v>-0.759467197854363</v>
       </c>
       <c r="E116" t="n">
-        <v>0.00316846531950267</v>
+        <v>0.002454842634962154</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>119.127</v>
+        <v>119.028</v>
       </c>
       <c r="H116" t="n">
-        <v>0.023825362</v>
-      </c>
-      <c r="I116" t="inlineStr">
+        <v>0.023805565</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.759467197854363</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8860,27 +9210,30 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9771757691242559</v>
+        <v>0.977264325783747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001595278247850214</v>
+        <v>0.002108831940075859</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.759467197854363</v>
+        <v>-0.7592925282587082</v>
       </c>
       <c r="E117" t="n">
-        <v>0.002454842634962154</v>
+        <v>0.00316846531950267</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
       </c>
       <c r="G117" t="n">
-        <v>119.028</v>
+        <v>119.127</v>
       </c>
       <c r="H117" t="n">
-        <v>0.023805565</v>
-      </c>
-      <c r="I117" t="inlineStr">
+        <v>0.023825362</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.7592925282587082</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8891,27 +9244,30 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.976880099216017</v>
+        <v>0.9776792250672337</v>
       </c>
       <c r="C118" t="n">
-        <v>0.001967682073466924</v>
+        <v>0.003210387415244089</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7597501588892772</v>
+        <v>-0.7588672876817322</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00334317780060153</v>
+        <v>0.00423258127639447</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
       </c>
       <c r="G118" t="n">
-        <v>119.144</v>
+        <v>118.982</v>
       </c>
       <c r="H118" t="n">
-        <v>0.023828851</v>
-      </c>
-      <c r="I118" t="inlineStr">
+        <v>0.023796364</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.7588672876817322</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8922,27 +9278,30 @@
         <v>80</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9774698177707487</v>
+        <v>0.9770412320295218</v>
       </c>
       <c r="C119" t="n">
-        <v>0.002591407432822546</v>
+        <v>0.002123584633633482</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7590793233862385</v>
+        <v>-0.7595893450976803</v>
       </c>
       <c r="E119" t="n">
-        <v>0.003731608165210109</v>
+        <v>0.003804609059658195</v>
       </c>
       <c r="F119" t="n">
         <v>80</v>
       </c>
       <c r="G119" t="n">
-        <v>119.415</v>
+        <v>118.99</v>
       </c>
       <c r="H119" t="n">
-        <v>0.023883058</v>
-      </c>
-      <c r="I119" t="inlineStr">
+        <v>0.023798007</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.7595893450976803</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8953,27 +9312,30 @@
         <v>80</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9773777377782764</v>
+        <v>0.9772793926524992</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002509077375338799</v>
+        <v>0.002298462385526022</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.7592754993932411</v>
+        <v>-0.75940482596714</v>
       </c>
       <c r="E120" t="n">
-        <v>0.003694400847280154</v>
+        <v>0.003592495276380842</v>
       </c>
       <c r="F120" t="n">
         <v>80</v>
       </c>
       <c r="G120" t="n">
-        <v>119.4</v>
+        <v>119.12</v>
       </c>
       <c r="H120" t="n">
-        <v>0.023879923</v>
-      </c>
-      <c r="I120" t="inlineStr">
+        <v>0.023823957</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.75940482596714</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8984,27 +9346,30 @@
         <v>80</v>
       </c>
       <c r="B121" t="n">
-        <v>0.977132219697786</v>
+        <v>0.976496140086431</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003255716620761533</v>
+        <v>0.002855034786768541</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.7596292363509924</v>
+        <v>-0.7602017360284696</v>
       </c>
       <c r="E121" t="n">
-        <v>0.005767047503487042</v>
+        <v>0.005062927252179292</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>119.647</v>
+        <v>119.119</v>
       </c>
       <c r="H121" t="n">
-        <v>0.023929451</v>
-      </c>
-      <c r="I121" t="inlineStr">
+        <v>0.023823831</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.7602017360284696</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9015,27 +9380,30 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.952835204003287</v>
+        <v>0.9541296511929237</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003873431596101744</v>
+        <v>0.00352052019405556</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9500188749385403</v>
+        <v>-0.9489298025605883</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004332580265925076</v>
+        <v>0.003721451553624241</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>123.39</v>
+        <v>122.844</v>
       </c>
       <c r="H122" t="n">
-        <v>0.024677904</v>
-      </c>
-      <c r="I122" t="inlineStr">
+        <v>0.024568704</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.9489298025605883</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9046,27 +9414,30 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9538901949936344</v>
+        <v>0.9537091168123721</v>
       </c>
       <c r="C123" t="n">
-        <v>0.002585285132760562</v>
+        <v>0.002488703321096372</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9491429471997908</v>
+        <v>-0.9492894734206061</v>
       </c>
       <c r="E123" t="n">
-        <v>0.002728547953282314</v>
+        <v>0.002835119772846961</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>122.736</v>
+        <v>122.676</v>
       </c>
       <c r="H123" t="n">
-        <v>0.024547108</v>
-      </c>
-      <c r="I123" t="inlineStr">
+        <v>0.024535121</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.9492894734206061</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9077,27 +9448,30 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9539330808202905</v>
+        <v>0.9534665326893835</v>
       </c>
       <c r="C124" t="n">
-        <v>0.002945578975113296</v>
+        <v>0.001834993207715379</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9491564302578315</v>
+        <v>-0.9495101185182167</v>
       </c>
       <c r="E124" t="n">
-        <v>0.003480736729177546</v>
+        <v>0.002671931595895467</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>123.387</v>
+        <v>122.769</v>
       </c>
       <c r="H124" t="n">
-        <v>0.024677443</v>
-      </c>
-      <c r="I124" t="inlineStr">
+        <v>0.024553701</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.9495101185182167</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9108,27 +9482,30 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9532664419925558</v>
+        <v>0.9537250651154463</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001893271932260457</v>
+        <v>0.002299525926997527</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9496571179323254</v>
+        <v>-0.9492472185373213</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002385315497673422</v>
+        <v>0.002478349523181519</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>122.94</v>
+        <v>122.777</v>
       </c>
       <c r="H125" t="n">
-        <v>0.024587957</v>
-      </c>
-      <c r="I125" t="inlineStr">
+        <v>0.024555325</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.9492472185373213</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9139,27 +9516,30 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9531039332102981</v>
+        <v>0.9530257886449571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001790550129442137</v>
+        <v>0.003873407886520117</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9498168403947123</v>
+        <v>-0.9498801016630445</v>
       </c>
       <c r="E126" t="n">
-        <v>0.002396336055970608</v>
+        <v>0.004866752972496316</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>122.966</v>
+        <v>122.848</v>
       </c>
       <c r="H126" t="n">
-        <v>0.024593212</v>
-      </c>
-      <c r="I126" t="inlineStr">
+        <v>0.024569623</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.9498801016630445</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9170,27 +9550,30 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9537250651154463</v>
+        <v>0.9532664419925558</v>
       </c>
       <c r="C127" t="n">
-        <v>0.002299525926997527</v>
+        <v>0.001893271932260457</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9492472185373213</v>
+        <v>-0.9496571179323254</v>
       </c>
       <c r="E127" t="n">
-        <v>0.002478349523181519</v>
+        <v>0.002385315497673422</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>122.777</v>
+        <v>122.94</v>
       </c>
       <c r="H127" t="n">
-        <v>0.024555325</v>
-      </c>
-      <c r="I127" t="inlineStr">
+        <v>0.024587957</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.9496571179323254</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9201,27 +9584,30 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9534665326893835</v>
+        <v>0.9539330808202905</v>
       </c>
       <c r="C128" t="n">
-        <v>0.001834993207715379</v>
+        <v>0.002945578975113296</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9495101185182167</v>
+        <v>-0.9491564302578315</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002671931595895467</v>
+        <v>0.003480736729177546</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>122.769</v>
+        <v>123.387</v>
       </c>
       <c r="H128" t="n">
-        <v>0.024553701</v>
-      </c>
-      <c r="I128" t="inlineStr">
+        <v>0.024677443</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.9491564302578315</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9232,27 +9618,30 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9530257886449571</v>
+        <v>0.9531039332102981</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003873407886520117</v>
+        <v>0.001790550129442137</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9498801016630445</v>
+        <v>-0.9498168403947123</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004866752972496316</v>
+        <v>0.002396336055970608</v>
       </c>
       <c r="F129" t="n">
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>122.848</v>
+        <v>122.966</v>
       </c>
       <c r="H129" t="n">
-        <v>0.024569623</v>
-      </c>
-      <c r="I129" t="inlineStr">
+        <v>0.024593212</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.9498168403947123</v>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9263,27 +9652,30 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9537091168123721</v>
+        <v>0.9538901949936344</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002488703321096372</v>
+        <v>0.002585285132760562</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.9492894734206061</v>
+        <v>-0.9491429471997908</v>
       </c>
       <c r="E130" t="n">
-        <v>0.002835119772846961</v>
+        <v>0.002728547953282314</v>
       </c>
       <c r="F130" t="n">
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>122.676</v>
+        <v>122.736</v>
       </c>
       <c r="H130" t="n">
-        <v>0.024535121</v>
-      </c>
-      <c r="I130" t="inlineStr">
+        <v>0.024547108</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.9491429471997908</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9294,27 +9686,30 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9541296511929237</v>
+        <v>0.952835204003287</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00352052019405556</v>
+        <v>0.003873431596101744</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9489298025605883</v>
+        <v>-0.9500188749385403</v>
       </c>
       <c r="E131" t="n">
-        <v>0.003721451553624241</v>
+        <v>0.004332580265925076</v>
       </c>
       <c r="F131" t="n">
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>122.844</v>
+        <v>123.39</v>
       </c>
       <c r="H131" t="n">
-        <v>0.024568704</v>
-      </c>
-      <c r="I131" t="inlineStr">
+        <v>0.024677904</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.9500188749385403</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9325,27 +9720,30 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9161959483144212</v>
+        <v>0.9165779630276262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.003392895574455821</v>
+        <v>0.002758622988913007</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.186773062639309</v>
+        <v>-1.186580235218716</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00334335803521617</v>
+        <v>0.002211429058380542</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
       </c>
       <c r="G132" t="n">
-        <v>124.888</v>
+        <v>124.849</v>
       </c>
       <c r="H132" t="n">
-        <v>0.02497762</v>
-      </c>
-      <c r="I132" t="inlineStr">
+        <v>0.024969882</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-1.186580235218716</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9356,27 +9754,30 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.916333622678056</v>
+        <v>0.9161927095137331</v>
       </c>
       <c r="C133" t="n">
-        <v>0.00157308392351989</v>
+        <v>0.002082840461689428</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.186701620199536</v>
+        <v>-1.186931408591655</v>
       </c>
       <c r="E133" t="n">
-        <v>0.001586176754005291</v>
+        <v>0.002101995547004868</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
       </c>
       <c r="G133" t="n">
-        <v>124.811</v>
+        <v>125.565</v>
       </c>
       <c r="H133" t="n">
-        <v>0.02496217</v>
-      </c>
-      <c r="I133" t="inlineStr">
+        <v>0.025113098</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-1.186931408591655</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9387,27 +9788,30 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9162484054918366</v>
+        <v>0.9164746491661087</v>
       </c>
       <c r="C134" t="n">
-        <v>0.002580845846603492</v>
+        <v>0.002620327193440102</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.186780988970187</v>
+        <v>-1.186624936693005</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002384775009633334</v>
+        <v>0.002447437681520747</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
       </c>
       <c r="G134" t="n">
-        <v>125.483</v>
+        <v>125.114</v>
       </c>
       <c r="H134" t="n">
-        <v>0.025096507</v>
-      </c>
-      <c r="I134" t="inlineStr">
+        <v>0.025022711</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-1.186624936693005</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9418,27 +9822,30 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9163709886390076</v>
+        <v>0.9156005847838052</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001271456553351721</v>
+        <v>0.004317784767575751</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.186710365962002</v>
+        <v>-1.187158541512341</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001496902258416641</v>
+        <v>0.004226891150804468</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
       </c>
       <c r="G135" t="n">
-        <v>124.848</v>
+        <v>124.745</v>
       </c>
       <c r="H135" t="n">
-        <v>0.024969691</v>
-      </c>
-      <c r="I135" t="inlineStr">
+        <v>0.024949005</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-1.187158541512341</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9449,27 +9856,30 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9161709685855326</v>
+        <v>0.9161802403790318</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001623788431388811</v>
+        <v>0.0007967290817473758</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.186820647904797</v>
+        <v>-1.186774132225347</v>
       </c>
       <c r="E136" t="n">
-        <v>0.001648898330839087</v>
+        <v>0.001043381267189409</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
       </c>
       <c r="G136" t="n">
-        <v>124.719</v>
+        <v>124.705</v>
       </c>
       <c r="H136" t="n">
-        <v>0.024943833</v>
-      </c>
-      <c r="I136" t="inlineStr">
+        <v>0.024941045</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-1.186774132225347</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9480,27 +9890,30 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9161802403790318</v>
+        <v>0.9161709685855326</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0007967290817473758</v>
+        <v>0.001623788431388811</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.186774132225347</v>
+        <v>-1.186820647904797</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001043381267189409</v>
+        <v>0.001648898330839087</v>
       </c>
       <c r="F137" t="n">
         <v>125</v>
       </c>
       <c r="G137" t="n">
-        <v>124.705</v>
+        <v>124.719</v>
       </c>
       <c r="H137" t="n">
-        <v>0.024941045</v>
-      </c>
-      <c r="I137" t="inlineStr">
+        <v>0.024943833</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-1.186820647904797</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9511,27 +9924,30 @@
         <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9156005847838052</v>
+        <v>0.9163709886390076</v>
       </c>
       <c r="C138" t="n">
-        <v>0.004317784767575751</v>
+        <v>0.001271456553351721</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.187158541512341</v>
+        <v>-1.186710365962002</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004226891150804468</v>
+        <v>0.001496902258416641</v>
       </c>
       <c r="F138" t="n">
         <v>125</v>
       </c>
       <c r="G138" t="n">
-        <v>124.745</v>
+        <v>124.848</v>
       </c>
       <c r="H138" t="n">
-        <v>0.024949005</v>
-      </c>
-      <c r="I138" t="inlineStr">
+        <v>0.024969691</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-1.186710365962002</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9542,27 +9958,30 @@
         <v>125</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9164746491661087</v>
+        <v>0.9162484054918366</v>
       </c>
       <c r="C139" t="n">
-        <v>0.002620327193440102</v>
+        <v>0.002580845846603492</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.186624936693005</v>
+        <v>-1.186780988970187</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002447437681520747</v>
+        <v>0.002384775009633334</v>
       </c>
       <c r="F139" t="n">
         <v>125</v>
       </c>
       <c r="G139" t="n">
-        <v>125.114</v>
+        <v>125.483</v>
       </c>
       <c r="H139" t="n">
-        <v>0.025022711</v>
-      </c>
-      <c r="I139" t="inlineStr">
+        <v>0.025096507</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-1.186780988970187</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9573,27 +9992,30 @@
         <v>125</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9161927095137331</v>
+        <v>0.916333622678056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.002082840461689428</v>
+        <v>0.00157308392351989</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.186931408591655</v>
+        <v>-1.186701620199536</v>
       </c>
       <c r="E140" t="n">
-        <v>0.002101995547004868</v>
+        <v>0.001586176754005291</v>
       </c>
       <c r="F140" t="n">
         <v>125</v>
       </c>
       <c r="G140" t="n">
-        <v>125.565</v>
+        <v>124.811</v>
       </c>
       <c r="H140" t="n">
-        <v>0.025113098</v>
-      </c>
-      <c r="I140" t="inlineStr">
+        <v>0.02496217</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-1.186701620199536</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9604,27 +10026,30 @@
         <v>125</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9165779630276262</v>
+        <v>0.9161959483144212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.002758622988913007</v>
+        <v>0.003392895574455821</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.186580235218716</v>
+        <v>-1.186773062639309</v>
       </c>
       <c r="E141" t="n">
-        <v>0.002211429058380542</v>
+        <v>0.00334335803521617</v>
       </c>
       <c r="F141" t="n">
         <v>125</v>
       </c>
       <c r="G141" t="n">
-        <v>124.849</v>
+        <v>124.888</v>
       </c>
       <c r="H141" t="n">
-        <v>0.024969882</v>
-      </c>
-      <c r="I141" t="inlineStr">
+        <v>0.02497762</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-1.186773062639309</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9635,27 +10060,30 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8540664710598472</v>
+        <v>0.8537166402900869</v>
       </c>
       <c r="C142" t="n">
-        <v>0.001542759105635947</v>
+        <v>0.002196010453649702</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518727038605024</v>
+        <v>-1.518937567689745</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001467534337048641</v>
+        <v>0.002234983390651338</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
       </c>
       <c r="G142" t="n">
-        <v>126.517</v>
+        <v>126.716</v>
       </c>
       <c r="H142" t="n">
-        <v>0.025303425</v>
-      </c>
-      <c r="I142" t="inlineStr">
+        <v>0.025343238</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-1.518937567689745</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9666,27 +10094,30 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8538077921184046</v>
+        <v>0.8539019817307391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.002393332709695696</v>
+        <v>0.001534511180430807</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.518904461856806</v>
+        <v>-1.518823543825993</v>
       </c>
       <c r="E143" t="n">
-        <v>0.002233161178730343</v>
+        <v>0.001586237453220688</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
       </c>
       <c r="G143" t="n">
-        <v>126.726</v>
+        <v>126.52</v>
       </c>
       <c r="H143" t="n">
-        <v>0.025345273</v>
-      </c>
-      <c r="I143" t="inlineStr">
+        <v>0.025304013</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-1.518823543825993</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9697,27 +10128,30 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.853751444335992</v>
+        <v>0.8537275993475835</v>
       </c>
       <c r="C144" t="n">
-        <v>0.002112925860926384</v>
+        <v>0.001628807617440066</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.518925884532245</v>
+        <v>-1.518931350802526</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001780205997926938</v>
+        <v>0.001523422752610095</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
       </c>
       <c r="G144" t="n">
-        <v>127.033</v>
+        <v>126.848</v>
       </c>
       <c r="H144" t="n">
-        <v>0.025406507</v>
-      </c>
-      <c r="I144" t="inlineStr">
+        <v>0.025369601</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-1.518931350802526</v>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9728,27 +10162,30 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8539045660047971</v>
+        <v>0.8540196889231098</v>
       </c>
       <c r="C145" t="n">
-        <v>0.00162656558085253</v>
+        <v>0.001512282544325826</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518819918207938</v>
+        <v>-1.518758754548577</v>
       </c>
       <c r="E145" t="n">
-        <v>0.001703073843978293</v>
+        <v>0.001522579243566783</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
       </c>
       <c r="G145" t="n">
-        <v>126.754</v>
+        <v>127.202</v>
       </c>
       <c r="H145" t="n">
-        <v>0.025350843</v>
-      </c>
-      <c r="I145" t="inlineStr">
+        <v>0.02544031</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-1.518758754548577</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9759,27 +10196,30 @@
         <v>160</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8534848452334569</v>
+        <v>0.8538386783932411</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002295354905862594</v>
+        <v>0.001255851242978765</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.519087181449516</v>
+        <v>-1.518838544036293</v>
       </c>
       <c r="E146" t="n">
-        <v>0.002091765282029701</v>
+        <v>0.00133548853390024</v>
       </c>
       <c r="F146" t="n">
         <v>160</v>
       </c>
       <c r="G146" t="n">
-        <v>126.622</v>
+        <v>126.625</v>
       </c>
       <c r="H146" t="n">
-        <v>0.025324415</v>
-      </c>
-      <c r="I146" t="inlineStr">
+        <v>0.025324908</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-1.518838544036293</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9790,27 +10230,30 @@
         <v>160</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8540196889231098</v>
+        <v>0.8539045660047971</v>
       </c>
       <c r="C147" t="n">
-        <v>0.001512282544325826</v>
+        <v>0.00162656558085253</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.518758754548577</v>
+        <v>-1.518819918207938</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001522579243566783</v>
+        <v>0.001703073843978293</v>
       </c>
       <c r="F147" t="n">
         <v>160</v>
       </c>
       <c r="G147" t="n">
-        <v>127.202</v>
+        <v>126.754</v>
       </c>
       <c r="H147" t="n">
-        <v>0.02544031</v>
-      </c>
-      <c r="I147" t="inlineStr">
+        <v>0.025350843</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-1.518819918207938</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9821,27 +10264,30 @@
         <v>160</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8537275993475835</v>
+        <v>0.853751444335992</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001628807617440066</v>
+        <v>0.002112925860926384</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.518931350802526</v>
+        <v>-1.518925884532245</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001523422752610095</v>
+        <v>0.001780205997926938</v>
       </c>
       <c r="F148" t="n">
         <v>160</v>
       </c>
       <c r="G148" t="n">
-        <v>126.848</v>
+        <v>127.033</v>
       </c>
       <c r="H148" t="n">
-        <v>0.025369601</v>
-      </c>
-      <c r="I148" t="inlineStr">
+        <v>0.025406507</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-1.518925884532245</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9852,27 +10298,30 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8539019817307391</v>
+        <v>0.8534848452334569</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001534511180430807</v>
+        <v>0.002295354905862594</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.518823543825993</v>
+        <v>-1.519087181449516</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001586237453220688</v>
+        <v>0.002091765282029701</v>
       </c>
       <c r="F149" t="n">
         <v>160</v>
       </c>
       <c r="G149" t="n">
-        <v>126.52</v>
+        <v>126.622</v>
       </c>
       <c r="H149" t="n">
-        <v>0.025304013</v>
-      </c>
-      <c r="I149" t="inlineStr">
+        <v>0.025324415</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-1.519087181449516</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9883,27 +10332,30 @@
         <v>160</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8537166402900869</v>
+        <v>0.8540664710598472</v>
       </c>
       <c r="C150" t="n">
-        <v>0.002196010453649702</v>
+        <v>0.001542759105635947</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.518937567689745</v>
+        <v>-1.518727038605024</v>
       </c>
       <c r="E150" t="n">
-        <v>0.002234983390651338</v>
+        <v>0.001467534337048641</v>
       </c>
       <c r="F150" t="n">
         <v>160</v>
       </c>
       <c r="G150" t="n">
-        <v>126.716</v>
+        <v>126.517</v>
       </c>
       <c r="H150" t="n">
-        <v>0.025343238</v>
-      </c>
-      <c r="I150" t="inlineStr">
+        <v>0.025303425</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-1.518727038605024</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9914,27 +10366,30 @@
         <v>160</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8538386783932411</v>
+        <v>0.8538077921184046</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001255851242978765</v>
+        <v>0.002393332709695696</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.518838544036293</v>
+        <v>-1.518904461856806</v>
       </c>
       <c r="E151" t="n">
-        <v>0.00133548853390024</v>
+        <v>0.002233161178730343</v>
       </c>
       <c r="F151" t="n">
         <v>160</v>
       </c>
       <c r="G151" t="n">
-        <v>126.625</v>
+        <v>126.726</v>
       </c>
       <c r="H151" t="n">
-        <v>0.025324908</v>
-      </c>
-      <c r="I151" t="inlineStr">
+        <v>0.025345273</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-1.518904461856806</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9945,27 +10400,30 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.76774626200166</v>
+        <v>0.7682038651522488</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001243945519867335</v>
+        <v>0.001786309723362741</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.898878061643849</v>
+        <v>-1.898589827761933</v>
       </c>
       <c r="E152" t="n">
-        <v>0.001404387150902915</v>
+        <v>0.001520103519535235</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
       </c>
       <c r="G152" t="n">
-        <v>126.547</v>
+        <v>126.591</v>
       </c>
       <c r="H152" t="n">
-        <v>0.025309323</v>
-      </c>
-      <c r="I152" t="inlineStr">
+        <v>0.025318225</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-1.898589827761933</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9976,27 +10434,30 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7674007994372982</v>
+        <v>0.7674482686022198</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002123758542342436</v>
+        <v>0.002409760303162789</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.899080665398786</v>
+        <v>-1.899042664673275</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001796712524865338</v>
+        <v>0.002230262151081557</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>126.436</v>
+        <v>126.722</v>
       </c>
       <c r="H153" t="n">
-        <v>0.025287156</v>
-      </c>
-      <c r="I153" t="inlineStr">
+        <v>0.025344364</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-1.899042664673275</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10007,27 +10468,30 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7678182702325892</v>
+        <v>0.7677683733378668</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0008601235613632995</v>
+        <v>0.001494454718159408</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.898816833625994</v>
+        <v>-1.898864387823961</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001058605468619985</v>
+        <v>0.001583394665957081</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
       </c>
       <c r="G154" t="n">
-        <v>126.347</v>
+        <v>126.703</v>
       </c>
       <c r="H154" t="n">
-        <v>0.025269313</v>
-      </c>
-      <c r="I154" t="inlineStr">
+        <v>0.025340616</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-1.898864387823961</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10038,27 +10502,30 @@
         <v>200</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7675176941755193</v>
+        <v>0.7677624394224872</v>
       </c>
       <c r="C155" t="n">
-        <v>0.001992928059122261</v>
+        <v>0.0009110532213234339</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.899003934365898</v>
+        <v>-1.898836092833925</v>
       </c>
       <c r="E155" t="n">
-        <v>0.001666186245253762</v>
+        <v>0.001184120961817424</v>
       </c>
       <c r="F155" t="n">
         <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>127.047</v>
+        <v>126.179</v>
       </c>
       <c r="H155" t="n">
-        <v>0.025409471</v>
-      </c>
-      <c r="I155" t="inlineStr">
+        <v>0.025235848</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-1.898836092833925</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10069,27 +10536,30 @@
         <v>200</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7673586675447344</v>
+        <v>0.7672834720240541</v>
       </c>
       <c r="C156" t="n">
-        <v>0.001952833231211985</v>
+        <v>0.00296731269902812</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.899057307546973</v>
+        <v>-1.89914176301677</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001692019737089502</v>
+        <v>0.00250971414411737</v>
       </c>
       <c r="F156" t="n">
         <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>126.345</v>
+        <v>126.634</v>
       </c>
       <c r="H156" t="n">
-        <v>0.025268999</v>
-      </c>
-      <c r="I156" t="inlineStr">
+        <v>0.02532687</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-1.89914176301677</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10100,27 +10570,30 @@
         <v>200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7677624394224872</v>
+        <v>0.7675176941755193</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0009110532213234339</v>
+        <v>0.001992928059122261</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.898836092833925</v>
+        <v>-1.899003934365898</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001184120961817424</v>
+        <v>0.001666186245253762</v>
       </c>
       <c r="F157" t="n">
         <v>200</v>
       </c>
       <c r="G157" t="n">
-        <v>126.179</v>
+        <v>127.047</v>
       </c>
       <c r="H157" t="n">
-        <v>0.025235848</v>
-      </c>
-      <c r="I157" t="inlineStr">
+        <v>0.025409471</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-1.899003934365898</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10131,27 +10604,30 @@
         <v>200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7677683733378668</v>
+        <v>0.7678182702325892</v>
       </c>
       <c r="C158" t="n">
-        <v>0.001494454718159408</v>
+        <v>0.0008601235613632995</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.898864387823961</v>
+        <v>-1.898816833625994</v>
       </c>
       <c r="E158" t="n">
-        <v>0.001583394665957081</v>
+        <v>0.001058605468619985</v>
       </c>
       <c r="F158" t="n">
         <v>200</v>
       </c>
       <c r="G158" t="n">
-        <v>126.703</v>
+        <v>126.347</v>
       </c>
       <c r="H158" t="n">
-        <v>0.025340616</v>
-      </c>
-      <c r="I158" t="inlineStr">
+        <v>0.025269313</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-1.898816833625994</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10162,27 +10638,30 @@
         <v>200</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7674482686022198</v>
+        <v>0.7673586675447344</v>
       </c>
       <c r="C159" t="n">
-        <v>0.002409760303162789</v>
+        <v>0.001952833231211985</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.899042664673275</v>
+        <v>-1.899057307546973</v>
       </c>
       <c r="E159" t="n">
-        <v>0.002230262151081557</v>
+        <v>0.001692019737089502</v>
       </c>
       <c r="F159" t="n">
         <v>200</v>
       </c>
       <c r="G159" t="n">
-        <v>126.722</v>
+        <v>126.345</v>
       </c>
       <c r="H159" t="n">
-        <v>0.025344364</v>
-      </c>
-      <c r="I159" t="inlineStr">
+        <v>0.025268999</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-1.899057307546973</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10193,27 +10672,30 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7682038651522488</v>
+        <v>0.7674007994372982</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001786309723362741</v>
+        <v>0.002123758542342436</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.898589827761933</v>
+        <v>-1.899080665398786</v>
       </c>
       <c r="E160" t="n">
-        <v>0.001520103519535235</v>
+        <v>0.001796712524865338</v>
       </c>
       <c r="F160" t="n">
         <v>200</v>
       </c>
       <c r="G160" t="n">
-        <v>126.591</v>
+        <v>126.436</v>
       </c>
       <c r="H160" t="n">
-        <v>0.025318225</v>
-      </c>
-      <c r="I160" t="inlineStr">
+        <v>0.025287156</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-1.899080665398786</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10224,27 +10706,30 @@
         <v>200</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7672834720240541</v>
+        <v>0.76774626200166</v>
       </c>
       <c r="C161" t="n">
-        <v>0.00296731269902812</v>
+        <v>0.001243945519867335</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.89914176301677</v>
+        <v>-1.898878061643849</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00250971414411737</v>
+        <v>0.001404387150902915</v>
       </c>
       <c r="F161" t="n">
         <v>200</v>
       </c>
       <c r="G161" t="n">
-        <v>126.634</v>
+        <v>126.547</v>
       </c>
       <c r="H161" t="n">
-        <v>0.02532687</v>
-      </c>
-      <c r="I161" t="inlineStr">
+        <v>0.025309323</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-1.898878061643849</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10255,27 +10740,30 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6439495957148142</v>
+        <v>0.643647877621464</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001494460295682958</v>
+        <v>0.001330767763937959</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.373392370945519</v>
+        <v>-2.373597696771729</v>
       </c>
       <c r="E162" t="n">
-        <v>0.001578049107048324</v>
+        <v>0.001571001824718288</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
       </c>
       <c r="G162" t="n">
-        <v>125.757</v>
+        <v>126.107</v>
       </c>
       <c r="H162" t="n">
-        <v>0.025151493</v>
-      </c>
-      <c r="I162" t="inlineStr">
+        <v>0.025221348</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-2.373597696771729</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10286,27 +10774,30 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.643647877621464</v>
+        <v>0.644136441947274</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001330767763937959</v>
+        <v>0.001292722958397157</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.373597696771729</v>
+        <v>-2.37325950540645</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001571001824718288</v>
+        <v>0.001480105326754935</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
       </c>
       <c r="G163" t="n">
-        <v>126.107</v>
+        <v>126.001</v>
       </c>
       <c r="H163" t="n">
-        <v>0.025221348</v>
-      </c>
-      <c r="I163" t="inlineStr">
+        <v>0.02520023</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-2.37325950540645</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10317,27 +10808,30 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.644136441947274</v>
+        <v>0.644298778778711</v>
       </c>
       <c r="C164" t="n">
-        <v>0.001292722958397157</v>
+        <v>0.002559571885455578</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.37325950540645</v>
+        <v>-2.373180416349297</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001480105326754935</v>
+        <v>0.002315092903704753</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
       </c>
       <c r="G164" t="n">
-        <v>126.001</v>
+        <v>125.886</v>
       </c>
       <c r="H164" t="n">
-        <v>0.02520023</v>
-      </c>
-      <c r="I164" t="inlineStr">
+        <v>0.025177128</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-2.373180416349297</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10348,27 +10842,30 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.644298778778711</v>
+        <v>0.6438666362961364</v>
       </c>
       <c r="C165" t="n">
-        <v>0.002559571885455578</v>
+        <v>0.00174789059171001</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.373180416349297</v>
+        <v>-2.373449453611761</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002315092903704753</v>
+        <v>0.001918496511894563</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
       </c>
       <c r="G165" t="n">
-        <v>125.886</v>
+        <v>125.958</v>
       </c>
       <c r="H165" t="n">
-        <v>0.025177128</v>
-      </c>
-      <c r="I165" t="inlineStr">
+        <v>0.025191638</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-2.373449453611761</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10379,27 +10876,30 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6438666362961364</v>
+        <v>0.6439375518524958</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00174789059171001</v>
+        <v>0.001803478170396795</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.373449453611761</v>
+        <v>-2.373395375307986</v>
       </c>
       <c r="E166" t="n">
-        <v>0.001918496511894563</v>
+        <v>0.002096893840901229</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>125.958</v>
+        <v>125.973</v>
       </c>
       <c r="H166" t="n">
-        <v>0.025191638</v>
-      </c>
-      <c r="I166" t="inlineStr">
+        <v>0.025194517</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-2.373395375307986</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10410,27 +10910,30 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6439375518524958</v>
+        <v>0.6437934038996345</v>
       </c>
       <c r="C167" t="n">
-        <v>0.001803478170396795</v>
+        <v>0.00114285237459502</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.373395375307986</v>
+        <v>-2.373483785676584</v>
       </c>
       <c r="E167" t="n">
-        <v>0.002096893840901229</v>
+        <v>0.001479318219216294</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
       </c>
       <c r="G167" t="n">
-        <v>125.973</v>
+        <v>126.246</v>
       </c>
       <c r="H167" t="n">
-        <v>0.025194517</v>
-      </c>
-      <c r="I167" t="inlineStr">
+        <v>0.025249135</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-2.373483785676584</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10441,27 +10944,30 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6437934038996345</v>
+        <v>0.6438774804572911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.00114285237459502</v>
+        <v>0.001514294878484339</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.373483785676584</v>
+        <v>-2.373437763512482</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001479318219216294</v>
+        <v>0.0017886046419506</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
       </c>
       <c r="G168" t="n">
-        <v>126.246</v>
+        <v>126.356</v>
       </c>
       <c r="H168" t="n">
-        <v>0.025249135</v>
-      </c>
-      <c r="I168" t="inlineStr">
+        <v>0.025271213</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-2.373437763512482</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10472,27 +10978,30 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6438774804572911</v>
+        <v>0.6440538802373571</v>
       </c>
       <c r="C169" t="n">
-        <v>0.001514294878484339</v>
+        <v>0.001722506386205171</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.373437763512482</v>
+        <v>-2.373321900953357</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0017886046419506</v>
+        <v>0.001924183900871986</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
       </c>
       <c r="G169" t="n">
-        <v>126.356</v>
+        <v>126.635</v>
       </c>
       <c r="H169" t="n">
-        <v>0.025271213</v>
-      </c>
-      <c r="I169" t="inlineStr">
+        <v>0.025326942</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-2.373321900953357</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10503,27 +11012,30 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6440538802373571</v>
+        <v>0.6439495957148142</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001722506386205171</v>
+        <v>0.001494460295682958</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.373321900953357</v>
+        <v>-2.373392370945519</v>
       </c>
       <c r="E170" t="n">
-        <v>0.001924183900871986</v>
+        <v>0.001578049107048324</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>126.635</v>
+        <v>125.757</v>
       </c>
       <c r="H170" t="n">
-        <v>0.025326942</v>
-      </c>
-      <c r="I170" t="inlineStr">
+        <v>0.025151493</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-2.373392370945519</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10554,7 +11066,10 @@
       <c r="H171" t="n">
         <v>0.025161996</v>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="I171" t="n">
+        <v>-2.373280389812181</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -5303,7 +5303,7 @@
         <v>1.01955413479884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002727262931784652</v>
+        <v>0.003272830709032061</v>
       </c>
       <c r="D2" t="n">
         <v>-0.09468368881641709</v>
@@ -5318,7 +5318,7 @@
         <v>2.739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000547878</v>
+        <v>0.004891327390165</v>
       </c>
       <c r="I2" t="n">
         <v>-0.09468368881641709</v>
@@ -5337,7 +5337,7 @@
         <v>1.019261501905951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004366399591716795</v>
+        <v>0.005650426376028693</v>
       </c>
       <c r="D3" t="n">
         <v>-0.09461263669183584</v>
@@ -5352,7 +5352,7 @@
         <v>2.749</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005497190000000001</v>
+        <v>0.009688163830732999</v>
       </c>
       <c r="I3" t="n">
         <v>-0.09461263669183584</v>
@@ -5371,7 +5371,7 @@
         <v>1.019092986583491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003428262062275564</v>
+        <v>0.004607684167324609</v>
       </c>
       <c r="D4" t="n">
         <v>-0.09493052876059216</v>
@@ -5386,7 +5386,7 @@
         <v>2.756</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000551123</v>
+        <v>0.008343878597812</v>
       </c>
       <c r="I4" t="n">
         <v>-0.09493052876059216</v>
@@ -5405,7 +5405,7 @@
         <v>1.01920468111376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002474593453094589</v>
+        <v>0.003023750828807779</v>
       </c>
       <c r="D5" t="n">
         <v>-0.09460199638093547</v>
@@ -5420,7 +5420,7 @@
         <v>2.756</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000551259</v>
+        <v>0.004730974720984</v>
       </c>
       <c r="I5" t="n">
         <v>-0.09460199638093547</v>
@@ -5439,7 +5439,7 @@
         <v>1.019102067054115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003085895778865776</v>
+        <v>0.003853908176653013</v>
       </c>
       <c r="D6" t="n">
         <v>-0.09461164680031775</v>
@@ -5454,7 +5454,7 @@
         <v>2.749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000549895</v>
+        <v>0.006251745842114</v>
       </c>
       <c r="I6" t="n">
         <v>-0.09461164680031775</v>
@@ -5473,7 +5473,7 @@
         <v>1.019098138575958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00323301063452513</v>
+        <v>0.004030123570657592</v>
       </c>
       <c r="D7" t="n">
         <v>-0.0947113851968906</v>
@@ -5488,7 +5488,7 @@
         <v>2.752</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000550481</v>
+        <v>0.006520897917793</v>
       </c>
       <c r="I7" t="n">
         <v>-0.0947113851968906</v>
@@ -5507,7 +5507,7 @@
         <v>1.019075735219341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002909525172730187</v>
+        <v>0.003756982541617064</v>
       </c>
       <c r="D8" t="n">
         <v>-0.09498309447476005</v>
@@ -5522,7 +5522,7 @@
         <v>2.753</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000550533</v>
+        <v>0.006444634638151</v>
       </c>
       <c r="I8" t="n">
         <v>-0.09498309447476005</v>
@@ -5541,7 +5541,7 @@
         <v>1.018841099849396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003402162084148781</v>
+        <v>0.00495261354136049</v>
       </c>
       <c r="D9" t="n">
         <v>-0.09458392019252382</v>
@@ -5556,7 +5556,7 @@
         <v>2.746</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00054919</v>
+        <v>0.009715954243424</v>
       </c>
       <c r="I9" t="n">
         <v>-0.09458392019252382</v>
@@ -5575,7 +5575,7 @@
         <v>1.019176444798685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002894534635686457</v>
+        <v>0.00400428446379558</v>
       </c>
       <c r="D10" t="n">
         <v>-0.09456147092396305</v>
@@ -5590,7 +5590,7 @@
         <v>2.76</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000551925</v>
+        <v>0.007513366549737</v>
       </c>
       <c r="I10" t="n">
         <v>-0.09456147092396305</v>
@@ -5609,7 +5609,7 @@
         <v>1.019313135262444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005397927985709474</v>
+        <v>0.007295502197423162</v>
       </c>
       <c r="D11" t="n">
         <v>-0.09471901459374377</v>
@@ -5624,7 +5624,7 @@
         <v>2.751</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00055021</v>
+        <v>0.013257029325526</v>
       </c>
       <c r="I11" t="n">
         <v>-0.09471901459374377</v>
@@ -5643,7 +5643,7 @@
         <v>1.018037974265213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004021363958810756</v>
+        <v>0.005151192163864313</v>
       </c>
       <c r="D12" t="n">
         <v>-0.1186007078629865</v>
@@ -5658,7 +5658,7 @@
         <v>2.761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005521499999999999</v>
+        <v>0.008748237670929001</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1186007078629865</v>
@@ -5677,7 +5677,7 @@
         <v>1.018413370767813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003801090636467539</v>
+        <v>0.005501334526828454</v>
       </c>
       <c r="D13" t="n">
         <v>-0.1188698326590361</v>
@@ -5692,7 +5692,7 @@
         <v>2.757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000551371</v>
+        <v>0.010780406878195</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1188698326590361</v>
@@ -5711,7 +5711,7 @@
         <v>1.018343700268765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003964453143655546</v>
+        <v>0.005371576867214532</v>
       </c>
       <c r="D14" t="n">
         <v>-0.1186059136544484</v>
@@ -5726,7 +5726,7 @@
         <v>2.761</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005521429999999999</v>
+        <v>0.009842461528008</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1186059136544484</v>
@@ -5745,7 +5745,7 @@
         <v>1.018477952815318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002635570880354945</v>
+        <v>0.00307827730646071</v>
       </c>
       <c r="D15" t="n">
         <v>-0.1180289245665194</v>
@@ -5760,7 +5760,7 @@
         <v>2.757</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00055136</v>
+        <v>0.004340500589592</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1180289245665194</v>
@@ -5779,7 +5779,7 @@
         <v>1.018494187448801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00530984915594112</v>
+        <v>0.00776566628364966</v>
       </c>
       <c r="D16" t="n">
         <v>-0.1190525439858523</v>
@@ -5794,7 +5794,7 @@
         <v>2.761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000552117</v>
+        <v>0.015371477021473</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1190525439858523</v>
@@ -5813,7 +5813,7 @@
         <v>1.019093297623116</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003008083837759189</v>
+        <v>0.004047479819917342</v>
       </c>
       <c r="D17" t="n">
         <v>-0.1188203516166466</v>
@@ -5828,7 +5828,7 @@
         <v>2.744</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000548816</v>
+        <v>0.007312286604905</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1188203516166466</v>
@@ -5847,7 +5847,7 @@
         <v>1.01815527775581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005084010327959773</v>
+        <v>0.007561857254133796</v>
       </c>
       <c r="D18" t="n">
         <v>-0.1187594703689183</v>
@@ -5862,7 +5862,7 @@
         <v>2.753</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0005506140000000001</v>
+        <v>0.015145754960434</v>
       </c>
       <c r="I18" t="n">
         <v>-0.1187594703689183</v>
@@ -5881,7 +5881,7 @@
         <v>1.017900904988349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004888293682926267</v>
+        <v>0.007370482014416724</v>
       </c>
       <c r="D19" t="n">
         <v>-0.118398307234427</v>
@@ -5896,7 +5896,7 @@
         <v>2.757</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000551356</v>
+        <v>0.014950912307602</v>
       </c>
       <c r="I19" t="n">
         <v>-0.118398307234427</v>
@@ -5915,7 +5915,7 @@
         <v>1.018783375294373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003923529700670683</v>
+        <v>0.005224319725925793</v>
       </c>
       <c r="D20" t="n">
         <v>-0.1195153545433347</v>
@@ -5930,7 +5930,7 @@
         <v>2.753</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000550681</v>
+        <v>0.009337787552397</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1195153545433347</v>
@@ -5949,7 +5949,7 @@
         <v>1.018516313126167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002900375987305232</v>
+        <v>0.003793783654166793</v>
       </c>
       <c r="D21" t="n">
         <v>-0.1184922992798134</v>
@@ -5964,7 +5964,7 @@
         <v>2.755</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000550957</v>
+        <v>0.006637853615773</v>
       </c>
       <c r="I21" t="n">
         <v>-0.1184922992798134</v>
@@ -5983,7 +5983,7 @@
         <v>1.01843940537399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003800065894958993</v>
+        <v>0.005217645819351358</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1519605918834235</v>
@@ -5998,7 +5998,7 @@
         <v>5.578</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001115628</v>
+        <v>0.019614124125092</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1519605918834235</v>
@@ -6017,7 +6017,7 @@
         <v>1.017730243177382</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001940541796348569</v>
+        <v>0.002862661943250054</v>
       </c>
       <c r="D23" t="n">
         <v>-0.1516432644978034</v>
@@ -6032,7 +6032,7 @@
         <v>5.573</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001114562</v>
+        <v>0.011578099655723</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1516432644978034</v>
@@ -6051,7 +6051,7 @@
         <v>1.017711034216828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004539838697563177</v>
+        <v>0.006137682113597089</v>
       </c>
       <c r="D24" t="n">
         <v>-0.1521381790959864</v>
@@ -6066,7 +6066,7 @@
         <v>5.582</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001116311</v>
+        <v>0.022682673887978</v>
       </c>
       <c r="I24" t="n">
         <v>-0.1521381790959864</v>
@@ -6085,7 +6085,7 @@
         <v>1.018575221931231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003890918079105336</v>
+        <v>0.005213595663293753</v>
       </c>
       <c r="D25" t="n">
         <v>-0.1523009152981192</v>
@@ -6100,7 +6100,7 @@
         <v>5.567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001113371</v>
+        <v>0.018998988836365</v>
       </c>
       <c r="I25" t="n">
         <v>-0.1523009152981192</v>
@@ -6119,7 +6119,7 @@
         <v>1.017924185605009</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002287883311508676</v>
+        <v>0.003147999350854616</v>
       </c>
       <c r="D26" t="n">
         <v>-0.1518716401407625</v>
@@ -6134,7 +6134,7 @@
         <v>5.578</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001115576</v>
+        <v>0.011901262011855</v>
       </c>
       <c r="I26" t="n">
         <v>-0.1518716401407625</v>
@@ -6153,7 +6153,7 @@
         <v>1.018381879256725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005223860833804657</v>
+        <v>0.00755499268938638</v>
       </c>
       <c r="D27" t="n">
         <v>-0.1523297439645124</v>
@@ -6168,7 +6168,7 @@
         <v>5.546</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001109199</v>
+        <v>0.029744094590026</v>
       </c>
       <c r="I27" t="n">
         <v>-0.1523297439645124</v>
@@ -6187,7 +6187,7 @@
         <v>1.018325530689699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004073645633316419</v>
+        <v>0.00564497369026703</v>
       </c>
       <c r="D28" t="n">
         <v>-0.1522435997185894</v>
@@ -6202,7 +6202,7 @@
         <v>5.579</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001115731</v>
+        <v>0.021438499750743</v>
       </c>
       <c r="I28" t="n">
         <v>-0.1522435997185894</v>
@@ -6221,7 +6221,7 @@
         <v>1.017669872079825</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002761032464980853</v>
+        <v>0.003918433982497729</v>
       </c>
       <c r="D29" t="n">
         <v>-0.1516284990597248</v>
@@ -6236,7 +6236,7 @@
         <v>5.573</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001114655</v>
+        <v>0.015267067986888</v>
       </c>
       <c r="I29" t="n">
         <v>-0.1516284990597248</v>
@@ -6255,7 +6255,7 @@
         <v>1.018213012197017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003163649795984415</v>
+        <v>0.004429348111081433</v>
       </c>
       <c r="D30" t="n">
         <v>-0.1523040484881624</v>
@@ -6270,7 +6270,7 @@
         <v>5.57</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00111397</v>
+        <v>0.016995081270198</v>
       </c>
       <c r="I30" t="n">
         <v>-0.1523040484881624</v>
@@ -6289,7 +6289,7 @@
         <v>1.017740064549845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003090647901958218</v>
+        <v>0.004162510627696204</v>
       </c>
       <c r="D31" t="n">
         <v>-0.1517500518851931</v>
@@ -6304,7 +6304,7 @@
         <v>5.575</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001115018</v>
+        <v>0.015314237193869</v>
       </c>
       <c r="I31" t="n">
         <v>-0.1517500518851931</v>
@@ -6323,7 +6323,7 @@
         <v>1.016881802964801</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002517404189356286</v>
+        <v>0.003400473994618108</v>
       </c>
       <c r="D32" t="n">
         <v>-0.1894688903953767</v>
@@ -6338,7 +6338,7 @@
         <v>5.596</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001119259</v>
+        <v>0.012629898170336</v>
       </c>
       <c r="I32" t="n">
         <v>-0.1894688903953767</v>
@@ -6357,7 +6357,7 @@
         <v>1.016443709258752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003505712878289714</v>
+        <v>0.004292355322701152</v>
       </c>
       <c r="D33" t="n">
         <v>-0.1893762681164637</v>
@@ -6372,7 +6372,7 @@
         <v>5.57</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001113944</v>
+        <v>0.013617955788718</v>
       </c>
       <c r="I33" t="n">
         <v>-0.1893762681164637</v>
@@ -6391,7 +6391,7 @@
         <v>1.016767628922006</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002421107806708582</v>
+        <v>0.003289246279646641</v>
       </c>
       <c r="D34" t="n">
         <v>-0.1899022828866734</v>
@@ -6406,7 +6406,7 @@
         <v>5.594</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001118735</v>
+        <v>0.012300716631549</v>
       </c>
       <c r="I34" t="n">
         <v>-0.1899022828866734</v>
@@ -6425,7 +6425,7 @@
         <v>1.016683512507745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002710059438792958</v>
+        <v>0.003828105769477187</v>
       </c>
       <c r="D35" t="n">
         <v>-0.1897262701136946</v>
@@ -6440,7 +6440,7 @@
         <v>5.592</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001118395</v>
+        <v>0.014912963650047</v>
       </c>
       <c r="I35" t="n">
         <v>-0.1897262701136946</v>
@@ -6459,7 +6459,7 @@
         <v>1.016992201397093</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002476498359863639</v>
+        <v>0.00404754222426729</v>
       </c>
       <c r="D36" t="n">
         <v>-0.1897733691051613</v>
@@ -6474,7 +6474,7 @@
         <v>5.596</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001119128</v>
+        <v>0.017651725874693</v>
       </c>
       <c r="I36" t="n">
         <v>-0.1897733691051613</v>
@@ -6493,7 +6493,7 @@
         <v>1.016985494451034</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003333709501632135</v>
+        <v>0.005041366938133791</v>
       </c>
       <c r="D37" t="n">
         <v>-0.1899356200044511</v>
@@ -6508,7 +6508,7 @@
         <v>5.571</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001114252</v>
+        <v>0.020746290517999</v>
       </c>
       <c r="I37" t="n">
         <v>-0.1899356200044511</v>
@@ -6527,7 +6527,7 @@
         <v>1.016476989247063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003069688421780098</v>
+        <v>0.004409176775394881</v>
       </c>
       <c r="D38" t="n">
         <v>-0.1898097927036959</v>
@@ -6542,7 +6542,7 @@
         <v>5.593</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001118636</v>
+        <v>0.017451334974756</v>
       </c>
       <c r="I38" t="n">
         <v>-0.1898097927036959</v>
@@ -6561,7 +6561,7 @@
         <v>1.017032160321141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002690369349173385</v>
+        <v>0.003811395046518484</v>
       </c>
       <c r="D39" t="n">
         <v>-0.1900993259780035</v>
@@ -6576,7 +6576,7 @@
         <v>5.581</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001116173</v>
+        <v>0.014856955800656</v>
       </c>
       <c r="I39" t="n">
         <v>-0.1900993259780035</v>
@@ -6595,7 +6595,7 @@
         <v>1.016991791201618</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002358273030176507</v>
+        <v>0.003220610439917267</v>
       </c>
       <c r="D40" t="n">
         <v>-0.1901219848709348</v>
@@ -6610,7 +6610,7 @@
         <v>5.59</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00111793</v>
+        <v>0.012107814239987</v>
       </c>
       <c r="I40" t="n">
         <v>-0.1901219848709348</v>
@@ -6629,7 +6629,7 @@
         <v>1.01677167320184</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002103378256928673</v>
+        <v>0.002403736411786261</v>
       </c>
       <c r="D41" t="n">
         <v>-0.189423168809548</v>
@@ -6644,7 +6644,7 @@
         <v>5.586</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00111722</v>
+        <v>0.006489042918398</v>
       </c>
       <c r="I41" t="n">
         <v>-0.189423168809548</v>
@@ -6663,7 +6663,7 @@
         <v>1.015287530429565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002275882137218842</v>
+        <v>0.003111998737711569</v>
       </c>
       <c r="D42" t="n">
         <v>-0.2371998859887468</v>
@@ -6678,7 +6678,7 @@
         <v>11.28</v>
       </c>
       <c r="H42" t="n">
-        <v>0.002256042</v>
+        <v>0.023688687446238</v>
       </c>
       <c r="I42" t="n">
         <v>-0.2371998859887468</v>
@@ -6697,7 +6697,7 @@
         <v>1.015507185881661</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00203233755083447</v>
+        <v>0.002949415411475437</v>
       </c>
       <c r="D43" t="n">
         <v>-0.2374395802762082</v>
@@ -6712,7 +6712,7 @@
         <v>11.272</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002254355</v>
+        <v>0.023832187938277</v>
       </c>
       <c r="I43" t="n">
         <v>-0.2374395802762082</v>
@@ -6731,7 +6731,7 @@
         <v>1.015401747564822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002180257135799891</v>
+        <v>0.003249768325906804</v>
       </c>
       <c r="D44" t="n">
         <v>-0.2372800976627194</v>
@@ -6746,7 +6746,7 @@
         <v>11.273</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002254673</v>
+        <v>0.026849234947934</v>
       </c>
       <c r="I44" t="n">
         <v>-0.2372800976627194</v>
@@ -6765,7 +6765,7 @@
         <v>1.0155538649882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002383383929122085</v>
+        <v>0.003369572833881639</v>
       </c>
       <c r="D45" t="n">
         <v>-0.2377231390478642</v>
@@ -6780,7 +6780,7 @@
         <v>11.272</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002254388</v>
+        <v>0.026533641107474</v>
       </c>
       <c r="I45" t="n">
         <v>-0.2377231390478642</v>
@@ -6799,7 +6799,7 @@
         <v>1.015218699552001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002065698100613004</v>
+        <v>0.002623207997502186</v>
       </c>
       <c r="D46" t="n">
         <v>-0.2366795655649319</v>
@@ -6814,7 +6814,7 @@
         <v>11.265</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00225301</v>
+        <v>0.018081378963867</v>
       </c>
       <c r="I46" t="n">
         <v>-0.2366795655649319</v>
@@ -6833,7 +6833,7 @@
         <v>1.015376833937671</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001798534864085495</v>
+        <v>0.002485810462870884</v>
       </c>
       <c r="D47" t="n">
         <v>-0.2374148109787018</v>
@@ -6848,7 +6848,7 @@
         <v>11.282</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002256496</v>
+        <v>0.019199368989646</v>
       </c>
       <c r="I47" t="n">
         <v>-0.2374148109787018</v>
@@ -6867,7 +6867,7 @@
         <v>1.015282931577932</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001857528762469348</v>
+        <v>0.002423027891007316</v>
       </c>
       <c r="D48" t="n">
         <v>-0.237054109419446</v>
@@ -6882,7 +6882,7 @@
         <v>11.282</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002256465</v>
+        <v>0.017435440637342</v>
       </c>
       <c r="I48" t="n">
         <v>-0.237054109419446</v>
@@ -6901,7 +6901,7 @@
         <v>1.015083331313351</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001776884298835166</v>
+        <v>0.002527783011691038</v>
       </c>
       <c r="D49" t="n">
         <v>-0.2366787429961543</v>
@@ -6916,7 +6916,7 @@
         <v>11.264</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00225281</v>
+        <v>0.020077182874202</v>
       </c>
       <c r="I49" t="n">
         <v>-0.2366787429961543</v>
@@ -6935,7 +6935,7 @@
         <v>1.014817390689611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003028690216879394</v>
+        <v>0.003686403387753666</v>
       </c>
       <c r="D50" t="n">
         <v>-0.2365628466730563</v>
@@ -6950,7 +6950,7 @@
         <v>11.284</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002256829</v>
+        <v>0.023476616326684</v>
       </c>
       <c r="I50" t="n">
         <v>-0.2365628466730563</v>
@@ -6969,7 +6969,7 @@
         <v>1.015285154307868</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002646685685617881</v>
+        <v>0.003831003073481512</v>
       </c>
       <c r="D51" t="n">
         <v>-0.2373388303386905</v>
@@ -6984,7 +6984,7 @@
         <v>11.281</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002256244</v>
+        <v>0.0308579917812</v>
       </c>
       <c r="I51" t="n">
         <v>-0.2373388303386905</v>
@@ -7003,7 +7003,7 @@
         <v>1.012798570405463</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001317846985944281</v>
+        <v>0.001775381686142341</v>
       </c>
       <c r="D52" t="n">
         <v>-0.2987690391140281</v>
@@ -7018,7 +7018,7 @@
         <v>11.425</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002285012</v>
+        <v>0.013613102380448</v>
       </c>
       <c r="I52" t="n">
         <v>-0.2987690391140281</v>
@@ -7037,7 +7037,7 @@
         <v>1.012732527434692</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001579439874526018</v>
+        <v>0.002264132091516062</v>
       </c>
       <c r="D53" t="n">
         <v>-0.2986780078685594</v>
@@ -7052,7 +7052,7 @@
         <v>11.436</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002287214</v>
+        <v>0.018460932450378</v>
       </c>
       <c r="I53" t="n">
         <v>-0.2986780078685594</v>
@@ -7071,7 +7071,7 @@
         <v>1.012643600138697</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001390569541604939</v>
+        <v>0.00153937729937816</v>
       </c>
       <c r="D54" t="n">
         <v>-0.2985702850478891</v>
@@ -7086,7 +7086,7 @@
         <v>11.437</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00228731</v>
+        <v>0.007800470922491</v>
       </c>
       <c r="I54" t="n">
         <v>-0.2985702850478891</v>
@@ -7105,7 +7105,7 @@
         <v>1.012746610054463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001471493274832445</v>
+        <v>0.001861551487294796</v>
       </c>
       <c r="D55" t="n">
         <v>-0.298823225309897</v>
@@ -7120,7 +7120,7 @@
         <v>11.427</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00228542</v>
+        <v>0.013066623425462</v>
       </c>
       <c r="I55" t="n">
         <v>-0.298823225309897</v>
@@ -7139,7 +7139,7 @@
         <v>1.012805725212618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001287487584829475</v>
+        <v>0.001725431370878325</v>
       </c>
       <c r="D56" t="n">
         <v>-0.2989192184229506</v>
@@ -7154,7 +7154,7 @@
         <v>11.428</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002285675</v>
+        <v>0.01316124589677</v>
       </c>
       <c r="I56" t="n">
         <v>-0.2989192184229506</v>
@@ -7173,7 +7173,7 @@
         <v>1.013319075603283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001935391162793501</v>
+        <v>0.002671146419412408</v>
       </c>
       <c r="D57" t="n">
         <v>-0.2995803928810874</v>
@@ -7188,7 +7188,7 @@
         <v>11.408</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002281506</v>
+        <v>0.020851280528231</v>
       </c>
       <c r="I57" t="n">
         <v>-0.2995803928810874</v>
@@ -7207,7 +7207,7 @@
         <v>1.013309994471796</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002775611203701994</v>
+        <v>0.003631402059539958</v>
       </c>
       <c r="D58" t="n">
         <v>-0.3003890740551816</v>
@@ -7222,7 +7222,7 @@
         <v>11.428</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002285501</v>
+        <v>0.026506959661577</v>
       </c>
       <c r="I58" t="n">
         <v>-0.3003890740551816</v>
@@ -7241,7 +7241,7 @@
         <v>1.013213696022409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.00134686692720598</v>
+        <v>0.001579936413638478</v>
       </c>
       <c r="D59" t="n">
         <v>-0.2996998233577313</v>
@@ -7256,7 +7256,7 @@
         <v>11.421</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002284136</v>
+        <v>0.009585955096397</v>
       </c>
       <c r="I59" t="n">
         <v>-0.2996998233577313</v>
@@ -7275,7 +7275,7 @@
         <v>1.012786753961046</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001394466215983616</v>
+        <v>0.001909446613721145</v>
       </c>
       <c r="D60" t="n">
         <v>-0.2989371966815226</v>
@@ -7290,7 +7290,7 @@
         <v>11.432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002286365</v>
+        <v>0.014900056855581</v>
       </c>
       <c r="I60" t="n">
         <v>-0.2989371966815226</v>
@@ -7309,7 +7309,7 @@
         <v>1.012777492710821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001235051607266392</v>
+        <v>0.001511854389866237</v>
       </c>
       <c r="D61" t="n">
         <v>-0.2986611663022831</v>
@@ -7324,7 +7324,7 @@
         <v>11.441</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002288201</v>
+        <v>0.010112748140394</v>
       </c>
       <c r="I61" t="n">
         <v>-0.2986611663022831</v>
@@ -7343,7 +7343,7 @@
         <v>1.008743004541071</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000618909021383461</v>
+        <v>0.0007494624379731547</v>
       </c>
       <c r="D62" t="n">
         <v>-0.3793909902467334</v>
@@ -7358,7 +7358,7 @@
         <v>23.243</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00464855</v>
+        <v>0.01079139738391</v>
       </c>
       <c r="I62" t="n">
         <v>-0.3793909902467334</v>
@@ -7377,7 +7377,7 @@
         <v>1.0087959486256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0005130120482461199</v>
+        <v>0.000631847309226144</v>
       </c>
       <c r="D63" t="n">
         <v>-0.3796630766128217</v>
@@ -7392,7 +7392,7 @@
         <v>23.252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.004650455</v>
+        <v>0.009690490941299</v>
       </c>
       <c r="I63" t="n">
         <v>-0.3796630766128217</v>
@@ -7411,7 +7411,7 @@
         <v>1.008848307172733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0004799887246263073</v>
+        <v>0.0004946007550755803</v>
       </c>
       <c r="D64" t="n">
         <v>-0.38014006893932</v>
@@ -7426,7 +7426,7 @@
         <v>23.245</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004649079</v>
+        <v>0.005401318945188</v>
       </c>
       <c r="I64" t="n">
         <v>-0.38014006893932</v>
@@ -7445,7 +7445,7 @@
         <v>1.008880806262734</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0007152510191612711</v>
+        <v>0.0008250297171524787</v>
       </c>
       <c r="D65" t="n">
         <v>-0.3806289309495394</v>
@@ -7460,7 +7460,7 @@
         <v>23.237</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004647441</v>
+        <v>0.010549878156922</v>
       </c>
       <c r="I65" t="n">
         <v>-0.3806289309495394</v>
@@ -7479,7 +7479,7 @@
         <v>1.008767253431289</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004589046753223188</v>
+        <v>0.0004492126807884262</v>
       </c>
       <c r="D66" t="n">
         <v>-0.3796467833670958</v>
@@ -7494,7 +7494,7 @@
         <v>23.24</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00464804</v>
+        <v>0.00411495969702</v>
       </c>
       <c r="I66" t="n">
         <v>-0.3796467833670958</v>
@@ -7513,7 +7513,7 @@
         <v>1.008800123212527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0006043842282571993</v>
+        <v>0.0007897458160709573</v>
       </c>
       <c r="D67" t="n">
         <v>-0.3798326866942965</v>
@@ -7528,7 +7528,7 @@
         <v>23.242</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004648389</v>
+        <v>0.012600703119181</v>
       </c>
       <c r="I67" t="n">
         <v>-0.3798326866942965</v>
@@ -7547,7 +7547,7 @@
         <v>1.008819087953056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004953411539011634</v>
+        <v>0.0005394320628079545</v>
       </c>
       <c r="D68" t="n">
         <v>-0.3796860475339305</v>
@@ -7562,7 +7562,7 @@
         <v>23.251</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0046502</v>
+        <v>0.006771986468694</v>
       </c>
       <c r="I68" t="n">
         <v>-0.3796860475339305</v>
@@ -7581,7 +7581,7 @@
         <v>1.008947717669804</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0007834326876717969</v>
+        <v>0.001020735413561813</v>
       </c>
       <c r="D69" t="n">
         <v>-0.379098896239479</v>
@@ -7596,7 +7596,7 @@
         <v>23.261</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004652268</v>
+        <v>0.015786237524833</v>
       </c>
       <c r="I69" t="n">
         <v>-0.379098896239479</v>
@@ -7615,7 +7615,7 @@
         <v>1.008915434191853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.000732735977403343</v>
+        <v>0.0008967195452835347</v>
       </c>
       <c r="D70" t="n">
         <v>-0.3802869488155958</v>
@@ -7630,7 +7630,7 @@
         <v>23.248</v>
       </c>
       <c r="H70" t="n">
-        <v>0.004649516</v>
+        <v>0.0127864205841</v>
       </c>
       <c r="I70" t="n">
         <v>-0.3802869488155958</v>
@@ -7649,7 +7649,7 @@
         <v>1.008898780563483</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0006247134220685095</v>
+        <v>0.0007761383951578342</v>
       </c>
       <c r="D71" t="n">
         <v>-0.3798335801087296</v>
@@ -7664,7 +7664,7 @@
         <v>23.245</v>
       </c>
       <c r="H71" t="n">
-        <v>0.004648937</v>
+        <v>0.01158518714659</v>
       </c>
       <c r="I71" t="n">
         <v>-0.3798335801087296</v>
@@ -7683,7 +7683,7 @@
         <v>1.005107399069952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0006938924553663514</v>
+        <v>0.0009634622934971437</v>
       </c>
       <c r="D72" t="n">
         <v>-0.4432829053829517</v>
@@ -7698,7 +7698,7 @@
         <v>58.508</v>
       </c>
       <c r="H72" t="n">
-        <v>0.011701683</v>
+        <v>0.040630191766092</v>
       </c>
       <c r="I72" t="n">
         <v>-0.4432829053829517</v>
@@ -7717,7 +7717,7 @@
         <v>1.005098519074723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0007449078710313631</v>
+        <v>0.0009388164204812917</v>
       </c>
       <c r="D73" t="n">
         <v>-0.4431887334387503</v>
@@ -7732,7 +7732,7 @@
         <v>58.504</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01170086</v>
+        <v>0.03525733832011</v>
       </c>
       <c r="I73" t="n">
         <v>-0.4431887334387503</v>
@@ -7751,7 +7751,7 @@
         <v>1.00503804030251</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0005730189609135099</v>
+        <v>0.0007420718290303581</v>
       </c>
       <c r="D74" t="n">
         <v>-0.4436922790960365</v>
@@ -7766,7 +7766,7 @@
         <v>58.523</v>
       </c>
       <c r="H74" t="n">
-        <v>0.011704522</v>
+        <v>0.029846502762783</v>
       </c>
       <c r="I74" t="n">
         <v>-0.4436922790960365</v>
@@ -7785,7 +7785,7 @@
         <v>1.004971440676563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0009110726529398588</v>
+        <v>0.001292484342835764</v>
       </c>
       <c r="D75" t="n">
         <v>-0.4440611706876556</v>
@@ -7800,7 +7800,7 @@
         <v>58.496</v>
       </c>
       <c r="H75" t="n">
-        <v>0.011699189</v>
+        <v>0.054629364308104</v>
       </c>
       <c r="I75" t="n">
         <v>-0.4440611706876556</v>
@@ -7819,7 +7819,7 @@
         <v>1.004886720036684</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0008939251019939975</v>
+        <v>0.001134455368611055</v>
       </c>
       <c r="D76" t="n">
         <v>-0.4448773254100908</v>
@@ -7834,7 +7834,7 @@
         <v>58.55</v>
       </c>
       <c r="H76" t="n">
-        <v>0.011709924</v>
+        <v>0.04234880534878</v>
       </c>
       <c r="I76" t="n">
         <v>-0.4448773254100908</v>
@@ -7853,7 +7853,7 @@
         <v>1.005158721225767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0008666352545804811</v>
+        <v>0.00107331028249475</v>
       </c>
       <c r="D77" t="n">
         <v>-0.4428157179747494</v>
@@ -7868,7 +7868,7 @@
         <v>58.496</v>
       </c>
       <c r="H77" t="n">
-        <v>0.011699266</v>
+        <v>0.038662001025846</v>
       </c>
       <c r="I77" t="n">
         <v>-0.4428157179747494</v>
@@ -7887,7 +7887,7 @@
         <v>1.00504248163198</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005811448184493322</v>
+        <v>0.0007384507995522497</v>
       </c>
       <c r="D78" t="n">
         <v>-0.4435049172289358</v>
@@ -7902,7 +7902,7 @@
         <v>58.499</v>
       </c>
       <c r="H78" t="n">
-        <v>0.011699812</v>
+        <v>0.028985215800893</v>
       </c>
       <c r="I78" t="n">
         <v>-0.4435049172289358</v>
@@ -7921,7 +7921,7 @@
         <v>1.005142061184867</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0005693971787223368</v>
+        <v>0.0008074708578920156</v>
       </c>
       <c r="D79" t="n">
         <v>-0.4441734776141759</v>
@@ -7936,7 +7936,7 @@
         <v>58.641</v>
       </c>
       <c r="H79" t="n">
-        <v>0.011728122</v>
+        <v>0.035401403994845</v>
       </c>
       <c r="I79" t="n">
         <v>-0.4441734776141759</v>
@@ -7955,7 +7955,7 @@
         <v>1.005186741502615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0005454115884150253</v>
+        <v>0.0007263126191858004</v>
       </c>
       <c r="D80" t="n">
         <v>-0.4433168180520348</v>
@@ -7970,7 +7970,7 @@
         <v>58.593</v>
       </c>
       <c r="H80" t="n">
-        <v>0.011718531</v>
+        <v>0.030315165691413</v>
       </c>
       <c r="I80" t="n">
         <v>-0.4433168180520348</v>
@@ -7989,7 +7989,7 @@
         <v>1.005031494570573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0007623566128473175</v>
+        <v>0.00112939510806512</v>
       </c>
       <c r="D81" t="n">
         <v>-0.4441091353740227</v>
@@ -8004,7 +8004,7 @@
         <v>58.579</v>
       </c>
       <c r="H81" t="n">
-        <v>0.011715724</v>
+        <v>0.049961066345617</v>
       </c>
       <c r="I81" t="n">
         <v>-0.4441091353740227</v>
@@ -8023,7 +8023,7 @@
         <v>1.003008962794092</v>
       </c>
       <c r="C82" t="n">
-        <v>0.001195208795783718</v>
+        <v>0.001609392068872857</v>
       </c>
       <c r="D82" t="n">
         <v>-0.4737995664330619</v>
@@ -8038,7 +8038,7 @@
         <v>58.703</v>
       </c>
       <c r="H82" t="n">
-        <v>0.011740505</v>
+        <v>0.064162647768314</v>
       </c>
       <c r="I82" t="n">
         <v>-0.4737995664330619</v>
@@ -8057,7 +8057,7 @@
         <v>1.002856263815213</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0006628116990986085</v>
+        <v>0.0008667336583044521</v>
       </c>
       <c r="D83" t="n">
         <v>-0.4749359970228033</v>
@@ -8072,7 +8072,7 @@
         <v>58.766</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01175327</v>
+        <v>0.034773098287822</v>
       </c>
       <c r="I83" t="n">
         <v>-0.4749359970228033</v>
@@ -8091,7 +8091,7 @@
         <v>1.002948091020979</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0008132357011881613</v>
+        <v>0.001052185731552099</v>
       </c>
       <c r="D84" t="n">
         <v>-0.4741788883501683</v>
@@ -8106,7 +8106,7 @@
         <v>58.718</v>
       </c>
       <c r="H84" t="n">
-        <v>0.011743551</v>
+        <v>0.040813258253252</v>
       </c>
       <c r="I84" t="n">
         <v>-0.4741788883501683</v>
@@ -8125,7 +8125,7 @@
         <v>1.003101970502895</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001447757567339947</v>
+        <v>0.001962139329765276</v>
       </c>
       <c r="D85" t="n">
         <v>-0.4734197171541923</v>
@@ -8140,7 +8140,7 @@
         <v>58.717</v>
       </c>
       <c r="H85" t="n">
-        <v>0.011743445</v>
+        <v>0.07840770725506201</v>
       </c>
       <c r="I85" t="n">
         <v>-0.4734197171541923</v>
@@ -8159,7 +8159,7 @@
         <v>1.002843934701599</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0006089208175329934</v>
+        <v>0.0008934795939425894</v>
       </c>
       <c r="D86" t="n">
         <v>-0.4747106782280412</v>
@@ -8174,7 +8174,7 @@
         <v>58.763</v>
       </c>
       <c r="H86" t="n">
-        <v>0.011752671</v>
+        <v>0.040075347341541</v>
       </c>
       <c r="I86" t="n">
         <v>-0.4747106782280412</v>
@@ -8193,7 +8193,7 @@
         <v>1.002991023267885</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0008015285676968817</v>
+        <v>0.0008750309577018272</v>
       </c>
       <c r="D87" t="n">
         <v>-0.4740426902533468</v>
@@ -8208,7 +8208,7 @@
         <v>58.731</v>
       </c>
       <c r="H87" t="n">
-        <v>0.011746171</v>
+        <v>0.023675008415263</v>
       </c>
       <c r="I87" t="n">
         <v>-0.4740426902533468</v>
@@ -8227,7 +8227,7 @@
         <v>1.002820704358146</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0008044732315429368</v>
+        <v>0.001174555667443932</v>
       </c>
       <c r="D88" t="n">
         <v>-0.4747647576397078</v>
@@ -8242,7 +8242,7 @@
         <v>58.737</v>
       </c>
       <c r="H88" t="n">
-        <v>0.011747443</v>
+        <v>0.051484237162339</v>
       </c>
       <c r="I88" t="n">
         <v>-0.4747647576397078</v>
@@ -8261,7 +8261,7 @@
         <v>1.002944764019071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0009772441830977262</v>
+        <v>0.001432590956392371</v>
       </c>
       <c r="D89" t="n">
         <v>-0.4749757376033585</v>
@@ -8276,7 +8276,7 @@
         <v>58.916</v>
       </c>
       <c r="H89" t="n">
-        <v>0.011783128</v>
+        <v>0.062652836729364</v>
       </c>
       <c r="I89" t="n">
         <v>-0.4749757376033585</v>
@@ -8295,7 +8295,7 @@
         <v>1.002898128664435</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0008015352464668286</v>
+        <v>0.001076815579841178</v>
       </c>
       <c r="D90" t="n">
         <v>-0.4748442727500737</v>
@@ -8310,7 +8310,7 @@
         <v>58.822</v>
       </c>
       <c r="H90" t="n">
-        <v>0.011764438</v>
+        <v>0.043785430661915</v>
       </c>
       <c r="I90" t="n">
         <v>-0.4748442727500737</v>
@@ -8329,7 +8329,7 @@
         <v>1.002977583220767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0006075181167209473</v>
+        <v>0.0007110946044478605</v>
       </c>
       <c r="D91" t="n">
         <v>-0.4741270289349737</v>
@@ -8344,7 +8344,7 @@
         <v>58.708</v>
       </c>
       <c r="H91" t="n">
-        <v>0.011741662</v>
+        <v>0.02461314781147</v>
       </c>
       <c r="I91" t="n">
         <v>-0.4741270289349737</v>
@@ -8363,7 +8363,7 @@
         <v>1.00030247871122</v>
       </c>
       <c r="C92" t="n">
-        <v>0.001016751950319031</v>
+        <v>0.001296822644691311</v>
       </c>
       <c r="D92" t="n">
         <v>-0.5071334051566674</v>
@@ -8378,7 +8378,7 @@
         <v>59.176</v>
       </c>
       <c r="H92" t="n">
-        <v>0.011835273</v>
+        <v>0.049068756457295</v>
       </c>
       <c r="I92" t="n">
         <v>-0.5071334051566674</v>
@@ -8397,7 +8397,7 @@
         <v>1.000601742357886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.000705473856335205</v>
+        <v>0.0009639183623541758</v>
       </c>
       <c r="D93" t="n">
         <v>-0.5062970902106931</v>
@@ -8412,7 +8412,7 @@
         <v>59.13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.011826076</v>
+        <v>0.040577442474431</v>
       </c>
       <c r="I93" t="n">
         <v>-0.5062970902106931</v>
@@ -8431,7 +8431,7 @@
         <v>1.000416723284994</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001102022451582698</v>
+        <v>0.001512740351254498</v>
       </c>
       <c r="D94" t="n">
         <v>-0.5065916404885544</v>
@@ -8446,7 +8446,7 @@
         <v>59.085</v>
       </c>
       <c r="H94" t="n">
-        <v>0.011817012</v>
+        <v>0.062334968009377</v>
       </c>
       <c r="I94" t="n">
         <v>-0.5065916404885544</v>
@@ -8465,7 +8465,7 @@
         <v>1.000442435622856</v>
       </c>
       <c r="C95" t="n">
-        <v>0.00127885797659287</v>
+        <v>0.001952303975614754</v>
       </c>
       <c r="D95" t="n">
         <v>-0.5063865216671704</v>
@@ -8480,7 +8480,7 @@
         <v>59.046</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011809138</v>
+        <v>0.087859345931808</v>
       </c>
       <c r="I95" t="n">
         <v>-0.5063865216671704</v>
@@ -8499,7 +8499,7 @@
         <v>1.000713208568959</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001295209350263033</v>
+        <v>0.001623120730379246</v>
       </c>
       <c r="D96" t="n">
         <v>-0.5054276178447537</v>
@@ -8514,7 +8514,7 @@
         <v>58.992</v>
       </c>
       <c r="H96" t="n">
-        <v>0.011798353</v>
+        <v>0.058861772099815</v>
       </c>
       <c r="I96" t="n">
         <v>-0.5054276178447537</v>
@@ -8533,7 +8533,7 @@
         <v>1.000740015621597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00181348687971633</v>
+        <v>0.002773089668477631</v>
       </c>
       <c r="D97" t="n">
         <v>-0.505865278335131</v>
@@ -8548,7 +8548,7 @@
         <v>59.286</v>
       </c>
       <c r="H97" t="n">
-        <v>0.011857186</v>
+        <v>0.124849963939319</v>
       </c>
       <c r="I97" t="n">
         <v>-0.505865278335131</v>
@@ -8567,7 +8567,7 @@
         <v>1.000677724758322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0007664184776829521</v>
+        <v>0.0009889300934574155</v>
       </c>
       <c r="D98" t="n">
         <v>-0.5056590382522268</v>
@@ -8582,7 +8582,7 @@
         <v>59.085</v>
       </c>
       <c r="H98" t="n">
-        <v>0.011817045</v>
+        <v>0.038747187551433</v>
       </c>
       <c r="I98" t="n">
         <v>-0.5056590382522268</v>
@@ -8601,7 +8601,7 @@
         <v>1.000507128380559</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0008917972066861384</v>
+        <v>0.001223551171140559</v>
       </c>
       <c r="D99" t="n">
         <v>-0.5061927284693635</v>
@@ -8616,7 +8616,7 @@
         <v>59.062</v>
       </c>
       <c r="H99" t="n">
-        <v>0.011812307</v>
+        <v>0.050843543935493</v>
       </c>
       <c r="I99" t="n">
         <v>-0.5061927284693635</v>
@@ -8635,7 +8635,7 @@
         <v>1.000608541474318</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001154449425608166</v>
+        <v>0.00174879773373412</v>
       </c>
       <c r="D100" t="n">
         <v>-0.5056735641900763</v>
@@ -8650,7 +8650,7 @@
         <v>59.024</v>
       </c>
       <c r="H100" t="n">
-        <v>0.011804889</v>
+        <v>0.078380725852827</v>
       </c>
       <c r="I100" t="n">
         <v>-0.5056735641900763</v>
@@ -8669,7 +8669,7 @@
         <v>1.000435579192966</v>
       </c>
       <c r="C101" t="n">
-        <v>0.000802603733420683</v>
+        <v>0.00113612862004408</v>
       </c>
       <c r="D101" t="n">
         <v>-0.5064506136142399</v>
@@ -8684,7 +8684,7 @@
         <v>59.037</v>
       </c>
       <c r="H101" t="n">
-        <v>0.011807354</v>
+        <v>0.048899326077849</v>
       </c>
       <c r="I101" t="n">
         <v>-0.5064506136142399</v>
@@ -8703,7 +8703,7 @@
         <v>0.9939434667755147</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003653134965881874</v>
+        <v>0.005059305015985864</v>
       </c>
       <c r="D102" t="n">
         <v>-0.5976971218334075</v>
@@ -8718,7 +8718,7 @@
         <v>115.251</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02305018</v>
+        <v>0.406509907208978</v>
       </c>
       <c r="I102" t="n">
         <v>-0.5976971218334075</v>
@@ -8737,7 +8737,7 @@
         <v>0.9935461577843577</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001831817407153226</v>
+        <v>0.00263927973036725</v>
       </c>
       <c r="D103" t="n">
         <v>-0.598307882922839</v>
@@ -8752,7 +8752,7 @@
         <v>115.436</v>
       </c>
       <c r="H103" t="n">
-        <v>0.023087275</v>
+        <v>0.221964477449765</v>
       </c>
       <c r="I103" t="n">
         <v>-0.598307882922839</v>
@@ -8771,7 +8771,7 @@
         <v>0.993996073970748</v>
       </c>
       <c r="C104" t="n">
-        <v>0.00311724582444718</v>
+        <v>0.00409838491489138</v>
       </c>
       <c r="D104" t="n">
         <v>-0.5976911990363138</v>
@@ -8786,7 +8786,7 @@
         <v>115.693</v>
       </c>
       <c r="H104" t="n">
-        <v>0.023138529</v>
+        <v>0.310551540160933</v>
       </c>
       <c r="I104" t="n">
         <v>-0.5976911990363138</v>
@@ -8805,7 +8805,7 @@
         <v>0.9938830985744908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.002926454872046902</v>
+        <v>0.003618202344607706</v>
       </c>
       <c r="D105" t="n">
         <v>-0.5977550400612124</v>
@@ -8820,7 +8820,7 @@
         <v>115.323</v>
       </c>
       <c r="H105" t="n">
-        <v>0.023064556</v>
+        <v>0.247961822365139</v>
       </c>
       <c r="I105" t="n">
         <v>-0.5977550400612124</v>
@@ -8839,7 +8839,7 @@
         <v>0.9944590423837842</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005157415741780886</v>
+        <v>0.006655130665980841</v>
       </c>
       <c r="D106" t="n">
         <v>-0.597071998626868</v>
@@ -8854,7 +8854,7 @@
         <v>115.886</v>
       </c>
       <c r="H106" t="n">
-        <v>0.023177237</v>
+        <v>0.490699260015589</v>
       </c>
       <c r="I106" t="n">
         <v>-0.597071998626868</v>
@@ -8873,7 +8873,7 @@
         <v>0.9942926483548257</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004453306542905417</v>
+        <v>0.005586832062975373</v>
       </c>
       <c r="D107" t="n">
         <v>-0.597142226360595</v>
@@ -8888,7 +8888,7 @@
         <v>115.264</v>
       </c>
       <c r="H107" t="n">
-        <v>0.023052821</v>
+        <v>0.391758275291741</v>
       </c>
       <c r="I107" t="n">
         <v>-0.597142226360595</v>
@@ -8907,7 +8907,7 @@
         <v>0.9937210820841557</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002899864988146195</v>
+        <v>0.003686825695156925</v>
       </c>
       <c r="D108" t="n">
         <v>-0.5979441024274195</v>
@@ -8922,7 +8922,7 @@
         <v>115.091</v>
       </c>
       <c r="H108" t="n">
-        <v>0.023018107</v>
+        <v>0.264688728012457</v>
       </c>
       <c r="I108" t="n">
         <v>-0.5979441024274195</v>
@@ -8941,7 +8941,7 @@
         <v>0.9943510137388091</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004575055152978852</v>
+        <v>0.005018471336220889</v>
       </c>
       <c r="D109" t="n">
         <v>-0.5970863784477247</v>
@@ -8956,7 +8956,7 @@
         <v>115.447</v>
       </c>
       <c r="H109" t="n">
-        <v>0.023089376</v>
+        <v>0.240573262856546</v>
       </c>
       <c r="I109" t="n">
         <v>-0.5970863784477247</v>
@@ -8975,7 +8975,7 @@
         <v>0.9946522119315668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005509655595497407</v>
+        <v>0.006071175449762156</v>
       </c>
       <c r="D110" t="n">
         <v>-0.5965079763688514</v>
@@ -8990,7 +8990,7 @@
         <v>115.351</v>
       </c>
       <c r="H110" t="n">
-        <v>0.023070229</v>
+        <v>0.296633355633458</v>
       </c>
       <c r="I110" t="n">
         <v>-0.5965079763688514</v>
@@ -9009,7 +9009,7 @@
         <v>0.993640572754817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001887100421278943</v>
+        <v>0.002430881362845545</v>
       </c>
       <c r="D111" t="n">
         <v>-0.5981342549897857</v>
@@ -9024,7 +9024,7 @@
         <v>115.138</v>
       </c>
       <c r="H111" t="n">
-        <v>0.023027636</v>
+        <v>0.179045623390476</v>
       </c>
       <c r="I111" t="n">
         <v>-0.5981342549897857</v>
@@ -9043,7 +9043,7 @@
         <v>0.977132219697786</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003255716620761533</v>
+        <v>0.004816040650964057</v>
       </c>
       <c r="D112" t="n">
         <v>-0.7596292363509924</v>
@@ -9058,7 +9058,7 @@
         <v>119.647</v>
       </c>
       <c r="H112" t="n">
-        <v>0.023929451</v>
+        <v>0.435208535945917</v>
       </c>
       <c r="I112" t="n">
         <v>-0.7596292363509924</v>
@@ -9077,7 +9077,7 @@
         <v>0.9773777377782764</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002509077375338799</v>
+        <v>0.003214420764724714</v>
       </c>
       <c r="D113" t="n">
         <v>-0.7592754993932411</v>
@@ -9092,7 +9092,7 @@
         <v>119.4</v>
       </c>
       <c r="H113" t="n">
-        <v>0.023879923</v>
+        <v>0.246614488138743</v>
       </c>
       <c r="I113" t="n">
         <v>-0.7592754993932411</v>
@@ -9111,7 +9111,7 @@
         <v>0.9774698177707487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002591407432822546</v>
+        <v>0.003486665134126356</v>
       </c>
       <c r="D114" t="n">
         <v>-0.7590793233862385</v>
@@ -9126,7 +9126,7 @@
         <v>119.415</v>
       </c>
       <c r="H114" t="n">
-        <v>0.023883058</v>
+        <v>0.285977791035725</v>
       </c>
       <c r="I114" t="n">
         <v>-0.7590793233862385</v>
@@ -9145,7 +9145,7 @@
         <v>0.976880099216017</v>
       </c>
       <c r="C115" t="n">
-        <v>0.001967682073466924</v>
+        <v>0.002964441127782051</v>
       </c>
       <c r="D115" t="n">
         <v>-0.7597501588892772</v>
@@ -9160,7 +9160,7 @@
         <v>119.144</v>
       </c>
       <c r="H115" t="n">
-        <v>0.023828851</v>
+        <v>0.27147042383661</v>
       </c>
       <c r="I115" t="n">
         <v>-0.7597501588892772</v>
@@ -9179,7 +9179,7 @@
         <v>0.9771757691242559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001595278247850214</v>
+        <v>0.002059321184343212</v>
       </c>
       <c r="D116" t="n">
         <v>-0.759467197854363</v>
@@ -9194,7 +9194,7 @@
         <v>119.028</v>
       </c>
       <c r="H116" t="n">
-        <v>0.023805565</v>
+        <v>0.160402725319686</v>
       </c>
       <c r="I116" t="n">
         <v>-0.759467197854363</v>
@@ -9213,7 +9213,7 @@
         <v>0.977264325783747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002108831940075859</v>
+        <v>0.003012596596071532</v>
       </c>
       <c r="D117" t="n">
         <v>-0.7592925282587082</v>
@@ -9228,7 +9228,7 @@
         <v>119.127</v>
       </c>
       <c r="H117" t="n">
-        <v>0.023825362</v>
+        <v>0.26333358753241</v>
       </c>
       <c r="I117" t="n">
         <v>-0.7592925282587082</v>
@@ -9247,7 +9247,7 @@
         <v>0.9776792250672337</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003210387415244089</v>
+        <v>0.003956546042873001</v>
       </c>
       <c r="D118" t="n">
         <v>-0.7588672876817322</v>
@@ -9262,7 +9262,7 @@
         <v>118.982</v>
       </c>
       <c r="H118" t="n">
-        <v>0.023796364</v>
+        <v>0.282432166343944</v>
       </c>
       <c r="I118" t="n">
         <v>-0.7588672876817322</v>
@@ -9281,7 +9281,7 @@
         <v>0.9770412320295218</v>
       </c>
       <c r="C119" t="n">
-        <v>0.002123584633633482</v>
+        <v>0.00324355411289518</v>
       </c>
       <c r="D119" t="n">
         <v>-0.7595893450976803</v>
@@ -9296,7 +9296,7 @@
         <v>118.99</v>
       </c>
       <c r="H119" t="n">
-        <v>0.023798007</v>
+        <v>0.299534684511971</v>
       </c>
       <c r="I119" t="n">
         <v>-0.7595893450976803</v>
@@ -9315,7 +9315,7 @@
         <v>0.9772793926524992</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002298462385526022</v>
+        <v>0.003019587663648546</v>
       </c>
       <c r="D120" t="n">
         <v>-0.75940482596714</v>
@@ -9330,7 +9330,7 @@
         <v>119.12</v>
       </c>
       <c r="H120" t="n">
-        <v>0.023823957</v>
+        <v>0.239883271123385</v>
       </c>
       <c r="I120" t="n">
         <v>-0.75940482596714</v>
@@ -9349,7 +9349,7 @@
         <v>0.976496140086431</v>
       </c>
       <c r="C121" t="n">
-        <v>0.002855034786768541</v>
+        <v>0.004251960801588668</v>
       </c>
       <c r="D121" t="n">
         <v>-0.7602017360284696</v>
@@ -9364,7 +9364,7 @@
         <v>119.119</v>
       </c>
       <c r="H121" t="n">
-        <v>0.023823831</v>
+        <v>0.385099439600387</v>
       </c>
       <c r="I121" t="n">
         <v>-0.7602017360284696</v>
@@ -9383,7 +9383,7 @@
         <v>0.9541296511929237</v>
       </c>
       <c r="C122" t="n">
-        <v>0.00352052019405556</v>
+        <v>0.004548043286417236</v>
       </c>
       <c r="D122" t="n">
         <v>-0.9489298025605883</v>
@@ -9398,7 +9398,7 @@
         <v>122.844</v>
       </c>
       <c r="H122" t="n">
-        <v>0.024568704</v>
+        <v>0.371528497544312</v>
       </c>
       <c r="I122" t="n">
         <v>-0.9489298025605883</v>
@@ -9417,7 +9417,7 @@
         <v>0.9537091168123721</v>
       </c>
       <c r="C123" t="n">
-        <v>0.002488703321096372</v>
+        <v>0.00359897232634437</v>
       </c>
       <c r="D123" t="n">
         <v>-0.9492894734206061</v>
@@ -9432,7 +9432,7 @@
         <v>122.676</v>
       </c>
       <c r="H123" t="n">
-        <v>0.024535121</v>
+        <v>0.335312127870267</v>
       </c>
       <c r="I123" t="n">
         <v>-0.9492894734206061</v>
@@ -9451,7 +9451,7 @@
         <v>0.9534665326893835</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001834993207715379</v>
+        <v>0.002999313578757734</v>
       </c>
       <c r="D124" t="n">
         <v>-0.9495101185182167</v>
@@ -9466,7 +9466,7 @@
         <v>122.769</v>
       </c>
       <c r="H124" t="n">
-        <v>0.024553701</v>
+        <v>0.306467881685236</v>
       </c>
       <c r="I124" t="n">
         <v>-0.9495101185182167</v>
@@ -9485,7 +9485,7 @@
         <v>0.9537250651154463</v>
       </c>
       <c r="C125" t="n">
-        <v>0.002299525926997527</v>
+        <v>0.003019332865974025</v>
       </c>
       <c r="D125" t="n">
         <v>-0.9492472185373213</v>
@@ -9500,7 +9500,7 @@
         <v>122.777</v>
       </c>
       <c r="H125" t="n">
-        <v>0.024555325</v>
+        <v>0.253084129799715</v>
       </c>
       <c r="I125" t="n">
         <v>-0.9492472185373213</v>
@@ -9519,7 +9519,7 @@
         <v>0.9530257886449571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003873407886520117</v>
+        <v>0.005579207597709281</v>
       </c>
       <c r="D126" t="n">
         <v>-0.9498801016630445</v>
@@ -9534,7 +9534,7 @@
         <v>122.848</v>
       </c>
       <c r="H126" t="n">
-        <v>0.024569623</v>
+        <v>0.518193745559417</v>
       </c>
       <c r="I126" t="n">
         <v>-0.9498801016630445</v>
@@ -9553,7 +9553,7 @@
         <v>0.9532664419925558</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001893271932260457</v>
+        <v>0.002633799189122271</v>
       </c>
       <c r="D127" t="n">
         <v>-0.9496571179323254</v>
@@ -9568,7 +9568,7 @@
         <v>122.94</v>
       </c>
       <c r="H127" t="n">
-        <v>0.024587957</v>
+        <v>0.237410449174721</v>
       </c>
       <c r="I127" t="n">
         <v>-0.9496571179323254</v>
@@ -9587,7 +9587,7 @@
         <v>0.9539330808202905</v>
       </c>
       <c r="C128" t="n">
-        <v>0.002945578975113296</v>
+        <v>0.004234726656692727</v>
       </c>
       <c r="D128" t="n">
         <v>-0.9491564302578315</v>
@@ -9602,7 +9602,7 @@
         <v>123.387</v>
       </c>
       <c r="H128" t="n">
-        <v>0.024677443</v>
+        <v>0.394299766723677</v>
       </c>
       <c r="I128" t="n">
         <v>-0.9491564302578315</v>
@@ -9621,7 +9621,7 @@
         <v>0.9531039332102981</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001790550129442137</v>
+        <v>0.002589587194945757</v>
       </c>
       <c r="D129" t="n">
         <v>-0.9498168403947123</v>
@@ -9636,7 +9636,7 @@
         <v>122.966</v>
       </c>
       <c r="H129" t="n">
-        <v>0.024593212</v>
+        <v>0.242613485792308</v>
       </c>
       <c r="I129" t="n">
         <v>-0.9498168403947123</v>
@@ -9655,7 +9655,7 @@
         <v>0.9538901949936344</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002585285132760562</v>
+        <v>0.003468745439540308</v>
       </c>
       <c r="D130" t="n">
         <v>-0.9491429471997908</v>
@@ -9670,7 +9670,7 @@
         <v>122.736</v>
       </c>
       <c r="H130" t="n">
-        <v>0.024547108</v>
+        <v>0.298580930458355</v>
       </c>
       <c r="I130" t="n">
         <v>-0.9491429471997908</v>
@@ -9689,7 +9689,7 @@
         <v>0.952835204003287</v>
       </c>
       <c r="C131" t="n">
-        <v>0.003873431596101744</v>
+        <v>0.00506478877843171</v>
       </c>
       <c r="D131" t="n">
         <v>-0.9500188749385403</v>
@@ -9704,7 +9704,7 @@
         <v>123.39</v>
       </c>
       <c r="H131" t="n">
-        <v>0.024677904</v>
+        <v>0.423299719857778</v>
       </c>
       <c r="I131" t="n">
         <v>-0.9500188749385403</v>
@@ -9723,7 +9723,7 @@
         <v>0.9165779630276262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.002758622988913007</v>
+        <v>0.003332264510477786</v>
       </c>
       <c r="D132" t="n">
         <v>-1.186580235218716</v>
@@ -9738,7 +9738,7 @@
         <v>124.849</v>
       </c>
       <c r="H132" t="n">
-        <v>0.024969882</v>
+        <v>0.255831935996893</v>
       </c>
       <c r="I132" t="n">
         <v>-1.186580235218716</v>
@@ -9757,7 +9757,7 @@
         <v>0.9161927095137331</v>
       </c>
       <c r="C133" t="n">
-        <v>0.002082840461689428</v>
+        <v>0.002937335903084928</v>
       </c>
       <c r="D133" t="n">
         <v>-1.186931408591655</v>
@@ -9772,7 +9772,7 @@
         <v>125.565</v>
       </c>
       <c r="H133" t="n">
-        <v>0.025113098</v>
+        <v>0.284963460948001</v>
       </c>
       <c r="I133" t="n">
         <v>-1.186931408591655</v>
@@ -9791,7 +9791,7 @@
         <v>0.9164746491661087</v>
       </c>
       <c r="C134" t="n">
-        <v>0.002620327193440102</v>
+        <v>0.003779180210274635</v>
       </c>
       <c r="D134" t="n">
         <v>-1.186624936693005</v>
@@ -9806,7 +9806,7 @@
         <v>125.114</v>
       </c>
       <c r="H134" t="n">
-        <v>0.025022711</v>
+        <v>0.372609921687144</v>
       </c>
       <c r="I134" t="n">
         <v>-1.186624936693005</v>
@@ -9825,7 +9825,7 @@
         <v>0.9156005847838052</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004317784767575751</v>
+        <v>0.00629216162102221</v>
       </c>
       <c r="D135" t="n">
         <v>-1.187158541512341</v>
@@ -9840,7 +9840,7 @@
         <v>124.745</v>
       </c>
       <c r="H135" t="n">
-        <v>0.024949005</v>
+        <v>0.624073916115064</v>
       </c>
       <c r="I135" t="n">
         <v>-1.187158541512341</v>
@@ -9859,7 +9859,7 @@
         <v>0.9161802403790318</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0007967290817473758</v>
+        <v>0.001078019844408058</v>
       </c>
       <c r="D136" t="n">
         <v>-1.186774132225347</v>
@@ -9874,7 +9874,7 @@
         <v>124.705</v>
       </c>
       <c r="H136" t="n">
-        <v>0.024941045</v>
+        <v>0.101942526494804</v>
       </c>
       <c r="I136" t="n">
         <v>-1.186774132225347</v>
@@ -9893,7 +9893,7 @@
         <v>0.9161709685855326</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001623788431388811</v>
+        <v>0.002261973186875156</v>
       </c>
       <c r="D137" t="n">
         <v>-1.186820647904797</v>
@@ -9908,7 +9908,7 @@
         <v>124.719</v>
       </c>
       <c r="H137" t="n">
-        <v>0.024943833</v>
+        <v>0.215817993275089</v>
       </c>
       <c r="I137" t="n">
         <v>-1.186820647904797</v>
@@ -9927,7 +9927,7 @@
         <v>0.9163709886390076</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001271456553351721</v>
+        <v>0.001858252007213771</v>
       </c>
       <c r="D138" t="n">
         <v>-1.186710365962002</v>
@@ -9942,7 +9942,7 @@
         <v>124.848</v>
       </c>
       <c r="H138" t="n">
-        <v>0.024969691</v>
+        <v>0.186312215408515</v>
       </c>
       <c r="I138" t="n">
         <v>-1.186710365962002</v>
@@ -9961,7 +9961,7 @@
         <v>0.9162484054918366</v>
       </c>
       <c r="C139" t="n">
-        <v>0.002580845846603492</v>
+        <v>0.003463416466368283</v>
       </c>
       <c r="D139" t="n">
         <v>-1.186780988970187</v>
@@ -9976,7 +9976,7 @@
         <v>125.483</v>
       </c>
       <c r="H139" t="n">
-        <v>0.025096507</v>
+        <v>0.317307755504802</v>
       </c>
       <c r="I139" t="n">
         <v>-1.186780988970187</v>
@@ -9995,7 +9995,7 @@
         <v>0.916333622678056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00157308392351989</v>
+        <v>0.002215986416729693</v>
       </c>
       <c r="D140" t="n">
         <v>-1.186701620199536</v>
@@ -10010,7 +10010,7 @@
         <v>124.811</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02496217</v>
+        <v>0.214048217231555</v>
       </c>
       <c r="I140" t="n">
         <v>-1.186701620199536</v>
@@ -10029,7 +10029,7 @@
         <v>0.9161959483144212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.003392895574455821</v>
+        <v>0.004993590101270004</v>
       </c>
       <c r="D141" t="n">
         <v>-1.186773062639309</v>
@@ -10044,7 +10044,7 @@
         <v>124.888</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02497762</v>
+        <v>0.500056445885356</v>
       </c>
       <c r="I141" t="n">
         <v>-1.186773062639309</v>
@@ -10063,7 +10063,7 @@
         <v>0.8537166402900869</v>
       </c>
       <c r="C142" t="n">
-        <v>0.002196010453649702</v>
+        <v>0.003446057772278755</v>
       </c>
       <c r="D142" t="n">
         <v>-1.518937567689745</v>
@@ -10078,7 +10078,7 @@
         <v>126.716</v>
       </c>
       <c r="H142" t="n">
-        <v>0.025343238</v>
+        <v>0.394998860209947</v>
       </c>
       <c r="I142" t="n">
         <v>-1.518937567689745</v>
@@ -10097,7 +10097,7 @@
         <v>0.8539019817307391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.001534511180430807</v>
+        <v>0.002257198237017802</v>
       </c>
       <c r="D143" t="n">
         <v>-1.518823543825993</v>
@@ -10112,7 +10112,7 @@
         <v>126.52</v>
       </c>
       <c r="H143" t="n">
-        <v>0.025304013</v>
+        <v>0.246571485972701</v>
       </c>
       <c r="I143" t="n">
         <v>-1.518823543825993</v>
@@ -10131,7 +10131,7 @@
         <v>0.8537275993475835</v>
       </c>
       <c r="C144" t="n">
-        <v>0.001628807617440066</v>
+        <v>0.002284561191862455</v>
       </c>
       <c r="D144" t="n">
         <v>-1.518931350802526</v>
@@ -10146,7 +10146,7 @@
         <v>126.848</v>
       </c>
       <c r="H144" t="n">
-        <v>0.025369601</v>
+        <v>0.239366337199363</v>
       </c>
       <c r="I144" t="n">
         <v>-1.518931350802526</v>
@@ -10165,7 +10165,7 @@
         <v>0.8540196889231098</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001512282544325826</v>
+        <v>0.0019802064760506</v>
       </c>
       <c r="D145" t="n">
         <v>-1.518758754548577</v>
@@ -10180,7 +10180,7 @@
         <v>127.202</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02544031</v>
+        <v>0.192098285068366</v>
       </c>
       <c r="I145" t="n">
         <v>-1.518758754548577</v>
@@ -10199,7 +10199,7 @@
         <v>0.8538386783932411</v>
       </c>
       <c r="C146" t="n">
-        <v>0.001255851242978765</v>
+        <v>0.001718364193307598</v>
       </c>
       <c r="D146" t="n">
         <v>-1.518838544036293</v>
@@ -10214,7 +10214,7 @@
         <v>126.625</v>
       </c>
       <c r="H146" t="n">
-        <v>0.025324908</v>
+        <v>0.17577088995927</v>
       </c>
       <c r="I146" t="n">
         <v>-1.518838544036293</v>
@@ -10233,7 +10233,7 @@
         <v>0.8539045660047971</v>
       </c>
       <c r="C147" t="n">
-        <v>0.00162656558085253</v>
+        <v>0.002531695193224192</v>
       </c>
       <c r="D147" t="n">
         <v>-1.518819918207938</v>
@@ -10248,7 +10248,7 @@
         <v>126.754</v>
       </c>
       <c r="H147" t="n">
-        <v>0.025350843</v>
+        <v>0.28909449313744</v>
       </c>
       <c r="I147" t="n">
         <v>-1.518819918207938</v>
@@ -10267,7 +10267,7 @@
         <v>0.853751444335992</v>
       </c>
       <c r="C148" t="n">
-        <v>0.002112925860926384</v>
+        <v>0.003030265346808853</v>
       </c>
       <c r="D148" t="n">
         <v>-1.518925884532245</v>
@@ -10282,7 +10282,7 @@
         <v>127.033</v>
       </c>
       <c r="H148" t="n">
-        <v>0.025406507</v>
+        <v>0.324193442090004</v>
       </c>
       <c r="I148" t="n">
         <v>-1.518925884532245</v>
@@ -10301,7 +10301,7 @@
         <v>0.8534848452334569</v>
       </c>
       <c r="C149" t="n">
-        <v>0.002295354905862594</v>
+        <v>0.003309736205381312</v>
       </c>
       <c r="D149" t="n">
         <v>-1.519087181449516</v>
@@ -10316,7 +10316,7 @@
         <v>126.622</v>
       </c>
       <c r="H149" t="n">
-        <v>0.025324415</v>
+        <v>0.354662509289587</v>
       </c>
       <c r="I149" t="n">
         <v>-1.519087181449516</v>
@@ -10335,7 +10335,7 @@
         <v>0.8540664710598472</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001542759105635947</v>
+        <v>0.002056983411368044</v>
       </c>
       <c r="D150" t="n">
         <v>-1.518727038605024</v>
@@ -10350,7 +10350,7 @@
         <v>126.517</v>
       </c>
       <c r="H150" t="n">
-        <v>0.025303425</v>
+        <v>0.20312588992399</v>
       </c>
       <c r="I150" t="n">
         <v>-1.518727038605024</v>
@@ -10369,7 +10369,7 @@
         <v>0.8538077921184046</v>
       </c>
       <c r="C151" t="n">
-        <v>0.002393332709695696</v>
+        <v>0.003583659908347265</v>
       </c>
       <c r="D151" t="n">
         <v>-1.518904461856806</v>
@@ -10384,7 +10384,7 @@
         <v>126.726</v>
       </c>
       <c r="H151" t="n">
-        <v>0.025345273</v>
+        <v>0.396705597323135</v>
       </c>
       <c r="I151" t="n">
         <v>-1.518904461856806</v>
@@ -10403,7 +10403,7 @@
         <v>0.7682038651522488</v>
       </c>
       <c r="C152" t="n">
-        <v>0.001786309723362741</v>
+        <v>0.002290703078664681</v>
       </c>
       <c r="D152" t="n">
         <v>-1.898589827761933</v>
@@ -10418,7 +10418,7 @@
         <v>126.591</v>
       </c>
       <c r="H152" t="n">
-        <v>0.025318225</v>
+        <v>0.237662403228966</v>
       </c>
       <c r="I152" t="n">
         <v>-1.898589827761933</v>
@@ -10437,7 +10437,7 @@
         <v>0.7674482686022198</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002409760303162789</v>
+        <v>0.003505335079692655</v>
       </c>
       <c r="D153" t="n">
         <v>-1.899042664673275</v>
@@ -10452,7 +10452,7 @@
         <v>126.722</v>
       </c>
       <c r="H153" t="n">
-        <v>0.025344364</v>
+        <v>0.421107313409021</v>
       </c>
       <c r="I153" t="n">
         <v>-1.899042664673275</v>
@@ -10471,7 +10471,7 @@
         <v>0.7677683733378668</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001494454718159408</v>
+        <v>0.002418982693815641</v>
       </c>
       <c r="D154" t="n">
         <v>-1.898864387823961</v>
@@ -10486,7 +10486,7 @@
         <v>126.703</v>
       </c>
       <c r="H154" t="n">
-        <v>0.025340616</v>
+        <v>0.314924497437384</v>
       </c>
       <c r="I154" t="n">
         <v>-1.898864387823961</v>
@@ -10505,7 +10505,7 @@
         <v>0.7677624394224872</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0009110532213234339</v>
+        <v>0.001410843045374895</v>
       </c>
       <c r="D155" t="n">
         <v>-1.898836092833925</v>
@@ -10520,7 +10520,7 @@
         <v>126.179</v>
       </c>
       <c r="H155" t="n">
-        <v>0.025235848</v>
+        <v>0.178831140683067</v>
       </c>
       <c r="I155" t="n">
         <v>-1.898836092833925</v>
@@ -10539,7 +10539,7 @@
         <v>0.7672834720240541</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00296731269902812</v>
+        <v>0.004057882353452721</v>
       </c>
       <c r="D156" t="n">
         <v>-1.89914176301677</v>
@@ -10554,7 +10554,7 @@
         <v>126.634</v>
       </c>
       <c r="H156" t="n">
-        <v>0.02532687</v>
+        <v>0.45752707883284</v>
       </c>
       <c r="I156" t="n">
         <v>-1.89914176301677</v>
@@ -10573,7 +10573,7 @@
         <v>0.7675176941755193</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001992928059122261</v>
+        <v>0.002567165576306638</v>
       </c>
       <c r="D157" t="n">
         <v>-1.899003934365898</v>
@@ -10588,7 +10588,7 @@
         <v>127.047</v>
       </c>
       <c r="H157" t="n">
-        <v>0.025409471</v>
+        <v>0.269062985584301</v>
       </c>
       <c r="I157" t="n">
         <v>-1.899003934365898</v>
@@ -10607,7 +10607,7 @@
         <v>0.7678182702325892</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0008601235613632995</v>
+        <v>0.001175411444443341</v>
       </c>
       <c r="D158" t="n">
         <v>-1.898816833625994</v>
@@ -10622,7 +10622,7 @@
         <v>126.347</v>
       </c>
       <c r="H158" t="n">
-        <v>0.025269313</v>
+        <v>0.134225556778271</v>
       </c>
       <c r="I158" t="n">
         <v>-1.898816833625994</v>
@@ -10641,7 +10641,7 @@
         <v>0.7673586675447344</v>
       </c>
       <c r="C159" t="n">
-        <v>0.001952833231211985</v>
+        <v>0.00237073113573666</v>
       </c>
       <c r="D159" t="n">
         <v>-1.899057307546973</v>
@@ -10656,7 +10656,7 @@
         <v>126.345</v>
       </c>
       <c r="H159" t="n">
-        <v>0.025268999</v>
+        <v>0.222755358151639</v>
       </c>
       <c r="I159" t="n">
         <v>-1.899057307546973</v>
@@ -10675,7 +10675,7 @@
         <v>0.7674007994372982</v>
       </c>
       <c r="C160" t="n">
-        <v>0.002123758542342436</v>
+        <v>0.002740902713847036</v>
       </c>
       <c r="D160" t="n">
         <v>-1.899080665398786</v>
@@ -10690,7 +10690,7 @@
         <v>126.436</v>
       </c>
       <c r="H160" t="n">
-        <v>0.025287156</v>
+        <v>0.286592794241622</v>
       </c>
       <c r="I160" t="n">
         <v>-1.899080665398786</v>
@@ -10709,7 +10709,7 @@
         <v>0.76774626200166</v>
       </c>
       <c r="C161" t="n">
-        <v>0.001243945519867335</v>
+        <v>0.001870591969119206</v>
       </c>
       <c r="D161" t="n">
         <v>-1.898878061643849</v>
@@ -10724,7 +10724,7 @@
         <v>126.547</v>
       </c>
       <c r="H161" t="n">
-        <v>0.025309323</v>
+        <v>0.231659276413865</v>
       </c>
       <c r="I161" t="n">
         <v>-1.898878061643849</v>
@@ -10743,7 +10743,7 @@
         <v>0.643647877621464</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001330767763937959</v>
+        <v>0.001697115123052046</v>
       </c>
       <c r="D162" t="n">
         <v>-2.373597696771729</v>
@@ -10758,7 +10758,7 @@
         <v>126.107</v>
       </c>
       <c r="H162" t="n">
-        <v>0.025221348</v>
+        <v>0.207886793909562</v>
       </c>
       <c r="I162" t="n">
         <v>-2.373597696771729</v>
@@ -10777,7 +10777,7 @@
         <v>0.644136441947274</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001292722958397157</v>
+        <v>0.001624745426498554</v>
       </c>
       <c r="D163" t="n">
         <v>-2.37325950540645</v>
@@ -10792,7 +10792,7 @@
         <v>126.001</v>
       </c>
       <c r="H163" t="n">
-        <v>0.02520023</v>
+        <v>0.194165422532447</v>
       </c>
       <c r="I163" t="n">
         <v>-2.37325950540645</v>
@@ -10811,7 +10811,7 @@
         <v>0.644298778778711</v>
       </c>
       <c r="C164" t="n">
-        <v>0.002559571885455578</v>
+        <v>0.003358232957458336</v>
       </c>
       <c r="D164" t="n">
         <v>-2.373180416349297</v>
@@ -10826,7 +10826,7 @@
         <v>125.886</v>
       </c>
       <c r="H164" t="n">
-        <v>0.025177128</v>
+        <v>0.425513417690816</v>
       </c>
       <c r="I164" t="n">
         <v>-2.373180416349297</v>
@@ -10845,7 +10845,7 @@
         <v>0.6438666362961364</v>
       </c>
       <c r="C165" t="n">
-        <v>0.00174789059171001</v>
+        <v>0.002612594634655217</v>
       </c>
       <c r="D165" t="n">
         <v>-2.373449453611761</v>
@@ -10860,7 +10860,7 @@
         <v>125.958</v>
       </c>
       <c r="H165" t="n">
-        <v>0.025191638</v>
+        <v>0.380700896151338</v>
       </c>
       <c r="I165" t="n">
         <v>-2.373449453611761</v>
@@ -10879,7 +10879,7 @@
         <v>0.6439375518524958</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001803478170396795</v>
+        <v>0.002789662966514157</v>
       </c>
       <c r="D166" t="n">
         <v>-2.373395375307986</v>
@@ -10894,7 +10894,7 @@
         <v>125.973</v>
       </c>
       <c r="H166" t="n">
-        <v>0.025194517</v>
+        <v>0.417120400719826</v>
       </c>
       <c r="I166" t="n">
         <v>-2.373395375307986</v>
@@ -10913,7 +10913,7 @@
         <v>0.6437934038996345</v>
       </c>
       <c r="C167" t="n">
-        <v>0.00114285237459502</v>
+        <v>0.001498620077091551</v>
       </c>
       <c r="D167" t="n">
         <v>-2.373483785676584</v>
@@ -10928,7 +10928,7 @@
         <v>126.246</v>
       </c>
       <c r="H167" t="n">
-        <v>0.025249135</v>
+        <v>0.191767424016524</v>
       </c>
       <c r="I167" t="n">
         <v>-2.373483785676584</v>
@@ -10947,7 +10947,7 @@
         <v>0.6438774804572911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.001514294878484339</v>
+        <v>0.002294288891974608</v>
       </c>
       <c r="D168" t="n">
         <v>-2.373437763512482</v>
@@ -10962,7 +10962,7 @@
         <v>126.356</v>
       </c>
       <c r="H168" t="n">
-        <v>0.025271213</v>
+        <v>0.339178903187766</v>
       </c>
       <c r="I168" t="n">
         <v>-2.373437763512482</v>
@@ -10981,7 +10981,7 @@
         <v>0.6440538802373571</v>
       </c>
       <c r="C169" t="n">
-        <v>0.001722506386205171</v>
+        <v>0.002550174647580746</v>
       </c>
       <c r="D169" t="n">
         <v>-2.373321900953357</v>
@@ -10996,7 +10996,7 @@
         <v>126.635</v>
       </c>
       <c r="H169" t="n">
-        <v>0.025326942</v>
+        <v>0.370617894134587</v>
       </c>
       <c r="I169" t="n">
         <v>-2.373321900953357</v>
@@ -11015,7 +11015,7 @@
         <v>0.6439495957148142</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001494460295682958</v>
+        <v>0.00203674961314073</v>
       </c>
       <c r="D170" t="n">
         <v>-2.373392370945519</v>
@@ -11030,7 +11030,7 @@
         <v>125.757</v>
       </c>
       <c r="H170" t="n">
-        <v>0.025151493</v>
+        <v>0.271412840631505</v>
       </c>
       <c r="I170" t="n">
         <v>-2.373392370945519</v>
@@ -11049,7 +11049,7 @@
         <v>0.6441385187123638</v>
       </c>
       <c r="C171" t="n">
-        <v>0.001360858696768395</v>
+        <v>0.001502169482784269</v>
       </c>
       <c r="D171" t="n">
         <v>-2.373280389812181</v>
@@ -11064,7 +11064,7 @@
         <v>125.81</v>
       </c>
       <c r="H171" t="n">
-        <v>0.025161996</v>
+        <v>0.126755357843512</v>
       </c>
       <c r="I171" t="n">
         <v>-2.373280389812181</v>

--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CEM" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5235,7 +5235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5286,11 +5286,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>$x_{\phi},$ [°]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Lab</t>
         </is>
       </c>
@@ -5320,10 +5315,7 @@
       <c r="H2" t="n">
         <v>0.004891327390165</v>
       </c>
-      <c r="I2" t="n">
-        <v>-0.09468368881641709</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5354,10 +5346,7 @@
       <c r="H3" t="n">
         <v>0.009688163830732999</v>
       </c>
-      <c r="I3" t="n">
-        <v>-0.09461263669183584</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5388,10 +5377,7 @@
       <c r="H4" t="n">
         <v>0.008343878597812</v>
       </c>
-      <c r="I4" t="n">
-        <v>-0.09493052876059216</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5422,10 +5408,7 @@
       <c r="H5" t="n">
         <v>0.004730974720984</v>
       </c>
-      <c r="I5" t="n">
-        <v>-0.09460199638093547</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5456,10 +5439,7 @@
       <c r="H6" t="n">
         <v>0.006251745842114</v>
       </c>
-      <c r="I6" t="n">
-        <v>-0.09461164680031775</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5490,10 +5470,7 @@
       <c r="H7" t="n">
         <v>0.006520897917793</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.0947113851968906</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5524,10 +5501,7 @@
       <c r="H8" t="n">
         <v>0.006444634638151</v>
       </c>
-      <c r="I8" t="n">
-        <v>-0.09498309447476005</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5558,10 +5532,7 @@
       <c r="H9" t="n">
         <v>0.009715954243424</v>
       </c>
-      <c r="I9" t="n">
-        <v>-0.09458392019252382</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5592,10 +5563,7 @@
       <c r="H10" t="n">
         <v>0.007513366549737</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.09456147092396305</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5626,10 +5594,7 @@
       <c r="H11" t="n">
         <v>0.013257029325526</v>
       </c>
-      <c r="I11" t="n">
-        <v>-0.09471901459374377</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5640,30 +5605,27 @@
         <v>12.5</v>
       </c>
       <c r="B12" t="n">
-        <v>1.019093297623116</v>
+        <v>1.018037974265213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004047479819917342</v>
+        <v>0.005151192163864313</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1188203516166466</v>
+        <v>-0.1186007078629865</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006454607481246742</v>
+        <v>0.004516403881084933</v>
       </c>
       <c r="F12" t="n">
         <v>12.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.744</v>
+        <v>2.761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007312286604905</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.1188203516166466</v>
-      </c>
-      <c r="J12" t="inlineStr">
+        <v>0.008748237670929001</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5674,30 +5636,27 @@
         <v>12.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.018516313126167</v>
+        <v>1.018413370767813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003793783654166793</v>
+        <v>0.005501334526828454</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1184922992798134</v>
+        <v>-0.1188698326590361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004223488120206054</v>
+        <v>0.005442275296618245</v>
       </c>
       <c r="F13" t="n">
         <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.755</v>
+        <v>2.757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006637853615773</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.1184922992798134</v>
-      </c>
-      <c r="J13" t="inlineStr">
+        <v>0.010780406878195</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5708,30 +5667,27 @@
         <v>12.5</v>
       </c>
       <c r="B14" t="n">
-        <v>1.018783375294373</v>
+        <v>1.018343700268765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005224319725925793</v>
+        <v>0.005371576867214532</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1195153545433347</v>
+        <v>-0.1186059136544484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003980871428451336</v>
+        <v>0.004681979998663601</v>
       </c>
       <c r="F14" t="n">
         <v>12.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.753</v>
+        <v>2.761</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009337787552397</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.1195153545433347</v>
-      </c>
-      <c r="J14" t="inlineStr">
+        <v>0.009842461528008</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5742,30 +5698,27 @@
         <v>12.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.01815527775581</v>
+        <v>1.018477952815318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007561857254133796</v>
+        <v>0.00307827730646071</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1187594703689183</v>
+        <v>-0.1180289245665194</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00440951353652374</v>
+        <v>0.005000876928010161</v>
       </c>
       <c r="F15" t="n">
         <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.753</v>
+        <v>2.757</v>
       </c>
       <c r="H15" t="n">
-        <v>0.015145754960434</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.1187594703689183</v>
-      </c>
-      <c r="J15" t="inlineStr">
+        <v>0.004340500589592</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5776,30 +5729,27 @@
         <v>12.5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.017900904988349</v>
+        <v>1.018494187448801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007370482014416724</v>
+        <v>0.00776566628364966</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.118398307234427</v>
+        <v>-0.1190525439858523</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004834552973868721</v>
+        <v>0.006925191981711419</v>
       </c>
       <c r="F16" t="n">
         <v>12.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.757</v>
+        <v>2.761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.014950912307602</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.118398307234427</v>
-      </c>
-      <c r="J16" t="inlineStr">
+        <v>0.015371477021473</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5810,30 +5760,27 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018413370767813</v>
+        <v>1.019093297623116</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005501334526828454</v>
+        <v>0.004047479819917342</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1188698326590361</v>
+        <v>-0.1188203516166466</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005442275296618245</v>
+        <v>0.006454607481246742</v>
       </c>
       <c r="F17" t="n">
         <v>12.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.757</v>
+        <v>2.744</v>
       </c>
       <c r="H17" t="n">
-        <v>0.010780406878195</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-0.1188698326590361</v>
-      </c>
-      <c r="J17" t="inlineStr">
+        <v>0.007312286604905</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5844,30 +5791,27 @@
         <v>12.5</v>
       </c>
       <c r="B18" t="n">
-        <v>1.018477952815318</v>
+        <v>1.01815527775581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00307827730646071</v>
+        <v>0.007561857254133796</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1180289245665194</v>
+        <v>-0.1187594703689183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005000876928010161</v>
+        <v>0.00440951353652374</v>
       </c>
       <c r="F18" t="n">
         <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.757</v>
+        <v>2.753</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004340500589592</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.1180289245665194</v>
-      </c>
-      <c r="J18" t="inlineStr">
+        <v>0.015145754960434</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5878,30 +5822,27 @@
         <v>12.5</v>
       </c>
       <c r="B19" t="n">
-        <v>1.018037974265213</v>
+        <v>1.017900904988349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005151192163864313</v>
+        <v>0.007370482014416724</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1186007078629865</v>
+        <v>-0.118398307234427</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004516403881084933</v>
+        <v>0.004834552973868721</v>
       </c>
       <c r="F19" t="n">
         <v>12.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.761</v>
+        <v>2.757</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008748237670929001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.1186007078629865</v>
-      </c>
-      <c r="J19" t="inlineStr">
+        <v>0.014950912307602</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5912,30 +5853,27 @@
         <v>12.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.018494187448801</v>
+        <v>1.018783375294373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00776566628364966</v>
+        <v>0.005224319725925793</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1190525439858523</v>
+        <v>-0.1195153545433347</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006925191981711419</v>
+        <v>0.003980871428451336</v>
       </c>
       <c r="F20" t="n">
         <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.761</v>
+        <v>2.753</v>
       </c>
       <c r="H20" t="n">
-        <v>0.015371477021473</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.1190525439858523</v>
-      </c>
-      <c r="J20" t="inlineStr">
+        <v>0.009337787552397</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5946,30 +5884,27 @@
         <v>12.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018343700268765</v>
+        <v>1.018516313126167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005371576867214532</v>
+        <v>0.003793783654166793</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1186059136544484</v>
+        <v>-0.1184922992798134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004681979998663601</v>
+        <v>0.004223488120206054</v>
       </c>
       <c r="F21" t="n">
         <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.761</v>
+        <v>2.755</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009842461528008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-0.1186059136544484</v>
-      </c>
-      <c r="J21" t="inlineStr">
+        <v>0.006637853615773</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -5980,30 +5915,27 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.017669872079825</v>
+        <v>1.01843940537399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003918433982497729</v>
+        <v>0.005217645819351358</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1516284990597248</v>
+        <v>-0.1519605918834235</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003440860726251004</v>
+        <v>0.004227941770197761</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>5.573</v>
+        <v>5.578</v>
       </c>
       <c r="H22" t="n">
-        <v>0.015267067986888</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-0.1516284990597248</v>
-      </c>
-      <c r="J22" t="inlineStr">
+        <v>0.019614124125092</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6014,30 +5946,27 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>1.018381879256725</v>
+        <v>1.017730243177382</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00755499268938638</v>
+        <v>0.002862661943250054</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1523297439645124</v>
+        <v>-0.1516432644978034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005133686376421993</v>
+        <v>0.002967129053751449</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>5.546</v>
+        <v>5.573</v>
       </c>
       <c r="H23" t="n">
-        <v>0.029744094590026</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-0.1523297439645124</v>
-      </c>
-      <c r="J23" t="inlineStr">
+        <v>0.011578099655723</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6048,30 +5977,27 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>1.018325530689699</v>
+        <v>1.017711034216828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00564497369026703</v>
+        <v>0.006137682113597089</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1522435997185894</v>
+        <v>-0.1521381790959864</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004719555271615341</v>
+        <v>0.005154340388982034</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>5.579</v>
+        <v>5.582</v>
       </c>
       <c r="H24" t="n">
-        <v>0.021438499750743</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-0.1522435997185894</v>
-      </c>
-      <c r="J24" t="inlineStr">
+        <v>0.022682673887978</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6082,30 +6008,27 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.017740064549845</v>
+        <v>1.018575221931231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004162510627696204</v>
+        <v>0.005213595663293753</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1517500518851931</v>
+        <v>-0.1523009152981192</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003976861527258027</v>
+        <v>0.004122259438787054</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>5.575</v>
+        <v>5.567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.015314237193869</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-0.1517500518851931</v>
-      </c>
-      <c r="J25" t="inlineStr">
+        <v>0.018998988836365</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6116,30 +6039,27 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.018213012197017</v>
+        <v>1.017924185605009</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004429348111081433</v>
+        <v>0.003147999350854616</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1523040484881624</v>
+        <v>-0.1518716401407625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004008706138716321</v>
+        <v>0.002955757907198396</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>5.57</v>
+        <v>5.578</v>
       </c>
       <c r="H26" t="n">
-        <v>0.016995081270198</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.1523040484881624</v>
-      </c>
-      <c r="J26" t="inlineStr">
+        <v>0.011901262011855</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6150,30 +6070,27 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>1.01843940537399</v>
+        <v>1.018381879256725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005217645819351358</v>
+        <v>0.00755499268938638</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1519605918834235</v>
+        <v>-0.1523297439645124</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004227941770197761</v>
+        <v>0.005133686376421993</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>5.578</v>
+        <v>5.546</v>
       </c>
       <c r="H27" t="n">
-        <v>0.019614124125092</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.1519605918834235</v>
-      </c>
-      <c r="J27" t="inlineStr">
+        <v>0.029744094590026</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6184,30 +6101,27 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.017730243177382</v>
+        <v>1.018325530689699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002862661943250054</v>
+        <v>0.00564497369026703</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1516432644978034</v>
+        <v>-0.1522435997185894</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002967129053751449</v>
+        <v>0.004719555271615341</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>5.573</v>
+        <v>5.579</v>
       </c>
       <c r="H28" t="n">
-        <v>0.011578099655723</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-0.1516432644978034</v>
-      </c>
-      <c r="J28" t="inlineStr">
+        <v>0.021438499750743</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6218,30 +6132,27 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>1.017924185605009</v>
+        <v>1.017669872079825</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003147999350854616</v>
+        <v>0.003918433982497729</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1518716401407625</v>
+        <v>-0.1516284990597248</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002955757907198396</v>
+        <v>0.003440860726251004</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>5.578</v>
+        <v>5.573</v>
       </c>
       <c r="H29" t="n">
-        <v>0.011901262011855</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-0.1518716401407625</v>
-      </c>
-      <c r="J29" t="inlineStr">
+        <v>0.015267067986888</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6252,30 +6163,27 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>1.018575221931231</v>
+        <v>1.018213012197017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005213595663293753</v>
+        <v>0.004429348111081433</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1523009152981192</v>
+        <v>-0.1523040484881624</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004122259438787054</v>
+        <v>0.004008706138716321</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>5.567</v>
+        <v>5.57</v>
       </c>
       <c r="H30" t="n">
-        <v>0.018998988836365</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-0.1523009152981192</v>
-      </c>
-      <c r="J30" t="inlineStr">
+        <v>0.016995081270198</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6286,30 +6194,27 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017711034216828</v>
+        <v>1.017740064549845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006137682113597089</v>
+        <v>0.004162510627696204</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1521381790959864</v>
+        <v>-0.1517500518851931</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005154340388982034</v>
+        <v>0.003976861527258027</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>5.582</v>
+        <v>5.575</v>
       </c>
       <c r="H31" t="n">
-        <v>0.022682673887978</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.1521381790959864</v>
-      </c>
-      <c r="J31" t="inlineStr">
+        <v>0.015314237193869</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6320,30 +6225,27 @@
         <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>1.016985494451034</v>
+        <v>1.016881802964801</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005041366938133791</v>
+        <v>0.003400473994618108</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1899356200044511</v>
+        <v>-0.1894688903953767</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005546110814668203</v>
+        <v>0.004075581928912268</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>5.571</v>
+        <v>5.596</v>
       </c>
       <c r="H32" t="n">
-        <v>0.020746290517999</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-0.1899356200044511</v>
-      </c>
-      <c r="J32" t="inlineStr">
+        <v>0.012629898170336</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6354,30 +6256,27 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.01677167320184</v>
+        <v>1.016443709258752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002403736411786261</v>
+        <v>0.004292355322701152</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.189423168809548</v>
+        <v>-0.1893762681164637</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004133101393506703</v>
+        <v>0.004923809438576209</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>5.586</v>
+        <v>5.57</v>
       </c>
       <c r="H33" t="n">
-        <v>0.006489042918398</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-0.189423168809548</v>
-      </c>
-      <c r="J33" t="inlineStr">
+        <v>0.013617955788718</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6388,30 +6287,27 @@
         <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>1.016991791201618</v>
+        <v>1.016767628922006</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003220610439917267</v>
+        <v>0.003289246279646641</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1901219848709348</v>
+        <v>-0.1899022828866734</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004814841353128162</v>
+        <v>0.004255721608728055</v>
       </c>
       <c r="F34" t="n">
         <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>5.59</v>
+        <v>5.594</v>
       </c>
       <c r="H34" t="n">
-        <v>0.012107814239987</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-0.1901219848709348</v>
-      </c>
-      <c r="J34" t="inlineStr">
+        <v>0.012300716631549</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6422,30 +6318,27 @@
         <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>1.017032160321141</v>
+        <v>1.016683512507745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003811395046518484</v>
+        <v>0.003828105769477187</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1900993259780035</v>
+        <v>-0.1897262701136946</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004969384625137245</v>
+        <v>0.00446173349155104</v>
       </c>
       <c r="F35" t="n">
         <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>5.581</v>
+        <v>5.592</v>
       </c>
       <c r="H35" t="n">
-        <v>0.014856955800656</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-0.1900993259780035</v>
-      </c>
-      <c r="J35" t="inlineStr">
+        <v>0.014912963650047</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6456,30 +6349,27 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>1.016476989247063</v>
+        <v>1.016992201397093</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004409176775394881</v>
+        <v>0.00404754222426729</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1898097927036959</v>
+        <v>-0.1897733691051613</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005198630080698111</v>
+        <v>0.005335087846687372</v>
       </c>
       <c r="F36" t="n">
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>5.593</v>
+        <v>5.596</v>
       </c>
       <c r="H36" t="n">
-        <v>0.017451334974756</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0.1898097927036959</v>
-      </c>
-      <c r="J36" t="inlineStr">
+        <v>0.017651725874693</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6490,30 +6380,27 @@
         <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>1.016767628922006</v>
+        <v>1.016985494451034</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003289246279646641</v>
+        <v>0.005041366938133791</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1899022828866734</v>
+        <v>-0.1899356200044511</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004255721608728055</v>
+        <v>0.005546110814668203</v>
       </c>
       <c r="F37" t="n">
         <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>5.594</v>
+        <v>5.571</v>
       </c>
       <c r="H37" t="n">
-        <v>0.012300716631549</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0.1899022828866734</v>
-      </c>
-      <c r="J37" t="inlineStr">
+        <v>0.020746290517999</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6524,30 +6411,27 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>1.016443709258752</v>
+        <v>1.016476989247063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004292355322701152</v>
+        <v>0.004409176775394881</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1893762681164637</v>
+        <v>-0.1898097927036959</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004923809438576209</v>
+        <v>0.005198630080698111</v>
       </c>
       <c r="F38" t="n">
         <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>5.57</v>
+        <v>5.593</v>
       </c>
       <c r="H38" t="n">
-        <v>0.013617955788718</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0.1893762681164637</v>
-      </c>
-      <c r="J38" t="inlineStr">
+        <v>0.017451334974756</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6558,30 +6442,27 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1.016881802964801</v>
+        <v>1.017032160321141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003400473994618108</v>
+        <v>0.003811395046518484</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1894688903953767</v>
+        <v>-0.1900993259780035</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004075581928912268</v>
+        <v>0.004969384625137245</v>
       </c>
       <c r="F39" t="n">
         <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.596</v>
+        <v>5.581</v>
       </c>
       <c r="H39" t="n">
-        <v>0.012629898170336</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-0.1894688903953767</v>
-      </c>
-      <c r="J39" t="inlineStr">
+        <v>0.014856955800656</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6592,30 +6473,27 @@
         <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1.016992201397093</v>
+        <v>1.016991791201618</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00404754222426729</v>
+        <v>0.003220610439917267</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1897733691051613</v>
+        <v>-0.1901219848709348</v>
       </c>
       <c r="E40" t="n">
-        <v>0.005335087846687372</v>
+        <v>0.004814841353128162</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>5.596</v>
+        <v>5.59</v>
       </c>
       <c r="H40" t="n">
-        <v>0.017651725874693</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.1897733691051613</v>
-      </c>
-      <c r="J40" t="inlineStr">
+        <v>0.012107814239987</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6626,30 +6504,27 @@
         <v>20</v>
       </c>
       <c r="B41" t="n">
-        <v>1.016683512507745</v>
+        <v>1.01677167320184</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003828105769477187</v>
+        <v>0.002403736411786261</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1897262701136946</v>
+        <v>-0.189423168809548</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00446173349155104</v>
+        <v>0.004133101393506703</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>5.592</v>
+        <v>5.586</v>
       </c>
       <c r="H41" t="n">
-        <v>0.014912963650047</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-0.1897262701136946</v>
-      </c>
-      <c r="J41" t="inlineStr">
+        <v>0.006489042918398</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6660,30 +6535,27 @@
         <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>1.015083331313351</v>
+        <v>1.015287530429565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002527783011691038</v>
+        <v>0.003111998737711569</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2366787429961543</v>
+        <v>-0.2371998859887468</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004193156487429048</v>
+        <v>0.004763326257833165</v>
       </c>
       <c r="F42" t="n">
         <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>11.264</v>
+        <v>11.28</v>
       </c>
       <c r="H42" t="n">
-        <v>0.020077182874202</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-0.2366787429961543</v>
-      </c>
-      <c r="J42" t="inlineStr">
+        <v>0.023688687446238</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6694,30 +6566,27 @@
         <v>25</v>
       </c>
       <c r="B43" t="n">
-        <v>1.015285154307868</v>
+        <v>1.015507185881661</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003831003073481512</v>
+        <v>0.002949415411475437</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2373388303386905</v>
+        <v>-0.2374395802762082</v>
       </c>
       <c r="E43" t="n">
-        <v>0.005814352228945436</v>
+        <v>0.004393827621271999</v>
       </c>
       <c r="F43" t="n">
         <v>25</v>
       </c>
       <c r="G43" t="n">
-        <v>11.281</v>
+        <v>11.272</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0308579917812</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-0.2373388303386905</v>
-      </c>
-      <c r="J43" t="inlineStr">
+        <v>0.023832187938277</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6728,30 +6597,27 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>1.015376833937671</v>
+        <v>1.015401747564822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002485810462870884</v>
+        <v>0.003249768325906804</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2374148109787018</v>
+        <v>-0.2372800976627194</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003801884319205859</v>
+        <v>0.004951510211681543</v>
       </c>
       <c r="F44" t="n">
         <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>11.282</v>
+        <v>11.273</v>
       </c>
       <c r="H44" t="n">
-        <v>0.019199368989646</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-0.2374148109787018</v>
-      </c>
-      <c r="J44" t="inlineStr">
+        <v>0.026849234947934</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6762,30 +6628,27 @@
         <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>1.015282931577932</v>
+        <v>1.0155538649882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002423027891007316</v>
+        <v>0.003369572833881639</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.237054109419446</v>
+        <v>-0.2377231390478642</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00399934226411509</v>
+        <v>0.005229460350016756</v>
       </c>
       <c r="F45" t="n">
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>11.282</v>
+        <v>11.272</v>
       </c>
       <c r="H45" t="n">
-        <v>0.017435440637342</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-0.237054109419446</v>
-      </c>
-      <c r="J45" t="inlineStr">
+        <v>0.026533641107474</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6796,30 +6659,27 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1.014817390689611</v>
+        <v>1.015218699552001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003686403387753666</v>
+        <v>0.002623207997502186</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2365628466730563</v>
+        <v>-0.2366795655649319</v>
       </c>
       <c r="E46" t="n">
-        <v>0.005840326200999466</v>
+        <v>0.003842855917915327</v>
       </c>
       <c r="F46" t="n">
         <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>11.284</v>
+        <v>11.265</v>
       </c>
       <c r="H46" t="n">
-        <v>0.023476616326684</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-0.2365628466730563</v>
-      </c>
-      <c r="J46" t="inlineStr">
+        <v>0.018081378963867</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6830,30 +6690,27 @@
         <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>1.015218699552001</v>
+        <v>1.015376833937671</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002623207997502186</v>
+        <v>0.002485810462870884</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2366795655649319</v>
+        <v>-0.2374148109787018</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003842855917915327</v>
+        <v>0.003801884319205859</v>
       </c>
       <c r="F47" t="n">
         <v>25</v>
       </c>
       <c r="G47" t="n">
-        <v>11.265</v>
+        <v>11.282</v>
       </c>
       <c r="H47" t="n">
-        <v>0.018081378963867</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-0.2366795655649319</v>
-      </c>
-      <c r="J47" t="inlineStr">
+        <v>0.019199368989646</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6864,30 +6721,27 @@
         <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.015287530429565</v>
+        <v>1.015282931577932</v>
       </c>
       <c r="C48" t="n">
-        <v>0.003111998737711569</v>
+        <v>0.002423027891007316</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2371998859887468</v>
+        <v>-0.237054109419446</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004763326257833165</v>
+        <v>0.00399934226411509</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>11.28</v>
+        <v>11.282</v>
       </c>
       <c r="H48" t="n">
-        <v>0.023688687446238</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-0.2371998859887468</v>
-      </c>
-      <c r="J48" t="inlineStr">
+        <v>0.017435440637342</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6898,30 +6752,27 @@
         <v>25</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0155538649882</v>
+        <v>1.015083331313351</v>
       </c>
       <c r="C49" t="n">
-        <v>0.003369572833881639</v>
+        <v>0.002527783011691038</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2377231390478642</v>
+        <v>-0.2366787429961543</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005229460350016756</v>
+        <v>0.004193156487429048</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
       </c>
       <c r="G49" t="n">
-        <v>11.272</v>
+        <v>11.264</v>
       </c>
       <c r="H49" t="n">
-        <v>0.026533641107474</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-0.2377231390478642</v>
-      </c>
-      <c r="J49" t="inlineStr">
+        <v>0.020077182874202</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6932,30 +6783,27 @@
         <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>1.015401747564822</v>
+        <v>1.014817390689611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003249768325906804</v>
+        <v>0.003686403387753666</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2372800976627194</v>
+        <v>-0.2365628466730563</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004951510211681543</v>
+        <v>0.005840326200999466</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>11.273</v>
+        <v>11.284</v>
       </c>
       <c r="H50" t="n">
-        <v>0.026849234947934</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-0.2372800976627194</v>
-      </c>
-      <c r="J50" t="inlineStr">
+        <v>0.023476616326684</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -6966,30 +6814,27 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1.015507185881661</v>
+        <v>1.015285154307868</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002949415411475437</v>
+        <v>0.003831003073481512</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2374395802762082</v>
+        <v>-0.2373388303386905</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004393827621271999</v>
+        <v>0.005814352228945436</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>11.272</v>
+        <v>11.281</v>
       </c>
       <c r="H51" t="n">
-        <v>0.023832187938277</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-0.2374395802762082</v>
-      </c>
-      <c r="J51" t="inlineStr">
+        <v>0.0308579917812</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7020,10 +6865,7 @@
       <c r="H52" t="n">
         <v>0.013613102380448</v>
       </c>
-      <c r="I52" t="n">
-        <v>-0.2987690391140281</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7054,10 +6896,7 @@
       <c r="H53" t="n">
         <v>0.018460932450378</v>
       </c>
-      <c r="I53" t="n">
-        <v>-0.2986780078685594</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7088,10 +6927,7 @@
       <c r="H54" t="n">
         <v>0.007800470922491</v>
       </c>
-      <c r="I54" t="n">
-        <v>-0.2985702850478891</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7122,10 +6958,7 @@
       <c r="H55" t="n">
         <v>0.013066623425462</v>
       </c>
-      <c r="I55" t="n">
-        <v>-0.298823225309897</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7136,30 +6969,27 @@
         <v>31.5</v>
       </c>
       <c r="B56" t="n">
-        <v>1.013213696022409</v>
+        <v>1.012805725212618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001579936413638478</v>
+        <v>0.001725431370878325</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2996998233577313</v>
+        <v>-0.2989192184229506</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004616541580922706</v>
+        <v>0.004470508207132741</v>
       </c>
       <c r="F56" t="n">
         <v>31.5</v>
       </c>
       <c r="G56" t="n">
-        <v>11.421</v>
+        <v>11.428</v>
       </c>
       <c r="H56" t="n">
-        <v>0.009585955096397</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-0.2996998233577313</v>
-      </c>
-      <c r="J56" t="inlineStr">
+        <v>0.01316124589677</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7170,30 +7000,27 @@
         <v>31.5</v>
       </c>
       <c r="B57" t="n">
-        <v>1.012786753961046</v>
+        <v>1.013319075603283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001909446613721145</v>
+        <v>0.002671146419412408</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2989371966815226</v>
+        <v>-0.2995803928810874</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005223560172719405</v>
+        <v>0.006666748542171996</v>
       </c>
       <c r="F57" t="n">
         <v>31.5</v>
       </c>
       <c r="G57" t="n">
-        <v>11.432</v>
+        <v>11.408</v>
       </c>
       <c r="H57" t="n">
-        <v>0.014900056855581</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-0.2989371966815226</v>
-      </c>
-      <c r="J57" t="inlineStr">
+        <v>0.020851280528231</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7204,30 +7031,27 @@
         <v>31.5</v>
       </c>
       <c r="B58" t="n">
-        <v>1.012777492710821</v>
+        <v>1.013309994471796</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001511854389866237</v>
+        <v>0.003631402059539958</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2986611663022831</v>
+        <v>-0.3003890740551816</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004416704592171663</v>
+        <v>0.00957139722439173</v>
       </c>
       <c r="F58" t="n">
         <v>31.5</v>
       </c>
       <c r="G58" t="n">
-        <v>11.441</v>
+        <v>11.428</v>
       </c>
       <c r="H58" t="n">
-        <v>0.010112748140394</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-0.2986611663022831</v>
-      </c>
-      <c r="J58" t="inlineStr">
+        <v>0.026506959661577</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7238,30 +7062,27 @@
         <v>31.5</v>
       </c>
       <c r="B59" t="n">
-        <v>1.012805725212618</v>
+        <v>1.013213696022409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001725431370878325</v>
+        <v>0.001579936413638478</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2989192184229506</v>
+        <v>-0.2996998233577313</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004470508207132741</v>
+        <v>0.004616541580922706</v>
       </c>
       <c r="F59" t="n">
         <v>31.5</v>
       </c>
       <c r="G59" t="n">
-        <v>11.428</v>
+        <v>11.421</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01316124589677</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-0.2989192184229506</v>
-      </c>
-      <c r="J59" t="inlineStr">
+        <v>0.009585955096397</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7272,30 +7093,27 @@
         <v>31.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1.013319075603283</v>
+        <v>1.012786753961046</v>
       </c>
       <c r="C60" t="n">
-        <v>0.002671146419412408</v>
+        <v>0.001909446613721145</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2995803928810874</v>
+        <v>-0.2989371966815226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006666748542171996</v>
+        <v>0.005223560172719405</v>
       </c>
       <c r="F60" t="n">
         <v>31.5</v>
       </c>
       <c r="G60" t="n">
-        <v>11.408</v>
+        <v>11.432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.020851280528231</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-0.2995803928810874</v>
-      </c>
-      <c r="J60" t="inlineStr">
+        <v>0.014900056855581</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7306,30 +7124,27 @@
         <v>31.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013309994471796</v>
+        <v>1.012777492710821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.003631402059539958</v>
+        <v>0.001511854389866237</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3003890740551816</v>
+        <v>-0.2986611663022831</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00957139722439173</v>
+        <v>0.004416704592171663</v>
       </c>
       <c r="F61" t="n">
         <v>31.5</v>
       </c>
       <c r="G61" t="n">
-        <v>11.428</v>
+        <v>11.441</v>
       </c>
       <c r="H61" t="n">
-        <v>0.026506959661577</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-0.3003890740551816</v>
-      </c>
-      <c r="J61" t="inlineStr">
+        <v>0.010112748140394</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7340,30 +7155,27 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>1.008800123212527</v>
+        <v>1.008743004541071</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0007897458160709573</v>
+        <v>0.0007494624379731547</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3798326866942965</v>
+        <v>-0.3793909902467334</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006860598448317614</v>
+        <v>0.005924166924650098</v>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>23.242</v>
+        <v>23.243</v>
       </c>
       <c r="H62" t="n">
-        <v>0.012600703119181</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-0.3798326866942965</v>
-      </c>
-      <c r="J62" t="inlineStr">
+        <v>0.01079139738391</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7374,30 +7186,27 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>1.008915434191853</v>
+        <v>1.0087959486256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0008967195452835347</v>
+        <v>0.000631847309226144</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3802869488155958</v>
+        <v>-0.3796630766128217</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006875831850745954</v>
+        <v>0.005166240368279907</v>
       </c>
       <c r="F63" t="n">
         <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>23.248</v>
+        <v>23.252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0127864205841</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-0.3802869488155958</v>
-      </c>
-      <c r="J63" t="inlineStr">
+        <v>0.009690490941299</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7408,16 +7217,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="n">
-        <v>1.008898780563483</v>
+        <v>1.008848307172733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0007761383951578342</v>
+        <v>0.0004946007550755803</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3798335801087296</v>
+        <v>-0.38014006893932</v>
       </c>
       <c r="E64" t="n">
-        <v>0.005706083765309294</v>
+        <v>0.003946606120689429</v>
       </c>
       <c r="F64" t="n">
         <v>40</v>
@@ -7426,12 +7235,9 @@
         <v>23.245</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01158518714659</v>
-      </c>
-      <c r="I64" t="n">
-        <v>-0.3798335801087296</v>
-      </c>
-      <c r="J64" t="inlineStr">
+        <v>0.005401318945188</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7442,30 +7248,27 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>1.008819087953056</v>
+        <v>1.008880806262734</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0005394320628079545</v>
+        <v>0.0008250297171524787</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3796860475339305</v>
+        <v>-0.3806289309495394</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003766578878839854</v>
+        <v>0.006958277636986455</v>
       </c>
       <c r="F65" t="n">
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>23.251</v>
+        <v>23.237</v>
       </c>
       <c r="H65" t="n">
-        <v>0.006771986468694</v>
-      </c>
-      <c r="I65" t="n">
-        <v>-0.3796860475339305</v>
-      </c>
-      <c r="J65" t="inlineStr">
+        <v>0.010549878156922</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7476,30 +7279,27 @@
         <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1.008947717669804</v>
+        <v>1.008767253431289</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001020735413561813</v>
+        <v>0.0004492126807884262</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.379098896239479</v>
+        <v>-0.3796467833670958</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008560806220076952</v>
+        <v>0.003087299717730167</v>
       </c>
       <c r="F66" t="n">
         <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>23.261</v>
+        <v>23.24</v>
       </c>
       <c r="H66" t="n">
-        <v>0.015786237524833</v>
-      </c>
-      <c r="I66" t="n">
-        <v>-0.379098896239479</v>
-      </c>
-      <c r="J66" t="inlineStr">
+        <v>0.00411495969702</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7510,30 +7310,27 @@
         <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0087959486256</v>
+        <v>1.008800123212527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000631847309226144</v>
+        <v>0.0007897458160709573</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3796630766128217</v>
+        <v>-0.3798326866942965</v>
       </c>
       <c r="E67" t="n">
-        <v>0.005166240368279907</v>
+        <v>0.006860598448317614</v>
       </c>
       <c r="F67" t="n">
         <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>23.252</v>
+        <v>23.242</v>
       </c>
       <c r="H67" t="n">
-        <v>0.009690490941299</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-0.3796630766128217</v>
-      </c>
-      <c r="J67" t="inlineStr">
+        <v>0.012600703119181</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7544,30 +7341,27 @@
         <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1.008743004541071</v>
+        <v>1.008819087953056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0007494624379731547</v>
+        <v>0.0005394320628079545</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3793909902467334</v>
+        <v>-0.3796860475339305</v>
       </c>
       <c r="E68" t="n">
-        <v>0.005924166924650098</v>
+        <v>0.003766578878839854</v>
       </c>
       <c r="F68" t="n">
         <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>23.243</v>
+        <v>23.251</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01079139738391</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-0.3793909902467334</v>
-      </c>
-      <c r="J68" t="inlineStr">
+        <v>0.006771986468694</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7578,30 +7372,27 @@
         <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>1.008848307172733</v>
+        <v>1.008947717669804</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0004946007550755803</v>
+        <v>0.001020735413561813</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.38014006893932</v>
+        <v>-0.379098896239479</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003946606120689429</v>
+        <v>0.008560806220076952</v>
       </c>
       <c r="F69" t="n">
         <v>40</v>
       </c>
       <c r="G69" t="n">
-        <v>23.245</v>
+        <v>23.261</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005401318945188</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-0.38014006893932</v>
-      </c>
-      <c r="J69" t="inlineStr">
+        <v>0.015786237524833</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7612,30 +7403,27 @@
         <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>1.008767253431289</v>
+        <v>1.008915434191853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0004492126807884262</v>
+        <v>0.0008967195452835347</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3796467833670958</v>
+        <v>-0.3802869488155958</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003087299717730167</v>
+        <v>0.006875831850745954</v>
       </c>
       <c r="F70" t="n">
         <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>23.24</v>
+        <v>23.248</v>
       </c>
       <c r="H70" t="n">
-        <v>0.00411495969702</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-0.3796467833670958</v>
-      </c>
-      <c r="J70" t="inlineStr">
+        <v>0.0127864205841</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7646,30 +7434,27 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1.008880806262734</v>
+        <v>1.008898780563483</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0008250297171524787</v>
+        <v>0.0007761383951578342</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3806289309495394</v>
+        <v>-0.3798335801087296</v>
       </c>
       <c r="E71" t="n">
-        <v>0.006958277636986455</v>
+        <v>0.005706083765309294</v>
       </c>
       <c r="F71" t="n">
         <v>40</v>
       </c>
       <c r="G71" t="n">
-        <v>23.237</v>
+        <v>23.245</v>
       </c>
       <c r="H71" t="n">
-        <v>0.010549878156922</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-0.3806289309495394</v>
-      </c>
-      <c r="J71" t="inlineStr">
+        <v>0.01158518714659</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7680,30 +7465,27 @@
         <v>46.7</v>
       </c>
       <c r="B72" t="n">
-        <v>1.00504248163198</v>
+        <v>1.005107399069952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0007384507995522497</v>
+        <v>0.0009634622934971437</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4435049172289358</v>
+        <v>-0.4432829053829517</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003971740791587839</v>
+        <v>0.00628551610965945</v>
       </c>
       <c r="F72" t="n">
         <v>46.7</v>
       </c>
       <c r="G72" t="n">
-        <v>58.499</v>
+        <v>58.508</v>
       </c>
       <c r="H72" t="n">
-        <v>0.028985215800893</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-0.4435049172289358</v>
-      </c>
-      <c r="J72" t="inlineStr">
+        <v>0.040630191766092</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7714,30 +7496,27 @@
         <v>46.7</v>
       </c>
       <c r="B73" t="n">
-        <v>1.005031494570573</v>
+        <v>1.005098519074723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.00112939510806512</v>
+        <v>0.0009388164204812917</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4441091353740227</v>
+        <v>-0.4431887334387503</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008201610206624329</v>
+        <v>0.005239413339541462</v>
       </c>
       <c r="F73" t="n">
         <v>46.7</v>
       </c>
       <c r="G73" t="n">
-        <v>58.579</v>
+        <v>58.504</v>
       </c>
       <c r="H73" t="n">
-        <v>0.049961066345617</v>
-      </c>
-      <c r="I73" t="n">
-        <v>-0.4441091353740227</v>
-      </c>
-      <c r="J73" t="inlineStr">
+        <v>0.03525733832011</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7748,30 +7527,27 @@
         <v>46.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.005186741502615</v>
+        <v>1.00503804030251</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0007263126191858004</v>
+        <v>0.0007420718290303581</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4433168180520348</v>
+        <v>-0.4436922790960365</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005411465036616317</v>
+        <v>0.005624677039575032</v>
       </c>
       <c r="F74" t="n">
         <v>46.7</v>
       </c>
       <c r="G74" t="n">
-        <v>58.593</v>
+        <v>58.523</v>
       </c>
       <c r="H74" t="n">
-        <v>0.030315165691413</v>
-      </c>
-      <c r="I74" t="n">
-        <v>-0.4433168180520348</v>
-      </c>
-      <c r="J74" t="inlineStr">
+        <v>0.029846502762783</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7782,30 +7558,27 @@
         <v>46.7</v>
       </c>
       <c r="B75" t="n">
-        <v>1.005142061184867</v>
+        <v>1.004971440676563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0008074708578920156</v>
+        <v>0.001292484342835764</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4441734776141759</v>
+        <v>-0.4440611706876556</v>
       </c>
       <c r="E75" t="n">
-        <v>0.007690030018126687</v>
+        <v>0.008680208863216595</v>
       </c>
       <c r="F75" t="n">
         <v>46.7</v>
       </c>
       <c r="G75" t="n">
-        <v>58.641</v>
+        <v>58.496</v>
       </c>
       <c r="H75" t="n">
-        <v>0.035401403994845</v>
-      </c>
-      <c r="I75" t="n">
-        <v>-0.4441734776141759</v>
-      </c>
-      <c r="J75" t="inlineStr">
+        <v>0.054629364308104</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7816,30 +7589,27 @@
         <v>46.7</v>
       </c>
       <c r="B76" t="n">
-        <v>1.005158721225767</v>
+        <v>1.004886720036684</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00107331028249475</v>
+        <v>0.001134455368611055</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4428157179747494</v>
+        <v>-0.4448773254100908</v>
       </c>
       <c r="E76" t="n">
-        <v>0.006405817906388747</v>
+        <v>0.01020047967023718</v>
       </c>
       <c r="F76" t="n">
         <v>46.7</v>
       </c>
       <c r="G76" t="n">
-        <v>58.496</v>
+        <v>58.55</v>
       </c>
       <c r="H76" t="n">
-        <v>0.038662001025846</v>
-      </c>
-      <c r="I76" t="n">
-        <v>-0.4428157179747494</v>
-      </c>
-      <c r="J76" t="inlineStr">
+        <v>0.04234880534878</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7850,30 +7620,27 @@
         <v>46.7</v>
       </c>
       <c r="B77" t="n">
-        <v>1.004886720036684</v>
+        <v>1.005158721225767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001134455368611055</v>
+        <v>0.00107331028249475</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4448773254100908</v>
+        <v>-0.4428157179747494</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01020047967023718</v>
+        <v>0.006405817906388747</v>
       </c>
       <c r="F77" t="n">
         <v>46.7</v>
       </c>
       <c r="G77" t="n">
-        <v>58.55</v>
+        <v>58.496</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04234880534878</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-0.4448773254100908</v>
-      </c>
-      <c r="J77" t="inlineStr">
+        <v>0.038662001025846</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7884,30 +7651,27 @@
         <v>46.7</v>
       </c>
       <c r="B78" t="n">
-        <v>1.005098519074723</v>
+        <v>1.00504248163198</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0009388164204812917</v>
+        <v>0.0007384507995522497</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4431887334387503</v>
+        <v>-0.4435049172289358</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005239413339541462</v>
+        <v>0.003971740791587839</v>
       </c>
       <c r="F78" t="n">
         <v>46.7</v>
       </c>
       <c r="G78" t="n">
-        <v>58.504</v>
+        <v>58.499</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03525733832011</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-0.4431887334387503</v>
-      </c>
-      <c r="J78" t="inlineStr">
+        <v>0.028985215800893</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7918,30 +7682,27 @@
         <v>46.7</v>
       </c>
       <c r="B79" t="n">
-        <v>1.005107399069952</v>
+        <v>1.005142061184867</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0009634622934971437</v>
+        <v>0.0008074708578920156</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4432829053829517</v>
+        <v>-0.4441734776141759</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00628551610965945</v>
+        <v>0.007690030018126687</v>
       </c>
       <c r="F79" t="n">
         <v>46.7</v>
       </c>
       <c r="G79" t="n">
-        <v>58.508</v>
+        <v>58.641</v>
       </c>
       <c r="H79" t="n">
-        <v>0.040630191766092</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-0.4432829053829517</v>
-      </c>
-      <c r="J79" t="inlineStr">
+        <v>0.035401403994845</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7952,30 +7713,27 @@
         <v>46.7</v>
       </c>
       <c r="B80" t="n">
-        <v>1.004971440676563</v>
+        <v>1.005186741502615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001292484342835764</v>
+        <v>0.0007263126191858004</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4440611706876556</v>
+        <v>-0.4433168180520348</v>
       </c>
       <c r="E80" t="n">
-        <v>0.008680208863216595</v>
+        <v>0.005411465036616317</v>
       </c>
       <c r="F80" t="n">
         <v>46.7</v>
       </c>
       <c r="G80" t="n">
-        <v>58.496</v>
+        <v>58.593</v>
       </c>
       <c r="H80" t="n">
-        <v>0.054629364308104</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-0.4440611706876556</v>
-      </c>
-      <c r="J80" t="inlineStr">
+        <v>0.030315165691413</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -7986,30 +7744,27 @@
         <v>46.7</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00503804030251</v>
+        <v>1.005031494570573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0007420718290303581</v>
+        <v>0.00112939510806512</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4436922790960365</v>
+        <v>-0.4441091353740227</v>
       </c>
       <c r="E81" t="n">
-        <v>0.005624677039575032</v>
+        <v>0.008201610206624329</v>
       </c>
       <c r="F81" t="n">
         <v>46.7</v>
       </c>
       <c r="G81" t="n">
-        <v>58.523</v>
+        <v>58.579</v>
       </c>
       <c r="H81" t="n">
-        <v>0.029846502762783</v>
-      </c>
-      <c r="I81" t="n">
-        <v>-0.4436922790960365</v>
-      </c>
-      <c r="J81" t="inlineStr">
+        <v>0.049961066345617</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8020,30 +7775,27 @@
         <v>50</v>
       </c>
       <c r="B82" t="n">
-        <v>1.002944764019071</v>
+        <v>1.003008962794092</v>
       </c>
       <c r="C82" t="n">
-        <v>0.001432590956392371</v>
+        <v>0.001609392068872857</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4749757376033585</v>
+        <v>-0.4737995664330619</v>
       </c>
       <c r="E82" t="n">
-        <v>0.007311735289425404</v>
+        <v>0.006901764902503381</v>
       </c>
       <c r="F82" t="n">
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>58.916</v>
+        <v>58.703</v>
       </c>
       <c r="H82" t="n">
-        <v>0.062652836729364</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-0.4749757376033585</v>
-      </c>
-      <c r="J82" t="inlineStr">
+        <v>0.064162647768314</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8054,30 +7806,27 @@
         <v>50</v>
       </c>
       <c r="B83" t="n">
-        <v>1.002820704358146</v>
+        <v>1.002856263815213</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001174555667443932</v>
+        <v>0.0008667336583044521</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4747647576397078</v>
+        <v>-0.4749359970228033</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0055143711750257</v>
+        <v>0.00452651062955079</v>
       </c>
       <c r="F83" t="n">
         <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>58.737</v>
+        <v>58.766</v>
       </c>
       <c r="H83" t="n">
-        <v>0.051484237162339</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-0.4747647576397078</v>
-      </c>
-      <c r="J83" t="inlineStr">
+        <v>0.034773098287822</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8088,30 +7837,27 @@
         <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>1.002977583220767</v>
+        <v>1.002948091020979</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0007110946044478605</v>
+        <v>0.001052185731552099</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4741270289349737</v>
+        <v>-0.4741788883501683</v>
       </c>
       <c r="E84" t="n">
-        <v>0.003092572341925582</v>
+        <v>0.005043963871839006</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>58.708</v>
+        <v>58.718</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02461314781147</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-0.4741270289349737</v>
-      </c>
-      <c r="J84" t="inlineStr">
+        <v>0.040813258253252</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8122,30 +7868,27 @@
         <v>50</v>
       </c>
       <c r="B85" t="n">
-        <v>1.002898128664435</v>
+        <v>1.003101970502895</v>
       </c>
       <c r="C85" t="n">
-        <v>0.001076815579841178</v>
+        <v>0.001962139329765276</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4748442727500737</v>
+        <v>-0.4734197171541923</v>
       </c>
       <c r="E85" t="n">
-        <v>0.005531212584383749</v>
+        <v>0.009215628511054487</v>
       </c>
       <c r="F85" t="n">
         <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>58.822</v>
+        <v>58.717</v>
       </c>
       <c r="H85" t="n">
-        <v>0.043785430661915</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-0.4748442727500737</v>
-      </c>
-      <c r="J85" t="inlineStr">
+        <v>0.07840770725506201</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8156,30 +7899,27 @@
         <v>50</v>
       </c>
       <c r="B86" t="n">
-        <v>1.002991023267885</v>
+        <v>1.002843934701599</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0008750309577018272</v>
+        <v>0.0008934795939425894</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4740426902533468</v>
+        <v>-0.4747106782280412</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003877047906066091</v>
+        <v>0.004474506043153698</v>
       </c>
       <c r="F86" t="n">
         <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>58.731</v>
+        <v>58.763</v>
       </c>
       <c r="H86" t="n">
-        <v>0.023675008415263</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-0.4740426902533468</v>
-      </c>
-      <c r="J86" t="inlineStr">
+        <v>0.040075347341541</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8190,30 +7930,27 @@
         <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>1.002843934701599</v>
+        <v>1.002991023267885</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0008934795939425894</v>
+        <v>0.0008750309577018272</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4747106782280412</v>
+        <v>-0.4740426902533468</v>
       </c>
       <c r="E87" t="n">
-        <v>0.004474506043153698</v>
+        <v>0.003877047906066091</v>
       </c>
       <c r="F87" t="n">
         <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>58.763</v>
+        <v>58.731</v>
       </c>
       <c r="H87" t="n">
-        <v>0.040075347341541</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-0.4747106782280412</v>
-      </c>
-      <c r="J87" t="inlineStr">
+        <v>0.023675008415263</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8224,30 +7961,27 @@
         <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>1.002948091020979</v>
+        <v>1.002820704358146</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001052185731552099</v>
+        <v>0.001174555667443932</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4741788883501683</v>
+        <v>-0.4747647576397078</v>
       </c>
       <c r="E88" t="n">
-        <v>0.005043963871839006</v>
+        <v>0.0055143711750257</v>
       </c>
       <c r="F88" t="n">
         <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>58.718</v>
+        <v>58.737</v>
       </c>
       <c r="H88" t="n">
-        <v>0.040813258253252</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-0.4741788883501683</v>
-      </c>
-      <c r="J88" t="inlineStr">
+        <v>0.051484237162339</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8258,30 +7992,27 @@
         <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>1.002856263815213</v>
+        <v>1.002944764019071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0008667336583044521</v>
+        <v>0.001432590956392371</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4749359970228033</v>
+        <v>-0.4749757376033585</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00452651062955079</v>
+        <v>0.007311735289425404</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>58.766</v>
+        <v>58.916</v>
       </c>
       <c r="H89" t="n">
-        <v>0.034773098287822</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-0.4749359970228033</v>
-      </c>
-      <c r="J89" t="inlineStr">
+        <v>0.062652836729364</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8292,30 +8023,27 @@
         <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1.003008962794092</v>
+        <v>1.002898128664435</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001609392068872857</v>
+        <v>0.001076815579841178</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4737995664330619</v>
+        <v>-0.4748442727500737</v>
       </c>
       <c r="E90" t="n">
-        <v>0.006901764902503381</v>
+        <v>0.005531212584383749</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>58.703</v>
+        <v>58.822</v>
       </c>
       <c r="H90" t="n">
-        <v>0.064162647768314</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-0.4737995664330619</v>
-      </c>
-      <c r="J90" t="inlineStr">
+        <v>0.043785430661915</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8326,30 +8054,27 @@
         <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>1.003101970502895</v>
+        <v>1.002977583220767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001962139329765276</v>
+        <v>0.0007110946044478605</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4734197171541923</v>
+        <v>-0.4741270289349737</v>
       </c>
       <c r="E91" t="n">
-        <v>0.009215628511054487</v>
+        <v>0.003092572341925582</v>
       </c>
       <c r="F91" t="n">
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>58.717</v>
+        <v>58.708</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07840770725506201</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-0.4734197171541923</v>
-      </c>
-      <c r="J91" t="inlineStr">
+        <v>0.02461314781147</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8360,30 +8085,27 @@
         <v>53.3</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000740015621597</v>
+        <v>1.00030247871122</v>
       </c>
       <c r="C92" t="n">
-        <v>0.002773089668477631</v>
+        <v>0.001296822644691311</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.505865278335131</v>
+        <v>-0.5071334051566674</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01106203072280869</v>
+        <v>0.004940901561947913</v>
       </c>
       <c r="F92" t="n">
         <v>53.3</v>
       </c>
       <c r="G92" t="n">
-        <v>59.286</v>
+        <v>59.176</v>
       </c>
       <c r="H92" t="n">
-        <v>0.124849963939319</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-0.505865278335131</v>
-      </c>
-      <c r="J92" t="inlineStr">
+        <v>0.049068756457295</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8394,30 +8116,27 @@
         <v>53.3</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000435579192966</v>
+        <v>1.000601742357886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00113612862004408</v>
+        <v>0.0009639183623541758</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5064506136142399</v>
+        <v>-0.5062970902106931</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004127681184885922</v>
+        <v>0.003737265869941882</v>
       </c>
       <c r="F93" t="n">
         <v>53.3</v>
       </c>
       <c r="G93" t="n">
-        <v>59.037</v>
+        <v>59.13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.048899326077849</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-0.5064506136142399</v>
-      </c>
-      <c r="J93" t="inlineStr">
+        <v>0.040577442474431</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8428,30 +8147,27 @@
         <v>53.3</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000608541474318</v>
+        <v>1.000416723284994</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00174879773373412</v>
+        <v>0.001512740351254498</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5056735641900763</v>
+        <v>-0.5065916404885544</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006285996509312694</v>
+        <v>0.005577625301102573</v>
       </c>
       <c r="F94" t="n">
         <v>53.3</v>
       </c>
       <c r="G94" t="n">
-        <v>59.024</v>
+        <v>59.085</v>
       </c>
       <c r="H94" t="n">
-        <v>0.078380725852827</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-0.5056735641900763</v>
-      </c>
-      <c r="J94" t="inlineStr">
+        <v>0.062334968009377</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8462,30 +8178,27 @@
         <v>53.3</v>
       </c>
       <c r="B95" t="n">
-        <v>1.000507128380559</v>
+        <v>1.000442435622856</v>
       </c>
       <c r="C95" t="n">
-        <v>0.001223551171140559</v>
+        <v>0.001952303975614754</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5061927284693635</v>
+        <v>-0.5063865216671704</v>
       </c>
       <c r="E95" t="n">
-        <v>0.004624305515969822</v>
+        <v>0.007124830051112781</v>
       </c>
       <c r="F95" t="n">
         <v>53.3</v>
       </c>
       <c r="G95" t="n">
-        <v>59.062</v>
+        <v>59.046</v>
       </c>
       <c r="H95" t="n">
-        <v>0.050843543935493</v>
-      </c>
-      <c r="I95" t="n">
-        <v>-0.5061927284693635</v>
-      </c>
-      <c r="J95" t="inlineStr">
+        <v>0.087859345931808</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8496,30 +8209,27 @@
         <v>53.3</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000677724758322</v>
+        <v>1.000713208568959</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0009889300934574155</v>
+        <v>0.001623120730379246</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5056590382522268</v>
+        <v>-0.5054276178447537</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003591149916128268</v>
+        <v>0.005918744538037955</v>
       </c>
       <c r="F96" t="n">
         <v>53.3</v>
       </c>
       <c r="G96" t="n">
-        <v>59.085</v>
+        <v>58.992</v>
       </c>
       <c r="H96" t="n">
-        <v>0.038747187551433</v>
-      </c>
-      <c r="I96" t="n">
-        <v>-0.5056590382522268</v>
-      </c>
-      <c r="J96" t="inlineStr">
+        <v>0.058861772099815</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8530,30 +8240,27 @@
         <v>53.3</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000416723284994</v>
+        <v>1.000740015621597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001512740351254498</v>
+        <v>0.002773089668477631</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5065916404885544</v>
+        <v>-0.505865278335131</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005577625301102573</v>
+        <v>0.01106203072280869</v>
       </c>
       <c r="F97" t="n">
         <v>53.3</v>
       </c>
       <c r="G97" t="n">
-        <v>59.085</v>
+        <v>59.286</v>
       </c>
       <c r="H97" t="n">
-        <v>0.062334968009377</v>
-      </c>
-      <c r="I97" t="n">
-        <v>-0.5065916404885544</v>
-      </c>
-      <c r="J97" t="inlineStr">
+        <v>0.124849963939319</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8564,30 +8271,27 @@
         <v>53.3</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000601742357886</v>
+        <v>1.000677724758322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0009639183623541758</v>
+        <v>0.0009889300934574155</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5062970902106931</v>
+        <v>-0.5056590382522268</v>
       </c>
       <c r="E98" t="n">
-        <v>0.003737265869941882</v>
+        <v>0.003591149916128268</v>
       </c>
       <c r="F98" t="n">
         <v>53.3</v>
       </c>
       <c r="G98" t="n">
-        <v>59.13</v>
+        <v>59.085</v>
       </c>
       <c r="H98" t="n">
-        <v>0.040577442474431</v>
-      </c>
-      <c r="I98" t="n">
-        <v>-0.5062970902106931</v>
-      </c>
-      <c r="J98" t="inlineStr">
+        <v>0.038747187551433</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8598,30 +8302,27 @@
         <v>53.3</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00030247871122</v>
+        <v>1.000507128380559</v>
       </c>
       <c r="C99" t="n">
-        <v>0.001296822644691311</v>
+        <v>0.001223551171140559</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5071334051566674</v>
+        <v>-0.5061927284693635</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004940901561947913</v>
+        <v>0.004624305515969822</v>
       </c>
       <c r="F99" t="n">
         <v>53.3</v>
       </c>
       <c r="G99" t="n">
-        <v>59.176</v>
+        <v>59.062</v>
       </c>
       <c r="H99" t="n">
-        <v>0.049068756457295</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-0.5071334051566674</v>
-      </c>
-      <c r="J99" t="inlineStr">
+        <v>0.050843543935493</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8632,30 +8333,27 @@
         <v>53.3</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000713208568959</v>
+        <v>1.000608541474318</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001623120730379246</v>
+        <v>0.00174879773373412</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5054276178447537</v>
+        <v>-0.5056735641900763</v>
       </c>
       <c r="E100" t="n">
-        <v>0.005918744538037955</v>
+        <v>0.006285996509312694</v>
       </c>
       <c r="F100" t="n">
         <v>53.3</v>
       </c>
       <c r="G100" t="n">
-        <v>58.992</v>
+        <v>59.024</v>
       </c>
       <c r="H100" t="n">
-        <v>0.058861772099815</v>
-      </c>
-      <c r="I100" t="n">
-        <v>-0.5054276178447537</v>
-      </c>
-      <c r="J100" t="inlineStr">
+        <v>0.078380725852827</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8666,30 +8364,27 @@
         <v>53.3</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000442435622856</v>
+        <v>1.000435579192966</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001952303975614754</v>
+        <v>0.00113612862004408</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5063865216671704</v>
+        <v>-0.5064506136142399</v>
       </c>
       <c r="E101" t="n">
-        <v>0.007124830051112781</v>
+        <v>0.004127681184885922</v>
       </c>
       <c r="F101" t="n">
         <v>53.3</v>
       </c>
       <c r="G101" t="n">
-        <v>59.046</v>
+        <v>59.037</v>
       </c>
       <c r="H101" t="n">
-        <v>0.087859345931808</v>
-      </c>
-      <c r="I101" t="n">
-        <v>-0.5063865216671704</v>
-      </c>
-      <c r="J101" t="inlineStr">
+        <v>0.048899326077849</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8700,30 +8395,27 @@
         <v>63</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9943510137388091</v>
+        <v>0.9939434667755147</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005018471336220889</v>
+        <v>0.005059305015985864</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5970863784477247</v>
+        <v>-0.5976971218334075</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005906665907467721</v>
+        <v>0.005851187114788707</v>
       </c>
       <c r="F102" t="n">
         <v>63</v>
       </c>
       <c r="G102" t="n">
-        <v>115.447</v>
+        <v>115.251</v>
       </c>
       <c r="H102" t="n">
-        <v>0.240573262856546</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-0.5970863784477247</v>
-      </c>
-      <c r="J102" t="inlineStr">
+        <v>0.406509907208978</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8734,30 +8426,27 @@
         <v>63</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9937210820841557</v>
+        <v>0.9935461577843577</v>
       </c>
       <c r="C103" t="n">
-        <v>0.003686825695156925</v>
+        <v>0.00263927973036725</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5979441024274195</v>
+        <v>-0.598307882922839</v>
       </c>
       <c r="E103" t="n">
-        <v>0.005405458802180511</v>
+        <v>0.004103717028462928</v>
       </c>
       <c r="F103" t="n">
         <v>63</v>
       </c>
       <c r="G103" t="n">
-        <v>115.091</v>
+        <v>115.436</v>
       </c>
       <c r="H103" t="n">
-        <v>0.264688728012457</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-0.5979441024274195</v>
-      </c>
-      <c r="J103" t="inlineStr">
+        <v>0.221964477449765</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8768,30 +8457,27 @@
         <v>63</v>
       </c>
       <c r="B104" t="n">
-        <v>0.993640572754817</v>
+        <v>0.993996073970748</v>
       </c>
       <c r="C104" t="n">
-        <v>0.002430881362845545</v>
+        <v>0.00409838491489138</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.5981342549897857</v>
+        <v>-0.5976911990363138</v>
       </c>
       <c r="E104" t="n">
-        <v>0.004466645484975569</v>
+        <v>0.005293056480448713</v>
       </c>
       <c r="F104" t="n">
         <v>63</v>
       </c>
       <c r="G104" t="n">
-        <v>115.138</v>
+        <v>115.693</v>
       </c>
       <c r="H104" t="n">
-        <v>0.179045623390476</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.5981342549897857</v>
-      </c>
-      <c r="J104" t="inlineStr">
+        <v>0.310551540160933</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8802,30 +8488,27 @@
         <v>63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9946522119315668</v>
+        <v>0.9938830985744908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.006071175449762156</v>
+        <v>0.003618202344607706</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.5965079763688514</v>
+        <v>-0.5977550400612124</v>
       </c>
       <c r="E105" t="n">
-        <v>0.007143155223988795</v>
+        <v>0.003978963823919161</v>
       </c>
       <c r="F105" t="n">
         <v>63</v>
       </c>
       <c r="G105" t="n">
-        <v>115.351</v>
+        <v>115.323</v>
       </c>
       <c r="H105" t="n">
-        <v>0.296633355633458</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-0.5965079763688514</v>
-      </c>
-      <c r="J105" t="inlineStr">
+        <v>0.247961822365139</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8836,30 +8519,27 @@
         <v>63</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9942926483548257</v>
+        <v>0.9944590423837842</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005586832062975373</v>
+        <v>0.006655130665980841</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.597142226360595</v>
+        <v>-0.597071998626868</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006198029163385935</v>
+        <v>0.008329425739637198</v>
       </c>
       <c r="F106" t="n">
         <v>63</v>
       </c>
       <c r="G106" t="n">
-        <v>115.264</v>
+        <v>115.886</v>
       </c>
       <c r="H106" t="n">
-        <v>0.391758275291741</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-0.597142226360595</v>
-      </c>
-      <c r="J106" t="inlineStr">
+        <v>0.490699260015589</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8870,30 +8550,27 @@
         <v>63</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9944590423837842</v>
+        <v>0.9942926483548257</v>
       </c>
       <c r="C107" t="n">
-        <v>0.006655130665980841</v>
+        <v>0.005586832062975373</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.597071998626868</v>
+        <v>-0.597142226360595</v>
       </c>
       <c r="E107" t="n">
-        <v>0.008329425739637198</v>
+        <v>0.006198029163385935</v>
       </c>
       <c r="F107" t="n">
         <v>63</v>
       </c>
       <c r="G107" t="n">
-        <v>115.886</v>
+        <v>115.264</v>
       </c>
       <c r="H107" t="n">
-        <v>0.490699260015589</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-0.597071998626868</v>
-      </c>
-      <c r="J107" t="inlineStr">
+        <v>0.391758275291741</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8904,30 +8581,27 @@
         <v>63</v>
       </c>
       <c r="B108" t="n">
-        <v>0.993996073970748</v>
+        <v>0.9937210820841557</v>
       </c>
       <c r="C108" t="n">
-        <v>0.00409838491489138</v>
+        <v>0.003686825695156925</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5976911990363138</v>
+        <v>-0.5979441024274195</v>
       </c>
       <c r="E108" t="n">
-        <v>0.005293056480448713</v>
+        <v>0.005405458802180511</v>
       </c>
       <c r="F108" t="n">
         <v>63</v>
       </c>
       <c r="G108" t="n">
-        <v>115.693</v>
+        <v>115.091</v>
       </c>
       <c r="H108" t="n">
-        <v>0.310551540160933</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-0.5976911990363138</v>
-      </c>
-      <c r="J108" t="inlineStr">
+        <v>0.264688728012457</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8938,30 +8612,27 @@
         <v>63</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9935461577843577</v>
+        <v>0.9943510137388091</v>
       </c>
       <c r="C109" t="n">
-        <v>0.00263927973036725</v>
+        <v>0.005018471336220889</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.598307882922839</v>
+        <v>-0.5970863784477247</v>
       </c>
       <c r="E109" t="n">
-        <v>0.004103717028462928</v>
+        <v>0.005906665907467721</v>
       </c>
       <c r="F109" t="n">
         <v>63</v>
       </c>
       <c r="G109" t="n">
-        <v>115.436</v>
+        <v>115.447</v>
       </c>
       <c r="H109" t="n">
-        <v>0.221964477449765</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-0.598307882922839</v>
-      </c>
-      <c r="J109" t="inlineStr">
+        <v>0.240573262856546</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -8972,30 +8643,27 @@
         <v>63</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9939434667755147</v>
+        <v>0.9946522119315668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005059305015985864</v>
+        <v>0.006071175449762156</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5976971218334075</v>
+        <v>-0.5965079763688514</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005851187114788707</v>
+        <v>0.007143155223988795</v>
       </c>
       <c r="F110" t="n">
         <v>63</v>
       </c>
       <c r="G110" t="n">
-        <v>115.251</v>
+        <v>115.351</v>
       </c>
       <c r="H110" t="n">
-        <v>0.406509907208978</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-0.5976971218334075</v>
-      </c>
-      <c r="J110" t="inlineStr">
+        <v>0.296633355633458</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9006,30 +8674,27 @@
         <v>63</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9938830985744908</v>
+        <v>0.993640572754817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003618202344607706</v>
+        <v>0.002430881362845545</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.5977550400612124</v>
+        <v>-0.5981342549897857</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003978963823919161</v>
+        <v>0.004466645484975569</v>
       </c>
       <c r="F111" t="n">
         <v>63</v>
       </c>
       <c r="G111" t="n">
-        <v>115.323</v>
+        <v>115.138</v>
       </c>
       <c r="H111" t="n">
-        <v>0.247961822365139</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-0.5977550400612124</v>
-      </c>
-      <c r="J111" t="inlineStr">
+        <v>0.179045623390476</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9040,30 +8705,27 @@
         <v>80</v>
       </c>
       <c r="B112" t="n">
-        <v>0.976496140086431</v>
+        <v>0.977132219697786</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004251960801588668</v>
+        <v>0.004816040650964057</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7602017360284696</v>
+        <v>-0.7596292363509924</v>
       </c>
       <c r="E112" t="n">
-        <v>0.005062927252179292</v>
+        <v>0.005767047503487042</v>
       </c>
       <c r="F112" t="n">
         <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>119.119</v>
+        <v>119.647</v>
       </c>
       <c r="H112" t="n">
-        <v>0.385099439600387</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-0.7602017360284696</v>
-      </c>
-      <c r="J112" t="inlineStr">
+        <v>0.435208535945917</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9074,30 +8736,27 @@
         <v>80</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9772793926524992</v>
+        <v>0.9773777377782764</v>
       </c>
       <c r="C113" t="n">
-        <v>0.003019587663648546</v>
+        <v>0.003214420764724714</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.75940482596714</v>
+        <v>-0.7592754993932411</v>
       </c>
       <c r="E113" t="n">
-        <v>0.003592495276380842</v>
+        <v>0.003694400847280154</v>
       </c>
       <c r="F113" t="n">
         <v>80</v>
       </c>
       <c r="G113" t="n">
-        <v>119.12</v>
+        <v>119.4</v>
       </c>
       <c r="H113" t="n">
-        <v>0.239883271123385</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-0.75940482596714</v>
-      </c>
-      <c r="J113" t="inlineStr">
+        <v>0.246614488138743</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9108,30 +8767,27 @@
         <v>80</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9770412320295218</v>
+        <v>0.9774698177707487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.00324355411289518</v>
+        <v>0.003486665134126356</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7595893450976803</v>
+        <v>-0.7590793233862385</v>
       </c>
       <c r="E114" t="n">
-        <v>0.003804609059658195</v>
+        <v>0.003731608165210109</v>
       </c>
       <c r="F114" t="n">
         <v>80</v>
       </c>
       <c r="G114" t="n">
-        <v>118.99</v>
+        <v>119.415</v>
       </c>
       <c r="H114" t="n">
-        <v>0.299534684511971</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-0.7595893450976803</v>
-      </c>
-      <c r="J114" t="inlineStr">
+        <v>0.285977791035725</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9142,30 +8798,27 @@
         <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9776792250672337</v>
+        <v>0.976880099216017</v>
       </c>
       <c r="C115" t="n">
-        <v>0.003956546042873001</v>
+        <v>0.002964441127782051</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7588672876817322</v>
+        <v>-0.7597501588892772</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00423258127639447</v>
+        <v>0.00334317780060153</v>
       </c>
       <c r="F115" t="n">
         <v>80</v>
       </c>
       <c r="G115" t="n">
-        <v>118.982</v>
+        <v>119.144</v>
       </c>
       <c r="H115" t="n">
-        <v>0.282432166343944</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-0.7588672876817322</v>
-      </c>
-      <c r="J115" t="inlineStr">
+        <v>0.27147042383661</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9176,30 +8829,27 @@
         <v>80</v>
       </c>
       <c r="B116" t="n">
-        <v>0.977264325783747</v>
+        <v>0.9771757691242559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.003012596596071532</v>
+        <v>0.002059321184343212</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7592925282587082</v>
+        <v>-0.759467197854363</v>
       </c>
       <c r="E116" t="n">
-        <v>0.00316846531950267</v>
+        <v>0.002454842634962154</v>
       </c>
       <c r="F116" t="n">
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>119.127</v>
+        <v>119.028</v>
       </c>
       <c r="H116" t="n">
-        <v>0.26333358753241</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-0.7592925282587082</v>
-      </c>
-      <c r="J116" t="inlineStr">
+        <v>0.160402725319686</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9210,30 +8860,27 @@
         <v>80</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9771757691242559</v>
+        <v>0.977264325783747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002059321184343212</v>
+        <v>0.003012596596071532</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.759467197854363</v>
+        <v>-0.7592925282587082</v>
       </c>
       <c r="E117" t="n">
-        <v>0.002454842634962154</v>
+        <v>0.00316846531950267</v>
       </c>
       <c r="F117" t="n">
         <v>80</v>
       </c>
       <c r="G117" t="n">
-        <v>119.028</v>
+        <v>119.127</v>
       </c>
       <c r="H117" t="n">
-        <v>0.160402725319686</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-0.759467197854363</v>
-      </c>
-      <c r="J117" t="inlineStr">
+        <v>0.26333358753241</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9244,30 +8891,27 @@
         <v>80</v>
       </c>
       <c r="B118" t="n">
-        <v>0.976880099216017</v>
+        <v>0.9776792250672337</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002964441127782051</v>
+        <v>0.003956546042873001</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7597501588892772</v>
+        <v>-0.7588672876817322</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00334317780060153</v>
+        <v>0.00423258127639447</v>
       </c>
       <c r="F118" t="n">
         <v>80</v>
       </c>
       <c r="G118" t="n">
-        <v>119.144</v>
+        <v>118.982</v>
       </c>
       <c r="H118" t="n">
-        <v>0.27147042383661</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-0.7597501588892772</v>
-      </c>
-      <c r="J118" t="inlineStr">
+        <v>0.282432166343944</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9278,30 +8922,27 @@
         <v>80</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9774698177707487</v>
+        <v>0.9770412320295218</v>
       </c>
       <c r="C119" t="n">
-        <v>0.003486665134126356</v>
+        <v>0.00324355411289518</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7590793233862385</v>
+        <v>-0.7595893450976803</v>
       </c>
       <c r="E119" t="n">
-        <v>0.003731608165210109</v>
+        <v>0.003804609059658195</v>
       </c>
       <c r="F119" t="n">
         <v>80</v>
       </c>
       <c r="G119" t="n">
-        <v>119.415</v>
+        <v>118.99</v>
       </c>
       <c r="H119" t="n">
-        <v>0.285977791035725</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-0.7590793233862385</v>
-      </c>
-      <c r="J119" t="inlineStr">
+        <v>0.299534684511971</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9312,30 +8953,27 @@
         <v>80</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9773777377782764</v>
+        <v>0.9772793926524992</v>
       </c>
       <c r="C120" t="n">
-        <v>0.003214420764724714</v>
+        <v>0.003019587663648546</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.7592754993932411</v>
+        <v>-0.75940482596714</v>
       </c>
       <c r="E120" t="n">
-        <v>0.003694400847280154</v>
+        <v>0.003592495276380842</v>
       </c>
       <c r="F120" t="n">
         <v>80</v>
       </c>
       <c r="G120" t="n">
-        <v>119.4</v>
+        <v>119.12</v>
       </c>
       <c r="H120" t="n">
-        <v>0.246614488138743</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-0.7592754993932411</v>
-      </c>
-      <c r="J120" t="inlineStr">
+        <v>0.239883271123385</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9346,30 +8984,27 @@
         <v>80</v>
       </c>
       <c r="B121" t="n">
-        <v>0.977132219697786</v>
+        <v>0.976496140086431</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004816040650964057</v>
+        <v>0.004251960801588668</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.7596292363509924</v>
+        <v>-0.7602017360284696</v>
       </c>
       <c r="E121" t="n">
-        <v>0.005767047503487042</v>
+        <v>0.005062927252179292</v>
       </c>
       <c r="F121" t="n">
         <v>80</v>
       </c>
       <c r="G121" t="n">
-        <v>119.647</v>
+        <v>119.119</v>
       </c>
       <c r="H121" t="n">
-        <v>0.435208535945917</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-0.7596292363509924</v>
-      </c>
-      <c r="J121" t="inlineStr">
+        <v>0.385099439600387</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9380,30 +9015,27 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>0.952835204003287</v>
+        <v>0.9541296511929237</v>
       </c>
       <c r="C122" t="n">
-        <v>0.00506478877843171</v>
+        <v>0.004548043286417236</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.9500188749385403</v>
+        <v>-0.9489298025605883</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004332580265925076</v>
+        <v>0.003721451553624241</v>
       </c>
       <c r="F122" t="n">
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>123.39</v>
+        <v>122.844</v>
       </c>
       <c r="H122" t="n">
-        <v>0.423299719857778</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-0.9500188749385403</v>
-      </c>
-      <c r="J122" t="inlineStr">
+        <v>0.371528497544312</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9414,30 +9046,27 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9538901949936344</v>
+        <v>0.9537091168123721</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003468745439540308</v>
+        <v>0.00359897232634437</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9491429471997908</v>
+        <v>-0.9492894734206061</v>
       </c>
       <c r="E123" t="n">
-        <v>0.002728547953282314</v>
+        <v>0.002835119772846961</v>
       </c>
       <c r="F123" t="n">
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>122.736</v>
+        <v>122.676</v>
       </c>
       <c r="H123" t="n">
-        <v>0.298580930458355</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-0.9491429471997908</v>
-      </c>
-      <c r="J123" t="inlineStr">
+        <v>0.335312127870267</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9448,30 +9077,27 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9539330808202905</v>
+        <v>0.9534665326893835</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004234726656692727</v>
+        <v>0.002999313578757734</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.9491564302578315</v>
+        <v>-0.9495101185182167</v>
       </c>
       <c r="E124" t="n">
-        <v>0.003480736729177546</v>
+        <v>0.002671931595895467</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>123.387</v>
+        <v>122.769</v>
       </c>
       <c r="H124" t="n">
-        <v>0.394299766723677</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-0.9491564302578315</v>
-      </c>
-      <c r="J124" t="inlineStr">
+        <v>0.306467881685236</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9482,30 +9108,27 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9532664419925558</v>
+        <v>0.9537250651154463</v>
       </c>
       <c r="C125" t="n">
-        <v>0.002633799189122271</v>
+        <v>0.003019332865974025</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.9496571179323254</v>
+        <v>-0.9492472185373213</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002385315497673422</v>
+        <v>0.002478349523181519</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>122.94</v>
+        <v>122.777</v>
       </c>
       <c r="H125" t="n">
-        <v>0.237410449174721</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-0.9496571179323254</v>
-      </c>
-      <c r="J125" t="inlineStr">
+        <v>0.253084129799715</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9516,30 +9139,27 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9531039332102981</v>
+        <v>0.9530257886449571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.002589587194945757</v>
+        <v>0.005579207597709281</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9498168403947123</v>
+        <v>-0.9498801016630445</v>
       </c>
       <c r="E126" t="n">
-        <v>0.002396336055970608</v>
+        <v>0.004866752972496316</v>
       </c>
       <c r="F126" t="n">
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>122.966</v>
+        <v>122.848</v>
       </c>
       <c r="H126" t="n">
-        <v>0.242613485792308</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-0.9498168403947123</v>
-      </c>
-      <c r="J126" t="inlineStr">
+        <v>0.518193745559417</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9550,30 +9170,27 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9537250651154463</v>
+        <v>0.9532664419925558</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003019332865974025</v>
+        <v>0.002633799189122271</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9492472185373213</v>
+        <v>-0.9496571179323254</v>
       </c>
       <c r="E127" t="n">
-        <v>0.002478349523181519</v>
+        <v>0.002385315497673422</v>
       </c>
       <c r="F127" t="n">
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>122.777</v>
+        <v>122.94</v>
       </c>
       <c r="H127" t="n">
-        <v>0.253084129799715</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-0.9492472185373213</v>
-      </c>
-      <c r="J127" t="inlineStr">
+        <v>0.237410449174721</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9584,30 +9201,27 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9534665326893835</v>
+        <v>0.9539330808202905</v>
       </c>
       <c r="C128" t="n">
-        <v>0.002999313578757734</v>
+        <v>0.004234726656692727</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9495101185182167</v>
+        <v>-0.9491564302578315</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002671931595895467</v>
+        <v>0.003480736729177546</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>122.769</v>
+        <v>123.387</v>
       </c>
       <c r="H128" t="n">
-        <v>0.306467881685236</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-0.9495101185182167</v>
-      </c>
-      <c r="J128" t="inlineStr">
+        <v>0.394299766723677</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9618,30 +9232,27 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9530257886449571</v>
+        <v>0.9531039332102981</v>
       </c>
       <c r="C129" t="n">
-        <v>0.005579207597709281</v>
+        <v>0.002589587194945757</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9498801016630445</v>
+        <v>-0.9498168403947123</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004866752972496316</v>
+        <v>0.002396336055970608</v>
       </c>
       <c r="F129" t="n">
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>122.848</v>
+        <v>122.966</v>
       </c>
       <c r="H129" t="n">
-        <v>0.518193745559417</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-0.9498801016630445</v>
-      </c>
-      <c r="J129" t="inlineStr">
+        <v>0.242613485792308</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9652,30 +9263,27 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9537091168123721</v>
+        <v>0.9538901949936344</v>
       </c>
       <c r="C130" t="n">
-        <v>0.00359897232634437</v>
+        <v>0.003468745439540308</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.9492894734206061</v>
+        <v>-0.9491429471997908</v>
       </c>
       <c r="E130" t="n">
-        <v>0.002835119772846961</v>
+        <v>0.002728547953282314</v>
       </c>
       <c r="F130" t="n">
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>122.676</v>
+        <v>122.736</v>
       </c>
       <c r="H130" t="n">
-        <v>0.335312127870267</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-0.9492894734206061</v>
-      </c>
-      <c r="J130" t="inlineStr">
+        <v>0.298580930458355</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9686,30 +9294,27 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9541296511929237</v>
+        <v>0.952835204003287</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004548043286417236</v>
+        <v>0.00506478877843171</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.9489298025605883</v>
+        <v>-0.9500188749385403</v>
       </c>
       <c r="E131" t="n">
-        <v>0.003721451553624241</v>
+        <v>0.004332580265925076</v>
       </c>
       <c r="F131" t="n">
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>122.844</v>
+        <v>123.39</v>
       </c>
       <c r="H131" t="n">
-        <v>0.371528497544312</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-0.9489298025605883</v>
-      </c>
-      <c r="J131" t="inlineStr">
+        <v>0.423299719857778</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9720,30 +9325,27 @@
         <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9161959483144212</v>
+        <v>0.9165779630276262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004993590101270004</v>
+        <v>0.003332264510477786</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.186773062639309</v>
+        <v>-1.186580235218716</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00334335803521617</v>
+        <v>0.002211429058380542</v>
       </c>
       <c r="F132" t="n">
         <v>125</v>
       </c>
       <c r="G132" t="n">
-        <v>124.888</v>
+        <v>124.849</v>
       </c>
       <c r="H132" t="n">
-        <v>0.500056445885356</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-1.186773062639309</v>
-      </c>
-      <c r="J132" t="inlineStr">
+        <v>0.255831935996893</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9754,30 +9356,27 @@
         <v>125</v>
       </c>
       <c r="B133" t="n">
-        <v>0.916333622678056</v>
+        <v>0.9161927095137331</v>
       </c>
       <c r="C133" t="n">
-        <v>0.002215986416729693</v>
+        <v>0.002937335903084928</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.186701620199536</v>
+        <v>-1.186931408591655</v>
       </c>
       <c r="E133" t="n">
-        <v>0.001586176754005291</v>
+        <v>0.002101995547004868</v>
       </c>
       <c r="F133" t="n">
         <v>125</v>
       </c>
       <c r="G133" t="n">
-        <v>124.811</v>
+        <v>125.565</v>
       </c>
       <c r="H133" t="n">
-        <v>0.214048217231555</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-1.186701620199536</v>
-      </c>
-      <c r="J133" t="inlineStr">
+        <v>0.284963460948001</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9788,30 +9387,27 @@
         <v>125</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9162484054918366</v>
+        <v>0.9164746491661087</v>
       </c>
       <c r="C134" t="n">
-        <v>0.003463416466368283</v>
+        <v>0.003779180210274635</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.186780988970187</v>
+        <v>-1.186624936693005</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002384775009633334</v>
+        <v>0.002447437681520747</v>
       </c>
       <c r="F134" t="n">
         <v>125</v>
       </c>
       <c r="G134" t="n">
-        <v>125.483</v>
+        <v>125.114</v>
       </c>
       <c r="H134" t="n">
-        <v>0.317307755504802</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-1.186780988970187</v>
-      </c>
-      <c r="J134" t="inlineStr">
+        <v>0.372609921687144</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9822,30 +9418,27 @@
         <v>125</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9163709886390076</v>
+        <v>0.9156005847838052</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001858252007213771</v>
+        <v>0.00629216162102221</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.186710365962002</v>
+        <v>-1.187158541512341</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001496902258416641</v>
+        <v>0.004226891150804468</v>
       </c>
       <c r="F135" t="n">
         <v>125</v>
       </c>
       <c r="G135" t="n">
-        <v>124.848</v>
+        <v>124.745</v>
       </c>
       <c r="H135" t="n">
-        <v>0.186312215408515</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-1.186710365962002</v>
-      </c>
-      <c r="J135" t="inlineStr">
+        <v>0.624073916115064</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9856,30 +9449,27 @@
         <v>125</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9161709685855326</v>
+        <v>0.9161802403790318</v>
       </c>
       <c r="C136" t="n">
-        <v>0.002261973186875156</v>
+        <v>0.001078019844408058</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.186820647904797</v>
+        <v>-1.186774132225347</v>
       </c>
       <c r="E136" t="n">
-        <v>0.001648898330839087</v>
+        <v>0.001043381267189409</v>
       </c>
       <c r="F136" t="n">
         <v>125</v>
       </c>
       <c r="G136" t="n">
-        <v>124.719</v>
+        <v>124.705</v>
       </c>
       <c r="H136" t="n">
-        <v>0.215817993275089</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-1.186820647904797</v>
-      </c>
-      <c r="J136" t="inlineStr">
+        <v>0.101942526494804</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9890,30 +9480,27 @@
         <v>125</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9161802403790318</v>
+        <v>0.9161709685855326</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001078019844408058</v>
+        <v>0.002261973186875156</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.186774132225347</v>
+        <v>-1.186820647904797</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001043381267189409</v>
+        <v>0.001648898330839087</v>
       </c>
       <c r="F137" t="n">
         <v>125</v>
       </c>
       <c r="G137" t="n">
-        <v>124.705</v>
+        <v>124.719</v>
       </c>
       <c r="H137" t="n">
-        <v>0.101942526494804</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-1.186774132225347</v>
-      </c>
-      <c r="J137" t="inlineStr">
+        <v>0.215817993275089</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9924,30 +9511,27 @@
         <v>125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9156005847838052</v>
+        <v>0.9163709886390076</v>
       </c>
       <c r="C138" t="n">
-        <v>0.00629216162102221</v>
+        <v>0.001858252007213771</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.187158541512341</v>
+        <v>-1.186710365962002</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004226891150804468</v>
+        <v>0.001496902258416641</v>
       </c>
       <c r="F138" t="n">
         <v>125</v>
       </c>
       <c r="G138" t="n">
-        <v>124.745</v>
+        <v>124.848</v>
       </c>
       <c r="H138" t="n">
-        <v>0.624073916115064</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-1.187158541512341</v>
-      </c>
-      <c r="J138" t="inlineStr">
+        <v>0.186312215408515</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9958,30 +9542,27 @@
         <v>125</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9164746491661087</v>
+        <v>0.9162484054918366</v>
       </c>
       <c r="C139" t="n">
-        <v>0.003779180210274635</v>
+        <v>0.003463416466368283</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.186624936693005</v>
+        <v>-1.186780988970187</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002447437681520747</v>
+        <v>0.002384775009633334</v>
       </c>
       <c r="F139" t="n">
         <v>125</v>
       </c>
       <c r="G139" t="n">
-        <v>125.114</v>
+        <v>125.483</v>
       </c>
       <c r="H139" t="n">
-        <v>0.372609921687144</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-1.186624936693005</v>
-      </c>
-      <c r="J139" t="inlineStr">
+        <v>0.317307755504802</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -9992,30 +9573,27 @@
         <v>125</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9161927095137331</v>
+        <v>0.916333622678056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.002937335903084928</v>
+        <v>0.002215986416729693</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.186931408591655</v>
+        <v>-1.186701620199536</v>
       </c>
       <c r="E140" t="n">
-        <v>0.002101995547004868</v>
+        <v>0.001586176754005291</v>
       </c>
       <c r="F140" t="n">
         <v>125</v>
       </c>
       <c r="G140" t="n">
-        <v>125.565</v>
+        <v>124.811</v>
       </c>
       <c r="H140" t="n">
-        <v>0.284963460948001</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-1.186931408591655</v>
-      </c>
-      <c r="J140" t="inlineStr">
+        <v>0.214048217231555</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10026,30 +9604,27 @@
         <v>125</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9165779630276262</v>
+        <v>0.9161959483144212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.003332264510477786</v>
+        <v>0.004993590101270004</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.186580235218716</v>
+        <v>-1.186773062639309</v>
       </c>
       <c r="E141" t="n">
-        <v>0.002211429058380542</v>
+        <v>0.00334335803521617</v>
       </c>
       <c r="F141" t="n">
         <v>125</v>
       </c>
       <c r="G141" t="n">
-        <v>124.849</v>
+        <v>124.888</v>
       </c>
       <c r="H141" t="n">
-        <v>0.255831935996893</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-1.186580235218716</v>
-      </c>
-      <c r="J141" t="inlineStr">
+        <v>0.500056445885356</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10060,30 +9635,27 @@
         <v>160</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8540664710598472</v>
+        <v>0.8537166402900869</v>
       </c>
       <c r="C142" t="n">
-        <v>0.002056983411368044</v>
+        <v>0.003446057772278755</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.518727038605024</v>
+        <v>-1.518937567689745</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001467534337048641</v>
+        <v>0.002234983390651338</v>
       </c>
       <c r="F142" t="n">
         <v>160</v>
       </c>
       <c r="G142" t="n">
-        <v>126.517</v>
+        <v>126.716</v>
       </c>
       <c r="H142" t="n">
-        <v>0.20312588992399</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-1.518727038605024</v>
-      </c>
-      <c r="J142" t="inlineStr">
+        <v>0.394998860209947</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10094,30 +9666,27 @@
         <v>160</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8534848452334569</v>
+        <v>0.8539019817307391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003309736205381312</v>
+        <v>0.002257198237017802</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.519087181449516</v>
+        <v>-1.518823543825993</v>
       </c>
       <c r="E143" t="n">
-        <v>0.002091765282029701</v>
+        <v>0.001586237453220688</v>
       </c>
       <c r="F143" t="n">
         <v>160</v>
       </c>
       <c r="G143" t="n">
-        <v>126.622</v>
+        <v>126.52</v>
       </c>
       <c r="H143" t="n">
-        <v>0.354662509289587</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-1.519087181449516</v>
-      </c>
-      <c r="J143" t="inlineStr">
+        <v>0.246571485972701</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10128,30 +9697,27 @@
         <v>160</v>
       </c>
       <c r="B144" t="n">
-        <v>0.853751444335992</v>
+        <v>0.8537275993475835</v>
       </c>
       <c r="C144" t="n">
-        <v>0.003030265346808853</v>
+        <v>0.002284561191862455</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.518925884532245</v>
+        <v>-1.518931350802526</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001780205997926938</v>
+        <v>0.001523422752610095</v>
       </c>
       <c r="F144" t="n">
         <v>160</v>
       </c>
       <c r="G144" t="n">
-        <v>127.033</v>
+        <v>126.848</v>
       </c>
       <c r="H144" t="n">
-        <v>0.324193442090004</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-1.518925884532245</v>
-      </c>
-      <c r="J144" t="inlineStr">
+        <v>0.239366337199363</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10162,30 +9728,27 @@
         <v>160</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8539045660047971</v>
+        <v>0.8540196889231098</v>
       </c>
       <c r="C145" t="n">
-        <v>0.002531695193224192</v>
+        <v>0.0019802064760506</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.518819918207938</v>
+        <v>-1.518758754548577</v>
       </c>
       <c r="E145" t="n">
-        <v>0.001703073843978293</v>
+        <v>0.001522579243566783</v>
       </c>
       <c r="F145" t="n">
         <v>160</v>
       </c>
       <c r="G145" t="n">
-        <v>126.754</v>
+        <v>127.202</v>
       </c>
       <c r="H145" t="n">
-        <v>0.28909449313744</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-1.518819918207938</v>
-      </c>
-      <c r="J145" t="inlineStr">
+        <v>0.192098285068366</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10196,30 +9759,27 @@
         <v>160</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8538077921184046</v>
+        <v>0.8538386783932411</v>
       </c>
       <c r="C146" t="n">
-        <v>0.003583659908347265</v>
+        <v>0.001718364193307598</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.518904461856806</v>
+        <v>-1.518838544036293</v>
       </c>
       <c r="E146" t="n">
-        <v>0.002233161178730343</v>
+        <v>0.00133548853390024</v>
       </c>
       <c r="F146" t="n">
         <v>160</v>
       </c>
       <c r="G146" t="n">
-        <v>126.726</v>
+        <v>126.625</v>
       </c>
       <c r="H146" t="n">
-        <v>0.396705597323135</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-1.518904461856806</v>
-      </c>
-      <c r="J146" t="inlineStr">
+        <v>0.17577088995927</v>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10230,30 +9790,27 @@
         <v>160</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8540196889231098</v>
+        <v>0.8539045660047971</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0019802064760506</v>
+        <v>0.002531695193224192</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.518758754548577</v>
+        <v>-1.518819918207938</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001522579243566783</v>
+        <v>0.001703073843978293</v>
       </c>
       <c r="F147" t="n">
         <v>160</v>
       </c>
       <c r="G147" t="n">
-        <v>127.202</v>
+        <v>126.754</v>
       </c>
       <c r="H147" t="n">
-        <v>0.192098285068366</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-1.518758754548577</v>
-      </c>
-      <c r="J147" t="inlineStr">
+        <v>0.28909449313744</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10264,30 +9821,27 @@
         <v>160</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8537275993475835</v>
+        <v>0.853751444335992</v>
       </c>
       <c r="C148" t="n">
-        <v>0.002284561191862455</v>
+        <v>0.003030265346808853</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.518931350802526</v>
+        <v>-1.518925884532245</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001523422752610095</v>
+        <v>0.001780205997926938</v>
       </c>
       <c r="F148" t="n">
         <v>160</v>
       </c>
       <c r="G148" t="n">
-        <v>126.848</v>
+        <v>127.033</v>
       </c>
       <c r="H148" t="n">
-        <v>0.239366337199363</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-1.518931350802526</v>
-      </c>
-      <c r="J148" t="inlineStr">
+        <v>0.324193442090004</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10298,30 +9852,27 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8538386783932411</v>
+        <v>0.8534848452334569</v>
       </c>
       <c r="C149" t="n">
-        <v>0.001718364193307598</v>
+        <v>0.003309736205381312</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.518838544036293</v>
+        <v>-1.519087181449516</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00133548853390024</v>
+        <v>0.002091765282029701</v>
       </c>
       <c r="F149" t="n">
         <v>160</v>
       </c>
       <c r="G149" t="n">
-        <v>126.625</v>
+        <v>126.622</v>
       </c>
       <c r="H149" t="n">
-        <v>0.17577088995927</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-1.518838544036293</v>
-      </c>
-      <c r="J149" t="inlineStr">
+        <v>0.354662509289587</v>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10332,30 +9883,27 @@
         <v>160</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8537166402900869</v>
+        <v>0.8540664710598472</v>
       </c>
       <c r="C150" t="n">
-        <v>0.003446057772278755</v>
+        <v>0.002056983411368044</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.518937567689745</v>
+        <v>-1.518727038605024</v>
       </c>
       <c r="E150" t="n">
-        <v>0.002234983390651338</v>
+        <v>0.001467534337048641</v>
       </c>
       <c r="F150" t="n">
         <v>160</v>
       </c>
       <c r="G150" t="n">
-        <v>126.716</v>
+        <v>126.517</v>
       </c>
       <c r="H150" t="n">
-        <v>0.394998860209947</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-1.518937567689745</v>
-      </c>
-      <c r="J150" t="inlineStr">
+        <v>0.20312588992399</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10366,30 +9914,27 @@
         <v>160</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8539019817307391</v>
+        <v>0.8538077921184046</v>
       </c>
       <c r="C151" t="n">
-        <v>0.002257198237017802</v>
+        <v>0.003583659908347265</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.518823543825993</v>
+        <v>-1.518904461856806</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001586237453220688</v>
+        <v>0.002233161178730343</v>
       </c>
       <c r="F151" t="n">
         <v>160</v>
       </c>
       <c r="G151" t="n">
-        <v>126.52</v>
+        <v>126.726</v>
       </c>
       <c r="H151" t="n">
-        <v>0.246571485972701</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-1.518823543825993</v>
-      </c>
-      <c r="J151" t="inlineStr">
+        <v>0.396705597323135</v>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10400,30 +9945,27 @@
         <v>200</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7673586675447344</v>
+        <v>0.7682038651522488</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00237073113573666</v>
+        <v>0.002290703078664681</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.899057307546973</v>
+        <v>-1.898589827761933</v>
       </c>
       <c r="E152" t="n">
-        <v>0.001692019737089502</v>
+        <v>0.001520103519535235</v>
       </c>
       <c r="F152" t="n">
         <v>200</v>
       </c>
       <c r="G152" t="n">
-        <v>126.345</v>
+        <v>126.591</v>
       </c>
       <c r="H152" t="n">
-        <v>0.222755358151639</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-1.899057307546973</v>
-      </c>
-      <c r="J152" t="inlineStr">
+        <v>0.237662403228966</v>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10434,30 +9976,27 @@
         <v>200</v>
       </c>
       <c r="B153" t="n">
-        <v>0.76774626200166</v>
+        <v>0.7674482686022198</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001870591969119206</v>
+        <v>0.003505335079692655</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.898878061643849</v>
+        <v>-1.899042664673275</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001404387150902915</v>
+        <v>0.002230262151081557</v>
       </c>
       <c r="F153" t="n">
         <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>126.547</v>
+        <v>126.722</v>
       </c>
       <c r="H153" t="n">
-        <v>0.231659276413865</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-1.898878061643849</v>
-      </c>
-      <c r="J153" t="inlineStr">
+        <v>0.421107313409021</v>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10468,30 +10007,27 @@
         <v>200</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7678182702325892</v>
+        <v>0.7677683733378668</v>
       </c>
       <c r="C154" t="n">
-        <v>0.001175411444443341</v>
+        <v>0.002418982693815641</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.898816833625994</v>
+        <v>-1.898864387823961</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001058605468619985</v>
+        <v>0.001583394665957081</v>
       </c>
       <c r="F154" t="n">
         <v>200</v>
       </c>
       <c r="G154" t="n">
-        <v>126.347</v>
+        <v>126.703</v>
       </c>
       <c r="H154" t="n">
-        <v>0.134225556778271</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-1.898816833625994</v>
-      </c>
-      <c r="J154" t="inlineStr">
+        <v>0.314924497437384</v>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10502,30 +10038,27 @@
         <v>200</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7675176941755193</v>
+        <v>0.7677624394224872</v>
       </c>
       <c r="C155" t="n">
-        <v>0.002567165576306638</v>
+        <v>0.001410843045374895</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.899003934365898</v>
+        <v>-1.898836092833925</v>
       </c>
       <c r="E155" t="n">
-        <v>0.001666186245253762</v>
+        <v>0.001184120961817424</v>
       </c>
       <c r="F155" t="n">
         <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>127.047</v>
+        <v>126.179</v>
       </c>
       <c r="H155" t="n">
-        <v>0.269062985584301</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-1.899003934365898</v>
-      </c>
-      <c r="J155" t="inlineStr">
+        <v>0.178831140683067</v>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10536,30 +10069,27 @@
         <v>200</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7674007994372982</v>
+        <v>0.7672834720240541</v>
       </c>
       <c r="C156" t="n">
-        <v>0.002740902713847036</v>
+        <v>0.004057882353452721</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.899080665398786</v>
+        <v>-1.89914176301677</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001796712524865338</v>
+        <v>0.00250971414411737</v>
       </c>
       <c r="F156" t="n">
         <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>126.436</v>
+        <v>126.634</v>
       </c>
       <c r="H156" t="n">
-        <v>0.286592794241622</v>
-      </c>
-      <c r="I156" t="n">
-        <v>-1.899080665398786</v>
-      </c>
-      <c r="J156" t="inlineStr">
+        <v>0.45752707883284</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10570,30 +10100,27 @@
         <v>200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7677624394224872</v>
+        <v>0.7675176941755193</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001410843045374895</v>
+        <v>0.002567165576306638</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.898836092833925</v>
+        <v>-1.899003934365898</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001184120961817424</v>
+        <v>0.001666186245253762</v>
       </c>
       <c r="F157" t="n">
         <v>200</v>
       </c>
       <c r="G157" t="n">
-        <v>126.179</v>
+        <v>127.047</v>
       </c>
       <c r="H157" t="n">
-        <v>0.178831140683067</v>
-      </c>
-      <c r="I157" t="n">
-        <v>-1.898836092833925</v>
-      </c>
-      <c r="J157" t="inlineStr">
+        <v>0.269062985584301</v>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10604,30 +10131,27 @@
         <v>200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7677683733378668</v>
+        <v>0.7678182702325892</v>
       </c>
       <c r="C158" t="n">
-        <v>0.002418982693815641</v>
+        <v>0.001175411444443341</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.898864387823961</v>
+        <v>-1.898816833625994</v>
       </c>
       <c r="E158" t="n">
-        <v>0.001583394665957081</v>
+        <v>0.001058605468619985</v>
       </c>
       <c r="F158" t="n">
         <v>200</v>
       </c>
       <c r="G158" t="n">
-        <v>126.703</v>
+        <v>126.347</v>
       </c>
       <c r="H158" t="n">
-        <v>0.314924497437384</v>
-      </c>
-      <c r="I158" t="n">
-        <v>-1.898864387823961</v>
-      </c>
-      <c r="J158" t="inlineStr">
+        <v>0.134225556778271</v>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10638,30 +10162,27 @@
         <v>200</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7682038651522488</v>
+        <v>0.7673586675447344</v>
       </c>
       <c r="C159" t="n">
-        <v>0.002290703078664681</v>
+        <v>0.00237073113573666</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.898589827761933</v>
+        <v>-1.899057307546973</v>
       </c>
       <c r="E159" t="n">
-        <v>0.001520103519535235</v>
+        <v>0.001692019737089502</v>
       </c>
       <c r="F159" t="n">
         <v>200</v>
       </c>
       <c r="G159" t="n">
-        <v>126.591</v>
+        <v>126.345</v>
       </c>
       <c r="H159" t="n">
-        <v>0.237662403228966</v>
-      </c>
-      <c r="I159" t="n">
-        <v>-1.898589827761933</v>
-      </c>
-      <c r="J159" t="inlineStr">
+        <v>0.222755358151639</v>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10672,30 +10193,27 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7672834720240541</v>
+        <v>0.7674007994372982</v>
       </c>
       <c r="C160" t="n">
-        <v>0.004057882353452721</v>
+        <v>0.002740902713847036</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.89914176301677</v>
+        <v>-1.899080665398786</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00250971414411737</v>
+        <v>0.001796712524865338</v>
       </c>
       <c r="F160" t="n">
         <v>200</v>
       </c>
       <c r="G160" t="n">
-        <v>126.634</v>
+        <v>126.436</v>
       </c>
       <c r="H160" t="n">
-        <v>0.45752707883284</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-1.89914176301677</v>
-      </c>
-      <c r="J160" t="inlineStr">
+        <v>0.286592794241622</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10706,30 +10224,27 @@
         <v>200</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7674482686022198</v>
+        <v>0.76774626200166</v>
       </c>
       <c r="C161" t="n">
-        <v>0.003505335079692655</v>
+        <v>0.001870591969119206</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.899042664673275</v>
+        <v>-1.898878061643849</v>
       </c>
       <c r="E161" t="n">
-        <v>0.002230262151081557</v>
+        <v>0.001404387150902915</v>
       </c>
       <c r="F161" t="n">
         <v>200</v>
       </c>
       <c r="G161" t="n">
-        <v>126.722</v>
+        <v>126.547</v>
       </c>
       <c r="H161" t="n">
-        <v>0.421107313409021</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-1.899042664673275</v>
-      </c>
-      <c r="J161" t="inlineStr">
+        <v>0.231659276413865</v>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10740,30 +10255,27 @@
         <v>250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6438774804572911</v>
+        <v>0.643647877621464</v>
       </c>
       <c r="C162" t="n">
-        <v>0.002294288891974608</v>
+        <v>0.001697115123052046</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.373437763512482</v>
+        <v>-2.373597696771729</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0017886046419506</v>
+        <v>0.001571001824718288</v>
       </c>
       <c r="F162" t="n">
         <v>250</v>
       </c>
       <c r="G162" t="n">
-        <v>126.356</v>
+        <v>126.107</v>
       </c>
       <c r="H162" t="n">
-        <v>0.339178903187766</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-2.373437763512482</v>
-      </c>
-      <c r="J162" t="inlineStr">
+        <v>0.207886793909562</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10774,30 +10286,27 @@
         <v>250</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6440538802373571</v>
+        <v>0.644136441947274</v>
       </c>
       <c r="C163" t="n">
-        <v>0.002550174647580746</v>
+        <v>0.001624745426498554</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.373321900953357</v>
+        <v>-2.37325950540645</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001924183900871986</v>
+        <v>0.001480105326754935</v>
       </c>
       <c r="F163" t="n">
         <v>250</v>
       </c>
       <c r="G163" t="n">
-        <v>126.635</v>
+        <v>126.001</v>
       </c>
       <c r="H163" t="n">
-        <v>0.370617894134587</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-2.373321900953357</v>
-      </c>
-      <c r="J163" t="inlineStr">
+        <v>0.194165422532447</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10808,30 +10317,27 @@
         <v>250</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6439495957148142</v>
+        <v>0.644298778778711</v>
       </c>
       <c r="C164" t="n">
-        <v>0.00203674961314073</v>
+        <v>0.003358232957458336</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.373392370945519</v>
+        <v>-2.373180416349297</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001578049107048324</v>
+        <v>0.002315092903704753</v>
       </c>
       <c r="F164" t="n">
         <v>250</v>
       </c>
       <c r="G164" t="n">
-        <v>125.757</v>
+        <v>125.886</v>
       </c>
       <c r="H164" t="n">
-        <v>0.271412840631505</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-2.373392370945519</v>
-      </c>
-      <c r="J164" t="inlineStr">
+        <v>0.425513417690816</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10842,30 +10348,27 @@
         <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.643647877621464</v>
+        <v>0.6438666362961364</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001697115123052046</v>
+        <v>0.002612594634655217</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.373597696771729</v>
+        <v>-2.373449453611761</v>
       </c>
       <c r="E165" t="n">
-        <v>0.001571001824718288</v>
+        <v>0.001918496511894563</v>
       </c>
       <c r="F165" t="n">
         <v>250</v>
       </c>
       <c r="G165" t="n">
-        <v>126.107</v>
+        <v>125.958</v>
       </c>
       <c r="H165" t="n">
-        <v>0.207886793909562</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-2.373597696771729</v>
-      </c>
-      <c r="J165" t="inlineStr">
+        <v>0.380700896151338</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10876,30 +10379,27 @@
         <v>250</v>
       </c>
       <c r="B166" t="n">
-        <v>0.644136441947274</v>
+        <v>0.6439375518524958</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001624745426498554</v>
+        <v>0.002789662966514157</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.37325950540645</v>
+        <v>-2.373395375307986</v>
       </c>
       <c r="E166" t="n">
-        <v>0.001480105326754935</v>
+        <v>0.002096893840901229</v>
       </c>
       <c r="F166" t="n">
         <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>126.001</v>
+        <v>125.973</v>
       </c>
       <c r="H166" t="n">
-        <v>0.194165422532447</v>
-      </c>
-      <c r="I166" t="n">
-        <v>-2.37325950540645</v>
-      </c>
-      <c r="J166" t="inlineStr">
+        <v>0.417120400719826</v>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10910,30 +10410,27 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>0.644298778778711</v>
+        <v>0.6437934038996345</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003358232957458336</v>
+        <v>0.001498620077091551</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.373180416349297</v>
+        <v>-2.373483785676584</v>
       </c>
       <c r="E167" t="n">
-        <v>0.002315092903704753</v>
+        <v>0.001479318219216294</v>
       </c>
       <c r="F167" t="n">
         <v>250</v>
       </c>
       <c r="G167" t="n">
-        <v>125.886</v>
+        <v>126.246</v>
       </c>
       <c r="H167" t="n">
-        <v>0.425513417690816</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-2.373180416349297</v>
-      </c>
-      <c r="J167" t="inlineStr">
+        <v>0.191767424016524</v>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10944,30 +10441,27 @@
         <v>250</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6438666362961364</v>
+        <v>0.6438774804572911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.002612594634655217</v>
+        <v>0.002294288891974608</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.373449453611761</v>
+        <v>-2.373437763512482</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001918496511894563</v>
+        <v>0.0017886046419506</v>
       </c>
       <c r="F168" t="n">
         <v>250</v>
       </c>
       <c r="G168" t="n">
-        <v>125.958</v>
+        <v>126.356</v>
       </c>
       <c r="H168" t="n">
-        <v>0.380700896151338</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-2.373449453611761</v>
-      </c>
-      <c r="J168" t="inlineStr">
+        <v>0.339178903187766</v>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -10978,30 +10472,27 @@
         <v>250</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6439375518524958</v>
+        <v>0.6440538802373571</v>
       </c>
       <c r="C169" t="n">
-        <v>0.002789662966514157</v>
+        <v>0.002550174647580746</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.373395375307986</v>
+        <v>-2.373321900953357</v>
       </c>
       <c r="E169" t="n">
-        <v>0.002096893840901229</v>
+        <v>0.001924183900871986</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
       </c>
       <c r="G169" t="n">
-        <v>125.973</v>
+        <v>126.635</v>
       </c>
       <c r="H169" t="n">
-        <v>0.417120400719826</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-2.373395375307986</v>
-      </c>
-      <c r="J169" t="inlineStr">
+        <v>0.370617894134587</v>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -11012,30 +10503,27 @@
         <v>250</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6437934038996345</v>
+        <v>0.6439495957148142</v>
       </c>
       <c r="C170" t="n">
-        <v>0.001498620077091551</v>
+        <v>0.00203674961314073</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.373483785676584</v>
+        <v>-2.373392370945519</v>
       </c>
       <c r="E170" t="n">
-        <v>0.001479318219216294</v>
+        <v>0.001578049107048324</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>126.246</v>
+        <v>125.757</v>
       </c>
       <c r="H170" t="n">
-        <v>0.191767424016524</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-2.373483785676584</v>
-      </c>
-      <c r="J170" t="inlineStr">
+        <v>0.271412840631505</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
@@ -11066,16 +10554,13 @@
       <c r="H171" t="n">
         <v>0.126755357843512</v>
       </c>
-      <c r="I171" t="n">
-        <v>-2.373280389812181</v>
-      </c>
-      <c r="J171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>PTB</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CEM" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -10561,6 +10561,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CEM" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -10561,6 +10561,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/All_datasets.xlsx
+++ b/All_datasets.xlsx
@@ -437,42 +437,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frequency [Hz]</t>
+          <t>Frequency in Hz</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$x_{M},$ [m s^-2/m s^-2]</t>
+          <t>$|S(\omega)|$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$U_{M},$ [m s^-2/m s^-2]</t>
+          <t>$U_{|S(\omega)|}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>$x_{\phi},$ [rad]</t>
+          <t>$\varphi(\omega)$ in $rad$</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$U_{\phi},$ [rad]</t>
+          <t>$U_{\varphi(\omega)}$ in $rad$</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_freq [Hz]</t>
+          <t>Excitation_freq in Hz</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
+          <t>$A_{excit}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
+          <t>$U_{Aexcit}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -5246,42 +5246,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frequency [Hz]</t>
+          <t>Frequency in Hz</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$x_{M},$ [m s^-2/m s^-2]</t>
+          <t>$|S(\omega)|$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$U_{M},$ [m s^-2/m s^-2]</t>
+          <t>$U_{|S(\omega)|}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>$x_{\phi},$ [rad]</t>
+          <t>$\varphi(\omega)$ in $rad$</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$U_{\phi},$ [rad]</t>
+          <t>$U_{\varphi(\omega)}$ in $rad$</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Excitation_freq [Hz]</t>
+          <t>Excitation_freq in Hz</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>$x_{Aexcit},$ [m s^-2/m s^-2]</t>
+          <t>$A_{excit}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>$U_{Aexcit},$ [m s^-2/m s^-2]</t>
+          <t>$U_{Aexcit}$ in $ \frac{\mathrm{m s}^-2}{\mathrm{m s}^-2}$</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
